--- a/AAII_Financials/Quarterly/MITSY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MITSY_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>MITSY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,210 +665,222 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="17" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>16205200</v>
+        <v>15709800</v>
       </c>
       <c r="E8" s="3">
-        <v>16163100</v>
+        <v>16561800</v>
       </c>
       <c r="F8" s="3">
-        <v>14845100</v>
+        <v>16518700</v>
       </c>
       <c r="G8" s="3">
-        <v>17676000</v>
+        <v>15171700</v>
       </c>
       <c r="H8" s="3">
-        <v>16358600</v>
+        <v>18064900</v>
       </c>
       <c r="I8" s="3">
-        <v>15063400</v>
+        <v>16718500</v>
       </c>
       <c r="J8" s="3">
+        <v>15394900</v>
+      </c>
+      <c r="K8" s="3">
         <v>14145800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11201800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11381200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10959900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10682200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>10539300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>10144100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>8977900</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>14276000</v>
+        <v>13861100</v>
       </c>
       <c r="E9" s="3">
-        <v>14172700</v>
+        <v>14590100</v>
       </c>
       <c r="F9" s="3">
-        <v>12943200</v>
+        <v>14484600</v>
       </c>
       <c r="G9" s="3">
-        <v>15809000</v>
+        <v>13227900</v>
       </c>
       <c r="H9" s="3">
-        <v>14455500</v>
+        <v>16156800</v>
       </c>
       <c r="I9" s="3">
-        <v>13197600</v>
+        <v>14773600</v>
       </c>
       <c r="J9" s="3">
+        <v>13487900</v>
+      </c>
+      <c r="K9" s="3">
         <v>12160100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>9567400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>9519200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>9110700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>8879700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>8666700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>8528400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>7541800</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1929200</v>
+        <v>1848700</v>
       </c>
       <c r="E10" s="3">
-        <v>1990300</v>
+        <v>1971700</v>
       </c>
       <c r="F10" s="3">
-        <v>1901900</v>
+        <v>2034100</v>
       </c>
       <c r="G10" s="3">
-        <v>1867000</v>
+        <v>1943800</v>
       </c>
       <c r="H10" s="3">
-        <v>1903100</v>
+        <v>1908100</v>
       </c>
       <c r="I10" s="3">
-        <v>1865900</v>
+        <v>1945000</v>
       </c>
       <c r="J10" s="3">
+        <v>1906900</v>
+      </c>
+      <c r="K10" s="3">
         <v>1985700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1634400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1861900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1849100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1802500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1872600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1615700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1436100</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -886,8 +898,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -933,8 +946,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -980,55 +996,61 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>81900</v>
+        <v>921600</v>
       </c>
       <c r="E14" s="3">
-        <v>8200</v>
+        <v>83700</v>
       </c>
       <c r="F14" s="3">
-        <v>15400</v>
+        <v>8400</v>
       </c>
       <c r="G14" s="3">
-        <v>213200</v>
+        <v>15700</v>
       </c>
       <c r="H14" s="3">
-        <v>19900</v>
+        <v>217900</v>
       </c>
       <c r="I14" s="3">
-        <v>3700</v>
+        <v>20300</v>
       </c>
       <c r="J14" s="3">
+        <v>3800</v>
+      </c>
+      <c r="K14" s="3">
         <v>8900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>59600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>91800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>67000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>11600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>48200</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1074,8 +1096,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1090,102 +1115,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>15637500</v>
+        <v>15803100</v>
       </c>
       <c r="E17" s="3">
-        <v>15411600</v>
+        <v>15981500</v>
       </c>
       <c r="F17" s="3">
-        <v>14102000</v>
+        <v>15750700</v>
       </c>
       <c r="G17" s="3">
-        <v>17426100</v>
+        <v>14412300</v>
       </c>
       <c r="H17" s="3">
-        <v>15703400</v>
+        <v>17809500</v>
       </c>
       <c r="I17" s="3">
-        <v>14481800</v>
+        <v>16048900</v>
       </c>
       <c r="J17" s="3">
+        <v>14800500</v>
+      </c>
+      <c r="K17" s="3">
         <v>13271100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>11108400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10721200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>10139700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9954000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9794000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>9291500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8516000</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>567700</v>
+        <v>-93300</v>
       </c>
       <c r="E18" s="3">
-        <v>751400</v>
+        <v>580200</v>
       </c>
       <c r="F18" s="3">
-        <v>743000</v>
+        <v>768000</v>
       </c>
       <c r="G18" s="3">
-        <v>249900</v>
+        <v>759400</v>
       </c>
       <c r="H18" s="3">
-        <v>655200</v>
+        <v>255400</v>
       </c>
       <c r="I18" s="3">
-        <v>581600</v>
+        <v>669600</v>
       </c>
       <c r="J18" s="3">
+        <v>594400</v>
+      </c>
+      <c r="K18" s="3">
         <v>874700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>93400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>660000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>820200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>728200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>745300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>852600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>461900</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1203,243 +1235,259 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1022000</v>
+        <v>866700</v>
       </c>
       <c r="E20" s="3">
-        <v>790600</v>
+        <v>1044500</v>
       </c>
       <c r="F20" s="3">
-        <v>1040100</v>
+        <v>808000</v>
       </c>
       <c r="G20" s="3">
-        <v>897800</v>
+        <v>1063000</v>
       </c>
       <c r="H20" s="3">
-        <v>1003600</v>
+        <v>917600</v>
       </c>
       <c r="I20" s="3">
-        <v>961100</v>
+        <v>1025700</v>
       </c>
       <c r="J20" s="3">
+        <v>982200</v>
+      </c>
+      <c r="K20" s="3">
         <v>815900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>682600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>963900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>765600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>808400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>451900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>662000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>545900</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2188900</v>
+        <v>1430600</v>
       </c>
       <c r="E21" s="3">
-        <v>2077900</v>
+        <v>2237000</v>
       </c>
       <c r="F21" s="3">
-        <v>2333400</v>
+        <v>2123600</v>
       </c>
       <c r="G21" s="3">
-        <v>1616900</v>
+        <v>2384700</v>
       </c>
       <c r="H21" s="3">
-        <v>2085000</v>
+        <v>1652500</v>
       </c>
       <c r="I21" s="3">
-        <v>1945000</v>
+        <v>2130800</v>
       </c>
       <c r="J21" s="3">
+        <v>1987800</v>
+      </c>
+      <c r="K21" s="3">
         <v>2086700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1189800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2072700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2035100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1965600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1607200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1947400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1446600</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>204600</v>
+        <v>188200</v>
       </c>
       <c r="E22" s="3">
-        <v>210200</v>
+        <v>209100</v>
       </c>
       <c r="F22" s="3">
-        <v>216000</v>
+        <v>214800</v>
       </c>
       <c r="G22" s="3">
-        <v>183900</v>
+        <v>220700</v>
       </c>
       <c r="H22" s="3">
-        <v>184500</v>
+        <v>187900</v>
       </c>
       <c r="I22" s="3">
-        <v>187600</v>
+        <v>188500</v>
       </c>
       <c r="J22" s="3">
+        <v>191700</v>
+      </c>
+      <c r="K22" s="3">
         <v>172300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>149100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>150300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>156500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>145100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>140900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>133700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>118100</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1385200</v>
+        <v>585300</v>
       </c>
       <c r="E23" s="3">
-        <v>1331900</v>
+        <v>1415700</v>
       </c>
       <c r="F23" s="3">
-        <v>1567100</v>
+        <v>1361200</v>
       </c>
       <c r="G23" s="3">
-        <v>963900</v>
+        <v>1601600</v>
       </c>
       <c r="H23" s="3">
-        <v>1474400</v>
+        <v>985100</v>
       </c>
       <c r="I23" s="3">
-        <v>1355100</v>
+        <v>1506800</v>
       </c>
       <c r="J23" s="3">
+        <v>1384900</v>
+      </c>
+      <c r="K23" s="3">
         <v>1518300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>626900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1473600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1429300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1391500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1056300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1380900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>889700</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>408200</v>
+        <v>93300</v>
       </c>
       <c r="E24" s="3">
-        <v>277700</v>
+        <v>417100</v>
       </c>
       <c r="F24" s="3">
-        <v>341000</v>
+        <v>283800</v>
       </c>
       <c r="G24" s="3">
-        <v>376400</v>
+        <v>348600</v>
       </c>
       <c r="H24" s="3">
-        <v>278300</v>
+        <v>384700</v>
       </c>
       <c r="I24" s="3">
-        <v>359400</v>
+        <v>284400</v>
       </c>
       <c r="J24" s="3">
+        <v>367300</v>
+      </c>
+      <c r="K24" s="3">
         <v>372800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>201200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>158300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>234300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>338000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>320800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>367600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>316000</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1485,102 +1533,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>977000</v>
+        <v>492100</v>
       </c>
       <c r="E26" s="3">
-        <v>1054200</v>
+        <v>998500</v>
       </c>
       <c r="F26" s="3">
-        <v>1226100</v>
+        <v>1077400</v>
       </c>
       <c r="G26" s="3">
-        <v>587500</v>
+        <v>1253100</v>
       </c>
       <c r="H26" s="3">
-        <v>1196100</v>
+        <v>600400</v>
       </c>
       <c r="I26" s="3">
-        <v>995700</v>
+        <v>1222400</v>
       </c>
       <c r="J26" s="3">
+        <v>1017600</v>
+      </c>
+      <c r="K26" s="3">
         <v>1145500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>425700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1315300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1195000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1053500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>735500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1013300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>573700</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>917400</v>
+        <v>524300</v>
       </c>
       <c r="E27" s="3">
-        <v>991900</v>
+        <v>937600</v>
       </c>
       <c r="F27" s="3">
-        <v>1136600</v>
+        <v>1013700</v>
       </c>
       <c r="G27" s="3">
-        <v>583100</v>
+        <v>1161600</v>
       </c>
       <c r="H27" s="3">
-        <v>1156200</v>
+        <v>595900</v>
       </c>
       <c r="I27" s="3">
-        <v>949500</v>
+        <v>1181700</v>
       </c>
       <c r="J27" s="3">
+        <v>970400</v>
+      </c>
+      <c r="K27" s="3">
         <v>1076400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>376500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1252300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1153100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1001200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>672400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>961100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>539600</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1626,8 +1683,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1673,8 +1733,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1720,8 +1783,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1767,102 +1833,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1022000</v>
+        <v>-866700</v>
       </c>
       <c r="E32" s="3">
-        <v>-790600</v>
+        <v>-1044500</v>
       </c>
       <c r="F32" s="3">
-        <v>-1040100</v>
+        <v>-808000</v>
       </c>
       <c r="G32" s="3">
-        <v>-897800</v>
+        <v>-1063000</v>
       </c>
       <c r="H32" s="3">
-        <v>-1003600</v>
+        <v>-917600</v>
       </c>
       <c r="I32" s="3">
-        <v>-961100</v>
+        <v>-1025700</v>
       </c>
       <c r="J32" s="3">
+        <v>-982200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-815900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-682600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-963900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-765600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-808400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-451900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-662000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-545900</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>917400</v>
+        <v>524300</v>
       </c>
       <c r="E33" s="3">
-        <v>991900</v>
+        <v>937600</v>
       </c>
       <c r="F33" s="3">
-        <v>1136600</v>
+        <v>1013700</v>
       </c>
       <c r="G33" s="3">
-        <v>583100</v>
+        <v>1161600</v>
       </c>
       <c r="H33" s="3">
-        <v>1156200</v>
+        <v>595900</v>
       </c>
       <c r="I33" s="3">
-        <v>949500</v>
+        <v>1181700</v>
       </c>
       <c r="J33" s="3">
+        <v>970400</v>
+      </c>
+      <c r="K33" s="3">
         <v>1076400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>376500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1252300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1153100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1001200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>672400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>961100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>539600</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1908,107 +1983,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>917400</v>
+        <v>524300</v>
       </c>
       <c r="E35" s="3">
-        <v>991900</v>
+        <v>937600</v>
       </c>
       <c r="F35" s="3">
-        <v>1136600</v>
+        <v>1013700</v>
       </c>
       <c r="G35" s="3">
-        <v>583100</v>
+        <v>1161600</v>
       </c>
       <c r="H35" s="3">
-        <v>1156200</v>
+        <v>595900</v>
       </c>
       <c r="I35" s="3">
-        <v>949500</v>
+        <v>1181700</v>
       </c>
       <c r="J35" s="3">
+        <v>970400</v>
+      </c>
+      <c r="K35" s="3">
         <v>1076400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>376500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1252300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1153100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1001200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>672400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>961100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>539600</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2026,8 +2110,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2045,431 +2130,459 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8601000</v>
+        <v>9835600</v>
       </c>
       <c r="E41" s="3">
-        <v>10481000</v>
+        <v>8790200</v>
       </c>
       <c r="F41" s="3">
-        <v>8977800</v>
+        <v>10711600</v>
       </c>
       <c r="G41" s="3">
-        <v>8691000</v>
+        <v>9175400</v>
       </c>
       <c r="H41" s="3">
-        <v>8664800</v>
+        <v>8882200</v>
       </c>
       <c r="I41" s="3">
-        <v>9054500</v>
+        <v>8855400</v>
       </c>
       <c r="J41" s="3">
+        <v>9253700</v>
+      </c>
+      <c r="K41" s="3">
         <v>9683800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>10227700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>10936200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>10487600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>14312400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>13338900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>14063500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>13464600</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2995400</v>
+        <v>5229300</v>
       </c>
       <c r="E42" s="3">
-        <v>2677800</v>
+        <v>3061300</v>
       </c>
       <c r="F42" s="3">
-        <v>2731900</v>
+        <v>2736700</v>
       </c>
       <c r="G42" s="3">
-        <v>2313500</v>
+        <v>2792000</v>
       </c>
       <c r="H42" s="3">
-        <v>3134700</v>
+        <v>2364400</v>
       </c>
       <c r="I42" s="3">
-        <v>2807300</v>
+        <v>3203700</v>
       </c>
       <c r="J42" s="3">
+        <v>2869100</v>
+      </c>
+      <c r="K42" s="3">
         <v>2702600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2205000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>3030500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2627800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2445500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2374300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>3915400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>3786600</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>16530100</v>
+        <v>15073000</v>
       </c>
       <c r="E43" s="3">
-        <v>14748700</v>
+        <v>16893800</v>
       </c>
       <c r="F43" s="3">
-        <v>15795300</v>
+        <v>15073200</v>
       </c>
       <c r="G43" s="3">
-        <v>16400400</v>
+        <v>16142800</v>
       </c>
       <c r="H43" s="3">
-        <v>17120400</v>
+        <v>16761300</v>
       </c>
       <c r="I43" s="3">
-        <v>16208200</v>
+        <v>17497100</v>
       </c>
       <c r="J43" s="3">
+        <v>16564800</v>
+      </c>
+      <c r="K43" s="3">
         <v>15649400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>15964800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>17290200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>16461900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>14971500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>15428500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>15480700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>13205700</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>6269300</v>
+        <v>5145400</v>
       </c>
       <c r="E44" s="3">
-        <v>5826000</v>
+        <v>6407200</v>
       </c>
       <c r="F44" s="3">
-        <v>5855900</v>
+        <v>5954200</v>
       </c>
       <c r="G44" s="3">
-        <v>5523800</v>
+        <v>5984700</v>
       </c>
       <c r="H44" s="3">
-        <v>5730000</v>
+        <v>5645300</v>
       </c>
       <c r="I44" s="3">
-        <v>5703100</v>
+        <v>5856100</v>
       </c>
       <c r="J44" s="3">
+        <v>5828600</v>
+      </c>
+      <c r="K44" s="3">
         <v>5150500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4978300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5689100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>5718500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>5394500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>5229200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>5336700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4779400</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2935200</v>
+        <v>3032500</v>
       </c>
       <c r="E45" s="3">
-        <v>2878100</v>
+        <v>2999800</v>
       </c>
       <c r="F45" s="3">
-        <v>3215500</v>
+        <v>2941400</v>
       </c>
       <c r="G45" s="3">
-        <v>3397900</v>
+        <v>3286200</v>
       </c>
       <c r="H45" s="3">
-        <v>3569700</v>
+        <v>3472700</v>
       </c>
       <c r="I45" s="3">
-        <v>3516600</v>
+        <v>3648200</v>
       </c>
       <c r="J45" s="3">
+        <v>3593900</v>
+      </c>
+      <c r="K45" s="3">
         <v>3510500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4828700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4005100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3659200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3525900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3320100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3359700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2996000</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>37330900</v>
+        <v>38315900</v>
       </c>
       <c r="E46" s="3">
-        <v>36611600</v>
+        <v>38152300</v>
       </c>
       <c r="F46" s="3">
-        <v>36576400</v>
+        <v>37417200</v>
       </c>
       <c r="G46" s="3">
-        <v>36326600</v>
+        <v>37381200</v>
       </c>
       <c r="H46" s="3">
-        <v>38219600</v>
+        <v>37125800</v>
       </c>
       <c r="I46" s="3">
-        <v>37289700</v>
+        <v>39060600</v>
       </c>
       <c r="J46" s="3">
+        <v>38110200</v>
+      </c>
+      <c r="K46" s="3">
         <v>36696800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>38204500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>40951100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>38955000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>40649900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>39691000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>42156100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>38232400</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>50304100</v>
+        <v>46206700</v>
       </c>
       <c r="E47" s="3">
-        <v>48974700</v>
+        <v>51410900</v>
       </c>
       <c r="F47" s="3">
-        <v>50146500</v>
+        <v>50052300</v>
       </c>
       <c r="G47" s="3">
-        <v>50330700</v>
+        <v>51249900</v>
       </c>
       <c r="H47" s="3">
-        <v>46975800</v>
+        <v>51438100</v>
       </c>
       <c r="I47" s="3">
-        <v>48381900</v>
+        <v>48009300</v>
       </c>
       <c r="J47" s="3">
+        <v>49446400</v>
+      </c>
+      <c r="K47" s="3">
         <v>45792300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>44126500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>45878300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>44160100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>42595400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>41700800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>39980100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>35285000</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>22310100</v>
+        <v>22047100</v>
       </c>
       <c r="E48" s="3">
-        <v>21367400</v>
+        <v>22801000</v>
       </c>
       <c r="F48" s="3">
-        <v>21234400</v>
+        <v>21837500</v>
       </c>
       <c r="G48" s="3">
-        <v>19529700</v>
+        <v>21701600</v>
       </c>
       <c r="H48" s="3">
-        <v>19608100</v>
+        <v>19959400</v>
       </c>
       <c r="I48" s="3">
-        <v>19381100</v>
+        <v>20039500</v>
       </c>
       <c r="J48" s="3">
+        <v>19807500</v>
+      </c>
+      <c r="K48" s="3">
         <v>18394900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>17346400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>17820100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>18003700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>17903900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>17769100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>18403400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>16888800</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2146600</v>
+        <v>1814200</v>
       </c>
       <c r="E49" s="3">
-        <v>2162800</v>
+        <v>2193800</v>
       </c>
       <c r="F49" s="3">
-        <v>2213100</v>
+        <v>2210400</v>
       </c>
       <c r="G49" s="3">
-        <v>1582400</v>
+        <v>2261800</v>
       </c>
       <c r="H49" s="3">
-        <v>1679000</v>
+        <v>1617200</v>
       </c>
       <c r="I49" s="3">
-        <v>1572500</v>
+        <v>1715900</v>
       </c>
       <c r="J49" s="3">
+        <v>1607100</v>
+      </c>
+      <c r="K49" s="3">
         <v>1552500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1565800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1572800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1615000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1568500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1496200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1434400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1274500</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2515,8 +2628,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2562,55 +2678,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>848900</v>
+        <v>1296500</v>
       </c>
       <c r="E52" s="3">
-        <v>842200</v>
+        <v>867600</v>
       </c>
       <c r="F52" s="3">
-        <v>813400</v>
+        <v>860700</v>
       </c>
       <c r="G52" s="3">
-        <v>817700</v>
+        <v>831300</v>
       </c>
       <c r="H52" s="3">
-        <v>1024700</v>
+        <v>835700</v>
       </c>
       <c r="I52" s="3">
-        <v>1067900</v>
+        <v>1047300</v>
       </c>
       <c r="J52" s="3">
+        <v>1091400</v>
+      </c>
+      <c r="K52" s="3">
         <v>1002900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>969100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1006800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1169300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1357900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1356900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1432200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1287300</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2656,55 +2778,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>112940600</v>
+        <v>109680500</v>
       </c>
       <c r="E54" s="3">
-        <v>109958800</v>
+        <v>115425600</v>
       </c>
       <c r="F54" s="3">
-        <v>110983800</v>
+        <v>112378100</v>
       </c>
       <c r="G54" s="3">
-        <v>108587100</v>
+        <v>113425700</v>
       </c>
       <c r="H54" s="3">
-        <v>107507200</v>
+        <v>110976300</v>
       </c>
       <c r="I54" s="3">
-        <v>107693100</v>
+        <v>109872600</v>
       </c>
       <c r="J54" s="3">
+        <v>110062600</v>
+      </c>
+      <c r="K54" s="3">
         <v>103439500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>102212200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>107229100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>103903100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>104075500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>102014000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>103406200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>92968100</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2722,8 +2850,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2741,290 +2870,309 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>11744500</v>
+        <v>10558100</v>
       </c>
       <c r="E57" s="3">
-        <v>10727800</v>
+        <v>12002900</v>
       </c>
       <c r="F57" s="3">
-        <v>11462800</v>
+        <v>10963900</v>
       </c>
       <c r="G57" s="3">
-        <v>12019500</v>
+        <v>11715000</v>
       </c>
       <c r="H57" s="3">
-        <v>12727100</v>
+        <v>12283900</v>
       </c>
       <c r="I57" s="3">
-        <v>11769300</v>
+        <v>13007100</v>
       </c>
       <c r="J57" s="3">
+        <v>12028200</v>
+      </c>
+      <c r="K57" s="3">
         <v>11694800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>11429100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>12147200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>11328200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>10649200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>10676900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>10787700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>8887300</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6530400</v>
+        <v>6478500</v>
       </c>
       <c r="E58" s="3">
-        <v>7182900</v>
+        <v>6674000</v>
       </c>
       <c r="F58" s="3">
-        <v>8130200</v>
+        <v>7340900</v>
       </c>
       <c r="G58" s="3">
-        <v>7421200</v>
+        <v>8309000</v>
       </c>
       <c r="H58" s="3">
-        <v>7273600</v>
+        <v>7584500</v>
       </c>
       <c r="I58" s="3">
-        <v>6809700</v>
+        <v>7433600</v>
       </c>
       <c r="J58" s="3">
+        <v>6959600</v>
+      </c>
+      <c r="K58" s="3">
         <v>6294800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6184300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5829800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5542100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>6488500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>6146100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>7075800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>6388700</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6173200</v>
+        <v>8056700</v>
       </c>
       <c r="E59" s="3">
-        <v>5516400</v>
+        <v>6309000</v>
       </c>
       <c r="F59" s="3">
-        <v>5759800</v>
+        <v>5637700</v>
       </c>
       <c r="G59" s="3">
-        <v>5468400</v>
+        <v>5886500</v>
       </c>
       <c r="H59" s="3">
-        <v>6649000</v>
+        <v>5588700</v>
       </c>
       <c r="I59" s="3">
-        <v>6322600</v>
+        <v>6795300</v>
       </c>
       <c r="J59" s="3">
+        <v>6461800</v>
+      </c>
+      <c r="K59" s="3">
         <v>6059700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6783400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6711400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5826600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5765000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5564600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5821700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4722300</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>24448000</v>
+        <v>25093300</v>
       </c>
       <c r="E60" s="3">
-        <v>23427100</v>
+        <v>24985900</v>
       </c>
       <c r="F60" s="3">
-        <v>25352700</v>
+        <v>23942500</v>
       </c>
       <c r="G60" s="3">
-        <v>24909100</v>
+        <v>25910500</v>
       </c>
       <c r="H60" s="3">
-        <v>26649700</v>
+        <v>25457200</v>
       </c>
       <c r="I60" s="3">
-        <v>24901600</v>
+        <v>27236000</v>
       </c>
       <c r="J60" s="3">
+        <v>25449500</v>
+      </c>
+      <c r="K60" s="3">
         <v>24049300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>24396900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>24688500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>22697000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>22902800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>22387600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>23685200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>19998200</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>38401500</v>
+        <v>39289400</v>
       </c>
       <c r="E61" s="3">
-        <v>38166300</v>
+        <v>39246500</v>
       </c>
       <c r="F61" s="3">
-        <v>36889000</v>
+        <v>39006100</v>
       </c>
       <c r="G61" s="3">
-        <v>34624300</v>
+        <v>37700600</v>
       </c>
       <c r="H61" s="3">
-        <v>32706300</v>
+        <v>35386100</v>
       </c>
       <c r="I61" s="3">
-        <v>33012600</v>
+        <v>33425900</v>
       </c>
       <c r="J61" s="3">
+        <v>33739000</v>
+      </c>
+      <c r="K61" s="3">
         <v>32441500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>32027200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>34920400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>35699100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>37405600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>37431100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>38250500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>36521200</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8170900</v>
+        <v>7571600</v>
       </c>
       <c r="E62" s="3">
-        <v>7694500</v>
+        <v>8350700</v>
       </c>
       <c r="F62" s="3">
-        <v>7846200</v>
+        <v>7863800</v>
       </c>
       <c r="G62" s="3">
-        <v>7873200</v>
+        <v>8018800</v>
       </c>
       <c r="H62" s="3">
-        <v>7823000</v>
+        <v>8046400</v>
       </c>
       <c r="I62" s="3">
-        <v>8484600</v>
+        <v>7995100</v>
       </c>
       <c r="J62" s="3">
+        <v>8671300</v>
+      </c>
+      <c r="K62" s="3">
         <v>7800000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7656300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>7269000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>7278500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>7072300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>6802600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>6766700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>5977300</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3070,8 +3218,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3117,8 +3268,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3164,55 +3318,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>73505600</v>
+        <v>74214200</v>
       </c>
       <c r="E66" s="3">
-        <v>71676800</v>
+        <v>75122900</v>
       </c>
       <c r="F66" s="3">
-        <v>72497300</v>
+        <v>73253800</v>
       </c>
       <c r="G66" s="3">
-        <v>69835000</v>
+        <v>74092400</v>
       </c>
       <c r="H66" s="3">
-        <v>69560800</v>
+        <v>71371500</v>
       </c>
       <c r="I66" s="3">
-        <v>68787000</v>
+        <v>71091200</v>
       </c>
       <c r="J66" s="3">
+        <v>70300400</v>
+      </c>
+      <c r="K66" s="3">
         <v>66567400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>66280800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>69332300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>68053100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>69759100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>68909600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>71093200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>64647500</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3230,8 +3390,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3277,8 +3438,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3324,8 +3488,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3371,8 +3538,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3418,55 +3588,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>30043500</v>
+        <v>31235700</v>
       </c>
       <c r="E72" s="3">
-        <v>29710300</v>
+        <v>30704500</v>
       </c>
       <c r="F72" s="3">
-        <v>28449000</v>
+        <v>30364000</v>
       </c>
       <c r="G72" s="3">
-        <v>27985000</v>
+        <v>29075000</v>
       </c>
       <c r="H72" s="3">
-        <v>27507100</v>
+        <v>28600700</v>
       </c>
       <c r="I72" s="3">
-        <v>21603900</v>
+        <v>28112300</v>
       </c>
       <c r="J72" s="3">
+        <v>22079200</v>
+      </c>
+      <c r="K72" s="3">
         <v>25998200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>26247000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>25531600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>24759700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>23601500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>22619600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>21765100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>21151000</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3512,8 +3688,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3559,8 +3738,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3606,55 +3788,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>39435000</v>
+        <v>35466200</v>
       </c>
       <c r="E76" s="3">
-        <v>38282000</v>
+        <v>40302700</v>
       </c>
       <c r="F76" s="3">
-        <v>38486500</v>
+        <v>39124300</v>
       </c>
       <c r="G76" s="3">
-        <v>38752200</v>
+        <v>39333300</v>
       </c>
       <c r="H76" s="3">
-        <v>37946500</v>
+        <v>39604800</v>
       </c>
       <c r="I76" s="3">
-        <v>38906100</v>
+        <v>38781400</v>
       </c>
       <c r="J76" s="3">
+        <v>39762100</v>
+      </c>
+      <c r="K76" s="3">
         <v>36872200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>35931400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>37896800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>35850000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>34316500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>33104400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>32312900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>28320500</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3700,107 +3888,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>917400</v>
+        <v>524300</v>
       </c>
       <c r="E81" s="3">
-        <v>991900</v>
+        <v>937600</v>
       </c>
       <c r="F81" s="3">
-        <v>1136600</v>
+        <v>1013700</v>
       </c>
       <c r="G81" s="3">
-        <v>583100</v>
+        <v>1161600</v>
       </c>
       <c r="H81" s="3">
-        <v>1156200</v>
+        <v>595900</v>
       </c>
       <c r="I81" s="3">
-        <v>949500</v>
+        <v>1181700</v>
       </c>
       <c r="J81" s="3">
+        <v>970400</v>
+      </c>
+      <c r="K81" s="3">
         <v>1076400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>376500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1252300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1153100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1001200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>672400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>961100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>539600</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3818,55 +4015,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>599100</v>
+        <v>657100</v>
       </c>
       <c r="E83" s="3">
-        <v>535800</v>
+        <v>612300</v>
       </c>
       <c r="F83" s="3">
-        <v>550300</v>
+        <v>547600</v>
       </c>
       <c r="G83" s="3">
-        <v>469200</v>
+        <v>562400</v>
       </c>
       <c r="H83" s="3">
-        <v>426100</v>
+        <v>479500</v>
       </c>
       <c r="I83" s="3">
-        <v>402300</v>
+        <v>435500</v>
       </c>
       <c r="J83" s="3">
+        <v>411100</v>
+      </c>
+      <c r="K83" s="3">
         <v>396100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>413800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>448800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>449300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>429100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>410100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>432800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>438700</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3912,8 +4113,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3959,8 +4163,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4006,8 +4213,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4053,8 +4263,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4100,55 +4313,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>547200</v>
+        <v>1296000</v>
       </c>
       <c r="E89" s="3">
-        <v>1807100</v>
+        <v>559200</v>
       </c>
       <c r="F89" s="3">
-        <v>1162400</v>
+        <v>1846800</v>
       </c>
       <c r="G89" s="3">
-        <v>447200</v>
+        <v>1188000</v>
       </c>
       <c r="H89" s="3">
-        <v>1816300</v>
+        <v>457000</v>
       </c>
       <c r="I89" s="3">
-        <v>245800</v>
+        <v>1856300</v>
       </c>
       <c r="J89" s="3">
+        <v>251200</v>
+      </c>
+      <c r="K89" s="3">
         <v>1223700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1352500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2182700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-372700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1833000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1624300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1312000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>298600</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4166,55 +4385,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-599600</v>
+        <v>-383100</v>
       </c>
       <c r="E91" s="3">
-        <v>-572800</v>
+        <v>-808500</v>
       </c>
       <c r="F91" s="3">
-        <v>-562200</v>
+        <v>-585400</v>
       </c>
       <c r="G91" s="3">
-        <v>-678200</v>
+        <v>-574600</v>
       </c>
       <c r="H91" s="3">
-        <v>-836600</v>
+        <v>-693100</v>
       </c>
       <c r="I91" s="3">
-        <v>-666100</v>
+        <v>-855000</v>
       </c>
       <c r="J91" s="3">
+        <v>-680800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-616300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>707600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-337700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-384300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-196300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-458100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-338400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-537000</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4260,8 +4483,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4307,55 +4533,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-716900</v>
+        <v>196400</v>
       </c>
       <c r="E94" s="3">
-        <v>-154500</v>
+        <v>-732700</v>
       </c>
       <c r="F94" s="3">
-        <v>-1004500</v>
+        <v>-157900</v>
       </c>
       <c r="G94" s="3">
-        <v>-2455100</v>
+        <v>-1026600</v>
       </c>
       <c r="H94" s="3">
-        <v>-1826700</v>
+        <v>-2509100</v>
       </c>
       <c r="I94" s="3">
-        <v>-1339900</v>
+        <v>-1866900</v>
       </c>
       <c r="J94" s="3">
+        <v>-1369400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-914400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-579400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-717100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-761300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-186100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-967700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-474900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-603200</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4373,55 +4605,59 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-632200</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-646100</v>
       </c>
       <c r="F96" s="3">
-        <v>-632000</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-645900</v>
       </c>
       <c r="H96" s="3">
-        <v>-632000</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-645900</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-631900</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-478400</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-478400</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-397500</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4467,8 +4703,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4514,8 +4753,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4561,145 +4803,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1858100</v>
+        <v>-137200</v>
       </c>
       <c r="E100" s="3">
-        <v>-68000</v>
+        <v>-1899000</v>
       </c>
       <c r="F100" s="3">
-        <v>201000</v>
+        <v>-69500</v>
       </c>
       <c r="G100" s="3">
-        <v>2011700</v>
+        <v>205400</v>
       </c>
       <c r="H100" s="3">
-        <v>-371600</v>
+        <v>2056000</v>
       </c>
       <c r="I100" s="3">
-        <v>472500</v>
+        <v>-379800</v>
       </c>
       <c r="J100" s="3">
+        <v>482800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-954700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1145700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1020400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2791000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-939700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1316100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-841900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>217200</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>147900</v>
+        <v>-309800</v>
       </c>
       <c r="E101" s="3">
-        <v>-81400</v>
+        <v>151200</v>
       </c>
       <c r="F101" s="3">
-        <v>-72100</v>
+        <v>-83200</v>
       </c>
       <c r="G101" s="3">
-        <v>22400</v>
+        <v>-73700</v>
       </c>
       <c r="H101" s="3">
-        <v>-136800</v>
+        <v>22900</v>
       </c>
       <c r="I101" s="3">
-        <v>121400</v>
+        <v>-139800</v>
       </c>
       <c r="J101" s="3">
+        <v>124000</v>
+      </c>
+      <c r="K101" s="3">
         <v>45000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-335900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>3300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>100100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>10700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-65200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>603600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-59700</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1880000</v>
+        <v>1045400</v>
       </c>
       <c r="E102" s="3">
-        <v>1503100</v>
+        <v>-1921400</v>
       </c>
       <c r="F102" s="3">
-        <v>286800</v>
+        <v>1536200</v>
       </c>
       <c r="G102" s="3">
-        <v>26200</v>
+        <v>293100</v>
       </c>
       <c r="H102" s="3">
-        <v>-389700</v>
+        <v>26800</v>
       </c>
       <c r="I102" s="3">
-        <v>-629300</v>
+        <v>-398300</v>
       </c>
       <c r="J102" s="3">
+        <v>-643100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-600500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-708500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>448600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3824900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>717900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-724700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>598900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-147200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MITSY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MITSY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
   <si>
     <t>MITSY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,222 +665,234 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="17" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15709800</v>
+        <v>14365500</v>
       </c>
       <c r="E8" s="3">
-        <v>16561800</v>
+        <v>15963500</v>
       </c>
       <c r="F8" s="3">
-        <v>16518700</v>
+        <v>16829200</v>
       </c>
       <c r="G8" s="3">
-        <v>15171700</v>
+        <v>16785400</v>
       </c>
       <c r="H8" s="3">
-        <v>18064900</v>
+        <v>15416700</v>
       </c>
       <c r="I8" s="3">
-        <v>16718500</v>
+        <v>18356600</v>
       </c>
       <c r="J8" s="3">
+        <v>16988500</v>
+      </c>
+      <c r="K8" s="3">
         <v>15394900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>14145800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11201800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11381200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10959900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>10682200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>10539300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>10144100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>8977900</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>13861100</v>
+        <v>12574700</v>
       </c>
       <c r="E9" s="3">
-        <v>14590100</v>
+        <v>14084900</v>
       </c>
       <c r="F9" s="3">
-        <v>14484600</v>
+        <v>14825700</v>
       </c>
       <c r="G9" s="3">
-        <v>13227900</v>
+        <v>14718500</v>
       </c>
       <c r="H9" s="3">
-        <v>16156800</v>
+        <v>13441500</v>
       </c>
       <c r="I9" s="3">
-        <v>14773600</v>
+        <v>16417700</v>
       </c>
       <c r="J9" s="3">
+        <v>15012100</v>
+      </c>
+      <c r="K9" s="3">
         <v>13487900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>12160100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>9567400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>9519200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>9110700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>8879700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>8666700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>8528400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>7541800</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1848700</v>
+        <v>1790800</v>
       </c>
       <c r="E10" s="3">
-        <v>1971700</v>
+        <v>1878600</v>
       </c>
       <c r="F10" s="3">
-        <v>2034100</v>
+        <v>2003500</v>
       </c>
       <c r="G10" s="3">
-        <v>1943800</v>
+        <v>2067000</v>
       </c>
       <c r="H10" s="3">
-        <v>1908100</v>
+        <v>1975100</v>
       </c>
       <c r="I10" s="3">
-        <v>1945000</v>
+        <v>1938900</v>
       </c>
       <c r="J10" s="3">
+        <v>1976400</v>
+      </c>
+      <c r="K10" s="3">
         <v>1906900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1985700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1634400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1861900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1849100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1802500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1872600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1615700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1436100</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -899,8 +911,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,8 +962,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -999,58 +1015,64 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>921600</v>
+        <v>2900</v>
       </c>
       <c r="E14" s="3">
-        <v>83700</v>
+        <v>936500</v>
       </c>
       <c r="F14" s="3">
-        <v>8400</v>
+        <v>85000</v>
       </c>
       <c r="G14" s="3">
-        <v>15700</v>
+        <v>8500</v>
       </c>
       <c r="H14" s="3">
-        <v>217900</v>
+        <v>16000</v>
       </c>
       <c r="I14" s="3">
-        <v>20300</v>
+        <v>221400</v>
       </c>
       <c r="J14" s="3">
+        <v>20700</v>
+      </c>
+      <c r="K14" s="3">
         <v>3800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>8900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>59600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>91800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>67000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>11600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>48200</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1099,8 +1121,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1116,108 +1141,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>15803100</v>
+        <v>13767900</v>
       </c>
       <c r="E17" s="3">
-        <v>15981500</v>
+        <v>16058200</v>
       </c>
       <c r="F17" s="3">
-        <v>15750700</v>
+        <v>16239600</v>
       </c>
       <c r="G17" s="3">
-        <v>14412300</v>
+        <v>16005000</v>
       </c>
       <c r="H17" s="3">
-        <v>17809500</v>
+        <v>14645000</v>
       </c>
       <c r="I17" s="3">
-        <v>16048900</v>
+        <v>18097000</v>
       </c>
       <c r="J17" s="3">
+        <v>16308000</v>
+      </c>
+      <c r="K17" s="3">
         <v>14800500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>13271100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>11108400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>10721200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>10139700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9954000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>9794000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>9291500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8516000</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-93300</v>
+        <v>597600</v>
       </c>
       <c r="E18" s="3">
-        <v>580200</v>
+        <v>-94800</v>
       </c>
       <c r="F18" s="3">
-        <v>768000</v>
+        <v>589600</v>
       </c>
       <c r="G18" s="3">
-        <v>759400</v>
+        <v>780400</v>
       </c>
       <c r="H18" s="3">
-        <v>255400</v>
+        <v>771600</v>
       </c>
       <c r="I18" s="3">
-        <v>669600</v>
+        <v>259600</v>
       </c>
       <c r="J18" s="3">
+        <v>680500</v>
+      </c>
+      <c r="K18" s="3">
         <v>594400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>874700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>93400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>660000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>820200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>728200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>745300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>852600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>461900</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1236,258 +1268,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>866700</v>
+        <v>510900</v>
       </c>
       <c r="E20" s="3">
-        <v>1044500</v>
+        <v>880700</v>
       </c>
       <c r="F20" s="3">
-        <v>808000</v>
+        <v>1061300</v>
       </c>
       <c r="G20" s="3">
-        <v>1063000</v>
+        <v>821100</v>
       </c>
       <c r="H20" s="3">
-        <v>917600</v>
+        <v>1080100</v>
       </c>
       <c r="I20" s="3">
-        <v>1025700</v>
+        <v>932400</v>
       </c>
       <c r="J20" s="3">
+        <v>1042200</v>
+      </c>
+      <c r="K20" s="3">
         <v>982200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>815900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>682600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>963900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>765600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>808400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>451900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>662000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>545900</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1430600</v>
+        <v>1703400</v>
       </c>
       <c r="E21" s="3">
-        <v>2237000</v>
+        <v>1453700</v>
       </c>
       <c r="F21" s="3">
-        <v>2123600</v>
+        <v>2273100</v>
       </c>
       <c r="G21" s="3">
-        <v>2384700</v>
+        <v>2157900</v>
       </c>
       <c r="H21" s="3">
-        <v>1652500</v>
+        <v>2423200</v>
       </c>
       <c r="I21" s="3">
-        <v>2130800</v>
+        <v>1679200</v>
       </c>
       <c r="J21" s="3">
+        <v>2165200</v>
+      </c>
+      <c r="K21" s="3">
         <v>1987800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2086700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1189800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2072700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2035100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1965600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1607200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1947400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1446600</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>188200</v>
+        <v>145700</v>
       </c>
       <c r="E22" s="3">
-        <v>209100</v>
+        <v>191200</v>
       </c>
       <c r="F22" s="3">
-        <v>214800</v>
+        <v>212400</v>
       </c>
       <c r="G22" s="3">
-        <v>220700</v>
+        <v>218300</v>
       </c>
       <c r="H22" s="3">
-        <v>187900</v>
+        <v>224300</v>
       </c>
       <c r="I22" s="3">
-        <v>188500</v>
+        <v>191000</v>
       </c>
       <c r="J22" s="3">
+        <v>191600</v>
+      </c>
+      <c r="K22" s="3">
         <v>191700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>172300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>149100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>150300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>156500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>145100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>140900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>133700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>118100</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>585300</v>
+        <v>962800</v>
       </c>
       <c r="E23" s="3">
-        <v>1415700</v>
+        <v>594800</v>
       </c>
       <c r="F23" s="3">
-        <v>1361200</v>
+        <v>1438500</v>
       </c>
       <c r="G23" s="3">
-        <v>1601600</v>
+        <v>1383200</v>
       </c>
       <c r="H23" s="3">
-        <v>985100</v>
+        <v>1627500</v>
       </c>
       <c r="I23" s="3">
-        <v>1506800</v>
+        <v>1001000</v>
       </c>
       <c r="J23" s="3">
+        <v>1531100</v>
+      </c>
+      <c r="K23" s="3">
         <v>1384900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1518300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>626900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1473600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1429300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1391500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1056300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1380900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>889700</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>93300</v>
+        <v>333500</v>
       </c>
       <c r="E24" s="3">
-        <v>417100</v>
+        <v>94800</v>
       </c>
       <c r="F24" s="3">
-        <v>283800</v>
+        <v>423900</v>
       </c>
       <c r="G24" s="3">
-        <v>348600</v>
+        <v>288400</v>
       </c>
       <c r="H24" s="3">
-        <v>384700</v>
+        <v>354200</v>
       </c>
       <c r="I24" s="3">
-        <v>284400</v>
+        <v>390900</v>
       </c>
       <c r="J24" s="3">
+        <v>289000</v>
+      </c>
+      <c r="K24" s="3">
         <v>367300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>372800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>201200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>158300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>234300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>338000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>320800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>367600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>316000</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1536,108 +1584,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>492100</v>
+        <v>629300</v>
       </c>
       <c r="E26" s="3">
-        <v>998500</v>
+        <v>500000</v>
       </c>
       <c r="F26" s="3">
-        <v>1077400</v>
+        <v>1014600</v>
       </c>
       <c r="G26" s="3">
-        <v>1253100</v>
+        <v>1094800</v>
       </c>
       <c r="H26" s="3">
-        <v>600400</v>
+        <v>1273300</v>
       </c>
       <c r="I26" s="3">
-        <v>1222400</v>
+        <v>610100</v>
       </c>
       <c r="J26" s="3">
+        <v>1242100</v>
+      </c>
+      <c r="K26" s="3">
         <v>1017600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1145500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>425700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1315300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1195000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1053500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>735500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1013300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>573700</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>524300</v>
+        <v>590500</v>
       </c>
       <c r="E27" s="3">
-        <v>937600</v>
+        <v>532800</v>
       </c>
       <c r="F27" s="3">
-        <v>1013700</v>
+        <v>952700</v>
       </c>
       <c r="G27" s="3">
-        <v>1161600</v>
+        <v>1030100</v>
       </c>
       <c r="H27" s="3">
-        <v>595900</v>
+        <v>1180300</v>
       </c>
       <c r="I27" s="3">
-        <v>1181700</v>
+        <v>605500</v>
       </c>
       <c r="J27" s="3">
+        <v>1200700</v>
+      </c>
+      <c r="K27" s="3">
         <v>970400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1076400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>376500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1252300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1153100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1001200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>672400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>961100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>539600</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1686,8 +1743,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1736,8 +1796,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1786,8 +1849,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1836,108 +1902,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-866700</v>
+        <v>-510900</v>
       </c>
       <c r="E32" s="3">
-        <v>-1044500</v>
+        <v>-880700</v>
       </c>
       <c r="F32" s="3">
-        <v>-808000</v>
+        <v>-1061300</v>
       </c>
       <c r="G32" s="3">
-        <v>-1063000</v>
+        <v>-821100</v>
       </c>
       <c r="H32" s="3">
-        <v>-917600</v>
+        <v>-1080100</v>
       </c>
       <c r="I32" s="3">
-        <v>-1025700</v>
+        <v>-932400</v>
       </c>
       <c r="J32" s="3">
+        <v>-1042200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-982200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-815900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-682600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-963900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-765600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-808400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-451900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-662000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-545900</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>524300</v>
+        <v>590500</v>
       </c>
       <c r="E33" s="3">
-        <v>937600</v>
+        <v>532800</v>
       </c>
       <c r="F33" s="3">
-        <v>1013700</v>
+        <v>952700</v>
       </c>
       <c r="G33" s="3">
-        <v>1161600</v>
+        <v>1030100</v>
       </c>
       <c r="H33" s="3">
-        <v>595900</v>
+        <v>1180300</v>
       </c>
       <c r="I33" s="3">
-        <v>1181700</v>
+        <v>605500</v>
       </c>
       <c r="J33" s="3">
+        <v>1200700</v>
+      </c>
+      <c r="K33" s="3">
         <v>970400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1076400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>376500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1252300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1153100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1001200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>672400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>961100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>539600</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1986,113 +2061,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>524300</v>
+        <v>590500</v>
       </c>
       <c r="E35" s="3">
-        <v>937600</v>
+        <v>532800</v>
       </c>
       <c r="F35" s="3">
-        <v>1013700</v>
+        <v>952700</v>
       </c>
       <c r="G35" s="3">
-        <v>1161600</v>
+        <v>1030100</v>
       </c>
       <c r="H35" s="3">
-        <v>595900</v>
+        <v>1180300</v>
       </c>
       <c r="I35" s="3">
-        <v>1181700</v>
+        <v>605500</v>
       </c>
       <c r="J35" s="3">
+        <v>1200700</v>
+      </c>
+      <c r="K35" s="3">
         <v>970400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1076400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>376500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1252300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1153100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1001200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>672400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>961100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>539600</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2111,8 +2195,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2131,458 +2216,486 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>9835600</v>
+        <v>9830700</v>
       </c>
       <c r="E41" s="3">
-        <v>8790200</v>
+        <v>9994400</v>
       </c>
       <c r="F41" s="3">
-        <v>10711600</v>
+        <v>8932200</v>
       </c>
       <c r="G41" s="3">
-        <v>9175400</v>
+        <v>10884600</v>
       </c>
       <c r="H41" s="3">
-        <v>8882200</v>
+        <v>9323500</v>
       </c>
       <c r="I41" s="3">
-        <v>8855400</v>
+        <v>9025700</v>
       </c>
       <c r="J41" s="3">
+        <v>8998400</v>
+      </c>
+      <c r="K41" s="3">
         <v>9253700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9683800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>10227700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>10936200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>10487600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>14312400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>13338900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>14063500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>13464600</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>5229300</v>
+        <v>4013600</v>
       </c>
       <c r="E42" s="3">
-        <v>3061300</v>
+        <v>5313800</v>
       </c>
       <c r="F42" s="3">
-        <v>2736700</v>
+        <v>3110700</v>
       </c>
       <c r="G42" s="3">
-        <v>2792000</v>
+        <v>2780900</v>
       </c>
       <c r="H42" s="3">
-        <v>2364400</v>
+        <v>2837100</v>
       </c>
       <c r="I42" s="3">
-        <v>3203700</v>
+        <v>2402500</v>
       </c>
       <c r="J42" s="3">
+        <v>3255400</v>
+      </c>
+      <c r="K42" s="3">
         <v>2869100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2702600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2205000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>3030500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2627800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2445500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2374300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>3915400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>3786600</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>15073000</v>
+        <v>13783300</v>
       </c>
       <c r="E43" s="3">
-        <v>16893800</v>
+        <v>15316400</v>
       </c>
       <c r="F43" s="3">
-        <v>15073200</v>
+        <v>17166600</v>
       </c>
       <c r="G43" s="3">
-        <v>16142800</v>
+        <v>15316600</v>
       </c>
       <c r="H43" s="3">
-        <v>16761300</v>
+        <v>16403500</v>
       </c>
       <c r="I43" s="3">
-        <v>17497100</v>
+        <v>17031900</v>
       </c>
       <c r="J43" s="3">
+        <v>17779600</v>
+      </c>
+      <c r="K43" s="3">
         <v>16564800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>15649400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>15964800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>17290200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>16461900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>14971500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>15428500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>15480700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>13205700</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5145400</v>
+        <v>5040600</v>
       </c>
       <c r="E44" s="3">
-        <v>6407200</v>
+        <v>5228400</v>
       </c>
       <c r="F44" s="3">
-        <v>5954200</v>
+        <v>6510700</v>
       </c>
       <c r="G44" s="3">
-        <v>5984700</v>
+        <v>6050400</v>
       </c>
       <c r="H44" s="3">
-        <v>5645300</v>
+        <v>6081400</v>
       </c>
       <c r="I44" s="3">
-        <v>5856100</v>
+        <v>5736500</v>
       </c>
       <c r="J44" s="3">
+        <v>5950700</v>
+      </c>
+      <c r="K44" s="3">
         <v>5828600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5150500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4978300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>5689100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>5718500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>5394500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>5229200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>5336700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>4779400</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3032500</v>
+        <v>2902900</v>
       </c>
       <c r="E45" s="3">
-        <v>2999800</v>
+        <v>3081500</v>
       </c>
       <c r="F45" s="3">
-        <v>2941400</v>
+        <v>3048200</v>
       </c>
       <c r="G45" s="3">
-        <v>3286200</v>
+        <v>2988900</v>
       </c>
       <c r="H45" s="3">
-        <v>3472700</v>
+        <v>3339300</v>
       </c>
       <c r="I45" s="3">
-        <v>3648200</v>
+        <v>3528700</v>
       </c>
       <c r="J45" s="3">
+        <v>3707100</v>
+      </c>
+      <c r="K45" s="3">
         <v>3593900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3510500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4828700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4005100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3659200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3525900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3320100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3359700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2996000</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>38315900</v>
+        <v>35571100</v>
       </c>
       <c r="E46" s="3">
-        <v>38152300</v>
+        <v>38934500</v>
       </c>
       <c r="F46" s="3">
-        <v>37417200</v>
+        <v>38768300</v>
       </c>
       <c r="G46" s="3">
-        <v>37381200</v>
+        <v>38021300</v>
       </c>
       <c r="H46" s="3">
-        <v>37125800</v>
+        <v>37984700</v>
       </c>
       <c r="I46" s="3">
-        <v>39060600</v>
+        <v>37725300</v>
       </c>
       <c r="J46" s="3">
+        <v>39691200</v>
+      </c>
+      <c r="K46" s="3">
         <v>38110200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>36696800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>38204500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>40951100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>38955000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>40649900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>39691000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>42156100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>38232400</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>46206700</v>
+        <v>47043700</v>
       </c>
       <c r="E47" s="3">
-        <v>51410900</v>
+        <v>46952800</v>
       </c>
       <c r="F47" s="3">
-        <v>50052300</v>
+        <v>52241000</v>
       </c>
       <c r="G47" s="3">
-        <v>51249900</v>
+        <v>50860400</v>
       </c>
       <c r="H47" s="3">
-        <v>51438100</v>
+        <v>52077400</v>
       </c>
       <c r="I47" s="3">
-        <v>48009300</v>
+        <v>52268700</v>
       </c>
       <c r="J47" s="3">
+        <v>48784500</v>
+      </c>
+      <c r="K47" s="3">
         <v>49446400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>45792300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>44126500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>45878300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>44160100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>42595400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>41700800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>39980100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>35285000</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>22047100</v>
+        <v>22768400</v>
       </c>
       <c r="E48" s="3">
-        <v>22801000</v>
+        <v>22403100</v>
       </c>
       <c r="F48" s="3">
-        <v>21837500</v>
+        <v>23169100</v>
       </c>
       <c r="G48" s="3">
-        <v>21701600</v>
+        <v>22190100</v>
       </c>
       <c r="H48" s="3">
-        <v>19959400</v>
+        <v>22052000</v>
       </c>
       <c r="I48" s="3">
-        <v>20039500</v>
+        <v>20281700</v>
       </c>
       <c r="J48" s="3">
+        <v>20363100</v>
+      </c>
+      <c r="K48" s="3">
         <v>19807500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>18394900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>17346400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>17820100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>18003700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>17903900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>17769100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>18403400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>16888800</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1814200</v>
+        <v>1819400</v>
       </c>
       <c r="E49" s="3">
-        <v>2193800</v>
+        <v>1843500</v>
       </c>
       <c r="F49" s="3">
-        <v>2210400</v>
+        <v>2229300</v>
       </c>
       <c r="G49" s="3">
-        <v>2261800</v>
+        <v>2246100</v>
       </c>
       <c r="H49" s="3">
-        <v>1617200</v>
+        <v>2298300</v>
       </c>
       <c r="I49" s="3">
-        <v>1715900</v>
+        <v>1643400</v>
       </c>
       <c r="J49" s="3">
+        <v>1743600</v>
+      </c>
+      <c r="K49" s="3">
         <v>1607100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1552500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1565800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1572800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1615000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1568500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1496200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1434400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1274500</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2631,8 +2744,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2681,58 +2797,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1296500</v>
+        <v>1225600</v>
       </c>
       <c r="E52" s="3">
-        <v>867600</v>
+        <v>1317500</v>
       </c>
       <c r="F52" s="3">
-        <v>860700</v>
+        <v>881600</v>
       </c>
       <c r="G52" s="3">
-        <v>831300</v>
+        <v>874600</v>
       </c>
       <c r="H52" s="3">
-        <v>835700</v>
+        <v>844700</v>
       </c>
       <c r="I52" s="3">
-        <v>1047300</v>
+        <v>849200</v>
       </c>
       <c r="J52" s="3">
+        <v>1064200</v>
+      </c>
+      <c r="K52" s="3">
         <v>1091400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1002900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>969100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1006800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1169300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1357900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1356900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1432200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1287300</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2781,58 +2903,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>109680500</v>
+        <v>108428300</v>
       </c>
       <c r="E54" s="3">
-        <v>115425600</v>
+        <v>111451400</v>
       </c>
       <c r="F54" s="3">
-        <v>112378100</v>
+        <v>117289300</v>
       </c>
       <c r="G54" s="3">
-        <v>113425700</v>
+        <v>114192600</v>
       </c>
       <c r="H54" s="3">
-        <v>110976300</v>
+        <v>115257100</v>
       </c>
       <c r="I54" s="3">
-        <v>109872600</v>
+        <v>112768200</v>
       </c>
       <c r="J54" s="3">
+        <v>111646700</v>
+      </c>
+      <c r="K54" s="3">
         <v>110062600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>103439500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>102212200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>107229100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>103903100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>104075500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>102014000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>103406200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>92968100</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2851,8 +2979,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2871,308 +3000,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>10558100</v>
+        <v>9676900</v>
       </c>
       <c r="E57" s="3">
-        <v>12002900</v>
+        <v>10728600</v>
       </c>
       <c r="F57" s="3">
-        <v>10963900</v>
+        <v>12196700</v>
       </c>
       <c r="G57" s="3">
-        <v>11715000</v>
+        <v>11140900</v>
       </c>
       <c r="H57" s="3">
-        <v>12283900</v>
+        <v>11904200</v>
       </c>
       <c r="I57" s="3">
-        <v>13007100</v>
+        <v>12482300</v>
       </c>
       <c r="J57" s="3">
+        <v>13217100</v>
+      </c>
+      <c r="K57" s="3">
         <v>12028200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>11694800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>11429100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>12147200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>11328200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>10649200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>10676900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>10787700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>8887300</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6478500</v>
+        <v>6978700</v>
       </c>
       <c r="E58" s="3">
-        <v>6674000</v>
+        <v>6583100</v>
       </c>
       <c r="F58" s="3">
-        <v>7340900</v>
+        <v>6781800</v>
       </c>
       <c r="G58" s="3">
-        <v>8309000</v>
+        <v>7459500</v>
       </c>
       <c r="H58" s="3">
-        <v>7584500</v>
+        <v>8443200</v>
       </c>
       <c r="I58" s="3">
-        <v>7433600</v>
+        <v>7707000</v>
       </c>
       <c r="J58" s="3">
+        <v>7553600</v>
+      </c>
+      <c r="K58" s="3">
         <v>6959600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6294800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>6184300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5829800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5542100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>6488500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>6146100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>7075800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>6388700</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>8056700</v>
+        <v>5457500</v>
       </c>
       <c r="E59" s="3">
-        <v>6309000</v>
+        <v>8186800</v>
       </c>
       <c r="F59" s="3">
-        <v>5637700</v>
+        <v>6410800</v>
       </c>
       <c r="G59" s="3">
-        <v>5886500</v>
+        <v>5728800</v>
       </c>
       <c r="H59" s="3">
-        <v>5588700</v>
+        <v>5981500</v>
       </c>
       <c r="I59" s="3">
-        <v>6795300</v>
+        <v>5678900</v>
       </c>
       <c r="J59" s="3">
+        <v>6905100</v>
+      </c>
+      <c r="K59" s="3">
         <v>6461800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6059700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6783400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6711400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5826600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5765000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5564600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5821700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4722300</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>25093300</v>
+        <v>22113100</v>
       </c>
       <c r="E60" s="3">
-        <v>24985900</v>
+        <v>25498500</v>
       </c>
       <c r="F60" s="3">
-        <v>23942500</v>
+        <v>25389300</v>
       </c>
       <c r="G60" s="3">
-        <v>25910500</v>
+        <v>24329100</v>
       </c>
       <c r="H60" s="3">
-        <v>25457200</v>
+        <v>26328900</v>
       </c>
       <c r="I60" s="3">
-        <v>27236000</v>
+        <v>25868200</v>
       </c>
       <c r="J60" s="3">
+        <v>27675800</v>
+      </c>
+      <c r="K60" s="3">
         <v>25449500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>24049300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>24396900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>24688500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>22697000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>22902800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>22387600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>23685200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>19998200</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>39289400</v>
+        <v>39662600</v>
       </c>
       <c r="E61" s="3">
-        <v>39246500</v>
+        <v>39923800</v>
       </c>
       <c r="F61" s="3">
-        <v>39006100</v>
+        <v>39880100</v>
       </c>
       <c r="G61" s="3">
-        <v>37700600</v>
+        <v>39635900</v>
       </c>
       <c r="H61" s="3">
-        <v>35386100</v>
+        <v>38309400</v>
       </c>
       <c r="I61" s="3">
-        <v>33425900</v>
+        <v>35957500</v>
       </c>
       <c r="J61" s="3">
+        <v>33965600</v>
+      </c>
+      <c r="K61" s="3">
         <v>33739000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>32441500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>32027200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>34920400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>35699100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>37405600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>37431100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>38250500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>36521200</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7571600</v>
+        <v>7720200</v>
       </c>
       <c r="E62" s="3">
-        <v>8350700</v>
+        <v>7693900</v>
       </c>
       <c r="F62" s="3">
-        <v>7863800</v>
+        <v>8485500</v>
       </c>
       <c r="G62" s="3">
-        <v>8018800</v>
+        <v>7990700</v>
       </c>
       <c r="H62" s="3">
-        <v>8046400</v>
+        <v>8148300</v>
       </c>
       <c r="I62" s="3">
-        <v>7995100</v>
+        <v>8176400</v>
       </c>
       <c r="J62" s="3">
+        <v>8124200</v>
+      </c>
+      <c r="K62" s="3">
         <v>8671300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7800000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>7656300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>7269000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>7278500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>7072300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>6802600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>6766700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>5977300</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3221,8 +3369,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3271,8 +3422,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3321,58 +3475,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>74214200</v>
+        <v>71888600</v>
       </c>
       <c r="E66" s="3">
-        <v>75122900</v>
+        <v>75412500</v>
       </c>
       <c r="F66" s="3">
-        <v>73253800</v>
+        <v>76335900</v>
       </c>
       <c r="G66" s="3">
-        <v>74092400</v>
+        <v>74436600</v>
       </c>
       <c r="H66" s="3">
-        <v>71371500</v>
+        <v>75288700</v>
       </c>
       <c r="I66" s="3">
-        <v>71091200</v>
+        <v>72523900</v>
       </c>
       <c r="J66" s="3">
+        <v>72239100</v>
+      </c>
+      <c r="K66" s="3">
         <v>70300400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>66567400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>66280800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>69332300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>68053100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>69759100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>68909600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>71093200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>64647500</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3391,8 +3551,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3441,8 +3602,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3491,8 +3655,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3541,8 +3708,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3591,58 +3761,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>31235700</v>
+        <v>31251400</v>
       </c>
       <c r="E72" s="3">
-        <v>30704500</v>
+        <v>31740100</v>
       </c>
       <c r="F72" s="3">
-        <v>30364000</v>
+        <v>31200300</v>
       </c>
       <c r="G72" s="3">
-        <v>29075000</v>
+        <v>30854300</v>
       </c>
       <c r="H72" s="3">
-        <v>28600700</v>
+        <v>29544400</v>
       </c>
       <c r="I72" s="3">
-        <v>28112300</v>
+        <v>29062500</v>
       </c>
       <c r="J72" s="3">
+        <v>28566200</v>
+      </c>
+      <c r="K72" s="3">
         <v>22079200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>25998200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>26247000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>25531600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>24759700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>23601500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>22619600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>21765100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>21151000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3691,8 +3867,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3741,8 +3920,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3791,58 +3973,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>35466200</v>
+        <v>36539700</v>
       </c>
       <c r="E76" s="3">
-        <v>40302700</v>
+        <v>36038900</v>
       </c>
       <c r="F76" s="3">
-        <v>39124300</v>
+        <v>40953400</v>
       </c>
       <c r="G76" s="3">
-        <v>39333300</v>
+        <v>39756000</v>
       </c>
       <c r="H76" s="3">
-        <v>39604800</v>
+        <v>39968400</v>
       </c>
       <c r="I76" s="3">
-        <v>38781400</v>
+        <v>40244300</v>
       </c>
       <c r="J76" s="3">
+        <v>39407500</v>
+      </c>
+      <c r="K76" s="3">
         <v>39762100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>36872200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>35931400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>37896800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>35850000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>34316500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>33104400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>32312900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>28320500</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3891,113 +4079,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>524300</v>
+        <v>590500</v>
       </c>
       <c r="E81" s="3">
-        <v>937600</v>
+        <v>532800</v>
       </c>
       <c r="F81" s="3">
-        <v>1013700</v>
+        <v>952700</v>
       </c>
       <c r="G81" s="3">
-        <v>1161600</v>
+        <v>1030100</v>
       </c>
       <c r="H81" s="3">
-        <v>595900</v>
+        <v>1180300</v>
       </c>
       <c r="I81" s="3">
-        <v>1181700</v>
+        <v>605500</v>
       </c>
       <c r="J81" s="3">
+        <v>1200700</v>
+      </c>
+      <c r="K81" s="3">
         <v>970400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1076400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>376500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1252300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1153100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1001200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>672400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>961100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>539600</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4016,58 +4213,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>657100</v>
+        <v>594900</v>
       </c>
       <c r="E83" s="3">
-        <v>612300</v>
+        <v>667700</v>
       </c>
       <c r="F83" s="3">
-        <v>547600</v>
+        <v>622200</v>
       </c>
       <c r="G83" s="3">
-        <v>562400</v>
+        <v>556500</v>
       </c>
       <c r="H83" s="3">
-        <v>479500</v>
+        <v>571500</v>
       </c>
       <c r="I83" s="3">
-        <v>435500</v>
+        <v>487200</v>
       </c>
       <c r="J83" s="3">
+        <v>442500</v>
+      </c>
+      <c r="K83" s="3">
         <v>411100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>396100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>413800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>448800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>449300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>429100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>410100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>432800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>438700</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4116,8 +4317,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4166,8 +4370,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4216,8 +4423,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4266,8 +4476,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4316,58 +4529,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1296000</v>
+        <v>1548500</v>
       </c>
       <c r="E89" s="3">
-        <v>559200</v>
+        <v>1316900</v>
       </c>
       <c r="F89" s="3">
-        <v>1846800</v>
+        <v>568200</v>
       </c>
       <c r="G89" s="3">
-        <v>1188000</v>
+        <v>1876700</v>
       </c>
       <c r="H89" s="3">
-        <v>457000</v>
+        <v>1207200</v>
       </c>
       <c r="I89" s="3">
-        <v>1856300</v>
+        <v>464400</v>
       </c>
       <c r="J89" s="3">
+        <v>1886300</v>
+      </c>
+      <c r="K89" s="3">
         <v>251200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1223700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1352500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2182700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-372700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1833000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1624300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1312000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>298600</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4386,58 +4605,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-383100</v>
+        <v>-774800</v>
       </c>
       <c r="E91" s="3">
-        <v>-808500</v>
+        <v>-717000</v>
       </c>
       <c r="F91" s="3">
-        <v>-585400</v>
+        <v>-821500</v>
       </c>
       <c r="G91" s="3">
-        <v>-574600</v>
+        <v>-594800</v>
       </c>
       <c r="H91" s="3">
-        <v>-693100</v>
+        <v>-583800</v>
       </c>
       <c r="I91" s="3">
-        <v>-855000</v>
+        <v>-704300</v>
       </c>
       <c r="J91" s="3">
+        <v>-868800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-680800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-616300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>707600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-337700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-384300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-196300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-458100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-338400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-537000</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4486,8 +4709,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4536,58 +4762,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>196400</v>
+        <v>-1024600</v>
       </c>
       <c r="E94" s="3">
-        <v>-732700</v>
+        <v>199600</v>
       </c>
       <c r="F94" s="3">
-        <v>-157900</v>
+        <v>-744600</v>
       </c>
       <c r="G94" s="3">
-        <v>-1026600</v>
+        <v>-160500</v>
       </c>
       <c r="H94" s="3">
-        <v>-2509100</v>
+        <v>-1043100</v>
       </c>
       <c r="I94" s="3">
-        <v>-1866900</v>
+        <v>-2549600</v>
       </c>
       <c r="J94" s="3">
+        <v>-1897000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1369400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-914400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-579400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-717100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-761300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-186100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-967700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-474900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-603200</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4606,58 +4838,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-644800</v>
       </c>
       <c r="E96" s="3">
-        <v>-646100</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-656500</v>
       </c>
       <c r="G96" s="3">
-        <v>-645900</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-656300</v>
       </c>
       <c r="I96" s="3">
-        <v>-645900</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-656300</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-631900</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-478400</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-478400</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-397500</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4706,8 +4942,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4756,8 +4995,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4806,154 +5048,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-137200</v>
+        <v>-833000</v>
       </c>
       <c r="E100" s="3">
-        <v>-1899000</v>
+        <v>-139400</v>
       </c>
       <c r="F100" s="3">
-        <v>-69500</v>
+        <v>-1929700</v>
       </c>
       <c r="G100" s="3">
-        <v>205400</v>
+        <v>-70700</v>
       </c>
       <c r="H100" s="3">
-        <v>2056000</v>
+        <v>208700</v>
       </c>
       <c r="I100" s="3">
-        <v>-379800</v>
+        <v>2089200</v>
       </c>
       <c r="J100" s="3">
+        <v>-385900</v>
+      </c>
+      <c r="K100" s="3">
         <v>482800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-954700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1145700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1020400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2791000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-939700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1316100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-841900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>217200</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-309800</v>
+        <v>145300</v>
       </c>
       <c r="E101" s="3">
-        <v>151200</v>
+        <v>-314800</v>
       </c>
       <c r="F101" s="3">
-        <v>-83200</v>
+        <v>153600</v>
       </c>
       <c r="G101" s="3">
-        <v>-73700</v>
+        <v>-84500</v>
       </c>
       <c r="H101" s="3">
-        <v>22900</v>
+        <v>-74900</v>
       </c>
       <c r="I101" s="3">
-        <v>-139800</v>
+        <v>23300</v>
       </c>
       <c r="J101" s="3">
+        <v>-142100</v>
+      </c>
+      <c r="K101" s="3">
         <v>124000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>45000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-335900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>3300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>100100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>10700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-65200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>603600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-59700</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1045400</v>
+        <v>-163700</v>
       </c>
       <c r="E102" s="3">
-        <v>-1921400</v>
+        <v>1062300</v>
       </c>
       <c r="F102" s="3">
-        <v>1536200</v>
+        <v>-1952400</v>
       </c>
       <c r="G102" s="3">
-        <v>293100</v>
+        <v>1561000</v>
       </c>
       <c r="H102" s="3">
-        <v>26800</v>
+        <v>297900</v>
       </c>
       <c r="I102" s="3">
-        <v>-398300</v>
+        <v>27200</v>
       </c>
       <c r="J102" s="3">
+        <v>-404700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-643100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-600500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-708500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>448600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3824900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>717900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-724700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>598900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-147200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MITSY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MITSY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>MITSY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,234 +665,246 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>14365500</v>
+        <v>14624800</v>
       </c>
       <c r="E8" s="3">
-        <v>15963500</v>
+        <v>14624200</v>
       </c>
       <c r="F8" s="3">
-        <v>16829200</v>
+        <v>16250900</v>
       </c>
       <c r="G8" s="3">
-        <v>16785400</v>
+        <v>17132300</v>
       </c>
       <c r="H8" s="3">
-        <v>15416700</v>
+        <v>17087700</v>
       </c>
       <c r="I8" s="3">
-        <v>18356600</v>
+        <v>15694300</v>
       </c>
       <c r="J8" s="3">
+        <v>18687200</v>
+      </c>
+      <c r="K8" s="3">
         <v>16988500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>15394900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>14145800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11201800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>11381200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>10959900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>10682200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>10539300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>10144100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>8977900</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>12574700</v>
+        <v>12913000</v>
       </c>
       <c r="E9" s="3">
-        <v>14084900</v>
+        <v>12801100</v>
       </c>
       <c r="F9" s="3">
-        <v>14825700</v>
+        <v>14338500</v>
       </c>
       <c r="G9" s="3">
-        <v>14718500</v>
+        <v>15092700</v>
       </c>
       <c r="H9" s="3">
-        <v>13441500</v>
+        <v>14983500</v>
       </c>
       <c r="I9" s="3">
-        <v>16417700</v>
+        <v>13683600</v>
       </c>
       <c r="J9" s="3">
+        <v>16713400</v>
+      </c>
+      <c r="K9" s="3">
         <v>15012100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>13487900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>12160100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>9567400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>9519200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>9110700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>8879700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>8666700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>8528400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>7541800</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1790800</v>
+        <v>1711800</v>
       </c>
       <c r="E10" s="3">
-        <v>1878600</v>
+        <v>1823100</v>
       </c>
       <c r="F10" s="3">
-        <v>2003500</v>
+        <v>1912400</v>
       </c>
       <c r="G10" s="3">
-        <v>2067000</v>
+        <v>2039600</v>
       </c>
       <c r="H10" s="3">
-        <v>1975100</v>
+        <v>2104200</v>
       </c>
       <c r="I10" s="3">
-        <v>1938900</v>
+        <v>2010700</v>
       </c>
       <c r="J10" s="3">
+        <v>1973800</v>
+      </c>
+      <c r="K10" s="3">
         <v>1976400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1906900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1985700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1634400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1861900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1849100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1802500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1872600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1615700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1436100</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -912,8 +924,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -965,8 +978,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1018,61 +1034,67 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>47700</v>
+      </c>
+      <c r="E14" s="3">
         <v>2900</v>
       </c>
-      <c r="E14" s="3">
-        <v>936500</v>
-      </c>
       <c r="F14" s="3">
-        <v>85000</v>
+        <v>953400</v>
       </c>
       <c r="G14" s="3">
-        <v>8500</v>
+        <v>86600</v>
       </c>
       <c r="H14" s="3">
-        <v>16000</v>
+        <v>8700</v>
       </c>
       <c r="I14" s="3">
-        <v>221400</v>
+        <v>16300</v>
       </c>
       <c r="J14" s="3">
+        <v>225400</v>
+      </c>
+      <c r="K14" s="3">
         <v>20700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>3800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>8900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>59600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>91800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>67000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>11600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>48200</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1124,8 +1146,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1142,114 +1167,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>13767900</v>
+        <v>14429600</v>
       </c>
       <c r="E17" s="3">
-        <v>16058200</v>
+        <v>14015800</v>
       </c>
       <c r="F17" s="3">
-        <v>16239600</v>
+        <v>16347400</v>
       </c>
       <c r="G17" s="3">
-        <v>16005000</v>
+        <v>16532000</v>
       </c>
       <c r="H17" s="3">
-        <v>14645000</v>
+        <v>16293300</v>
       </c>
       <c r="I17" s="3">
-        <v>18097000</v>
+        <v>14908800</v>
       </c>
       <c r="J17" s="3">
+        <v>18422900</v>
+      </c>
+      <c r="K17" s="3">
         <v>16308000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>14800500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>13271100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>11108400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>10721200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>10139700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>9954000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>9794000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>9291500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>8516000</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>597600</v>
+        <v>195200</v>
       </c>
       <c r="E18" s="3">
-        <v>-94800</v>
+        <v>608400</v>
       </c>
       <c r="F18" s="3">
-        <v>589600</v>
+        <v>-96500</v>
       </c>
       <c r="G18" s="3">
-        <v>780400</v>
+        <v>600200</v>
       </c>
       <c r="H18" s="3">
-        <v>771600</v>
+        <v>794400</v>
       </c>
       <c r="I18" s="3">
-        <v>259600</v>
+        <v>785500</v>
       </c>
       <c r="J18" s="3">
+        <v>264200</v>
+      </c>
+      <c r="K18" s="3">
         <v>680500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>594400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>874700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>93400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>660000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>820200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>728200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>745300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>852600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>461900</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1269,273 +1301,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>510900</v>
+        <v>723900</v>
       </c>
       <c r="E20" s="3">
-        <v>880700</v>
+        <v>520100</v>
       </c>
       <c r="F20" s="3">
-        <v>1061300</v>
+        <v>896600</v>
       </c>
       <c r="G20" s="3">
-        <v>821100</v>
+        <v>1080500</v>
       </c>
       <c r="H20" s="3">
-        <v>1080100</v>
+        <v>835900</v>
       </c>
       <c r="I20" s="3">
-        <v>932400</v>
+        <v>1099600</v>
       </c>
       <c r="J20" s="3">
+        <v>949200</v>
+      </c>
+      <c r="K20" s="3">
         <v>1042200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>982200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>815900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>682600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>963900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>765600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>808400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>451900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>662000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>545900</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1703400</v>
+        <v>1592500</v>
       </c>
       <c r="E21" s="3">
-        <v>1453700</v>
+        <v>1734000</v>
       </c>
       <c r="F21" s="3">
-        <v>2273100</v>
+        <v>1479900</v>
       </c>
       <c r="G21" s="3">
-        <v>2157900</v>
+        <v>2314100</v>
       </c>
       <c r="H21" s="3">
-        <v>2423200</v>
+        <v>2196800</v>
       </c>
       <c r="I21" s="3">
-        <v>1679200</v>
+        <v>2466900</v>
       </c>
       <c r="J21" s="3">
+        <v>1709400</v>
+      </c>
+      <c r="K21" s="3">
         <v>2165200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1987800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2086700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1189800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2072700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2035100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1965600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1607200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1947400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1446600</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>145700</v>
+        <v>124400</v>
       </c>
       <c r="E22" s="3">
-        <v>191200</v>
+        <v>148300</v>
       </c>
       <c r="F22" s="3">
-        <v>212400</v>
+        <v>194600</v>
       </c>
       <c r="G22" s="3">
-        <v>218300</v>
+        <v>216300</v>
       </c>
       <c r="H22" s="3">
-        <v>224300</v>
+        <v>222200</v>
       </c>
       <c r="I22" s="3">
-        <v>191000</v>
+        <v>228300</v>
       </c>
       <c r="J22" s="3">
+        <v>194400</v>
+      </c>
+      <c r="K22" s="3">
         <v>191600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>191700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>172300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>149100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>150300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>156500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>145100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>140900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>133700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>118100</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>962800</v>
+        <v>794800</v>
       </c>
       <c r="E23" s="3">
-        <v>594800</v>
+        <v>980100</v>
       </c>
       <c r="F23" s="3">
-        <v>1438500</v>
+        <v>605500</v>
       </c>
       <c r="G23" s="3">
-        <v>1383200</v>
+        <v>1464400</v>
       </c>
       <c r="H23" s="3">
-        <v>1627500</v>
+        <v>1408100</v>
       </c>
       <c r="I23" s="3">
-        <v>1001000</v>
+        <v>1656800</v>
       </c>
       <c r="J23" s="3">
+        <v>1019000</v>
+      </c>
+      <c r="K23" s="3">
         <v>1531100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1384900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1518300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>626900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1473600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1429300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1391500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1056300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1380900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>889700</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>333500</v>
+        <v>308500</v>
       </c>
       <c r="E24" s="3">
-        <v>94800</v>
+        <v>339500</v>
       </c>
       <c r="F24" s="3">
-        <v>423900</v>
+        <v>96500</v>
       </c>
       <c r="G24" s="3">
-        <v>288400</v>
+        <v>431500</v>
       </c>
       <c r="H24" s="3">
-        <v>354200</v>
+        <v>293600</v>
       </c>
       <c r="I24" s="3">
-        <v>390900</v>
+        <v>360600</v>
       </c>
       <c r="J24" s="3">
+        <v>397900</v>
+      </c>
+      <c r="K24" s="3">
         <v>289000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>367300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>372800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>201200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>158300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>234300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>338000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>320800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>367600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>316000</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1587,114 +1635,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>629300</v>
+        <v>486300</v>
       </c>
       <c r="E26" s="3">
-        <v>500000</v>
+        <v>640600</v>
       </c>
       <c r="F26" s="3">
-        <v>1014600</v>
+        <v>509000</v>
       </c>
       <c r="G26" s="3">
-        <v>1094800</v>
+        <v>1032900</v>
       </c>
       <c r="H26" s="3">
-        <v>1273300</v>
+        <v>1114500</v>
       </c>
       <c r="I26" s="3">
-        <v>610100</v>
+        <v>1296200</v>
       </c>
       <c r="J26" s="3">
+        <v>621100</v>
+      </c>
+      <c r="K26" s="3">
         <v>1242100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1017600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1145500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>425700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1315300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1195000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1053500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>735500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1013300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>573700</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>590500</v>
+        <v>456200</v>
       </c>
       <c r="E27" s="3">
-        <v>532800</v>
+        <v>601200</v>
       </c>
       <c r="F27" s="3">
-        <v>952700</v>
+        <v>542400</v>
       </c>
       <c r="G27" s="3">
-        <v>1030100</v>
+        <v>969900</v>
       </c>
       <c r="H27" s="3">
-        <v>1180300</v>
+        <v>1048600</v>
       </c>
       <c r="I27" s="3">
-        <v>605500</v>
+        <v>1201600</v>
       </c>
       <c r="J27" s="3">
+        <v>616500</v>
+      </c>
+      <c r="K27" s="3">
         <v>1200700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>970400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1076400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>376500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1252300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1153100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1001200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>672400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>961100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>539600</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1746,8 +1803,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1799,8 +1859,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1852,8 +1915,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1905,114 +1971,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-510900</v>
+        <v>-723900</v>
       </c>
       <c r="E32" s="3">
-        <v>-880700</v>
+        <v>-520100</v>
       </c>
       <c r="F32" s="3">
-        <v>-1061300</v>
+        <v>-896600</v>
       </c>
       <c r="G32" s="3">
-        <v>-821100</v>
+        <v>-1080500</v>
       </c>
       <c r="H32" s="3">
-        <v>-1080100</v>
+        <v>-835900</v>
       </c>
       <c r="I32" s="3">
-        <v>-932400</v>
+        <v>-1099600</v>
       </c>
       <c r="J32" s="3">
+        <v>-949200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1042200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-982200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-815900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-682600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-963900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-765600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-808400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-451900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-662000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-545900</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>590500</v>
+        <v>456200</v>
       </c>
       <c r="E33" s="3">
-        <v>532800</v>
+        <v>601200</v>
       </c>
       <c r="F33" s="3">
-        <v>952700</v>
+        <v>542400</v>
       </c>
       <c r="G33" s="3">
-        <v>1030100</v>
+        <v>969900</v>
       </c>
       <c r="H33" s="3">
-        <v>1180300</v>
+        <v>1048600</v>
       </c>
       <c r="I33" s="3">
-        <v>605500</v>
+        <v>1201600</v>
       </c>
       <c r="J33" s="3">
+        <v>616500</v>
+      </c>
+      <c r="K33" s="3">
         <v>1200700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>970400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1076400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>376500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1252300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1153100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1001200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>672400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>961100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>539600</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2064,119 +2139,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>590500</v>
+        <v>456200</v>
       </c>
       <c r="E35" s="3">
-        <v>532800</v>
+        <v>601200</v>
       </c>
       <c r="F35" s="3">
-        <v>952700</v>
+        <v>542400</v>
       </c>
       <c r="G35" s="3">
-        <v>1030100</v>
+        <v>969900</v>
       </c>
       <c r="H35" s="3">
-        <v>1180300</v>
+        <v>1048600</v>
       </c>
       <c r="I35" s="3">
-        <v>605500</v>
+        <v>1201600</v>
       </c>
       <c r="J35" s="3">
+        <v>616500</v>
+      </c>
+      <c r="K35" s="3">
         <v>1200700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>970400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1076400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>376500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1252300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1153100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1001200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>672400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>961100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>539600</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2196,8 +2280,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2217,485 +2302,513 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>9830700</v>
+        <v>10564100</v>
       </c>
       <c r="E41" s="3">
-        <v>9994400</v>
+        <v>10007700</v>
       </c>
       <c r="F41" s="3">
-        <v>8932200</v>
+        <v>10174400</v>
       </c>
       <c r="G41" s="3">
-        <v>10884600</v>
+        <v>9093000</v>
       </c>
       <c r="H41" s="3">
-        <v>9323500</v>
+        <v>11080600</v>
       </c>
       <c r="I41" s="3">
-        <v>9025700</v>
+        <v>9491400</v>
       </c>
       <c r="J41" s="3">
+        <v>9188200</v>
+      </c>
+      <c r="K41" s="3">
         <v>8998400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9253700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9683800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>10227700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>10936200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>10487600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>14312400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>13338900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>14063500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>13464600</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4013600</v>
+        <v>3848400</v>
       </c>
       <c r="E42" s="3">
-        <v>5313800</v>
+        <v>4085900</v>
       </c>
       <c r="F42" s="3">
-        <v>3110700</v>
+        <v>5409500</v>
       </c>
       <c r="G42" s="3">
-        <v>2780900</v>
+        <v>3166700</v>
       </c>
       <c r="H42" s="3">
-        <v>2837100</v>
+        <v>2831000</v>
       </c>
       <c r="I42" s="3">
-        <v>2402500</v>
+        <v>2888200</v>
       </c>
       <c r="J42" s="3">
+        <v>2445800</v>
+      </c>
+      <c r="K42" s="3">
         <v>3255400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2869100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2702600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2205000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>3030500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2627800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2445500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>2374300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>3915400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>3786600</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>13783300</v>
+        <v>13822000</v>
       </c>
       <c r="E43" s="3">
-        <v>15316400</v>
+        <v>14031500</v>
       </c>
       <c r="F43" s="3">
-        <v>17166600</v>
+        <v>15592200</v>
       </c>
       <c r="G43" s="3">
-        <v>15316600</v>
+        <v>17475700</v>
       </c>
       <c r="H43" s="3">
-        <v>16403500</v>
+        <v>15592400</v>
       </c>
       <c r="I43" s="3">
-        <v>17031900</v>
+        <v>16698900</v>
       </c>
       <c r="J43" s="3">
+        <v>17338600</v>
+      </c>
+      <c r="K43" s="3">
         <v>17779600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>16564800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>15649400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>15964800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>17290200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>16461900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>14971500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>15428500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>15480700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>13205700</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5040600</v>
+        <v>5327400</v>
       </c>
       <c r="E44" s="3">
-        <v>5228400</v>
+        <v>5131300</v>
       </c>
       <c r="F44" s="3">
-        <v>6510700</v>
+        <v>5322600</v>
       </c>
       <c r="G44" s="3">
-        <v>6050400</v>
+        <v>6627900</v>
       </c>
       <c r="H44" s="3">
-        <v>6081400</v>
+        <v>6159300</v>
       </c>
       <c r="I44" s="3">
-        <v>5736500</v>
+        <v>6190900</v>
       </c>
       <c r="J44" s="3">
+        <v>5839800</v>
+      </c>
+      <c r="K44" s="3">
         <v>5950700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5828600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5150500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4978300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>5689100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>5718500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>5394500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>5229200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>5336700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>4779400</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2902900</v>
+        <v>2637900</v>
       </c>
       <c r="E45" s="3">
-        <v>3081500</v>
+        <v>2955200</v>
       </c>
       <c r="F45" s="3">
-        <v>3048200</v>
+        <v>3136900</v>
       </c>
       <c r="G45" s="3">
-        <v>2988900</v>
+        <v>3103100</v>
       </c>
       <c r="H45" s="3">
-        <v>3339300</v>
+        <v>3042700</v>
       </c>
       <c r="I45" s="3">
-        <v>3528700</v>
+        <v>3399400</v>
       </c>
       <c r="J45" s="3">
+        <v>3592300</v>
+      </c>
+      <c r="K45" s="3">
         <v>3707100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3593900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3510500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4828700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4005100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3659200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3525900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3320100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3359700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2996000</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>35571100</v>
+        <v>36199700</v>
       </c>
       <c r="E46" s="3">
-        <v>38934500</v>
+        <v>36211700</v>
       </c>
       <c r="F46" s="3">
-        <v>38768300</v>
+        <v>39635700</v>
       </c>
       <c r="G46" s="3">
-        <v>38021300</v>
+        <v>39466500</v>
       </c>
       <c r="H46" s="3">
-        <v>37984700</v>
+        <v>38706000</v>
       </c>
       <c r="I46" s="3">
-        <v>37725300</v>
+        <v>38668800</v>
       </c>
       <c r="J46" s="3">
+        <v>38404700</v>
+      </c>
+      <c r="K46" s="3">
         <v>39691200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>38110200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>36696800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>38204500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>40951100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>38955000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>40649900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>39691000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>42156100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>38232400</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>47043700</v>
+        <v>48111600</v>
       </c>
       <c r="E47" s="3">
-        <v>46952800</v>
+        <v>47890900</v>
       </c>
       <c r="F47" s="3">
-        <v>52241000</v>
+        <v>47798300</v>
       </c>
       <c r="G47" s="3">
-        <v>50860400</v>
+        <v>53181800</v>
       </c>
       <c r="H47" s="3">
-        <v>52077400</v>
+        <v>51776400</v>
       </c>
       <c r="I47" s="3">
-        <v>52268700</v>
+        <v>53015200</v>
       </c>
       <c r="J47" s="3">
+        <v>53209900</v>
+      </c>
+      <c r="K47" s="3">
         <v>48784500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>49446400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>45792300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>44126500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>45878300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>44160100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>42595400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>41700800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>39980100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>35285000</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>22768400</v>
+        <v>23215300</v>
       </c>
       <c r="E48" s="3">
-        <v>22403100</v>
+        <v>23178400</v>
       </c>
       <c r="F48" s="3">
-        <v>23169100</v>
+        <v>22806500</v>
       </c>
       <c r="G48" s="3">
-        <v>22190100</v>
+        <v>23586400</v>
       </c>
       <c r="H48" s="3">
-        <v>22052000</v>
+        <v>22589700</v>
       </c>
       <c r="I48" s="3">
-        <v>20281700</v>
+        <v>22449100</v>
       </c>
       <c r="J48" s="3">
+        <v>20646900</v>
+      </c>
+      <c r="K48" s="3">
         <v>20363100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>19807500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>18394900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>17346400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>17820100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>18003700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>17903900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>17769100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>18403400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>16888800</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1819400</v>
+        <v>1860000</v>
       </c>
       <c r="E49" s="3">
-        <v>1843500</v>
+        <v>1852200</v>
       </c>
       <c r="F49" s="3">
-        <v>2229300</v>
+        <v>1876700</v>
       </c>
       <c r="G49" s="3">
-        <v>2246100</v>
+        <v>2269400</v>
       </c>
       <c r="H49" s="3">
-        <v>2298300</v>
+        <v>2286500</v>
       </c>
       <c r="I49" s="3">
-        <v>1643400</v>
+        <v>2339700</v>
       </c>
       <c r="J49" s="3">
+        <v>1673000</v>
+      </c>
+      <c r="K49" s="3">
         <v>1743600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1607100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1552500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1565800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1572800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1615000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1568500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1496200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1434400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1274500</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2747,8 +2860,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2800,61 +2916,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1225600</v>
+        <v>1213900</v>
       </c>
       <c r="E52" s="3">
-        <v>1317500</v>
+        <v>1247700</v>
       </c>
       <c r="F52" s="3">
-        <v>881600</v>
+        <v>1341200</v>
       </c>
       <c r="G52" s="3">
-        <v>874600</v>
+        <v>897500</v>
       </c>
       <c r="H52" s="3">
-        <v>844700</v>
+        <v>890400</v>
       </c>
       <c r="I52" s="3">
-        <v>849200</v>
+        <v>859900</v>
       </c>
       <c r="J52" s="3">
+        <v>864500</v>
+      </c>
+      <c r="K52" s="3">
         <v>1064200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1091400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1002900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>969100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1006800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1169300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1357900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1356900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1432200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1287300</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2906,61 +3028,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>108428300</v>
+        <v>110600500</v>
       </c>
       <c r="E54" s="3">
-        <v>111451400</v>
+        <v>110380900</v>
       </c>
       <c r="F54" s="3">
-        <v>117289300</v>
+        <v>113458500</v>
       </c>
       <c r="G54" s="3">
-        <v>114192600</v>
+        <v>119401500</v>
       </c>
       <c r="H54" s="3">
-        <v>115257100</v>
+        <v>116249100</v>
       </c>
       <c r="I54" s="3">
-        <v>112768200</v>
+        <v>117332700</v>
       </c>
       <c r="J54" s="3">
+        <v>114798900</v>
+      </c>
+      <c r="K54" s="3">
         <v>111646700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>110062600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>103439500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>102212200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>107229100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>103903100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>104075500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>102014000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>103406200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>92968100</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2980,8 +3108,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3001,326 +3130,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>9676900</v>
+        <v>10225300</v>
       </c>
       <c r="E57" s="3">
-        <v>10728600</v>
+        <v>9851200</v>
       </c>
       <c r="F57" s="3">
-        <v>12196700</v>
+        <v>10921800</v>
       </c>
       <c r="G57" s="3">
-        <v>11140900</v>
+        <v>12416300</v>
       </c>
       <c r="H57" s="3">
-        <v>11904200</v>
+        <v>11341500</v>
       </c>
       <c r="I57" s="3">
-        <v>12482300</v>
+        <v>12118500</v>
       </c>
       <c r="J57" s="3">
+        <v>12707100</v>
+      </c>
+      <c r="K57" s="3">
         <v>13217100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>12028200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>11694800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>11429100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>12147200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>11328200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>10649200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>10676900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>10787700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>8887300</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6978700</v>
+        <v>6449600</v>
       </c>
       <c r="E58" s="3">
-        <v>6583100</v>
+        <v>7104400</v>
       </c>
       <c r="F58" s="3">
-        <v>6781800</v>
+        <v>6701600</v>
       </c>
       <c r="G58" s="3">
-        <v>7459500</v>
+        <v>6903900</v>
       </c>
       <c r="H58" s="3">
-        <v>8443200</v>
+        <v>7593800</v>
       </c>
       <c r="I58" s="3">
-        <v>7707000</v>
+        <v>8595300</v>
       </c>
       <c r="J58" s="3">
+        <v>7845800</v>
+      </c>
+      <c r="K58" s="3">
         <v>7553600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6959600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>6294800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>6184300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5829800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>5542100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>6488500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>6146100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>7075800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>6388700</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5457500</v>
+        <v>5341900</v>
       </c>
       <c r="E59" s="3">
-        <v>8186800</v>
+        <v>5555800</v>
       </c>
       <c r="F59" s="3">
-        <v>6410800</v>
+        <v>8334200</v>
       </c>
       <c r="G59" s="3">
-        <v>5728800</v>
+        <v>6526300</v>
       </c>
       <c r="H59" s="3">
-        <v>5981500</v>
+        <v>5831900</v>
       </c>
       <c r="I59" s="3">
-        <v>5678900</v>
+        <v>6089300</v>
       </c>
       <c r="J59" s="3">
+        <v>5781200</v>
+      </c>
+      <c r="K59" s="3">
         <v>6905100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6461800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6059700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6783400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>6711400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5826600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5765000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5564600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>5821700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4722300</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>22113100</v>
+        <v>22016900</v>
       </c>
       <c r="E60" s="3">
-        <v>25498500</v>
+        <v>22511400</v>
       </c>
       <c r="F60" s="3">
-        <v>25389300</v>
+        <v>25957700</v>
       </c>
       <c r="G60" s="3">
-        <v>24329100</v>
+        <v>25846500</v>
       </c>
       <c r="H60" s="3">
-        <v>26328900</v>
+        <v>24767300</v>
       </c>
       <c r="I60" s="3">
-        <v>25868200</v>
+        <v>26803000</v>
       </c>
       <c r="J60" s="3">
+        <v>26334000</v>
+      </c>
+      <c r="K60" s="3">
         <v>27675800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>25449500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>24049300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>24396900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>24688500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>22697000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>22902800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>22387600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>23685200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>19998200</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>39662600</v>
+        <v>40498200</v>
       </c>
       <c r="E61" s="3">
-        <v>39923800</v>
+        <v>40376900</v>
       </c>
       <c r="F61" s="3">
-        <v>39880100</v>
+        <v>40642800</v>
       </c>
       <c r="G61" s="3">
-        <v>39635900</v>
+        <v>40598300</v>
       </c>
       <c r="H61" s="3">
-        <v>38309400</v>
+        <v>40349700</v>
       </c>
       <c r="I61" s="3">
-        <v>35957500</v>
+        <v>38999300</v>
       </c>
       <c r="J61" s="3">
+        <v>36605000</v>
+      </c>
+      <c r="K61" s="3">
         <v>33965600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>33739000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>32441500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>32027200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>34920400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>35699100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>37405600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>37431100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>38250500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>36521200</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7720200</v>
+        <v>7915900</v>
       </c>
       <c r="E62" s="3">
-        <v>7693900</v>
+        <v>7859200</v>
       </c>
       <c r="F62" s="3">
-        <v>8485500</v>
+        <v>7832500</v>
       </c>
       <c r="G62" s="3">
-        <v>7990700</v>
+        <v>8638400</v>
       </c>
       <c r="H62" s="3">
-        <v>8148300</v>
+        <v>8134600</v>
       </c>
       <c r="I62" s="3">
-        <v>8176400</v>
+        <v>8295000</v>
       </c>
       <c r="J62" s="3">
+        <v>8323600</v>
+      </c>
+      <c r="K62" s="3">
         <v>8124200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>8671300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>7800000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>7656300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>7269000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>7278500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>7072300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>6802600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>6766700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>5977300</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3372,8 +3520,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3425,8 +3576,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3478,61 +3632,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>71888600</v>
+        <v>72793400</v>
       </c>
       <c r="E66" s="3">
-        <v>75412500</v>
+        <v>73183200</v>
       </c>
       <c r="F66" s="3">
-        <v>76335900</v>
+        <v>76770600</v>
       </c>
       <c r="G66" s="3">
-        <v>74436600</v>
+        <v>77710600</v>
       </c>
       <c r="H66" s="3">
-        <v>75288700</v>
+        <v>75777100</v>
       </c>
       <c r="I66" s="3">
-        <v>72523900</v>
+        <v>76644500</v>
       </c>
       <c r="J66" s="3">
+        <v>73829900</v>
+      </c>
+      <c r="K66" s="3">
         <v>72239100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>70300400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>66567400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>66280800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>69332300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>68053100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>69759100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>68909600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>71093200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>64647500</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3552,8 +3712,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3605,8 +3766,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3658,8 +3822,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3711,8 +3878,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3764,61 +3934,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>31251400</v>
+        <v>32276400</v>
       </c>
       <c r="E72" s="3">
-        <v>31740100</v>
+        <v>31814200</v>
       </c>
       <c r="F72" s="3">
-        <v>31200300</v>
+        <v>32311700</v>
       </c>
       <c r="G72" s="3">
-        <v>30854300</v>
+        <v>31762200</v>
       </c>
       <c r="H72" s="3">
-        <v>29544400</v>
+        <v>31409900</v>
       </c>
       <c r="I72" s="3">
-        <v>29062500</v>
+        <v>30076500</v>
       </c>
       <c r="J72" s="3">
+        <v>29585900</v>
+      </c>
+      <c r="K72" s="3">
         <v>28566200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>22079200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>25998200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>26247000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>25531600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>24759700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>23601500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>22619600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>21765100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>21151000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3870,8 +4046,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3923,8 +4102,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3976,61 +4158,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>36539700</v>
+        <v>37807100</v>
       </c>
       <c r="E76" s="3">
-        <v>36038900</v>
+        <v>37197700</v>
       </c>
       <c r="F76" s="3">
-        <v>40953400</v>
+        <v>36687900</v>
       </c>
       <c r="G76" s="3">
-        <v>39756000</v>
+        <v>41690900</v>
       </c>
       <c r="H76" s="3">
-        <v>39968400</v>
+        <v>40471900</v>
       </c>
       <c r="I76" s="3">
-        <v>40244300</v>
+        <v>40688200</v>
       </c>
       <c r="J76" s="3">
+        <v>40969000</v>
+      </c>
+      <c r="K76" s="3">
         <v>39407500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>39762100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>36872200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>35931400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>37896800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>35850000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>34316500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>33104400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>32312900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>28320500</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4082,119 +4270,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>590500</v>
+        <v>456200</v>
       </c>
       <c r="E81" s="3">
-        <v>532800</v>
+        <v>601200</v>
       </c>
       <c r="F81" s="3">
-        <v>952700</v>
+        <v>542400</v>
       </c>
       <c r="G81" s="3">
-        <v>1030100</v>
+        <v>969900</v>
       </c>
       <c r="H81" s="3">
-        <v>1180300</v>
+        <v>1048600</v>
       </c>
       <c r="I81" s="3">
-        <v>605500</v>
+        <v>1201600</v>
       </c>
       <c r="J81" s="3">
+        <v>616500</v>
+      </c>
+      <c r="K81" s="3">
         <v>1200700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>970400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1076400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>376500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1252300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1153100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1001200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>672400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>961100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>539600</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4214,61 +4411,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>594900</v>
+        <v>673300</v>
       </c>
       <c r="E83" s="3">
-        <v>667700</v>
+        <v>605600</v>
       </c>
       <c r="F83" s="3">
-        <v>622200</v>
+        <v>679700</v>
       </c>
       <c r="G83" s="3">
-        <v>556500</v>
+        <v>633400</v>
       </c>
       <c r="H83" s="3">
-        <v>571500</v>
+        <v>566500</v>
       </c>
       <c r="I83" s="3">
-        <v>487200</v>
+        <v>581800</v>
       </c>
       <c r="J83" s="3">
+        <v>496000</v>
+      </c>
+      <c r="K83" s="3">
         <v>442500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>411100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>396100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>413800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>448800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>449300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>429100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>410100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>432800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>438700</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4320,8 +4521,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4373,8 +4577,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4426,8 +4633,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4479,8 +4689,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4532,61 +4745,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1548500</v>
+        <v>2083400</v>
       </c>
       <c r="E89" s="3">
-        <v>1316900</v>
+        <v>1576400</v>
       </c>
       <c r="F89" s="3">
-        <v>568200</v>
+        <v>1340600</v>
       </c>
       <c r="G89" s="3">
-        <v>1876700</v>
+        <v>578500</v>
       </c>
       <c r="H89" s="3">
-        <v>1207200</v>
+        <v>1910400</v>
       </c>
       <c r="I89" s="3">
-        <v>464400</v>
+        <v>1228900</v>
       </c>
       <c r="J89" s="3">
+        <v>472800</v>
+      </c>
+      <c r="K89" s="3">
         <v>1886300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>251200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1223700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1352500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2182700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-372700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1833000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1624300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1312000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>298600</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4606,61 +4825,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-774800</v>
+        <v>-440800</v>
       </c>
       <c r="E91" s="3">
+        <v>-788800</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-729900</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-836300</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-605500</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-594400</v>
+      </c>
+      <c r="J91" s="3">
         <v>-717000</v>
       </c>
-      <c r="F91" s="3">
-        <v>-821500</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-594800</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-583800</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-704300</v>
-      </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-868800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-680800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-616300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>707600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-337700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-384300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-196300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-458100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-338400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-537000</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4712,8 +4935,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4765,61 +4991,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1024600</v>
+        <v>-1111700</v>
       </c>
       <c r="E94" s="3">
-        <v>199600</v>
+        <v>-1043100</v>
       </c>
       <c r="F94" s="3">
-        <v>-744600</v>
+        <v>203200</v>
       </c>
       <c r="G94" s="3">
-        <v>-160500</v>
+        <v>-758000</v>
       </c>
       <c r="H94" s="3">
-        <v>-1043100</v>
+        <v>-163400</v>
       </c>
       <c r="I94" s="3">
-        <v>-2549600</v>
+        <v>-1061900</v>
       </c>
       <c r="J94" s="3">
+        <v>-2595500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1897000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1369400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-914400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-579400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-717100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-761300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-186100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-967700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-474900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-603200</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4839,61 +5071,65 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-644800</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-656400</v>
       </c>
       <c r="F96" s="3">
-        <v>-656500</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-668300</v>
       </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-668100</v>
+      </c>
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-656300</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-656300</v>
-      </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-631900</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-478400</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-478400</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-397500</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4945,8 +5181,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4998,8 +5237,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5051,163 +5293,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-833000</v>
+        <v>-423600</v>
       </c>
       <c r="E100" s="3">
-        <v>-139400</v>
+        <v>-848000</v>
       </c>
       <c r="F100" s="3">
-        <v>-1929700</v>
+        <v>-142000</v>
       </c>
       <c r="G100" s="3">
-        <v>-70700</v>
+        <v>-1964400</v>
       </c>
       <c r="H100" s="3">
-        <v>208700</v>
+        <v>-71900</v>
       </c>
       <c r="I100" s="3">
-        <v>2089200</v>
+        <v>212500</v>
       </c>
       <c r="J100" s="3">
+        <v>2126800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-385900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>482800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-954700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1145700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1020400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2791000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-939700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1316100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-841900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>217200</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>145300</v>
+        <v>8100</v>
       </c>
       <c r="E101" s="3">
-        <v>-314800</v>
+        <v>147900</v>
       </c>
       <c r="F101" s="3">
-        <v>153600</v>
+        <v>-320500</v>
       </c>
       <c r="G101" s="3">
-        <v>-84500</v>
+        <v>156400</v>
       </c>
       <c r="H101" s="3">
-        <v>-74900</v>
+        <v>-86000</v>
       </c>
       <c r="I101" s="3">
-        <v>23300</v>
+        <v>-76200</v>
       </c>
       <c r="J101" s="3">
+        <v>23700</v>
+      </c>
+      <c r="K101" s="3">
         <v>-142100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>124000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>45000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-335900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>3300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>100100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>10700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-65200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>603600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-59700</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-163700</v>
+        <v>556300</v>
       </c>
       <c r="E102" s="3">
-        <v>1062300</v>
+        <v>-166700</v>
       </c>
       <c r="F102" s="3">
-        <v>-1952400</v>
+        <v>1081400</v>
       </c>
       <c r="G102" s="3">
-        <v>1561000</v>
+        <v>-1987500</v>
       </c>
       <c r="H102" s="3">
-        <v>297900</v>
+        <v>1589100</v>
       </c>
       <c r="I102" s="3">
-        <v>27200</v>
+        <v>303200</v>
       </c>
       <c r="J102" s="3">
+        <v>27700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-404700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-643100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-600500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-708500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>448600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-3824900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>717900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-724700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>598900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-147200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MITSY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MITSY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>MITSY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,246 +665,258 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>14624800</v>
+        <v>15164100</v>
       </c>
       <c r="E8" s="3">
-        <v>14624200</v>
+        <v>13940000</v>
       </c>
       <c r="F8" s="3">
-        <v>16250900</v>
+        <v>13939400</v>
       </c>
       <c r="G8" s="3">
-        <v>17132300</v>
+        <v>15490000</v>
       </c>
       <c r="H8" s="3">
-        <v>17087700</v>
+        <v>16330000</v>
       </c>
       <c r="I8" s="3">
-        <v>15694300</v>
+        <v>16287500</v>
       </c>
       <c r="J8" s="3">
+        <v>14959400</v>
+      </c>
+      <c r="K8" s="3">
         <v>18687200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>16988500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>15394900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>14145800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>11201800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>11381200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>10959900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>10682200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>10539300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>10144100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>8977900</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>12913000</v>
+        <v>13328800</v>
       </c>
       <c r="E9" s="3">
-        <v>12801100</v>
+        <v>12308400</v>
       </c>
       <c r="F9" s="3">
-        <v>14338500</v>
+        <v>12201700</v>
       </c>
       <c r="G9" s="3">
-        <v>15092700</v>
+        <v>13667100</v>
       </c>
       <c r="H9" s="3">
-        <v>14983500</v>
+        <v>14386000</v>
       </c>
       <c r="I9" s="3">
-        <v>13683600</v>
+        <v>14281900</v>
       </c>
       <c r="J9" s="3">
+        <v>13042800</v>
+      </c>
+      <c r="K9" s="3">
         <v>16713400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>15012100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>13487900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>12160100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>9567400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>9519200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>9110700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>8879700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>8666700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>8528400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>7541800</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1711800</v>
+        <v>1835300</v>
       </c>
       <c r="E10" s="3">
-        <v>1823100</v>
+        <v>1631700</v>
       </c>
       <c r="F10" s="3">
-        <v>1912400</v>
+        <v>1737700</v>
       </c>
       <c r="G10" s="3">
-        <v>2039600</v>
+        <v>1822800</v>
       </c>
       <c r="H10" s="3">
-        <v>2104200</v>
+        <v>1944100</v>
       </c>
       <c r="I10" s="3">
-        <v>2010700</v>
+        <v>2005700</v>
       </c>
       <c r="J10" s="3">
+        <v>1916600</v>
+      </c>
+      <c r="K10" s="3">
         <v>1973800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1976400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1906900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1985700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1634400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1861900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1849100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1802500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1872600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1615700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1436100</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -925,8 +937,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -981,8 +994,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1037,64 +1053,70 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>47700</v>
+        <v>319300</v>
       </c>
       <c r="E14" s="3">
-        <v>2900</v>
+        <v>45500</v>
       </c>
       <c r="F14" s="3">
-        <v>953400</v>
+        <v>2800</v>
       </c>
       <c r="G14" s="3">
-        <v>86600</v>
+        <v>908700</v>
       </c>
       <c r="H14" s="3">
-        <v>8700</v>
+        <v>82500</v>
       </c>
       <c r="I14" s="3">
-        <v>16300</v>
+        <v>8300</v>
       </c>
       <c r="J14" s="3">
+        <v>15500</v>
+      </c>
+      <c r="K14" s="3">
         <v>225400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>20700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>3800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>8900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>59600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>91800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>67000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>11600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>48200</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1149,8 +1171,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1168,120 +1193,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>14429600</v>
+        <v>15195500</v>
       </c>
       <c r="E17" s="3">
-        <v>14015800</v>
+        <v>13753900</v>
       </c>
       <c r="F17" s="3">
-        <v>16347400</v>
+        <v>13359500</v>
       </c>
       <c r="G17" s="3">
-        <v>16532000</v>
+        <v>15581900</v>
       </c>
       <c r="H17" s="3">
-        <v>16293300</v>
+        <v>15757900</v>
       </c>
       <c r="I17" s="3">
-        <v>14908800</v>
+        <v>15530300</v>
       </c>
       <c r="J17" s="3">
+        <v>14210600</v>
+      </c>
+      <c r="K17" s="3">
         <v>18422900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>16308000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>14800500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>13271100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>11108400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>10721200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>10139700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>9954000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>9794000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>9291500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>8516000</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>195200</v>
+        <v>-31500</v>
       </c>
       <c r="E18" s="3">
-        <v>608400</v>
+        <v>186100</v>
       </c>
       <c r="F18" s="3">
-        <v>-96500</v>
+        <v>579900</v>
       </c>
       <c r="G18" s="3">
-        <v>600200</v>
+        <v>-91900</v>
       </c>
       <c r="H18" s="3">
-        <v>794400</v>
+        <v>572100</v>
       </c>
       <c r="I18" s="3">
-        <v>785500</v>
+        <v>757200</v>
       </c>
       <c r="J18" s="3">
+        <v>748700</v>
+      </c>
+      <c r="K18" s="3">
         <v>264200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>680500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>594400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>874700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>93400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>660000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>820200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>728200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>745300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>852600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>461900</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1302,288 +1334,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>723900</v>
+        <v>952400</v>
       </c>
       <c r="E20" s="3">
-        <v>520100</v>
+        <v>690000</v>
       </c>
       <c r="F20" s="3">
-        <v>896600</v>
+        <v>495700</v>
       </c>
       <c r="G20" s="3">
-        <v>1080500</v>
+        <v>854600</v>
       </c>
       <c r="H20" s="3">
-        <v>835900</v>
+        <v>1029900</v>
       </c>
       <c r="I20" s="3">
-        <v>1099600</v>
+        <v>796700</v>
       </c>
       <c r="J20" s="3">
+        <v>1048100</v>
+      </c>
+      <c r="K20" s="3">
         <v>949200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1042200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>982200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>815900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>682600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>963900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>765600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>808400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>451900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>662000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>545900</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1592500</v>
+        <v>1536000</v>
       </c>
       <c r="E21" s="3">
-        <v>1734000</v>
+        <v>1517900</v>
       </c>
       <c r="F21" s="3">
-        <v>1479900</v>
+        <v>1652800</v>
       </c>
       <c r="G21" s="3">
-        <v>2314100</v>
+        <v>1410600</v>
       </c>
       <c r="H21" s="3">
-        <v>2196800</v>
+        <v>2205700</v>
       </c>
       <c r="I21" s="3">
-        <v>2466900</v>
+        <v>2093900</v>
       </c>
       <c r="J21" s="3">
+        <v>2351400</v>
+      </c>
+      <c r="K21" s="3">
         <v>1709400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2165200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1987800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2086700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1189800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2072700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2035100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1965600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1607200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1947400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1446600</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>124400</v>
+        <v>115600</v>
       </c>
       <c r="E22" s="3">
-        <v>148300</v>
+        <v>118600</v>
       </c>
       <c r="F22" s="3">
-        <v>194600</v>
+        <v>141400</v>
       </c>
       <c r="G22" s="3">
-        <v>216300</v>
+        <v>185500</v>
       </c>
       <c r="H22" s="3">
-        <v>222200</v>
+        <v>206100</v>
       </c>
       <c r="I22" s="3">
-        <v>228300</v>
+        <v>211800</v>
       </c>
       <c r="J22" s="3">
+        <v>217600</v>
+      </c>
+      <c r="K22" s="3">
         <v>194400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>191600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>191700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>172300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>149100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>150300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>156500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>145100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>140900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>133700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>118100</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>794800</v>
+        <v>805300</v>
       </c>
       <c r="E23" s="3">
-        <v>980100</v>
+        <v>757600</v>
       </c>
       <c r="F23" s="3">
-        <v>605500</v>
+        <v>934200</v>
       </c>
       <c r="G23" s="3">
-        <v>1464400</v>
+        <v>577200</v>
       </c>
       <c r="H23" s="3">
-        <v>1408100</v>
+        <v>1395900</v>
       </c>
       <c r="I23" s="3">
-        <v>1656800</v>
+        <v>1342200</v>
       </c>
       <c r="J23" s="3">
+        <v>1579200</v>
+      </c>
+      <c r="K23" s="3">
         <v>1019000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1531100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1384900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1518300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>626900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1473600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1429300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1391500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1056300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1380900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>889700</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>308500</v>
+        <v>-40100</v>
       </c>
       <c r="E24" s="3">
-        <v>339500</v>
+        <v>294100</v>
       </c>
       <c r="F24" s="3">
-        <v>96500</v>
+        <v>323600</v>
       </c>
       <c r="G24" s="3">
-        <v>431500</v>
+        <v>92000</v>
       </c>
       <c r="H24" s="3">
-        <v>293600</v>
+        <v>411300</v>
       </c>
       <c r="I24" s="3">
-        <v>360600</v>
+        <v>279800</v>
       </c>
       <c r="J24" s="3">
+        <v>343700</v>
+      </c>
+      <c r="K24" s="3">
         <v>397900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>289000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>367300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>372800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>201200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>158300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>234300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>338000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>320800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>367600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>316000</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1638,120 +1686,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>486300</v>
+        <v>845400</v>
       </c>
       <c r="E26" s="3">
-        <v>640600</v>
+        <v>463500</v>
       </c>
       <c r="F26" s="3">
-        <v>509000</v>
+        <v>610600</v>
       </c>
       <c r="G26" s="3">
-        <v>1032900</v>
+        <v>485200</v>
       </c>
       <c r="H26" s="3">
-        <v>1114500</v>
+        <v>984600</v>
       </c>
       <c r="I26" s="3">
-        <v>1296200</v>
+        <v>1062300</v>
       </c>
       <c r="J26" s="3">
+        <v>1235500</v>
+      </c>
+      <c r="K26" s="3">
         <v>621100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1242100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1017600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1145500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>425700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1315300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1195000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1053500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>735500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1013300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>573700</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>456200</v>
+        <v>814400</v>
       </c>
       <c r="E27" s="3">
-        <v>601200</v>
+        <v>434800</v>
       </c>
       <c r="F27" s="3">
-        <v>542400</v>
+        <v>573000</v>
       </c>
       <c r="G27" s="3">
-        <v>969900</v>
+        <v>517000</v>
       </c>
       <c r="H27" s="3">
-        <v>1048600</v>
+        <v>924500</v>
       </c>
       <c r="I27" s="3">
-        <v>1201600</v>
+        <v>999500</v>
       </c>
       <c r="J27" s="3">
+        <v>1145300</v>
+      </c>
+      <c r="K27" s="3">
         <v>616500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1200700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>970400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1076400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>376500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1252300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1153100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1001200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>672400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>961100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>539600</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1806,8 +1863,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1862,8 +1922,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1918,8 +1981,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1974,120 +2040,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-723900</v>
+        <v>-952400</v>
       </c>
       <c r="E32" s="3">
-        <v>-520100</v>
+        <v>-690000</v>
       </c>
       <c r="F32" s="3">
-        <v>-896600</v>
+        <v>-495700</v>
       </c>
       <c r="G32" s="3">
-        <v>-1080500</v>
+        <v>-854600</v>
       </c>
       <c r="H32" s="3">
-        <v>-835900</v>
+        <v>-1029900</v>
       </c>
       <c r="I32" s="3">
-        <v>-1099600</v>
+        <v>-796700</v>
       </c>
       <c r="J32" s="3">
+        <v>-1048100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-949200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1042200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-982200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-815900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-682600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-963900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-765600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-808400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-451900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-662000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-545900</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>456200</v>
+        <v>814400</v>
       </c>
       <c r="E33" s="3">
-        <v>601200</v>
+        <v>434800</v>
       </c>
       <c r="F33" s="3">
-        <v>542400</v>
+        <v>573000</v>
       </c>
       <c r="G33" s="3">
-        <v>969900</v>
+        <v>517000</v>
       </c>
       <c r="H33" s="3">
-        <v>1048600</v>
+        <v>924500</v>
       </c>
       <c r="I33" s="3">
-        <v>1201600</v>
+        <v>999500</v>
       </c>
       <c r="J33" s="3">
+        <v>1145300</v>
+      </c>
+      <c r="K33" s="3">
         <v>616500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1200700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>970400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1076400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>376500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1252300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1153100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1001200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>672400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>961100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>539600</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2142,125 +2217,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>456200</v>
+        <v>814400</v>
       </c>
       <c r="E35" s="3">
-        <v>601200</v>
+        <v>434800</v>
       </c>
       <c r="F35" s="3">
-        <v>542400</v>
+        <v>573000</v>
       </c>
       <c r="G35" s="3">
-        <v>969900</v>
+        <v>517000</v>
       </c>
       <c r="H35" s="3">
-        <v>1048600</v>
+        <v>924500</v>
       </c>
       <c r="I35" s="3">
-        <v>1201600</v>
+        <v>999500</v>
       </c>
       <c r="J35" s="3">
+        <v>1145300</v>
+      </c>
+      <c r="K35" s="3">
         <v>616500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1200700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>970400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1076400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>376500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1252300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1153100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1001200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>672400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>961100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>539600</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2281,8 +2365,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2303,512 +2388,540 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>10564100</v>
+        <v>8963300</v>
       </c>
       <c r="E41" s="3">
-        <v>10007700</v>
+        <v>10069400</v>
       </c>
       <c r="F41" s="3">
-        <v>10174400</v>
+        <v>9539100</v>
       </c>
       <c r="G41" s="3">
-        <v>9093000</v>
+        <v>9698000</v>
       </c>
       <c r="H41" s="3">
-        <v>11080600</v>
+        <v>8667200</v>
       </c>
       <c r="I41" s="3">
-        <v>9491400</v>
+        <v>10561700</v>
       </c>
       <c r="J41" s="3">
+        <v>9047000</v>
+      </c>
+      <c r="K41" s="3">
         <v>9188200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8998400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9253700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9683800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>10227700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>10936200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>10487600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>14312400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>13338900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>14063500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>13464600</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3848400</v>
+        <v>3939700</v>
       </c>
       <c r="E42" s="3">
-        <v>4085900</v>
+        <v>3668200</v>
       </c>
       <c r="F42" s="3">
-        <v>5409500</v>
+        <v>3894600</v>
       </c>
       <c r="G42" s="3">
-        <v>3166700</v>
+        <v>5156200</v>
       </c>
       <c r="H42" s="3">
-        <v>2831000</v>
+        <v>3018400</v>
       </c>
       <c r="I42" s="3">
-        <v>2888200</v>
+        <v>2698400</v>
       </c>
       <c r="J42" s="3">
+        <v>2753000</v>
+      </c>
+      <c r="K42" s="3">
         <v>2445800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>3255400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2869100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2702600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2205000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>3030500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2627800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>2445500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>2374300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>3915400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>3786600</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>13822000</v>
+        <v>15785900</v>
       </c>
       <c r="E43" s="3">
-        <v>14031500</v>
+        <v>13174800</v>
       </c>
       <c r="F43" s="3">
-        <v>15592200</v>
+        <v>13374500</v>
       </c>
       <c r="G43" s="3">
-        <v>17475700</v>
+        <v>14862100</v>
       </c>
       <c r="H43" s="3">
-        <v>15592400</v>
+        <v>16657400</v>
       </c>
       <c r="I43" s="3">
-        <v>16698900</v>
+        <v>14862300</v>
       </c>
       <c r="J43" s="3">
+        <v>15916900</v>
+      </c>
+      <c r="K43" s="3">
         <v>17338600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>17779600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>16564800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>15649400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>15964800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>17290200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>16461900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>14971500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>15428500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>15480700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>13205700</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5327400</v>
+        <v>5515700</v>
       </c>
       <c r="E44" s="3">
-        <v>5131300</v>
+        <v>5077900</v>
       </c>
       <c r="F44" s="3">
-        <v>5322600</v>
+        <v>4891000</v>
       </c>
       <c r="G44" s="3">
-        <v>6627900</v>
+        <v>5073400</v>
       </c>
       <c r="H44" s="3">
-        <v>6159300</v>
+        <v>6317500</v>
       </c>
       <c r="I44" s="3">
-        <v>6190900</v>
+        <v>5870900</v>
       </c>
       <c r="J44" s="3">
+        <v>5901000</v>
+      </c>
+      <c r="K44" s="3">
         <v>5839800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5950700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5828600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>5150500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4978300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>5689100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>5718500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>5394500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>5229200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>5336700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>4779400</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2637900</v>
+        <v>2545000</v>
       </c>
       <c r="E45" s="3">
-        <v>2955200</v>
+        <v>2514300</v>
       </c>
       <c r="F45" s="3">
-        <v>3136900</v>
+        <v>2816800</v>
       </c>
       <c r="G45" s="3">
-        <v>3103100</v>
+        <v>2990100</v>
       </c>
       <c r="H45" s="3">
-        <v>3042700</v>
+        <v>2957800</v>
       </c>
       <c r="I45" s="3">
-        <v>3399400</v>
+        <v>2900300</v>
       </c>
       <c r="J45" s="3">
+        <v>3240200</v>
+      </c>
+      <c r="K45" s="3">
         <v>3592300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3707100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3593900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3510500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4828700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>4005100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3659200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3525900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3320100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3359700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2996000</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>36199700</v>
+        <v>36749700</v>
       </c>
       <c r="E46" s="3">
-        <v>36211700</v>
+        <v>34504600</v>
       </c>
       <c r="F46" s="3">
-        <v>39635700</v>
+        <v>34516000</v>
       </c>
       <c r="G46" s="3">
-        <v>39466500</v>
+        <v>37779700</v>
       </c>
       <c r="H46" s="3">
-        <v>38706000</v>
+        <v>37618400</v>
       </c>
       <c r="I46" s="3">
-        <v>38668800</v>
+        <v>36893600</v>
       </c>
       <c r="J46" s="3">
+        <v>36858100</v>
+      </c>
+      <c r="K46" s="3">
         <v>38404700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>39691200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>38110200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>36696800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>38204500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>40951100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>38955000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>40649900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>39691000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>42156100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>38232400</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>48111600</v>
+        <v>46530300</v>
       </c>
       <c r="E47" s="3">
-        <v>47890900</v>
+        <v>45858700</v>
       </c>
       <c r="F47" s="3">
-        <v>47798300</v>
+        <v>45648400</v>
       </c>
       <c r="G47" s="3">
-        <v>53181800</v>
+        <v>45560100</v>
       </c>
       <c r="H47" s="3">
-        <v>51776400</v>
+        <v>50691500</v>
       </c>
       <c r="I47" s="3">
-        <v>53015200</v>
+        <v>49351900</v>
       </c>
       <c r="J47" s="3">
+        <v>50532700</v>
+      </c>
+      <c r="K47" s="3">
         <v>53209900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>48784500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>49446400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>45792300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>44126500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>45878300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>44160100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>42595400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>41700800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>39980100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>35285000</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>23215300</v>
+        <v>21964300</v>
       </c>
       <c r="E48" s="3">
-        <v>23178400</v>
+        <v>22128200</v>
       </c>
       <c r="F48" s="3">
-        <v>22806500</v>
+        <v>22093100</v>
       </c>
       <c r="G48" s="3">
-        <v>23586400</v>
+        <v>21738600</v>
       </c>
       <c r="H48" s="3">
-        <v>22589700</v>
+        <v>22481900</v>
       </c>
       <c r="I48" s="3">
-        <v>22449100</v>
+        <v>21531900</v>
       </c>
       <c r="J48" s="3">
+        <v>21397900</v>
+      </c>
+      <c r="K48" s="3">
         <v>20646900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>20363100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>19807500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>18394900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>17346400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>17820100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>18003700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>17903900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>17769100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>18403400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>16888800</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1860000</v>
+        <v>1706100</v>
       </c>
       <c r="E49" s="3">
-        <v>1852200</v>
+        <v>1772900</v>
       </c>
       <c r="F49" s="3">
-        <v>1876700</v>
+        <v>1765400</v>
       </c>
       <c r="G49" s="3">
-        <v>2269400</v>
+        <v>1788800</v>
       </c>
       <c r="H49" s="3">
-        <v>2286500</v>
+        <v>2163100</v>
       </c>
       <c r="I49" s="3">
-        <v>2339700</v>
+        <v>2179500</v>
       </c>
       <c r="J49" s="3">
+        <v>2230100</v>
+      </c>
+      <c r="K49" s="3">
         <v>1673000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1743600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1607100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1552500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1565800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1572800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1615000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1568500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1496200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1434400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1274500</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2863,8 +2976,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2919,64 +3035,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1213900</v>
+        <v>1519500</v>
       </c>
       <c r="E52" s="3">
-        <v>1247700</v>
+        <v>1157100</v>
       </c>
       <c r="F52" s="3">
-        <v>1341200</v>
+        <v>1189300</v>
       </c>
       <c r="G52" s="3">
-        <v>897500</v>
+        <v>1278400</v>
       </c>
       <c r="H52" s="3">
-        <v>890400</v>
+        <v>855500</v>
       </c>
       <c r="I52" s="3">
-        <v>859900</v>
+        <v>848700</v>
       </c>
       <c r="J52" s="3">
+        <v>819700</v>
+      </c>
+      <c r="K52" s="3">
         <v>864500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1064200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1091400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1002900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>969100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1006800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1169300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1357900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1356900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1432200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1287300</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3031,64 +3153,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>110600500</v>
+        <v>108469800</v>
       </c>
       <c r="E54" s="3">
-        <v>110380900</v>
+        <v>105421500</v>
       </c>
       <c r="F54" s="3">
-        <v>113458500</v>
+        <v>105212200</v>
       </c>
       <c r="G54" s="3">
-        <v>119401500</v>
+        <v>108145600</v>
       </c>
       <c r="H54" s="3">
-        <v>116249100</v>
+        <v>113810400</v>
       </c>
       <c r="I54" s="3">
-        <v>117332700</v>
+        <v>110805600</v>
       </c>
       <c r="J54" s="3">
+        <v>111838500</v>
+      </c>
+      <c r="K54" s="3">
         <v>114798900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>111646700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>110062600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>103439500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>102212200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>107229100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>103903100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>104075500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>102014000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>103406200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>92968100</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3109,8 +3237,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3131,344 +3260,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>10225300</v>
+        <v>10919000</v>
       </c>
       <c r="E57" s="3">
-        <v>9851200</v>
+        <v>9746500</v>
       </c>
       <c r="F57" s="3">
-        <v>10921800</v>
+        <v>9389900</v>
       </c>
       <c r="G57" s="3">
-        <v>12416300</v>
+        <v>10410400</v>
       </c>
       <c r="H57" s="3">
-        <v>11341500</v>
+        <v>11834900</v>
       </c>
       <c r="I57" s="3">
-        <v>12118500</v>
+        <v>10810400</v>
       </c>
       <c r="J57" s="3">
+        <v>11551100</v>
+      </c>
+      <c r="K57" s="3">
         <v>12707100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>13217100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>12028200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>11694800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>11429100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>12147200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>11328200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>10649200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>10676900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>10787700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>8887300</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6449600</v>
+        <v>6307400</v>
       </c>
       <c r="E58" s="3">
-        <v>7104400</v>
+        <v>6147600</v>
       </c>
       <c r="F58" s="3">
-        <v>6701600</v>
+        <v>6771700</v>
       </c>
       <c r="G58" s="3">
-        <v>6903900</v>
+        <v>6387800</v>
       </c>
       <c r="H58" s="3">
-        <v>7593800</v>
+        <v>6580600</v>
       </c>
       <c r="I58" s="3">
-        <v>8595300</v>
+        <v>7238200</v>
       </c>
       <c r="J58" s="3">
+        <v>8192800</v>
+      </c>
+      <c r="K58" s="3">
         <v>7845800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>7553600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>6959600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>6294800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>6184300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>5829800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>5542100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>6488500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>6146100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>7075800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>6388700</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5341900</v>
+        <v>5640900</v>
       </c>
       <c r="E59" s="3">
-        <v>5555800</v>
+        <v>5091800</v>
       </c>
       <c r="F59" s="3">
-        <v>8334200</v>
+        <v>5295700</v>
       </c>
       <c r="G59" s="3">
-        <v>6526300</v>
+        <v>7944000</v>
       </c>
       <c r="H59" s="3">
-        <v>5831900</v>
+        <v>6220700</v>
       </c>
       <c r="I59" s="3">
-        <v>6089300</v>
+        <v>5558900</v>
       </c>
       <c r="J59" s="3">
+        <v>5804100</v>
+      </c>
+      <c r="K59" s="3">
         <v>5781200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6905100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6461800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6059700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>6783400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6711400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5826600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5765000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>5564600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>5821700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4722300</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>22016900</v>
+        <v>22867200</v>
       </c>
       <c r="E60" s="3">
-        <v>22511400</v>
+        <v>20985900</v>
       </c>
       <c r="F60" s="3">
-        <v>25957700</v>
+        <v>21457200</v>
       </c>
       <c r="G60" s="3">
-        <v>25846500</v>
+        <v>24742200</v>
       </c>
       <c r="H60" s="3">
-        <v>24767300</v>
+        <v>24636200</v>
       </c>
       <c r="I60" s="3">
-        <v>26803000</v>
+        <v>23607500</v>
       </c>
       <c r="J60" s="3">
+        <v>25548000</v>
+      </c>
+      <c r="K60" s="3">
         <v>26334000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>27675800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>25449500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>24049300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>24396900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>24688500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>22697000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>22902800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>22387600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>23685200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>19998200</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>40498200</v>
+        <v>37555900</v>
       </c>
       <c r="E61" s="3">
-        <v>40376900</v>
+        <v>38601800</v>
       </c>
       <c r="F61" s="3">
-        <v>40642800</v>
+        <v>38486200</v>
       </c>
       <c r="G61" s="3">
-        <v>40598300</v>
+        <v>38739600</v>
       </c>
       <c r="H61" s="3">
-        <v>40349700</v>
+        <v>38697300</v>
       </c>
       <c r="I61" s="3">
-        <v>38999300</v>
+        <v>38460200</v>
       </c>
       <c r="J61" s="3">
+        <v>37173100</v>
+      </c>
+      <c r="K61" s="3">
         <v>36605000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>33965600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>33739000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>32441500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>32027200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>34920400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>35699100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>37405600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>37431100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>38250500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>36521200</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7915900</v>
+        <v>7918400</v>
       </c>
       <c r="E62" s="3">
-        <v>7859200</v>
+        <v>7545300</v>
       </c>
       <c r="F62" s="3">
-        <v>7832500</v>
+        <v>7491200</v>
       </c>
       <c r="G62" s="3">
-        <v>8638400</v>
+        <v>7465700</v>
       </c>
       <c r="H62" s="3">
-        <v>8134600</v>
+        <v>8233900</v>
       </c>
       <c r="I62" s="3">
-        <v>8295000</v>
+        <v>7753700</v>
       </c>
       <c r="J62" s="3">
+        <v>7906600</v>
+      </c>
+      <c r="K62" s="3">
         <v>8323600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>8124200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>8671300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>7800000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>7656300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>7269000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>7278500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>7072300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>6802600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>6766700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>5977300</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3523,8 +3671,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3579,8 +3730,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3635,64 +3789,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>72793400</v>
+        <v>70585000</v>
       </c>
       <c r="E66" s="3">
-        <v>73183200</v>
+        <v>69384700</v>
       </c>
       <c r="F66" s="3">
-        <v>76770600</v>
+        <v>69756300</v>
       </c>
       <c r="G66" s="3">
-        <v>77710600</v>
+        <v>73175700</v>
       </c>
       <c r="H66" s="3">
-        <v>75777100</v>
+        <v>74071700</v>
       </c>
       <c r="I66" s="3">
-        <v>76644500</v>
+        <v>72228800</v>
       </c>
       <c r="J66" s="3">
+        <v>73055600</v>
+      </c>
+      <c r="K66" s="3">
         <v>73829900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>72239100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>70300400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>66567400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>66280800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>69332300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>68053100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>69759100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>68909600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>71093200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>64647500</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3713,8 +3873,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3769,8 +3930,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3825,8 +3989,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3881,8 +4048,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3937,64 +4107,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>32276400</v>
+        <v>30921100</v>
       </c>
       <c r="E72" s="3">
-        <v>31814200</v>
+        <v>30765000</v>
       </c>
       <c r="F72" s="3">
-        <v>32311700</v>
+        <v>30324500</v>
       </c>
       <c r="G72" s="3">
-        <v>31762200</v>
+        <v>30798600</v>
       </c>
       <c r="H72" s="3">
-        <v>31409900</v>
+        <v>30274900</v>
       </c>
       <c r="I72" s="3">
-        <v>30076500</v>
+        <v>29939100</v>
       </c>
       <c r="J72" s="3">
+        <v>28668100</v>
+      </c>
+      <c r="K72" s="3">
         <v>29585900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>28566200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>22079200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>25998200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>26247000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>25531600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>24759700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>23601500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>22619600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>21765100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>21151000</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4049,8 +4225,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4105,8 +4284,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4161,64 +4343,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>37807100</v>
+        <v>37884800</v>
       </c>
       <c r="E76" s="3">
-        <v>37197700</v>
+        <v>36036800</v>
       </c>
       <c r="F76" s="3">
-        <v>36687900</v>
+        <v>35455900</v>
       </c>
       <c r="G76" s="3">
-        <v>41690900</v>
+        <v>34969900</v>
       </c>
       <c r="H76" s="3">
-        <v>40471900</v>
+        <v>39738700</v>
       </c>
       <c r="I76" s="3">
-        <v>40688200</v>
+        <v>38576800</v>
       </c>
       <c r="J76" s="3">
+        <v>38782900</v>
+      </c>
+      <c r="K76" s="3">
         <v>40969000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>39407500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>39762100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>36872200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>35931400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>37896800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>35850000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>34316500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>33104400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>32312900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>28320500</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4273,125 +4461,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>456200</v>
+        <v>814400</v>
       </c>
       <c r="E81" s="3">
-        <v>601200</v>
+        <v>434800</v>
       </c>
       <c r="F81" s="3">
-        <v>542400</v>
+        <v>573000</v>
       </c>
       <c r="G81" s="3">
-        <v>969900</v>
+        <v>517000</v>
       </c>
       <c r="H81" s="3">
-        <v>1048600</v>
+        <v>924500</v>
       </c>
       <c r="I81" s="3">
-        <v>1201600</v>
+        <v>999500</v>
       </c>
       <c r="J81" s="3">
+        <v>1145300</v>
+      </c>
+      <c r="K81" s="3">
         <v>616500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1200700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>970400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1076400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>376500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1252300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1153100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1001200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>672400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>961100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>539600</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4412,64 +4609,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>673300</v>
+        <v>615100</v>
       </c>
       <c r="E83" s="3">
-        <v>605600</v>
+        <v>641800</v>
       </c>
       <c r="F83" s="3">
-        <v>679700</v>
+        <v>577200</v>
       </c>
       <c r="G83" s="3">
-        <v>633400</v>
+        <v>647900</v>
       </c>
       <c r="H83" s="3">
-        <v>566500</v>
+        <v>603700</v>
       </c>
       <c r="I83" s="3">
-        <v>581800</v>
+        <v>540000</v>
       </c>
       <c r="J83" s="3">
+        <v>554500</v>
+      </c>
+      <c r="K83" s="3">
         <v>496000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>442500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>411100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>396100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>413800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>448800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>449300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>429100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>410100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>432800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>438700</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4524,8 +4725,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4580,8 +4784,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4636,8 +4843,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4692,8 +4902,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4748,64 +4961,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2083400</v>
+        <v>1114000</v>
       </c>
       <c r="E89" s="3">
-        <v>1576400</v>
+        <v>1985900</v>
       </c>
       <c r="F89" s="3">
-        <v>1340600</v>
+        <v>1502600</v>
       </c>
       <c r="G89" s="3">
-        <v>578500</v>
+        <v>1277900</v>
       </c>
       <c r="H89" s="3">
-        <v>1910400</v>
+        <v>551400</v>
       </c>
       <c r="I89" s="3">
-        <v>1228900</v>
+        <v>1821000</v>
       </c>
       <c r="J89" s="3">
+        <v>1171400</v>
+      </c>
+      <c r="K89" s="3">
         <v>472800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1886300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>251200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1223700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1352500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2182700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-372700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1833000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1624300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1312000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>298600</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4826,64 +5045,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-440800</v>
+        <v>-447800</v>
       </c>
       <c r="E91" s="3">
-        <v>-788800</v>
+        <v>-420200</v>
       </c>
       <c r="F91" s="3">
-        <v>-729900</v>
+        <v>-751800</v>
       </c>
       <c r="G91" s="3">
-        <v>-836300</v>
+        <v>-695700</v>
       </c>
       <c r="H91" s="3">
-        <v>-605500</v>
+        <v>-797200</v>
       </c>
       <c r="I91" s="3">
-        <v>-594400</v>
+        <v>-577200</v>
       </c>
       <c r="J91" s="3">
+        <v>-566500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-717000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-868800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-680800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-616300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>707600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-337700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-384300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-196300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-458100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-338400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-537000</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4938,8 +5161,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4994,64 +5220,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1111700</v>
+        <v>-772400</v>
       </c>
       <c r="E94" s="3">
-        <v>-1043100</v>
+        <v>-1059600</v>
       </c>
       <c r="F94" s="3">
-        <v>203200</v>
+        <v>-994200</v>
       </c>
       <c r="G94" s="3">
-        <v>-758000</v>
+        <v>193700</v>
       </c>
       <c r="H94" s="3">
-        <v>-163400</v>
+        <v>-722500</v>
       </c>
       <c r="I94" s="3">
-        <v>-1061900</v>
+        <v>-155700</v>
       </c>
       <c r="J94" s="3">
+        <v>-1012200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2595500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1897000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1369400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-914400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-579400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-717100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-761300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-186100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-967700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-474900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-603200</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5072,64 +5304,68 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-615300</v>
       </c>
       <c r="E96" s="3">
-        <v>-656400</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-625600</v>
       </c>
       <c r="G96" s="3">
-        <v>-668300</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-637100</v>
       </c>
       <c r="I96" s="3">
-        <v>-668100</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-636800</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-656300</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-631900</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-478400</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-478400</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-397500</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5184,8 +5420,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5240,8 +5479,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5296,172 +5538,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-423600</v>
+        <v>-1373800</v>
       </c>
       <c r="E100" s="3">
-        <v>-848000</v>
+        <v>-403700</v>
       </c>
       <c r="F100" s="3">
-        <v>-142000</v>
+        <v>-808300</v>
       </c>
       <c r="G100" s="3">
-        <v>-1964400</v>
+        <v>-135300</v>
       </c>
       <c r="H100" s="3">
-        <v>-71900</v>
+        <v>-1872400</v>
       </c>
       <c r="I100" s="3">
-        <v>212500</v>
+        <v>-68600</v>
       </c>
       <c r="J100" s="3">
+        <v>202500</v>
+      </c>
+      <c r="K100" s="3">
         <v>2126800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-385900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>482800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-954700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1145700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1020400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2791000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-939700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1316100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-841900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>217200</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>8100</v>
+        <v>-73900</v>
       </c>
       <c r="E101" s="3">
-        <v>147900</v>
+        <v>7800</v>
       </c>
       <c r="F101" s="3">
-        <v>-320500</v>
+        <v>141000</v>
       </c>
       <c r="G101" s="3">
-        <v>156400</v>
+        <v>-305500</v>
       </c>
       <c r="H101" s="3">
-        <v>-86000</v>
+        <v>149100</v>
       </c>
       <c r="I101" s="3">
-        <v>-76200</v>
+        <v>-82000</v>
       </c>
       <c r="J101" s="3">
+        <v>-72700</v>
+      </c>
+      <c r="K101" s="3">
         <v>23700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-142100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>124000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>45000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-335900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>3300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>100100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>10700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-65200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>603600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-59700</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>556300</v>
+        <v>-1106100</v>
       </c>
       <c r="E102" s="3">
-        <v>-166700</v>
+        <v>530300</v>
       </c>
       <c r="F102" s="3">
-        <v>1081400</v>
+        <v>-158900</v>
       </c>
       <c r="G102" s="3">
-        <v>-1987500</v>
+        <v>1030800</v>
       </c>
       <c r="H102" s="3">
-        <v>1589100</v>
+        <v>-1894500</v>
       </c>
       <c r="I102" s="3">
-        <v>303200</v>
+        <v>1514700</v>
       </c>
       <c r="J102" s="3">
+        <v>289000</v>
+      </c>
+      <c r="K102" s="3">
         <v>27700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-404700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-643100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-600500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-708500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>448600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-3824900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>717900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-724700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>598900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-147200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MITSY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MITSY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>MITSY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,258 +665,270 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15164100</v>
+        <v>30429600</v>
       </c>
       <c r="E8" s="3">
-        <v>13940000</v>
+        <v>15213800</v>
       </c>
       <c r="F8" s="3">
-        <v>13939400</v>
+        <v>13985700</v>
       </c>
       <c r="G8" s="3">
-        <v>15490000</v>
+        <v>13985000</v>
       </c>
       <c r="H8" s="3">
-        <v>16330000</v>
+        <v>15540700</v>
       </c>
       <c r="I8" s="3">
-        <v>16287500</v>
+        <v>16383500</v>
       </c>
       <c r="J8" s="3">
+        <v>16340900</v>
+      </c>
+      <c r="K8" s="3">
         <v>14959400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>18687200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>16988500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>15394900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>14145800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>11201800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>11381200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>10959900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>10682200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>10539300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>10144100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>8977900</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>13328800</v>
+        <v>28194000</v>
       </c>
       <c r="E9" s="3">
-        <v>12308400</v>
+        <v>13372400</v>
       </c>
       <c r="F9" s="3">
-        <v>12201700</v>
+        <v>12348700</v>
       </c>
       <c r="G9" s="3">
-        <v>13667100</v>
+        <v>12241600</v>
       </c>
       <c r="H9" s="3">
-        <v>14386000</v>
+        <v>13711900</v>
       </c>
       <c r="I9" s="3">
-        <v>14281900</v>
+        <v>14433100</v>
       </c>
       <c r="J9" s="3">
+        <v>14328700</v>
+      </c>
+      <c r="K9" s="3">
         <v>13042800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>16713400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>15012100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>13487900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>12160100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>9567400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>9519200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>9110700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>8879700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>8666700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>8528400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>7541800</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1835300</v>
+        <v>2235600</v>
       </c>
       <c r="E10" s="3">
-        <v>1631700</v>
+        <v>1841300</v>
       </c>
       <c r="F10" s="3">
-        <v>1737700</v>
+        <v>1637000</v>
       </c>
       <c r="G10" s="3">
-        <v>1822800</v>
+        <v>1743400</v>
       </c>
       <c r="H10" s="3">
-        <v>1944100</v>
+        <v>1828800</v>
       </c>
       <c r="I10" s="3">
-        <v>2005700</v>
+        <v>1950400</v>
       </c>
       <c r="J10" s="3">
+        <v>2012200</v>
+      </c>
+      <c r="K10" s="3">
         <v>1916600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1973800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1976400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1906900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1985700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1634400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1861900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1849100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1802500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1872600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1615700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1436100</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -938,8 +950,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -997,8 +1010,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1056,67 +1072,73 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>319300</v>
+        <v>117500</v>
       </c>
       <c r="E14" s="3">
-        <v>45500</v>
+        <v>320400</v>
       </c>
       <c r="F14" s="3">
+        <v>45600</v>
+      </c>
+      <c r="G14" s="3">
         <v>2800</v>
       </c>
-      <c r="G14" s="3">
-        <v>908700</v>
-      </c>
       <c r="H14" s="3">
-        <v>82500</v>
+        <v>911700</v>
       </c>
       <c r="I14" s="3">
+        <v>82800</v>
+      </c>
+      <c r="J14" s="3">
         <v>8300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>15500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>225400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>20700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>3800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>8900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>59600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>91800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>67000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>11600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>48200</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1174,8 +1196,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1194,126 +1219,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>15195500</v>
+        <v>29781500</v>
       </c>
       <c r="E17" s="3">
-        <v>13753900</v>
+        <v>15245300</v>
       </c>
       <c r="F17" s="3">
-        <v>13359500</v>
+        <v>13799000</v>
       </c>
       <c r="G17" s="3">
-        <v>15581900</v>
+        <v>13403300</v>
       </c>
       <c r="H17" s="3">
-        <v>15757900</v>
+        <v>15632900</v>
       </c>
       <c r="I17" s="3">
-        <v>15530300</v>
+        <v>15809500</v>
       </c>
       <c r="J17" s="3">
+        <v>15581200</v>
+      </c>
+      <c r="K17" s="3">
         <v>14210600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>18422900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>16308000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>14800500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>13271100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>11108400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>10721200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>10139700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>9954000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>9794000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>9291500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>8516000</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-31500</v>
+        <v>648100</v>
       </c>
       <c r="E18" s="3">
-        <v>186100</v>
+        <v>-31600</v>
       </c>
       <c r="F18" s="3">
-        <v>579900</v>
+        <v>186700</v>
       </c>
       <c r="G18" s="3">
-        <v>-91900</v>
+        <v>581800</v>
       </c>
       <c r="H18" s="3">
-        <v>572100</v>
+        <v>-92200</v>
       </c>
       <c r="I18" s="3">
-        <v>757200</v>
+        <v>574000</v>
       </c>
       <c r="J18" s="3">
+        <v>759700</v>
+      </c>
+      <c r="K18" s="3">
         <v>748700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>264200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>680500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>594400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>874700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>93400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>660000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>820200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>728200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>745300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>852600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>461900</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1335,303 +1367,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>952400</v>
+        <v>1084600</v>
       </c>
       <c r="E20" s="3">
-        <v>690000</v>
+        <v>955500</v>
       </c>
       <c r="F20" s="3">
-        <v>495700</v>
+        <v>692300</v>
       </c>
       <c r="G20" s="3">
-        <v>854600</v>
+        <v>497300</v>
       </c>
       <c r="H20" s="3">
-        <v>1029900</v>
+        <v>857400</v>
       </c>
       <c r="I20" s="3">
-        <v>796700</v>
+        <v>1033200</v>
       </c>
       <c r="J20" s="3">
+        <v>799300</v>
+      </c>
+      <c r="K20" s="3">
         <v>1048100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>949200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1042200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>982200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>815900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>682600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>963900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>765600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>808400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>451900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>662000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>545900</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1536000</v>
+        <v>2407300</v>
       </c>
       <c r="E21" s="3">
-        <v>1517900</v>
+        <v>1541000</v>
       </c>
       <c r="F21" s="3">
-        <v>1652800</v>
+        <v>1522900</v>
       </c>
       <c r="G21" s="3">
-        <v>1410600</v>
+        <v>1658300</v>
       </c>
       <c r="H21" s="3">
-        <v>2205700</v>
+        <v>1415200</v>
       </c>
       <c r="I21" s="3">
-        <v>2093900</v>
+        <v>2212900</v>
       </c>
       <c r="J21" s="3">
+        <v>2100800</v>
+      </c>
+      <c r="K21" s="3">
         <v>2351400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1709400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2165200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1987800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2086700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1189800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2072700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2035100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1965600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1607200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1947400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1446600</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>115600</v>
+        <v>100600</v>
       </c>
       <c r="E22" s="3">
-        <v>118600</v>
+        <v>116000</v>
       </c>
       <c r="F22" s="3">
-        <v>141400</v>
+        <v>119000</v>
       </c>
       <c r="G22" s="3">
-        <v>185500</v>
+        <v>141800</v>
       </c>
       <c r="H22" s="3">
-        <v>206100</v>
+        <v>186100</v>
       </c>
       <c r="I22" s="3">
-        <v>211800</v>
+        <v>206800</v>
       </c>
       <c r="J22" s="3">
+        <v>212500</v>
+      </c>
+      <c r="K22" s="3">
         <v>217600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>194400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>191600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>191700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>172300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>149100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>150300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>156500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>145100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>140900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>133700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>118100</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>805300</v>
+        <v>1632000</v>
       </c>
       <c r="E23" s="3">
-        <v>757600</v>
+        <v>808000</v>
       </c>
       <c r="F23" s="3">
-        <v>934200</v>
+        <v>760000</v>
       </c>
       <c r="G23" s="3">
-        <v>577200</v>
+        <v>937300</v>
       </c>
       <c r="H23" s="3">
-        <v>1395900</v>
+        <v>579000</v>
       </c>
       <c r="I23" s="3">
-        <v>1342200</v>
+        <v>1400400</v>
       </c>
       <c r="J23" s="3">
+        <v>1346500</v>
+      </c>
+      <c r="K23" s="3">
         <v>1579200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1019000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1531100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1384900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1518300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>626900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1473600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1429300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1391500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1056300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1380900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>889700</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-40100</v>
+        <v>337900</v>
       </c>
       <c r="E24" s="3">
-        <v>294100</v>
+        <v>-40200</v>
       </c>
       <c r="F24" s="3">
-        <v>323600</v>
+        <v>295000</v>
       </c>
       <c r="G24" s="3">
-        <v>92000</v>
+        <v>324700</v>
       </c>
       <c r="H24" s="3">
-        <v>411300</v>
+        <v>92300</v>
       </c>
       <c r="I24" s="3">
-        <v>279800</v>
+        <v>412600</v>
       </c>
       <c r="J24" s="3">
+        <v>280700</v>
+      </c>
+      <c r="K24" s="3">
         <v>343700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>397900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>289000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>367300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>372800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>201200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>158300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>234300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>338000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>320800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>367600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>316000</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1689,126 +1737,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>845400</v>
+        <v>1294200</v>
       </c>
       <c r="E26" s="3">
-        <v>463500</v>
+        <v>848200</v>
       </c>
       <c r="F26" s="3">
-        <v>610600</v>
+        <v>465000</v>
       </c>
       <c r="G26" s="3">
-        <v>485200</v>
+        <v>612600</v>
       </c>
       <c r="H26" s="3">
-        <v>984600</v>
+        <v>486800</v>
       </c>
       <c r="I26" s="3">
-        <v>1062300</v>
+        <v>987800</v>
       </c>
       <c r="J26" s="3">
+        <v>1065800</v>
+      </c>
+      <c r="K26" s="3">
         <v>1235500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>621100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1242100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1017600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1145500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>425700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1315300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1195000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1053500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>735500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1013300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>573700</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>814400</v>
+        <v>1254600</v>
       </c>
       <c r="E27" s="3">
-        <v>434800</v>
+        <v>817100</v>
       </c>
       <c r="F27" s="3">
-        <v>573000</v>
+        <v>436200</v>
       </c>
       <c r="G27" s="3">
-        <v>517000</v>
+        <v>574900</v>
       </c>
       <c r="H27" s="3">
-        <v>924500</v>
+        <v>518700</v>
       </c>
       <c r="I27" s="3">
-        <v>999500</v>
+        <v>927500</v>
       </c>
       <c r="J27" s="3">
+        <v>1002800</v>
+      </c>
+      <c r="K27" s="3">
         <v>1145300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>616500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1200700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>970400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1076400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>376500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1252300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1153100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1001200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>672400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>961100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>539600</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1866,8 +1923,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1925,8 +1985,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1984,8 +2047,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2043,126 +2109,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-952400</v>
+        <v>-1084600</v>
       </c>
       <c r="E32" s="3">
-        <v>-690000</v>
+        <v>-955500</v>
       </c>
       <c r="F32" s="3">
-        <v>-495700</v>
+        <v>-692300</v>
       </c>
       <c r="G32" s="3">
-        <v>-854600</v>
+        <v>-497300</v>
       </c>
       <c r="H32" s="3">
-        <v>-1029900</v>
+        <v>-857400</v>
       </c>
       <c r="I32" s="3">
-        <v>-796700</v>
+        <v>-1033200</v>
       </c>
       <c r="J32" s="3">
+        <v>-799300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1048100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-949200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1042200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-982200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-815900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-682600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-963900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-765600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-808400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-451900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-662000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-545900</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>814400</v>
+        <v>1254600</v>
       </c>
       <c r="E33" s="3">
-        <v>434800</v>
+        <v>817100</v>
       </c>
       <c r="F33" s="3">
-        <v>573000</v>
+        <v>436200</v>
       </c>
       <c r="G33" s="3">
-        <v>517000</v>
+        <v>574900</v>
       </c>
       <c r="H33" s="3">
-        <v>924500</v>
+        <v>518700</v>
       </c>
       <c r="I33" s="3">
-        <v>999500</v>
+        <v>927500</v>
       </c>
       <c r="J33" s="3">
+        <v>1002800</v>
+      </c>
+      <c r="K33" s="3">
         <v>1145300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>616500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1200700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>970400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1076400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>376500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1252300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1153100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1001200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>672400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>961100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>539600</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2220,131 +2295,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>814400</v>
+        <v>1254600</v>
       </c>
       <c r="E35" s="3">
-        <v>434800</v>
+        <v>817100</v>
       </c>
       <c r="F35" s="3">
-        <v>573000</v>
+        <v>436200</v>
       </c>
       <c r="G35" s="3">
-        <v>517000</v>
+        <v>574900</v>
       </c>
       <c r="H35" s="3">
-        <v>924500</v>
+        <v>518700</v>
       </c>
       <c r="I35" s="3">
-        <v>999500</v>
+        <v>927500</v>
       </c>
       <c r="J35" s="3">
+        <v>1002800</v>
+      </c>
+      <c r="K35" s="3">
         <v>1145300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>616500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1200700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>970400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1076400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>376500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1252300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1153100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1001200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>672400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>961100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>539600</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2366,8 +2450,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2389,539 +2474,567 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8963300</v>
+        <v>9770300</v>
       </c>
       <c r="E41" s="3">
-        <v>10069400</v>
+        <v>8992700</v>
       </c>
       <c r="F41" s="3">
-        <v>9539100</v>
+        <v>10102400</v>
       </c>
       <c r="G41" s="3">
-        <v>9698000</v>
+        <v>9570400</v>
       </c>
       <c r="H41" s="3">
-        <v>8667200</v>
+        <v>9729800</v>
       </c>
       <c r="I41" s="3">
-        <v>10561700</v>
+        <v>8695600</v>
       </c>
       <c r="J41" s="3">
+        <v>10596300</v>
+      </c>
+      <c r="K41" s="3">
         <v>9047000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9188200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8998400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9253700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9683800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>10227700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>10936200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>10487600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>14312400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>13338900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>14063500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>13464600</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3939700</v>
+        <v>3951600</v>
       </c>
       <c r="E42" s="3">
-        <v>3668200</v>
+        <v>3952600</v>
       </c>
       <c r="F42" s="3">
-        <v>3894600</v>
+        <v>3680200</v>
       </c>
       <c r="G42" s="3">
-        <v>5156200</v>
+        <v>3907300</v>
       </c>
       <c r="H42" s="3">
-        <v>3018400</v>
+        <v>5173000</v>
       </c>
       <c r="I42" s="3">
-        <v>2698400</v>
+        <v>3028300</v>
       </c>
       <c r="J42" s="3">
+        <v>2707200</v>
+      </c>
+      <c r="K42" s="3">
         <v>2753000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2445800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>3255400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2869100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2702600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2205000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>3030500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>2627800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>2445500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>2374300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>3915400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>3786600</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>15785900</v>
+        <v>16652200</v>
       </c>
       <c r="E43" s="3">
-        <v>13174800</v>
+        <v>15837600</v>
       </c>
       <c r="F43" s="3">
-        <v>13374500</v>
+        <v>13217900</v>
       </c>
       <c r="G43" s="3">
-        <v>14862100</v>
+        <v>13418300</v>
       </c>
       <c r="H43" s="3">
-        <v>16657400</v>
+        <v>14910800</v>
       </c>
       <c r="I43" s="3">
-        <v>14862300</v>
+        <v>16712000</v>
       </c>
       <c r="J43" s="3">
+        <v>14911000</v>
+      </c>
+      <c r="K43" s="3">
         <v>15916900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>17338600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>17779600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>16564800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>15649400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>15964800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>17290200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>16461900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>14971500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>15428500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>15480700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>13205700</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5515700</v>
+        <v>5653300</v>
       </c>
       <c r="E44" s="3">
-        <v>5077900</v>
+        <v>5533800</v>
       </c>
       <c r="F44" s="3">
-        <v>4891000</v>
+        <v>5094500</v>
       </c>
       <c r="G44" s="3">
-        <v>5073400</v>
+        <v>4907100</v>
       </c>
       <c r="H44" s="3">
-        <v>6317500</v>
+        <v>5090000</v>
       </c>
       <c r="I44" s="3">
-        <v>5870900</v>
+        <v>6338200</v>
       </c>
       <c r="J44" s="3">
+        <v>5890100</v>
+      </c>
+      <c r="K44" s="3">
         <v>5901000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5839800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5950700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>5828600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>5150500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4978300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>5689100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>5718500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>5394500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>5229200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>5336700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>4779400</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2545000</v>
+        <v>2639300</v>
       </c>
       <c r="E45" s="3">
-        <v>2514300</v>
+        <v>2553300</v>
       </c>
       <c r="F45" s="3">
-        <v>2816800</v>
+        <v>2522600</v>
       </c>
       <c r="G45" s="3">
-        <v>2990100</v>
+        <v>2826100</v>
       </c>
       <c r="H45" s="3">
-        <v>2957800</v>
+        <v>2999800</v>
       </c>
       <c r="I45" s="3">
-        <v>2900300</v>
+        <v>2967500</v>
       </c>
       <c r="J45" s="3">
+        <v>2909800</v>
+      </c>
+      <c r="K45" s="3">
         <v>3240200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3592300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3707100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3593900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3510500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>4828700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>4005100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3659200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3525900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3320100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3359700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2996000</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>36749700</v>
+        <v>38666700</v>
       </c>
       <c r="E46" s="3">
-        <v>34504600</v>
+        <v>36870000</v>
       </c>
       <c r="F46" s="3">
-        <v>34516000</v>
+        <v>34617700</v>
       </c>
       <c r="G46" s="3">
-        <v>37779700</v>
+        <v>34629100</v>
       </c>
       <c r="H46" s="3">
-        <v>37618400</v>
+        <v>37903400</v>
       </c>
       <c r="I46" s="3">
-        <v>36893600</v>
+        <v>37741600</v>
       </c>
       <c r="J46" s="3">
+        <v>37014400</v>
+      </c>
+      <c r="K46" s="3">
         <v>36858100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>38404700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>39691200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>38110200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>36696800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>38204500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>40951100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>38955000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>40649900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>39691000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>42156100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>38232400</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>46530300</v>
+        <v>50061700</v>
       </c>
       <c r="E47" s="3">
-        <v>45858700</v>
+        <v>46682700</v>
       </c>
       <c r="F47" s="3">
-        <v>45648400</v>
+        <v>46008900</v>
       </c>
       <c r="G47" s="3">
-        <v>45560100</v>
+        <v>45797900</v>
       </c>
       <c r="H47" s="3">
-        <v>50691500</v>
+        <v>45709300</v>
       </c>
       <c r="I47" s="3">
-        <v>49351900</v>
+        <v>50857500</v>
       </c>
       <c r="J47" s="3">
+        <v>49513500</v>
+      </c>
+      <c r="K47" s="3">
         <v>50532700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>53209900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>48784500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>49446400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>45792300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>44126500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>45878300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>44160100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>42595400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>41700800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>39980100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>35285000</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>21964300</v>
+        <v>22514800</v>
       </c>
       <c r="E48" s="3">
-        <v>22128200</v>
+        <v>22036200</v>
       </c>
       <c r="F48" s="3">
-        <v>22093100</v>
+        <v>22200700</v>
       </c>
       <c r="G48" s="3">
-        <v>21738600</v>
+        <v>22165400</v>
       </c>
       <c r="H48" s="3">
-        <v>22481900</v>
+        <v>21809800</v>
       </c>
       <c r="I48" s="3">
-        <v>21531900</v>
+        <v>22555500</v>
       </c>
       <c r="J48" s="3">
+        <v>21602500</v>
+      </c>
+      <c r="K48" s="3">
         <v>21397900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>20646900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>20363100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>19807500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>18394900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>17346400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>17820100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>18003700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>17903900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>17769100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>18403400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>16888800</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1706100</v>
+        <v>1732800</v>
       </c>
       <c r="E49" s="3">
-        <v>1772900</v>
+        <v>1711600</v>
       </c>
       <c r="F49" s="3">
-        <v>1765400</v>
+        <v>1778700</v>
       </c>
       <c r="G49" s="3">
-        <v>1788800</v>
+        <v>1771200</v>
       </c>
       <c r="H49" s="3">
-        <v>2163100</v>
+        <v>1794700</v>
       </c>
       <c r="I49" s="3">
-        <v>2179500</v>
+        <v>2170200</v>
       </c>
       <c r="J49" s="3">
+        <v>2186600</v>
+      </c>
+      <c r="K49" s="3">
         <v>2230100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1673000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1743600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1607100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1552500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1565800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1572800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1615000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1568500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1496200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1434400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1274500</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2979,8 +3092,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3038,67 +3154,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1519500</v>
+        <v>2044700</v>
       </c>
       <c r="E52" s="3">
-        <v>1157100</v>
+        <v>1524400</v>
       </c>
       <c r="F52" s="3">
-        <v>1189300</v>
+        <v>1160900</v>
       </c>
       <c r="G52" s="3">
-        <v>1278400</v>
+        <v>1193200</v>
       </c>
       <c r="H52" s="3">
-        <v>855500</v>
+        <v>1282600</v>
       </c>
       <c r="I52" s="3">
-        <v>848700</v>
+        <v>858300</v>
       </c>
       <c r="J52" s="3">
+        <v>851500</v>
+      </c>
+      <c r="K52" s="3">
         <v>819700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>864500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1064200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1091400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1002900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>969100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1006800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1169300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1357900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1356900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1432200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1287300</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3156,67 +3278,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>108469800</v>
+        <v>115020600</v>
       </c>
       <c r="E54" s="3">
-        <v>105421500</v>
+        <v>108825000</v>
       </c>
       <c r="F54" s="3">
-        <v>105212200</v>
+        <v>105766800</v>
       </c>
       <c r="G54" s="3">
-        <v>108145600</v>
+        <v>105556800</v>
       </c>
       <c r="H54" s="3">
-        <v>113810400</v>
+        <v>108499800</v>
       </c>
       <c r="I54" s="3">
-        <v>110805600</v>
+        <v>114183100</v>
       </c>
       <c r="J54" s="3">
+        <v>111168500</v>
+      </c>
+      <c r="K54" s="3">
         <v>111838500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>114798900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>111646700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>110062600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>103439500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>102212200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>107229100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>103903100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>104075500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>102014000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>103406200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>92968100</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3238,8 +3366,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3261,362 +3390,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>10919000</v>
+        <v>12069600</v>
       </c>
       <c r="E57" s="3">
-        <v>9746500</v>
+        <v>10954700</v>
       </c>
       <c r="F57" s="3">
-        <v>9389900</v>
+        <v>9778400</v>
       </c>
       <c r="G57" s="3">
-        <v>10410400</v>
+        <v>9420600</v>
       </c>
       <c r="H57" s="3">
-        <v>11834900</v>
+        <v>10444500</v>
       </c>
       <c r="I57" s="3">
-        <v>10810400</v>
+        <v>11873700</v>
       </c>
       <c r="J57" s="3">
+        <v>10845800</v>
+      </c>
+      <c r="K57" s="3">
         <v>11551100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>12707100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>13217100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>12028200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>11694800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>11429100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>12147200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>11328200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>10649200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>10676900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>10787700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>8887300</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6307400</v>
+        <v>6905600</v>
       </c>
       <c r="E58" s="3">
-        <v>6147600</v>
+        <v>6328000</v>
       </c>
       <c r="F58" s="3">
-        <v>6771700</v>
+        <v>6167800</v>
       </c>
       <c r="G58" s="3">
-        <v>6387800</v>
+        <v>6793900</v>
       </c>
       <c r="H58" s="3">
-        <v>6580600</v>
+        <v>6408800</v>
       </c>
       <c r="I58" s="3">
-        <v>7238200</v>
+        <v>6602200</v>
       </c>
       <c r="J58" s="3">
+        <v>7261900</v>
+      </c>
+      <c r="K58" s="3">
         <v>8192800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>7845800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>7553600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>6959600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>6294800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>6184300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>5829800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>5542100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>6488500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>6146100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>7075800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>6388700</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5640900</v>
+        <v>5853600</v>
       </c>
       <c r="E59" s="3">
-        <v>5091800</v>
+        <v>5659300</v>
       </c>
       <c r="F59" s="3">
-        <v>5295700</v>
+        <v>5108400</v>
       </c>
       <c r="G59" s="3">
-        <v>7944000</v>
+        <v>5313000</v>
       </c>
       <c r="H59" s="3">
-        <v>6220700</v>
+        <v>7970000</v>
       </c>
       <c r="I59" s="3">
-        <v>5558900</v>
+        <v>6241100</v>
       </c>
       <c r="J59" s="3">
+        <v>5577100</v>
+      </c>
+      <c r="K59" s="3">
         <v>5804100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5781200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6905100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6461800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>6059700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6783400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>6711400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5826600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>5765000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>5564600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>5821700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>4722300</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>22867200</v>
+        <v>24828800</v>
       </c>
       <c r="E60" s="3">
-        <v>20985900</v>
+        <v>22942100</v>
       </c>
       <c r="F60" s="3">
-        <v>21457200</v>
+        <v>21054700</v>
       </c>
       <c r="G60" s="3">
-        <v>24742200</v>
+        <v>21527500</v>
       </c>
       <c r="H60" s="3">
-        <v>24636200</v>
+        <v>24823200</v>
       </c>
       <c r="I60" s="3">
-        <v>23607500</v>
+        <v>24716900</v>
       </c>
       <c r="J60" s="3">
+        <v>23684800</v>
+      </c>
+      <c r="K60" s="3">
         <v>25548000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>26334000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>27675800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>25449500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>24049300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>24396900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>24688500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>22697000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>22902800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>22387600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>23685200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>19998200</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>37555900</v>
+        <v>36716900</v>
       </c>
       <c r="E61" s="3">
-        <v>38601800</v>
+        <v>37678900</v>
       </c>
       <c r="F61" s="3">
-        <v>38486200</v>
+        <v>38728300</v>
       </c>
       <c r="G61" s="3">
-        <v>38739600</v>
+        <v>38612300</v>
       </c>
       <c r="H61" s="3">
-        <v>38697300</v>
+        <v>38866500</v>
       </c>
       <c r="I61" s="3">
-        <v>38460200</v>
+        <v>38824000</v>
       </c>
       <c r="J61" s="3">
+        <v>38586200</v>
+      </c>
+      <c r="K61" s="3">
         <v>37173100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>36605000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>33965600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>33739000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>32441500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>32027200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>34920400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>35699100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>37405600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>37431100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>38250500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>36521200</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7918400</v>
+        <v>9152600</v>
       </c>
       <c r="E62" s="3">
-        <v>7545300</v>
+        <v>7944300</v>
       </c>
       <c r="F62" s="3">
-        <v>7491200</v>
+        <v>7570000</v>
       </c>
       <c r="G62" s="3">
-        <v>7465700</v>
+        <v>7515700</v>
       </c>
       <c r="H62" s="3">
-        <v>8233900</v>
+        <v>7490100</v>
       </c>
       <c r="I62" s="3">
-        <v>7753700</v>
+        <v>8260800</v>
       </c>
       <c r="J62" s="3">
+        <v>7779100</v>
+      </c>
+      <c r="K62" s="3">
         <v>7906600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>8323600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>8124200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>8671300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>7800000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>7656300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>7269000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>7278500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>7072300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>6802600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>6766700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>5977300</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3674,8 +3822,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3733,8 +3884,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3792,67 +3946,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>70585000</v>
+        <v>73018500</v>
       </c>
       <c r="E66" s="3">
-        <v>69384700</v>
+        <v>70816100</v>
       </c>
       <c r="F66" s="3">
-        <v>69756300</v>
+        <v>69612000</v>
       </c>
       <c r="G66" s="3">
-        <v>73175700</v>
+        <v>69984800</v>
       </c>
       <c r="H66" s="3">
-        <v>74071700</v>
+        <v>73415400</v>
       </c>
       <c r="I66" s="3">
-        <v>72228800</v>
+        <v>74314300</v>
       </c>
       <c r="J66" s="3">
+        <v>72465300</v>
+      </c>
+      <c r="K66" s="3">
         <v>73055600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>73829900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>72239100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>70300400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>66567400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>66280800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>69332300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>68053100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>69759100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>68909600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>71093200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>64647500</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3874,8 +4034,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3933,8 +4094,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3992,8 +4156,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4051,8 +4218,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4110,67 +4280,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>30921100</v>
+        <v>32604200</v>
       </c>
       <c r="E72" s="3">
-        <v>30765000</v>
+        <v>31022400</v>
       </c>
       <c r="F72" s="3">
-        <v>30324500</v>
+        <v>30865800</v>
       </c>
       <c r="G72" s="3">
-        <v>30798600</v>
+        <v>30423800</v>
       </c>
       <c r="H72" s="3">
-        <v>30274900</v>
+        <v>30899500</v>
       </c>
       <c r="I72" s="3">
-        <v>29939100</v>
+        <v>30374000</v>
       </c>
       <c r="J72" s="3">
+        <v>30037200</v>
+      </c>
+      <c r="K72" s="3">
         <v>28668100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>29585900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>28566200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>22079200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>25998200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>26247000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>25531600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>24759700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>23601500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>22619600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>21765100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>21151000</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4228,8 +4404,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4287,8 +4466,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4346,67 +4528,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>37884800</v>
+        <v>42002200</v>
       </c>
       <c r="E76" s="3">
-        <v>36036800</v>
+        <v>38008900</v>
       </c>
       <c r="F76" s="3">
-        <v>35455900</v>
+        <v>36154800</v>
       </c>
       <c r="G76" s="3">
-        <v>34969900</v>
+        <v>35572000</v>
       </c>
       <c r="H76" s="3">
-        <v>39738700</v>
+        <v>35084500</v>
       </c>
       <c r="I76" s="3">
-        <v>38576800</v>
+        <v>39868800</v>
       </c>
       <c r="J76" s="3">
+        <v>38703100</v>
+      </c>
+      <c r="K76" s="3">
         <v>38782900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>40969000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>39407500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>39762100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>36872200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>35931400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>37896800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>35850000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>34316500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>33104400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>32312900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>28320500</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4464,131 +4652,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>814400</v>
+        <v>1254600</v>
       </c>
       <c r="E81" s="3">
-        <v>434800</v>
+        <v>817100</v>
       </c>
       <c r="F81" s="3">
-        <v>573000</v>
+        <v>436200</v>
       </c>
       <c r="G81" s="3">
-        <v>517000</v>
+        <v>574900</v>
       </c>
       <c r="H81" s="3">
-        <v>924500</v>
+        <v>518700</v>
       </c>
       <c r="I81" s="3">
-        <v>999500</v>
+        <v>927500</v>
       </c>
       <c r="J81" s="3">
+        <v>1002800</v>
+      </c>
+      <c r="K81" s="3">
         <v>1145300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>616500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1200700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>970400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1076400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>376500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1252300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1153100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1001200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>672400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>961100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>539600</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4610,67 +4807,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>615100</v>
+        <v>674600</v>
       </c>
       <c r="E83" s="3">
-        <v>641800</v>
+        <v>617100</v>
       </c>
       <c r="F83" s="3">
-        <v>577200</v>
+        <v>643900</v>
       </c>
       <c r="G83" s="3">
-        <v>647900</v>
+        <v>579100</v>
       </c>
       <c r="H83" s="3">
-        <v>603700</v>
+        <v>650000</v>
       </c>
       <c r="I83" s="3">
-        <v>540000</v>
+        <v>605700</v>
       </c>
       <c r="J83" s="3">
+        <v>541700</v>
+      </c>
+      <c r="K83" s="3">
         <v>554500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>496000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>442500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>411100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>396100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>413800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>448800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>449300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>429100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>410100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>432800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>438700</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4728,8 +4929,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4787,8 +4991,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4846,8 +5053,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4905,8 +5115,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4964,67 +5177,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1114000</v>
+        <v>2483600</v>
       </c>
       <c r="E89" s="3">
-        <v>1985900</v>
+        <v>1117600</v>
       </c>
       <c r="F89" s="3">
-        <v>1502600</v>
+        <v>1992400</v>
       </c>
       <c r="G89" s="3">
-        <v>1277900</v>
+        <v>1507500</v>
       </c>
       <c r="H89" s="3">
-        <v>551400</v>
+        <v>1282100</v>
       </c>
       <c r="I89" s="3">
-        <v>1821000</v>
+        <v>553200</v>
       </c>
       <c r="J89" s="3">
+        <v>1827000</v>
+      </c>
+      <c r="K89" s="3">
         <v>1171400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>472800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1886300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>251200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1223700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1352500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2182700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-372700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1833000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1624300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1312000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>298600</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5046,67 +5265,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-447800</v>
+        <v>-271800</v>
       </c>
       <c r="E91" s="3">
-        <v>-420200</v>
+        <v>-449300</v>
       </c>
       <c r="F91" s="3">
-        <v>-751800</v>
+        <v>-421500</v>
       </c>
       <c r="G91" s="3">
-        <v>-695700</v>
+        <v>-754300</v>
       </c>
       <c r="H91" s="3">
-        <v>-797200</v>
+        <v>-698000</v>
       </c>
       <c r="I91" s="3">
-        <v>-577200</v>
+        <v>-799800</v>
       </c>
       <c r="J91" s="3">
+        <v>-579100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-566500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-717000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-868800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-680800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-616300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>707600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-337700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-384300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-196300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-458100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-338400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-537000</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5164,8 +5387,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5223,67 +5449,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-772400</v>
+        <v>-128000</v>
       </c>
       <c r="E94" s="3">
-        <v>-1059600</v>
+        <v>-774900</v>
       </c>
       <c r="F94" s="3">
-        <v>-994200</v>
+        <v>-1063100</v>
       </c>
       <c r="G94" s="3">
-        <v>193700</v>
+        <v>-997500</v>
       </c>
       <c r="H94" s="3">
-        <v>-722500</v>
+        <v>194300</v>
       </c>
       <c r="I94" s="3">
-        <v>-155700</v>
+        <v>-724800</v>
       </c>
       <c r="J94" s="3">
+        <v>-156200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1012200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2595500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1897000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1369400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-914400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-579400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-717100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-761300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-186100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-967700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-474900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-603200</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5305,67 +5537,71 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-615300</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-617300</v>
       </c>
       <c r="F96" s="3">
-        <v>-625600</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-627700</v>
       </c>
       <c r="H96" s="3">
-        <v>-637100</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-639100</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-636800</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-656300</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-631900</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-478400</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-478400</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-397500</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5423,8 +5659,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5482,8 +5721,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5541,181 +5783,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1373800</v>
+        <v>-1880900</v>
       </c>
       <c r="E100" s="3">
-        <v>-403700</v>
+        <v>-1378300</v>
       </c>
       <c r="F100" s="3">
-        <v>-808300</v>
+        <v>-405000</v>
       </c>
       <c r="G100" s="3">
-        <v>-135300</v>
+        <v>-810900</v>
       </c>
       <c r="H100" s="3">
-        <v>-1872400</v>
+        <v>-135800</v>
       </c>
       <c r="I100" s="3">
-        <v>-68600</v>
+        <v>-1878600</v>
       </c>
       <c r="J100" s="3">
+        <v>-68800</v>
+      </c>
+      <c r="K100" s="3">
         <v>202500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2126800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-385900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>482800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-954700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1145700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1020400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2791000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-939700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1316100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-841900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>217200</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-73900</v>
+        <v>303100</v>
       </c>
       <c r="E101" s="3">
+        <v>-74100</v>
+      </c>
+      <c r="F101" s="3">
         <v>7800</v>
       </c>
-      <c r="F101" s="3">
-        <v>141000</v>
-      </c>
       <c r="G101" s="3">
-        <v>-305500</v>
+        <v>141500</v>
       </c>
       <c r="H101" s="3">
-        <v>149100</v>
+        <v>-306500</v>
       </c>
       <c r="I101" s="3">
-        <v>-82000</v>
+        <v>149500</v>
       </c>
       <c r="J101" s="3">
+        <v>-82300</v>
+      </c>
+      <c r="K101" s="3">
         <v>-72700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>23700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-142100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>124000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>45000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-335900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>3300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>100100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>10700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-65200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>603600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-59700</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1106100</v>
+        <v>777700</v>
       </c>
       <c r="E102" s="3">
-        <v>530300</v>
+        <v>-1109700</v>
       </c>
       <c r="F102" s="3">
-        <v>-158900</v>
+        <v>532000</v>
       </c>
       <c r="G102" s="3">
-        <v>1030800</v>
+        <v>-159400</v>
       </c>
       <c r="H102" s="3">
-        <v>-1894500</v>
+        <v>1034100</v>
       </c>
       <c r="I102" s="3">
-        <v>1514700</v>
+        <v>-1900700</v>
       </c>
       <c r="J102" s="3">
+        <v>1519700</v>
+      </c>
+      <c r="K102" s="3">
         <v>289000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>27700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-404700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-643100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-600500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-708500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>448600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-3824900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>717900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-724700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>598900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-147200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MITSY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MITSY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>MITSY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,270 +665,282 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="22" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>30429600</v>
+        <v>24214700</v>
       </c>
       <c r="E8" s="3">
-        <v>15213800</v>
+        <v>30164700</v>
       </c>
       <c r="F8" s="3">
-        <v>13985700</v>
+        <v>15081300</v>
       </c>
       <c r="G8" s="3">
-        <v>13985000</v>
+        <v>13863900</v>
       </c>
       <c r="H8" s="3">
-        <v>15540700</v>
+        <v>16811300</v>
       </c>
       <c r="I8" s="3">
-        <v>16383500</v>
+        <v>29973200</v>
       </c>
       <c r="J8" s="3">
+        <v>16240900</v>
+      </c>
+      <c r="K8" s="3">
         <v>16340900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>14959400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>18687200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>16988500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>15394900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>14145800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>11201800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>11381200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>10959900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>10682200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>10539300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>10144100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>8977900</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>28194000</v>
+        <v>21771100</v>
       </c>
       <c r="E9" s="3">
-        <v>13372400</v>
+        <v>27948600</v>
       </c>
       <c r="F9" s="3">
-        <v>12348700</v>
+        <v>13256000</v>
       </c>
       <c r="G9" s="3">
-        <v>12241600</v>
+        <v>12241200</v>
       </c>
       <c r="H9" s="3">
-        <v>13711900</v>
+        <v>15083100</v>
       </c>
       <c r="I9" s="3">
-        <v>14433100</v>
+        <v>28160300</v>
       </c>
       <c r="J9" s="3">
+        <v>14307400</v>
+      </c>
+      <c r="K9" s="3">
         <v>14328700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>13042800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>16713400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>15012100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>13487900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>12160100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>9567400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>9519200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>9110700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>8879700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>8666700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>8528400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>7541800</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2235600</v>
+        <v>2443600</v>
       </c>
       <c r="E10" s="3">
-        <v>1841300</v>
+        <v>2216100</v>
       </c>
       <c r="F10" s="3">
-        <v>1637000</v>
+        <v>1825300</v>
       </c>
       <c r="G10" s="3">
-        <v>1743400</v>
+        <v>1622800</v>
       </c>
       <c r="H10" s="3">
-        <v>1828800</v>
+        <v>1728200</v>
       </c>
       <c r="I10" s="3">
-        <v>1950400</v>
+        <v>1812900</v>
       </c>
       <c r="J10" s="3">
+        <v>1933500</v>
+      </c>
+      <c r="K10" s="3">
         <v>2012200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1916600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1973800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1976400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1906900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1985700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1634400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1861900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1849100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1802500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1872600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1615700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1436100</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -951,8 +963,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1013,8 +1026,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1075,70 +1091,76 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>117500</v>
+        <v>-1900</v>
       </c>
       <c r="E14" s="3">
-        <v>320400</v>
+        <v>116500</v>
       </c>
       <c r="F14" s="3">
-        <v>45600</v>
+        <v>317600</v>
       </c>
       <c r="G14" s="3">
+        <v>45200</v>
+      </c>
+      <c r="H14" s="3">
         <v>2800</v>
       </c>
-      <c r="H14" s="3">
-        <v>911700</v>
-      </c>
       <c r="I14" s="3">
-        <v>82800</v>
+        <v>903800</v>
       </c>
       <c r="J14" s="3">
+        <v>82100</v>
+      </c>
+      <c r="K14" s="3">
         <v>8300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>15500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>225400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>20700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>3800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>8900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>59600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>91800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>67000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>11600</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>48200</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1199,8 +1221,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1220,132 +1245,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>29781500</v>
+        <v>22977700</v>
       </c>
       <c r="E17" s="3">
-        <v>15245300</v>
+        <v>29522300</v>
       </c>
       <c r="F17" s="3">
-        <v>13799000</v>
+        <v>15112600</v>
       </c>
       <c r="G17" s="3">
-        <v>13403300</v>
+        <v>13678800</v>
       </c>
       <c r="H17" s="3">
-        <v>15632900</v>
+        <v>16234600</v>
       </c>
       <c r="I17" s="3">
-        <v>15809500</v>
+        <v>30064600</v>
       </c>
       <c r="J17" s="3">
+        <v>15671900</v>
+      </c>
+      <c r="K17" s="3">
         <v>15581200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>14210600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>18422900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>16308000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>14800500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>13271100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>11108400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>10721200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>10139700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>9954000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>9794000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>9291500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>8516000</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>648100</v>
+        <v>1237000</v>
       </c>
       <c r="E18" s="3">
-        <v>-31600</v>
+        <v>642400</v>
       </c>
       <c r="F18" s="3">
-        <v>186700</v>
+        <v>-31300</v>
       </c>
       <c r="G18" s="3">
-        <v>581800</v>
+        <v>185100</v>
       </c>
       <c r="H18" s="3">
-        <v>-92200</v>
+        <v>576700</v>
       </c>
       <c r="I18" s="3">
-        <v>574000</v>
+        <v>-91400</v>
       </c>
       <c r="J18" s="3">
+        <v>569000</v>
+      </c>
+      <c r="K18" s="3">
         <v>759700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>748700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>264200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>680500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>594400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>874700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>93400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>660000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>820200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>728200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>745300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>852600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>461900</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1368,318 +1400,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1084600</v>
+        <v>1228000</v>
       </c>
       <c r="E20" s="3">
-        <v>955500</v>
+        <v>1075200</v>
       </c>
       <c r="F20" s="3">
-        <v>692300</v>
+        <v>947200</v>
       </c>
       <c r="G20" s="3">
-        <v>497300</v>
+        <v>686300</v>
       </c>
       <c r="H20" s="3">
-        <v>857400</v>
+        <v>493000</v>
       </c>
       <c r="I20" s="3">
-        <v>1033200</v>
+        <v>850000</v>
       </c>
       <c r="J20" s="3">
+        <v>1024200</v>
+      </c>
+      <c r="K20" s="3">
         <v>799300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1048100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>949200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1042200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>982200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>815900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>682600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>963900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>765600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>808400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>451900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>662000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>545900</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2407300</v>
+        <v>3138100</v>
       </c>
       <c r="E21" s="3">
-        <v>1541000</v>
+        <v>2386400</v>
       </c>
       <c r="F21" s="3">
-        <v>1522900</v>
+        <v>1527600</v>
       </c>
       <c r="G21" s="3">
-        <v>1658300</v>
+        <v>1509600</v>
       </c>
       <c r="H21" s="3">
-        <v>1415200</v>
+        <v>1643800</v>
       </c>
       <c r="I21" s="3">
-        <v>2212900</v>
+        <v>1402900</v>
       </c>
       <c r="J21" s="3">
+        <v>2193700</v>
+      </c>
+      <c r="K21" s="3">
         <v>2100800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2351400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1709400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2165200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1987800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2086700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1189800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2072700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2035100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1965600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1607200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1947400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1446600</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100600</v>
+        <v>131100</v>
       </c>
       <c r="E22" s="3">
-        <v>116000</v>
+        <v>99800</v>
       </c>
       <c r="F22" s="3">
-        <v>119000</v>
+        <v>114900</v>
       </c>
       <c r="G22" s="3">
-        <v>141800</v>
+        <v>117900</v>
       </c>
       <c r="H22" s="3">
-        <v>186100</v>
+        <v>140600</v>
       </c>
       <c r="I22" s="3">
-        <v>206800</v>
+        <v>184500</v>
       </c>
       <c r="J22" s="3">
+        <v>205000</v>
+      </c>
+      <c r="K22" s="3">
         <v>212500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>217600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>194400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>191600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>191700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>172300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>149100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>150300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>156500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>145100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>140900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>133700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>118100</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1632000</v>
+        <v>2333900</v>
       </c>
       <c r="E23" s="3">
-        <v>808000</v>
+        <v>1617800</v>
       </c>
       <c r="F23" s="3">
-        <v>760000</v>
+        <v>801000</v>
       </c>
       <c r="G23" s="3">
-        <v>937300</v>
+        <v>753400</v>
       </c>
       <c r="H23" s="3">
-        <v>579000</v>
+        <v>929100</v>
       </c>
       <c r="I23" s="3">
-        <v>1400400</v>
+        <v>574000</v>
       </c>
       <c r="J23" s="3">
+        <v>1388200</v>
+      </c>
+      <c r="K23" s="3">
         <v>1346500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1579200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1019000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1531100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1384900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1518300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>626900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1473600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1429300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1391500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1056300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1380900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>889700</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>337900</v>
+        <v>511900</v>
       </c>
       <c r="E24" s="3">
-        <v>-40200</v>
+        <v>334900</v>
       </c>
       <c r="F24" s="3">
-        <v>295000</v>
+        <v>-39800</v>
       </c>
       <c r="G24" s="3">
-        <v>324700</v>
+        <v>292500</v>
       </c>
       <c r="H24" s="3">
-        <v>92300</v>
+        <v>321800</v>
       </c>
       <c r="I24" s="3">
-        <v>412600</v>
+        <v>91500</v>
       </c>
       <c r="J24" s="3">
+        <v>409100</v>
+      </c>
+      <c r="K24" s="3">
         <v>280700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>343700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>397900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>289000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>367300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>372800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>201200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>158300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>234300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>338000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>320800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>367600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>316000</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1740,132 +1788,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1294200</v>
+        <v>1822000</v>
       </c>
       <c r="E26" s="3">
-        <v>848200</v>
+        <v>1282900</v>
       </c>
       <c r="F26" s="3">
-        <v>465000</v>
+        <v>840800</v>
       </c>
       <c r="G26" s="3">
-        <v>612600</v>
+        <v>461000</v>
       </c>
       <c r="H26" s="3">
-        <v>486800</v>
+        <v>607300</v>
       </c>
       <c r="I26" s="3">
-        <v>987800</v>
+        <v>482500</v>
       </c>
       <c r="J26" s="3">
+        <v>979200</v>
+      </c>
+      <c r="K26" s="3">
         <v>1065800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1235500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>621100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1242100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1017600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1145500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>425700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1315300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1195000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1053500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>735500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1013300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>573700</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1254600</v>
+        <v>1742400</v>
       </c>
       <c r="E27" s="3">
-        <v>817100</v>
+        <v>1243700</v>
       </c>
       <c r="F27" s="3">
-        <v>436200</v>
+        <v>810000</v>
       </c>
       <c r="G27" s="3">
-        <v>574900</v>
+        <v>432400</v>
       </c>
       <c r="H27" s="3">
-        <v>518700</v>
+        <v>569900</v>
       </c>
       <c r="I27" s="3">
-        <v>927500</v>
+        <v>514100</v>
       </c>
       <c r="J27" s="3">
+        <v>919400</v>
+      </c>
+      <c r="K27" s="3">
         <v>1002800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1145300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>616500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1200700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>970400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1076400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>376500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1252300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1153100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1001200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>672400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>961100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>539600</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1926,8 +1983,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1988,8 +2048,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2050,8 +2113,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2112,132 +2178,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1084600</v>
+        <v>-1228000</v>
       </c>
       <c r="E32" s="3">
-        <v>-955500</v>
+        <v>-1075200</v>
       </c>
       <c r="F32" s="3">
-        <v>-692300</v>
+        <v>-947200</v>
       </c>
       <c r="G32" s="3">
-        <v>-497300</v>
+        <v>-686300</v>
       </c>
       <c r="H32" s="3">
-        <v>-857400</v>
+        <v>-493000</v>
       </c>
       <c r="I32" s="3">
-        <v>-1033200</v>
+        <v>-850000</v>
       </c>
       <c r="J32" s="3">
+        <v>-1024200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-799300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1048100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-949200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1042200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-982200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-815900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-682600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-963900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-765600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-808400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-451900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-662000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-545900</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1254600</v>
+        <v>1742400</v>
       </c>
       <c r="E33" s="3">
-        <v>817100</v>
+        <v>1243700</v>
       </c>
       <c r="F33" s="3">
-        <v>436200</v>
+        <v>810000</v>
       </c>
       <c r="G33" s="3">
-        <v>574900</v>
+        <v>432400</v>
       </c>
       <c r="H33" s="3">
-        <v>518700</v>
+        <v>569900</v>
       </c>
       <c r="I33" s="3">
-        <v>927500</v>
+        <v>514100</v>
       </c>
       <c r="J33" s="3">
+        <v>919400</v>
+      </c>
+      <c r="K33" s="3">
         <v>1002800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1145300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>616500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1200700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>970400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1076400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>376500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1252300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1153100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1001200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>672400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>961100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>539600</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2298,137 +2373,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1254600</v>
+        <v>1742400</v>
       </c>
       <c r="E35" s="3">
-        <v>817100</v>
+        <v>1243700</v>
       </c>
       <c r="F35" s="3">
-        <v>436200</v>
+        <v>810000</v>
       </c>
       <c r="G35" s="3">
-        <v>574900</v>
+        <v>432400</v>
       </c>
       <c r="H35" s="3">
-        <v>518700</v>
+        <v>569900</v>
       </c>
       <c r="I35" s="3">
-        <v>927500</v>
+        <v>514100</v>
       </c>
       <c r="J35" s="3">
+        <v>919400</v>
+      </c>
+      <c r="K35" s="3">
         <v>1002800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1145300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>616500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1200700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>970400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1076400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>376500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1252300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1153100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1001200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>672400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>961100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>539600</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2451,8 +2535,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2475,566 +2560,594 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>9770300</v>
+        <v>8887000</v>
       </c>
       <c r="E41" s="3">
-        <v>8992700</v>
+        <v>9685300</v>
       </c>
       <c r="F41" s="3">
-        <v>10102400</v>
+        <v>8914400</v>
       </c>
       <c r="G41" s="3">
-        <v>9570400</v>
+        <v>10014400</v>
       </c>
       <c r="H41" s="3">
-        <v>9729800</v>
+        <v>9487000</v>
       </c>
       <c r="I41" s="3">
-        <v>8695600</v>
+        <v>9645100</v>
       </c>
       <c r="J41" s="3">
+        <v>8619900</v>
+      </c>
+      <c r="K41" s="3">
         <v>10596300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9047000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9188200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>8998400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9253700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>9683800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>10227700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>10936200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>10487600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>14312400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>13338900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>14063500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>13464600</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3951600</v>
+        <v>5145500</v>
       </c>
       <c r="E42" s="3">
-        <v>3952600</v>
+        <v>3917200</v>
       </c>
       <c r="F42" s="3">
-        <v>3680200</v>
+        <v>3918200</v>
       </c>
       <c r="G42" s="3">
-        <v>3907300</v>
+        <v>3648200</v>
       </c>
       <c r="H42" s="3">
-        <v>5173000</v>
+        <v>3873300</v>
       </c>
       <c r="I42" s="3">
-        <v>3028300</v>
+        <v>5128000</v>
       </c>
       <c r="J42" s="3">
+        <v>3002000</v>
+      </c>
+      <c r="K42" s="3">
         <v>2707200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2753000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2445800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>3255400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2869100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2702600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2205000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>3030500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>2627800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>2445500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>2374300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>3915400</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>3786600</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>16652200</v>
+        <v>17080200</v>
       </c>
       <c r="E43" s="3">
-        <v>15837600</v>
+        <v>16507200</v>
       </c>
       <c r="F43" s="3">
-        <v>13217900</v>
+        <v>15699800</v>
       </c>
       <c r="G43" s="3">
-        <v>13418300</v>
+        <v>13102900</v>
       </c>
       <c r="H43" s="3">
-        <v>14910800</v>
+        <v>13301500</v>
       </c>
       <c r="I43" s="3">
-        <v>16712000</v>
+        <v>14781000</v>
       </c>
       <c r="J43" s="3">
+        <v>16566500</v>
+      </c>
+      <c r="K43" s="3">
         <v>14911000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>15916900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>17338600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>17779600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>16564800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>15649400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>15964800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>17290200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>16461900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>14971500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>15428500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>15480700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>13205700</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5653300</v>
+        <v>6547900</v>
       </c>
       <c r="E44" s="3">
-        <v>5533800</v>
+        <v>5604100</v>
       </c>
       <c r="F44" s="3">
-        <v>5094500</v>
+        <v>5485600</v>
       </c>
       <c r="G44" s="3">
-        <v>4907100</v>
+        <v>5050200</v>
       </c>
       <c r="H44" s="3">
-        <v>5090000</v>
+        <v>4864300</v>
       </c>
       <c r="I44" s="3">
-        <v>6338200</v>
+        <v>5045700</v>
       </c>
       <c r="J44" s="3">
+        <v>6283100</v>
+      </c>
+      <c r="K44" s="3">
         <v>5890100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5901000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5839800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>5950700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>5828600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>5150500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4978300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>5689100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>5718500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>5394500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>5229200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>5336700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>4779400</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2639300</v>
+        <v>2857700</v>
       </c>
       <c r="E45" s="3">
-        <v>2553300</v>
+        <v>2616300</v>
       </c>
       <c r="F45" s="3">
-        <v>2522600</v>
+        <v>2531100</v>
       </c>
       <c r="G45" s="3">
-        <v>2826100</v>
+        <v>2500600</v>
       </c>
       <c r="H45" s="3">
-        <v>2999800</v>
+        <v>2801500</v>
       </c>
       <c r="I45" s="3">
-        <v>2967500</v>
+        <v>2973700</v>
       </c>
       <c r="J45" s="3">
+        <v>2941600</v>
+      </c>
+      <c r="K45" s="3">
         <v>2909800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3240200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3592300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3707100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3593900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3510500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>4828700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>4005100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3659200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3525900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3320100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3359700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2996000</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>38666700</v>
+        <v>40518300</v>
       </c>
       <c r="E46" s="3">
-        <v>36870000</v>
+        <v>38330100</v>
       </c>
       <c r="F46" s="3">
-        <v>34617700</v>
+        <v>36549100</v>
       </c>
       <c r="G46" s="3">
-        <v>34629100</v>
+        <v>34316300</v>
       </c>
       <c r="H46" s="3">
-        <v>37903400</v>
+        <v>34327600</v>
       </c>
       <c r="I46" s="3">
-        <v>37741600</v>
+        <v>37573500</v>
       </c>
       <c r="J46" s="3">
+        <v>37413100</v>
+      </c>
+      <c r="K46" s="3">
         <v>37014400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>36858100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>38404700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>39691200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>38110200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>36696800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>38204500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>40951100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>38955000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>40649900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>39691000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>42156100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>38232400</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>50061700</v>
+        <v>52748700</v>
       </c>
       <c r="E47" s="3">
-        <v>46682700</v>
+        <v>49625900</v>
       </c>
       <c r="F47" s="3">
-        <v>46008900</v>
+        <v>46276300</v>
       </c>
       <c r="G47" s="3">
-        <v>45797900</v>
+        <v>45608400</v>
       </c>
       <c r="H47" s="3">
-        <v>45709300</v>
+        <v>45399200</v>
       </c>
       <c r="I47" s="3">
-        <v>50857500</v>
+        <v>45311400</v>
       </c>
       <c r="J47" s="3">
+        <v>50414800</v>
+      </c>
+      <c r="K47" s="3">
         <v>49513500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>50532700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>53209900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>48784500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>49446400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>45792300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>44126500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>45878300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>44160100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>42595400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>41700800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>39980100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>35285000</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>22514800</v>
+        <v>22239300</v>
       </c>
       <c r="E48" s="3">
-        <v>22036200</v>
+        <v>22318800</v>
       </c>
       <c r="F48" s="3">
-        <v>22200700</v>
+        <v>21844400</v>
       </c>
       <c r="G48" s="3">
-        <v>22165400</v>
+        <v>22007400</v>
       </c>
       <c r="H48" s="3">
-        <v>21809800</v>
+        <v>21972500</v>
       </c>
       <c r="I48" s="3">
-        <v>22555500</v>
+        <v>21619900</v>
       </c>
       <c r="J48" s="3">
+        <v>22359200</v>
+      </c>
+      <c r="K48" s="3">
         <v>21602500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>21397900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>20646900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>20363100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>19807500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>18394900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>17346400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>17820100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>18003700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>17903900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>17769100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>18403400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>16888800</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1732800</v>
+        <v>1989200</v>
       </c>
       <c r="E49" s="3">
-        <v>1711600</v>
+        <v>1717700</v>
       </c>
       <c r="F49" s="3">
-        <v>1778700</v>
+        <v>1696700</v>
       </c>
       <c r="G49" s="3">
-        <v>1771200</v>
+        <v>1763200</v>
       </c>
       <c r="H49" s="3">
-        <v>1794700</v>
+        <v>1755800</v>
       </c>
       <c r="I49" s="3">
-        <v>2170200</v>
+        <v>1779100</v>
       </c>
       <c r="J49" s="3">
+        <v>2151300</v>
+      </c>
+      <c r="K49" s="3">
         <v>2186600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2230100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1673000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1743600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1607100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1552500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1565800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1572800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1615000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1568500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1496200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1434400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1274500</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3095,8 +3208,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3157,70 +3273,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2044700</v>
+        <v>1895600</v>
       </c>
       <c r="E52" s="3">
-        <v>1524400</v>
+        <v>2026900</v>
       </c>
       <c r="F52" s="3">
-        <v>1160900</v>
+        <v>1511200</v>
       </c>
       <c r="G52" s="3">
-        <v>1193200</v>
+        <v>1150800</v>
       </c>
       <c r="H52" s="3">
-        <v>1282600</v>
+        <v>1182800</v>
       </c>
       <c r="I52" s="3">
-        <v>858300</v>
+        <v>1271400</v>
       </c>
       <c r="J52" s="3">
+        <v>850800</v>
+      </c>
+      <c r="K52" s="3">
         <v>851500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>819700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>864500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1064200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1091400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1002900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>969100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1006800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1169300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1357900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1356900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1432200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1287300</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3281,70 +3403,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>115020600</v>
+        <v>119391100</v>
       </c>
       <c r="E54" s="3">
-        <v>108825000</v>
+        <v>114019300</v>
       </c>
       <c r="F54" s="3">
-        <v>105766800</v>
+        <v>107877700</v>
       </c>
       <c r="G54" s="3">
-        <v>105556800</v>
+        <v>104846100</v>
       </c>
       <c r="H54" s="3">
-        <v>108499800</v>
+        <v>104637900</v>
       </c>
       <c r="I54" s="3">
-        <v>114183100</v>
+        <v>107555300</v>
       </c>
       <c r="J54" s="3">
+        <v>113189100</v>
+      </c>
+      <c r="K54" s="3">
         <v>111168500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>111838500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>114798900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>111646700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>110062600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>103439500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>102212200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>107229100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>103903100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>104075500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>102014000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>103406200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>92968100</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3367,8 +3495,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3391,380 +3520,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>12069600</v>
+        <v>12868300</v>
       </c>
       <c r="E57" s="3">
-        <v>10954700</v>
+        <v>11964500</v>
       </c>
       <c r="F57" s="3">
-        <v>9778400</v>
+        <v>10859400</v>
       </c>
       <c r="G57" s="3">
-        <v>9420600</v>
+        <v>9693300</v>
       </c>
       <c r="H57" s="3">
-        <v>10444500</v>
+        <v>9338600</v>
       </c>
       <c r="I57" s="3">
-        <v>11873700</v>
+        <v>10353600</v>
       </c>
       <c r="J57" s="3">
+        <v>11770300</v>
+      </c>
+      <c r="K57" s="3">
         <v>10845800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>11551100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>12707100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>13217100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>12028200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>11694800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>11429100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>12147200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>11328200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>10649200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>10676900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>10787700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>8887300</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6905600</v>
+        <v>7390400</v>
       </c>
       <c r="E58" s="3">
-        <v>6328000</v>
+        <v>6845500</v>
       </c>
       <c r="F58" s="3">
-        <v>6167800</v>
+        <v>6272900</v>
       </c>
       <c r="G58" s="3">
-        <v>6793900</v>
+        <v>6114100</v>
       </c>
       <c r="H58" s="3">
-        <v>6408800</v>
+        <v>6734700</v>
       </c>
       <c r="I58" s="3">
-        <v>6602200</v>
+        <v>6353000</v>
       </c>
       <c r="J58" s="3">
+        <v>6544700</v>
+      </c>
+      <c r="K58" s="3">
         <v>7261900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>8192800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>7845800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>7553600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>6959600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>6294800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>6184300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>5829800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>5542100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>6488500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>6146100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>7075800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>6388700</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5853600</v>
+        <v>6983800</v>
       </c>
       <c r="E59" s="3">
-        <v>5659300</v>
+        <v>5802700</v>
       </c>
       <c r="F59" s="3">
-        <v>5108400</v>
+        <v>5610100</v>
       </c>
       <c r="G59" s="3">
-        <v>5313000</v>
+        <v>5064000</v>
       </c>
       <c r="H59" s="3">
-        <v>7970000</v>
+        <v>5266700</v>
       </c>
       <c r="I59" s="3">
-        <v>6241100</v>
+        <v>7900600</v>
       </c>
       <c r="J59" s="3">
+        <v>6186700</v>
+      </c>
+      <c r="K59" s="3">
         <v>5577100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5804100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5781200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6905100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>6461800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6059700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>6783400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>6711400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>5826600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>5765000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>5564600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>5821700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>4722300</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>24828800</v>
+        <v>27242500</v>
       </c>
       <c r="E60" s="3">
-        <v>22942100</v>
+        <v>24612700</v>
       </c>
       <c r="F60" s="3">
-        <v>21054700</v>
+        <v>22742400</v>
       </c>
       <c r="G60" s="3">
-        <v>21527500</v>
+        <v>20871400</v>
       </c>
       <c r="H60" s="3">
-        <v>24823200</v>
+        <v>21340100</v>
       </c>
       <c r="I60" s="3">
-        <v>24716900</v>
+        <v>24607100</v>
       </c>
       <c r="J60" s="3">
+        <v>24501800</v>
+      </c>
+      <c r="K60" s="3">
         <v>23684800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>25548000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>26334000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>27675800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>25449500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>24049300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>24396900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>24688500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>22697000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>22902800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>22387600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>23685200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>19998200</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>36716900</v>
+        <v>36363300</v>
       </c>
       <c r="E61" s="3">
-        <v>37678900</v>
+        <v>36397300</v>
       </c>
       <c r="F61" s="3">
-        <v>38728300</v>
+        <v>37350900</v>
       </c>
       <c r="G61" s="3">
-        <v>38612300</v>
+        <v>38391100</v>
       </c>
       <c r="H61" s="3">
-        <v>38866500</v>
+        <v>38276100</v>
       </c>
       <c r="I61" s="3">
-        <v>38824000</v>
+        <v>38528200</v>
       </c>
       <c r="J61" s="3">
+        <v>38486000</v>
+      </c>
+      <c r="K61" s="3">
         <v>38586200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>37173100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>36605000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>33965600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>33739000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>32441500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>32027200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>34920400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>35699100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>37405600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>37431100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>38250500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>36521200</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9152600</v>
+        <v>9636200</v>
       </c>
       <c r="E62" s="3">
-        <v>7944300</v>
+        <v>9072900</v>
       </c>
       <c r="F62" s="3">
-        <v>7570000</v>
+        <v>7875200</v>
       </c>
       <c r="G62" s="3">
-        <v>7515700</v>
+        <v>7504100</v>
       </c>
       <c r="H62" s="3">
-        <v>7490100</v>
+        <v>7450300</v>
       </c>
       <c r="I62" s="3">
-        <v>8260800</v>
+        <v>7424900</v>
       </c>
       <c r="J62" s="3">
+        <v>8188900</v>
+      </c>
+      <c r="K62" s="3">
         <v>7779100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7906600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>8323600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>8124200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>8671300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>7800000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>7656300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>7269000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>7278500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>7072300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>6802600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>6766700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>5977300</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3825,8 +3973,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3887,8 +4038,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3949,70 +4103,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>73018500</v>
+        <v>75573900</v>
       </c>
       <c r="E66" s="3">
-        <v>70816100</v>
+        <v>72382800</v>
       </c>
       <c r="F66" s="3">
-        <v>69612000</v>
+        <v>70199700</v>
       </c>
       <c r="G66" s="3">
-        <v>69984800</v>
+        <v>69006000</v>
       </c>
       <c r="H66" s="3">
-        <v>73415400</v>
+        <v>69375600</v>
       </c>
       <c r="I66" s="3">
-        <v>74314300</v>
+        <v>72776300</v>
       </c>
       <c r="J66" s="3">
+        <v>73667400</v>
+      </c>
+      <c r="K66" s="3">
         <v>72465300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>73055600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>73829900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>72239100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>70300400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>66567400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>66280800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>69332300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>68053100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>69759100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>68909600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>71093200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>64647500</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4035,8 +4195,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4097,8 +4258,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4159,8 +4323,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4221,8 +4388,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4283,70 +4453,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>32604200</v>
+        <v>32896900</v>
       </c>
       <c r="E72" s="3">
-        <v>31022400</v>
+        <v>32320400</v>
       </c>
       <c r="F72" s="3">
-        <v>30865800</v>
+        <v>30752300</v>
       </c>
       <c r="G72" s="3">
-        <v>30423800</v>
+        <v>30597100</v>
       </c>
       <c r="H72" s="3">
-        <v>30899500</v>
+        <v>30158900</v>
       </c>
       <c r="I72" s="3">
-        <v>30374000</v>
+        <v>30630500</v>
       </c>
       <c r="J72" s="3">
+        <v>30109600</v>
+      </c>
+      <c r="K72" s="3">
         <v>30037200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>28668100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>29585900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>28566200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>22079200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>25998200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>26247000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>25531600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>24759700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>23601500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>22619600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>21765100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>21151000</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4407,8 +4583,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4469,8 +4648,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4531,70 +4713,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>42002200</v>
+        <v>43817200</v>
       </c>
       <c r="E76" s="3">
-        <v>38008900</v>
+        <v>41636500</v>
       </c>
       <c r="F76" s="3">
-        <v>36154800</v>
+        <v>37678000</v>
       </c>
       <c r="G76" s="3">
-        <v>35572000</v>
+        <v>35840100</v>
       </c>
       <c r="H76" s="3">
-        <v>35084500</v>
+        <v>35262300</v>
       </c>
       <c r="I76" s="3">
-        <v>39868800</v>
+        <v>34779000</v>
       </c>
       <c r="J76" s="3">
+        <v>39521800</v>
+      </c>
+      <c r="K76" s="3">
         <v>38703100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>38782900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>40969000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>39407500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>39762100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>36872200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>35931400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>37896800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>35850000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>34316500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>33104400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>32312900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>28320500</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4655,137 +4843,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1254600</v>
+        <v>1742400</v>
       </c>
       <c r="E81" s="3">
-        <v>817100</v>
+        <v>1243700</v>
       </c>
       <c r="F81" s="3">
-        <v>436200</v>
+        <v>810000</v>
       </c>
       <c r="G81" s="3">
-        <v>574900</v>
+        <v>432400</v>
       </c>
       <c r="H81" s="3">
-        <v>518700</v>
+        <v>569900</v>
       </c>
       <c r="I81" s="3">
-        <v>927500</v>
+        <v>514100</v>
       </c>
       <c r="J81" s="3">
+        <v>919400</v>
+      </c>
+      <c r="K81" s="3">
         <v>1002800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1145300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>616500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1200700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>970400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1076400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>376500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1252300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1153100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1001200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>672400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>961100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>539600</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4808,70 +5005,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>674600</v>
+        <v>673100</v>
       </c>
       <c r="E83" s="3">
-        <v>617100</v>
+        <v>668800</v>
       </c>
       <c r="F83" s="3">
-        <v>643900</v>
+        <v>611700</v>
       </c>
       <c r="G83" s="3">
-        <v>579100</v>
+        <v>638300</v>
       </c>
       <c r="H83" s="3">
-        <v>650000</v>
+        <v>574100</v>
       </c>
       <c r="I83" s="3">
-        <v>605700</v>
+        <v>644400</v>
       </c>
       <c r="J83" s="3">
+        <v>600400</v>
+      </c>
+      <c r="K83" s="3">
         <v>541700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>554500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>496000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>442500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>411100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>396100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>413800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>448800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>449300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>429100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>410100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>432800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>438700</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4932,8 +5133,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4994,8 +5198,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5056,8 +5263,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5118,8 +5328,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5180,70 +5393,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2483600</v>
+        <v>1633500</v>
       </c>
       <c r="E89" s="3">
-        <v>1117600</v>
+        <v>2461900</v>
       </c>
       <c r="F89" s="3">
-        <v>1992400</v>
+        <v>1107900</v>
       </c>
       <c r="G89" s="3">
-        <v>1507500</v>
+        <v>1975000</v>
       </c>
       <c r="H89" s="3">
-        <v>1282100</v>
+        <v>1494400</v>
       </c>
       <c r="I89" s="3">
-        <v>553200</v>
+        <v>1270900</v>
       </c>
       <c r="J89" s="3">
+        <v>548400</v>
+      </c>
+      <c r="K89" s="3">
         <v>1827000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1171400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>472800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1886300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>251200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1223700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1352500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2182700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-372700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1833000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1624300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1312000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>298600</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5266,70 +5485,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-271800</v>
+        <v>-423300</v>
       </c>
       <c r="E91" s="3">
-        <v>-449300</v>
+        <v>-354000</v>
       </c>
       <c r="F91" s="3">
-        <v>-421500</v>
+        <v>-445400</v>
       </c>
       <c r="G91" s="3">
-        <v>-754300</v>
+        <v>-417900</v>
       </c>
       <c r="H91" s="3">
-        <v>-698000</v>
+        <v>-747700</v>
       </c>
       <c r="I91" s="3">
-        <v>-799800</v>
+        <v>-691900</v>
       </c>
       <c r="J91" s="3">
+        <v>-792800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-579100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-566500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-717000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-868800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-680800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-616300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>707600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-337700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-384300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-196300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-458100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-338400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-537000</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5390,8 +5613,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5452,70 +5678,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-128000</v>
+        <v>-842900</v>
       </c>
       <c r="E94" s="3">
-        <v>-774900</v>
+        <v>-126900</v>
       </c>
       <c r="F94" s="3">
-        <v>-1063100</v>
+        <v>-768200</v>
       </c>
       <c r="G94" s="3">
-        <v>-997500</v>
+        <v>-1053800</v>
       </c>
       <c r="H94" s="3">
-        <v>194300</v>
+        <v>-988800</v>
       </c>
       <c r="I94" s="3">
-        <v>-724800</v>
+        <v>192600</v>
       </c>
       <c r="J94" s="3">
+        <v>-718500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-156200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1012200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2595500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1897000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1369400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-914400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-579400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-717100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-761300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-186100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-967700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-474900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-603200</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5538,70 +5770,74 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-684000</v>
       </c>
       <c r="E96" s="3">
-        <v>-617300</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-612000</v>
       </c>
       <c r="G96" s="3">
-        <v>-627700</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-622200</v>
       </c>
       <c r="I96" s="3">
-        <v>-639100</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-633600</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-636800</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-656300</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-631900</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-478400</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-478400</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-397500</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5662,8 +5898,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5724,8 +5963,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5786,190 +6028,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1880900</v>
+        <v>-1569200</v>
       </c>
       <c r="E100" s="3">
-        <v>-1378300</v>
+        <v>-1864600</v>
       </c>
       <c r="F100" s="3">
-        <v>-405000</v>
+        <v>-1366300</v>
       </c>
       <c r="G100" s="3">
-        <v>-810900</v>
+        <v>-401500</v>
       </c>
       <c r="H100" s="3">
-        <v>-135800</v>
+        <v>-803900</v>
       </c>
       <c r="I100" s="3">
-        <v>-1878600</v>
+        <v>-134600</v>
       </c>
       <c r="J100" s="3">
+        <v>-1862200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-68800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>202500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2126800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-385900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>482800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-954700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1145700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1020400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2791000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-939700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1316100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-841900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>217200</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>303100</v>
+        <v>-19700</v>
       </c>
       <c r="E101" s="3">
-        <v>-74100</v>
+        <v>300400</v>
       </c>
       <c r="F101" s="3">
-        <v>7800</v>
+        <v>-73500</v>
       </c>
       <c r="G101" s="3">
-        <v>141500</v>
+        <v>7700</v>
       </c>
       <c r="H101" s="3">
-        <v>-306500</v>
+        <v>140200</v>
       </c>
       <c r="I101" s="3">
-        <v>149500</v>
+        <v>-303800</v>
       </c>
       <c r="J101" s="3">
+        <v>148200</v>
+      </c>
+      <c r="K101" s="3">
         <v>-82300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-72700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>23700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-142100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>124000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>45000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-335900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>3300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>100100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>10700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-65200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>603600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-59700</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>777700</v>
+        <v>-798300</v>
       </c>
       <c r="E102" s="3">
-        <v>-1109700</v>
+        <v>770900</v>
       </c>
       <c r="F102" s="3">
-        <v>532000</v>
+        <v>-1100000</v>
       </c>
       <c r="G102" s="3">
-        <v>-159400</v>
+        <v>527400</v>
       </c>
       <c r="H102" s="3">
-        <v>1034100</v>
+        <v>-158000</v>
       </c>
       <c r="I102" s="3">
-        <v>-1900700</v>
+        <v>1025100</v>
       </c>
       <c r="J102" s="3">
+        <v>-1884100</v>
+      </c>
+      <c r="K102" s="3">
         <v>1519700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>289000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>27700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-404700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-643100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-600500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-708500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>448600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-3824900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>717900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-724700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>598900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-147200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MITSY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MITSY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>MITSY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,294 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="22" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="23" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>24214700</v>
+        <v>24299400</v>
       </c>
       <c r="E8" s="3">
-        <v>30164700</v>
+        <v>23417300</v>
       </c>
       <c r="F8" s="3">
-        <v>15081300</v>
+        <v>29171300</v>
       </c>
       <c r="G8" s="3">
-        <v>13863900</v>
+        <v>14584700</v>
       </c>
       <c r="H8" s="3">
-        <v>16811300</v>
+        <v>16384000</v>
       </c>
       <c r="I8" s="3">
-        <v>29973200</v>
+        <v>16257700</v>
       </c>
       <c r="J8" s="3">
+        <v>28986100</v>
+      </c>
+      <c r="K8" s="3">
         <v>16240900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>16340900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>14959400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>18687200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>16988500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>15394900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>14145800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>11201800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>11381200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>10959900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>10682200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>10539300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>10144100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>8977900</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>21771100</v>
+        <v>22016000</v>
       </c>
       <c r="E9" s="3">
-        <v>27948600</v>
+        <v>21054100</v>
       </c>
       <c r="F9" s="3">
-        <v>13256000</v>
+        <v>27028200</v>
       </c>
       <c r="G9" s="3">
-        <v>12241200</v>
+        <v>12819500</v>
       </c>
       <c r="H9" s="3">
-        <v>15083100</v>
+        <v>14814600</v>
       </c>
       <c r="I9" s="3">
-        <v>28160300</v>
+        <v>14586400</v>
       </c>
       <c r="J9" s="3">
+        <v>27233000</v>
+      </c>
+      <c r="K9" s="3">
         <v>14307400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>14328700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>13042800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>16713400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>15012100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>13487900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>12160100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>9567400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>9519200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>9110700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>8879700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>8666700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>8528400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>7541800</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2443600</v>
+        <v>2283400</v>
       </c>
       <c r="E10" s="3">
-        <v>2216100</v>
+        <v>2363200</v>
       </c>
       <c r="F10" s="3">
-        <v>1825300</v>
+        <v>2143200</v>
       </c>
       <c r="G10" s="3">
-        <v>1622800</v>
+        <v>1765200</v>
       </c>
       <c r="H10" s="3">
-        <v>1728200</v>
+        <v>1569300</v>
       </c>
       <c r="I10" s="3">
-        <v>1812900</v>
+        <v>1671300</v>
       </c>
       <c r="J10" s="3">
+        <v>1753200</v>
+      </c>
+      <c r="K10" s="3">
         <v>1933500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2012200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1916600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1973800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1976400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1906900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1985700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1634400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1861900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1849100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1802500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1872600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1615700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1436100</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,8 +976,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1029,8 +1042,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1094,73 +1110,79 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>113800</v>
+      </c>
+      <c r="E14" s="3">
         <v>-1900</v>
       </c>
-      <c r="E14" s="3">
-        <v>116500</v>
-      </c>
       <c r="F14" s="3">
-        <v>317600</v>
+        <v>112700</v>
       </c>
       <c r="G14" s="3">
-        <v>45200</v>
+        <v>307100</v>
       </c>
       <c r="H14" s="3">
-        <v>2800</v>
+        <v>43700</v>
       </c>
       <c r="I14" s="3">
-        <v>903800</v>
+        <v>2700</v>
       </c>
       <c r="J14" s="3">
+        <v>874000</v>
+      </c>
+      <c r="K14" s="3">
         <v>82100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>8300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>15500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>225400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>20700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>3800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>8900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>59600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>91800</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>67000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>11600</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>48200</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1224,8 +1246,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1246,138 +1271,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>22977700</v>
+        <v>23362900</v>
       </c>
       <c r="E17" s="3">
-        <v>29522300</v>
+        <v>22221000</v>
       </c>
       <c r="F17" s="3">
-        <v>15112600</v>
+        <v>28550100</v>
       </c>
       <c r="G17" s="3">
-        <v>13678800</v>
+        <v>14614900</v>
       </c>
       <c r="H17" s="3">
-        <v>16234600</v>
+        <v>16205000</v>
       </c>
       <c r="I17" s="3">
-        <v>30064600</v>
+        <v>15700000</v>
       </c>
       <c r="J17" s="3">
+        <v>29074600</v>
+      </c>
+      <c r="K17" s="3">
         <v>15671900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>15581200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>14210600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>18422900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>16308000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>14800500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>13271100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>11108400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>10721200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>10139700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>9954000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>9794000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>9291500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>8516000</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1237000</v>
+        <v>936600</v>
       </c>
       <c r="E18" s="3">
-        <v>642400</v>
+        <v>1196300</v>
       </c>
       <c r="F18" s="3">
-        <v>-31300</v>
+        <v>621300</v>
       </c>
       <c r="G18" s="3">
-        <v>185100</v>
+        <v>-30300</v>
       </c>
       <c r="H18" s="3">
-        <v>576700</v>
+        <v>179000</v>
       </c>
       <c r="I18" s="3">
-        <v>-91400</v>
+        <v>557700</v>
       </c>
       <c r="J18" s="3">
+        <v>-88400</v>
+      </c>
+      <c r="K18" s="3">
         <v>569000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>759700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>748700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>264200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>680500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>594400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>874700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>93400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>660000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>820200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>728200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>745300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>852600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>461900</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1401,333 +1433,349 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1228000</v>
+        <v>1670300</v>
       </c>
       <c r="E20" s="3">
-        <v>1075200</v>
+        <v>1187500</v>
       </c>
       <c r="F20" s="3">
-        <v>947200</v>
+        <v>1039800</v>
       </c>
       <c r="G20" s="3">
-        <v>686300</v>
+        <v>916000</v>
       </c>
       <c r="H20" s="3">
-        <v>493000</v>
+        <v>663700</v>
       </c>
       <c r="I20" s="3">
-        <v>850000</v>
+        <v>476800</v>
       </c>
       <c r="J20" s="3">
+        <v>822000</v>
+      </c>
+      <c r="K20" s="3">
         <v>1024200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>799300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1048100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>949200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1042200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>982200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>815900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>682600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>963900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>765600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>808400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>451900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>662000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>545900</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3138100</v>
+        <v>3250200</v>
       </c>
       <c r="E21" s="3">
-        <v>2386400</v>
+        <v>3034700</v>
       </c>
       <c r="F21" s="3">
-        <v>1527600</v>
+        <v>2307800</v>
       </c>
       <c r="G21" s="3">
-        <v>1509600</v>
+        <v>1477300</v>
       </c>
       <c r="H21" s="3">
-        <v>1643800</v>
+        <v>1459900</v>
       </c>
       <c r="I21" s="3">
-        <v>1402900</v>
+        <v>1589700</v>
       </c>
       <c r="J21" s="3">
+        <v>1356700</v>
+      </c>
+      <c r="K21" s="3">
         <v>2193700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2100800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2351400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1709400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2165200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1987800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2086700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1189800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2072700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2035100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1965600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1607200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1947400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1446600</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>131100</v>
+        <v>100700</v>
       </c>
       <c r="E22" s="3">
-        <v>99800</v>
+        <v>126800</v>
       </c>
       <c r="F22" s="3">
-        <v>114900</v>
+        <v>96500</v>
       </c>
       <c r="G22" s="3">
-        <v>117900</v>
+        <v>111200</v>
       </c>
       <c r="H22" s="3">
-        <v>140600</v>
+        <v>114000</v>
       </c>
       <c r="I22" s="3">
-        <v>184500</v>
+        <v>136000</v>
       </c>
       <c r="J22" s="3">
+        <v>178400</v>
+      </c>
+      <c r="K22" s="3">
         <v>205000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>212500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>217600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>194400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>191600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>191700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>172300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>149100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>150300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>156500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>145100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>140900</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>133700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>118100</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2333900</v>
+        <v>2506100</v>
       </c>
       <c r="E23" s="3">
-        <v>1617800</v>
+        <v>2257000</v>
       </c>
       <c r="F23" s="3">
-        <v>801000</v>
+        <v>1564600</v>
       </c>
       <c r="G23" s="3">
-        <v>753400</v>
+        <v>774600</v>
       </c>
       <c r="H23" s="3">
-        <v>929100</v>
+        <v>728600</v>
       </c>
       <c r="I23" s="3">
-        <v>574000</v>
+        <v>898500</v>
       </c>
       <c r="J23" s="3">
+        <v>555100</v>
+      </c>
+      <c r="K23" s="3">
         <v>1388200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1346500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1579200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1019000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1531100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1384900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1518300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>626900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1473600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1429300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1391500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1056300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1380900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>889700</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>511900</v>
+        <v>589900</v>
       </c>
       <c r="E24" s="3">
-        <v>334900</v>
+        <v>495000</v>
       </c>
       <c r="F24" s="3">
-        <v>-39800</v>
+        <v>323900</v>
       </c>
       <c r="G24" s="3">
-        <v>292500</v>
+        <v>-38500</v>
       </c>
       <c r="H24" s="3">
-        <v>321800</v>
+        <v>282800</v>
       </c>
       <c r="I24" s="3">
-        <v>91500</v>
+        <v>311200</v>
       </c>
       <c r="J24" s="3">
+        <v>88400</v>
+      </c>
+      <c r="K24" s="3">
         <v>409100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>280700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>343700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>397900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>289000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>367300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>372800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>201200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>158300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>234300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>338000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>320800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>367600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>316000</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1791,138 +1839,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1822000</v>
+        <v>1916200</v>
       </c>
       <c r="E26" s="3">
-        <v>1282900</v>
+        <v>1762000</v>
       </c>
       <c r="F26" s="3">
-        <v>840800</v>
+        <v>1240700</v>
       </c>
       <c r="G26" s="3">
-        <v>461000</v>
+        <v>813100</v>
       </c>
       <c r="H26" s="3">
-        <v>607300</v>
+        <v>445800</v>
       </c>
       <c r="I26" s="3">
-        <v>482500</v>
+        <v>587300</v>
       </c>
       <c r="J26" s="3">
+        <v>466700</v>
+      </c>
+      <c r="K26" s="3">
         <v>979200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1065800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1235500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>621100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1242100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1017600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1145500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>425700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1315300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1195000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1053500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>735500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1013300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>573700</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1742400</v>
+        <v>1879800</v>
       </c>
       <c r="E27" s="3">
-        <v>1243700</v>
+        <v>1685000</v>
       </c>
       <c r="F27" s="3">
-        <v>810000</v>
+        <v>1202800</v>
       </c>
       <c r="G27" s="3">
-        <v>432400</v>
+        <v>783300</v>
       </c>
       <c r="H27" s="3">
-        <v>569900</v>
+        <v>418200</v>
       </c>
       <c r="I27" s="3">
-        <v>514100</v>
+        <v>551100</v>
       </c>
       <c r="J27" s="3">
+        <v>497200</v>
+      </c>
+      <c r="K27" s="3">
         <v>919400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1002800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1145300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>616500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1200700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>970400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1076400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>376500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1252300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1153100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1001200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>672400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>961100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>539600</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1986,8 +2043,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2051,8 +2111,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2116,8 +2179,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2181,138 +2247,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1228000</v>
+        <v>-1670300</v>
       </c>
       <c r="E32" s="3">
-        <v>-1075200</v>
+        <v>-1187500</v>
       </c>
       <c r="F32" s="3">
-        <v>-947200</v>
+        <v>-1039800</v>
       </c>
       <c r="G32" s="3">
-        <v>-686300</v>
+        <v>-916000</v>
       </c>
       <c r="H32" s="3">
-        <v>-493000</v>
+        <v>-663700</v>
       </c>
       <c r="I32" s="3">
-        <v>-850000</v>
+        <v>-476800</v>
       </c>
       <c r="J32" s="3">
+        <v>-822000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1024200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-799300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1048100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-949200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1042200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-982200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-815900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-682600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-963900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-765600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-808400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-451900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-662000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-545900</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1742400</v>
+        <v>1879800</v>
       </c>
       <c r="E33" s="3">
-        <v>1243700</v>
+        <v>1685000</v>
       </c>
       <c r="F33" s="3">
-        <v>810000</v>
+        <v>1202800</v>
       </c>
       <c r="G33" s="3">
-        <v>432400</v>
+        <v>783300</v>
       </c>
       <c r="H33" s="3">
-        <v>569900</v>
+        <v>418200</v>
       </c>
       <c r="I33" s="3">
-        <v>514100</v>
+        <v>551100</v>
       </c>
       <c r="J33" s="3">
+        <v>497200</v>
+      </c>
+      <c r="K33" s="3">
         <v>919400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1002800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1145300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>616500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1200700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>970400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1076400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>376500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1252300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1153100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1001200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>672400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>961100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>539600</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2376,143 +2451,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1742400</v>
+        <v>1879800</v>
       </c>
       <c r="E35" s="3">
-        <v>1243700</v>
+        <v>1685000</v>
       </c>
       <c r="F35" s="3">
-        <v>810000</v>
+        <v>1202800</v>
       </c>
       <c r="G35" s="3">
-        <v>432400</v>
+        <v>783300</v>
       </c>
       <c r="H35" s="3">
-        <v>569900</v>
+        <v>418200</v>
       </c>
       <c r="I35" s="3">
-        <v>514100</v>
+        <v>551100</v>
       </c>
       <c r="J35" s="3">
+        <v>497200</v>
+      </c>
+      <c r="K35" s="3">
         <v>919400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1002800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1145300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>616500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1200700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>970400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1076400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>376500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1252300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1153100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1001200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>672400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>961100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>539600</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2536,8 +2620,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2561,593 +2646,621 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8887000</v>
+        <v>7578600</v>
       </c>
       <c r="E41" s="3">
-        <v>9685300</v>
+        <v>8594300</v>
       </c>
       <c r="F41" s="3">
-        <v>8914400</v>
+        <v>9366400</v>
       </c>
       <c r="G41" s="3">
-        <v>10014400</v>
+        <v>8620800</v>
       </c>
       <c r="H41" s="3">
-        <v>9487000</v>
+        <v>9684600</v>
       </c>
       <c r="I41" s="3">
-        <v>9645100</v>
+        <v>9174600</v>
       </c>
       <c r="J41" s="3">
+        <v>9327400</v>
+      </c>
+      <c r="K41" s="3">
         <v>8619900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>10596300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9047000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9188200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>8998400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>9253700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>9683800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>10227700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>10936200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>10487600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>14312400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>13338900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>14063500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>13464600</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>5145500</v>
+        <v>6949100</v>
       </c>
       <c r="E42" s="3">
-        <v>3917200</v>
+        <v>4976000</v>
       </c>
       <c r="F42" s="3">
-        <v>3918200</v>
+        <v>3788200</v>
       </c>
       <c r="G42" s="3">
-        <v>3648200</v>
+        <v>3789200</v>
       </c>
       <c r="H42" s="3">
-        <v>3873300</v>
+        <v>3528100</v>
       </c>
       <c r="I42" s="3">
-        <v>5128000</v>
+        <v>3745800</v>
       </c>
       <c r="J42" s="3">
+        <v>4959100</v>
+      </c>
+      <c r="K42" s="3">
         <v>3002000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2707200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2753000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2445800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>3255400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2869100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2702600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>2205000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>3030500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>2627800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>2445500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>2374300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>3915400</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>3786600</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>17080200</v>
+        <v>16582600</v>
       </c>
       <c r="E43" s="3">
-        <v>16507200</v>
+        <v>16517800</v>
       </c>
       <c r="F43" s="3">
-        <v>15699800</v>
+        <v>15963600</v>
       </c>
       <c r="G43" s="3">
-        <v>13102900</v>
+        <v>15182800</v>
       </c>
       <c r="H43" s="3">
-        <v>13301500</v>
+        <v>12671400</v>
       </c>
       <c r="I43" s="3">
-        <v>14781000</v>
+        <v>12863400</v>
       </c>
       <c r="J43" s="3">
+        <v>14294200</v>
+      </c>
+      <c r="K43" s="3">
         <v>16566500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>14911000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>15916900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>17338600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>17779600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>16564800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>15649400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>15964800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>17290200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>16461900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>14971500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>15428500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>15480700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>13205700</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>6547900</v>
+        <v>6534900</v>
       </c>
       <c r="E44" s="3">
-        <v>5604100</v>
+        <v>6332300</v>
       </c>
       <c r="F44" s="3">
-        <v>5485600</v>
+        <v>5419500</v>
       </c>
       <c r="G44" s="3">
-        <v>5050200</v>
+        <v>5305000</v>
       </c>
       <c r="H44" s="3">
-        <v>4864300</v>
+        <v>4883900</v>
       </c>
       <c r="I44" s="3">
-        <v>5045700</v>
+        <v>4704200</v>
       </c>
       <c r="J44" s="3">
+        <v>4879500</v>
+      </c>
+      <c r="K44" s="3">
         <v>6283100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5890100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5901000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>5839800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>5950700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>5828600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>5150500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4978300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>5689100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>5718500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>5394500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>5229200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>5336700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>4779400</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2857700</v>
+        <v>2780500</v>
       </c>
       <c r="E45" s="3">
-        <v>2616300</v>
+        <v>2763600</v>
       </c>
       <c r="F45" s="3">
-        <v>2531100</v>
+        <v>2530200</v>
       </c>
       <c r="G45" s="3">
-        <v>2500600</v>
+        <v>2447700</v>
       </c>
       <c r="H45" s="3">
-        <v>2801500</v>
+        <v>2418300</v>
       </c>
       <c r="I45" s="3">
-        <v>2973700</v>
+        <v>2709200</v>
       </c>
       <c r="J45" s="3">
+        <v>2875800</v>
+      </c>
+      <c r="K45" s="3">
         <v>2941600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2909800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3240200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3592300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3707100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3593900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3510500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>4828700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>4005100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3659200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3525900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3320100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>3359700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2996000</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>40518300</v>
+        <v>40425800</v>
       </c>
       <c r="E46" s="3">
-        <v>38330100</v>
+        <v>39184000</v>
       </c>
       <c r="F46" s="3">
-        <v>36549100</v>
+        <v>37067800</v>
       </c>
       <c r="G46" s="3">
-        <v>34316300</v>
+        <v>35345500</v>
       </c>
       <c r="H46" s="3">
-        <v>34327600</v>
+        <v>33186200</v>
       </c>
       <c r="I46" s="3">
-        <v>37573500</v>
+        <v>33197200</v>
       </c>
       <c r="J46" s="3">
+        <v>36336100</v>
+      </c>
+      <c r="K46" s="3">
         <v>37413100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>37014400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>36858100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>38404700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>39691200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>38110200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>36696800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>38204500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>40951100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>38955000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>40649900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>39691000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>42156100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>38232400</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>52748700</v>
+        <v>49011200</v>
       </c>
       <c r="E47" s="3">
-        <v>49625900</v>
+        <v>51011700</v>
       </c>
       <c r="F47" s="3">
-        <v>46276300</v>
+        <v>47991700</v>
       </c>
       <c r="G47" s="3">
-        <v>45608400</v>
+        <v>44752400</v>
       </c>
       <c r="H47" s="3">
-        <v>45399200</v>
+        <v>44106400</v>
       </c>
       <c r="I47" s="3">
-        <v>45311400</v>
+        <v>43904200</v>
       </c>
       <c r="J47" s="3">
+        <v>43819300</v>
+      </c>
+      <c r="K47" s="3">
         <v>50414800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>49513500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>50532700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>53209900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>48784500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>49446400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>45792300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>44126500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>45878300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>44160100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>42595400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>41700800</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>39980100</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>35285000</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>22239300</v>
+        <v>21012200</v>
       </c>
       <c r="E48" s="3">
-        <v>22318800</v>
+        <v>21506900</v>
       </c>
       <c r="F48" s="3">
-        <v>21844400</v>
+        <v>21583800</v>
       </c>
       <c r="G48" s="3">
-        <v>22007400</v>
+        <v>21125000</v>
       </c>
       <c r="H48" s="3">
-        <v>21972500</v>
+        <v>21282700</v>
       </c>
       <c r="I48" s="3">
-        <v>21619900</v>
+        <v>21248900</v>
       </c>
       <c r="J48" s="3">
+        <v>20908000</v>
+      </c>
+      <c r="K48" s="3">
         <v>22359200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>21602500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>21397900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>20646900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>20363100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>19807500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>18394900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>17346400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>17820100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>18003700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>17903900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>17769100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>18403400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>16888800</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1989200</v>
+        <v>1868900</v>
       </c>
       <c r="E49" s="3">
-        <v>1717700</v>
+        <v>1923700</v>
       </c>
       <c r="F49" s="3">
-        <v>1696700</v>
+        <v>1661200</v>
       </c>
       <c r="G49" s="3">
-        <v>1763200</v>
+        <v>1640900</v>
       </c>
       <c r="H49" s="3">
-        <v>1755800</v>
+        <v>1705100</v>
       </c>
       <c r="I49" s="3">
-        <v>1779100</v>
+        <v>1698000</v>
       </c>
       <c r="J49" s="3">
+        <v>1720500</v>
+      </c>
+      <c r="K49" s="3">
         <v>2151300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2186600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2230100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1673000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1743600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1607100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1552500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1565800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1572800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1615000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1568500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1496200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1434400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1274500</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3211,8 +3324,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3276,73 +3392,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1895600</v>
+        <v>1807300</v>
       </c>
       <c r="E52" s="3">
-        <v>2026900</v>
+        <v>1833200</v>
       </c>
       <c r="F52" s="3">
-        <v>1511200</v>
+        <v>1960100</v>
       </c>
       <c r="G52" s="3">
-        <v>1150800</v>
+        <v>1461400</v>
       </c>
       <c r="H52" s="3">
-        <v>1182800</v>
+        <v>1112900</v>
       </c>
       <c r="I52" s="3">
-        <v>1271400</v>
+        <v>1143800</v>
       </c>
       <c r="J52" s="3">
+        <v>1229500</v>
+      </c>
+      <c r="K52" s="3">
         <v>850800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>851500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>819700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>864500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1064200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1091400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1002900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>969100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1006800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1169300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1357900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1356900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1432200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1287300</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3406,73 +3528,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>119391100</v>
+        <v>114125400</v>
       </c>
       <c r="E54" s="3">
-        <v>114019300</v>
+        <v>115459500</v>
       </c>
       <c r="F54" s="3">
-        <v>107877700</v>
+        <v>110264600</v>
       </c>
       <c r="G54" s="3">
-        <v>104846100</v>
+        <v>104325200</v>
       </c>
       <c r="H54" s="3">
-        <v>104637900</v>
+        <v>101393400</v>
       </c>
       <c r="I54" s="3">
-        <v>107555300</v>
+        <v>101192100</v>
       </c>
       <c r="J54" s="3">
+        <v>104013400</v>
+      </c>
+      <c r="K54" s="3">
         <v>113189100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>111168500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>111838500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>114798900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>111646700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>110062600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>103439500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>102212200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>107229100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>103903100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>104075500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>102014000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>103406200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>92968100</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3496,8 +3624,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3521,398 +3650,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>12868300</v>
+        <v>12309900</v>
       </c>
       <c r="E57" s="3">
-        <v>11964500</v>
+        <v>12444500</v>
       </c>
       <c r="F57" s="3">
-        <v>10859400</v>
+        <v>11570500</v>
       </c>
       <c r="G57" s="3">
-        <v>9693300</v>
+        <v>10501800</v>
       </c>
       <c r="H57" s="3">
-        <v>9338600</v>
+        <v>9374100</v>
       </c>
       <c r="I57" s="3">
-        <v>10353600</v>
+        <v>9031100</v>
       </c>
       <c r="J57" s="3">
+        <v>10012600</v>
+      </c>
+      <c r="K57" s="3">
         <v>11770300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>10845800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>11551100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>12707100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>13217100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>12028200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>11694800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>11429100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>12147200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>11328200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>10649200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>10676900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>10787700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>8887300</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7390400</v>
+        <v>7044000</v>
       </c>
       <c r="E58" s="3">
-        <v>6845500</v>
+        <v>7147000</v>
       </c>
       <c r="F58" s="3">
-        <v>6272900</v>
+        <v>6620100</v>
       </c>
       <c r="G58" s="3">
-        <v>6114100</v>
+        <v>6066400</v>
       </c>
       <c r="H58" s="3">
-        <v>6734700</v>
+        <v>5912700</v>
       </c>
       <c r="I58" s="3">
-        <v>6353000</v>
+        <v>6513000</v>
       </c>
       <c r="J58" s="3">
+        <v>6143800</v>
+      </c>
+      <c r="K58" s="3">
         <v>6544700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>7261900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>8192800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>7845800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>7553600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>6959600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>6294800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>6184300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>5829800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>5542100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>6488500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>6146100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>7075800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>6388700</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6983800</v>
+        <v>7926600</v>
       </c>
       <c r="E59" s="3">
-        <v>5802700</v>
+        <v>6753800</v>
       </c>
       <c r="F59" s="3">
-        <v>5610100</v>
+        <v>5611600</v>
       </c>
       <c r="G59" s="3">
-        <v>5064000</v>
+        <v>5425300</v>
       </c>
       <c r="H59" s="3">
-        <v>5266700</v>
+        <v>4897200</v>
       </c>
       <c r="I59" s="3">
-        <v>7900600</v>
+        <v>5093300</v>
       </c>
       <c r="J59" s="3">
+        <v>7640400</v>
+      </c>
+      <c r="K59" s="3">
         <v>6186700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5577100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5804100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5781200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>6905100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6461800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>6059700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>6783400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>6711400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>5826600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>5765000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>5564600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>5821700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>4722300</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>27242500</v>
+        <v>27280500</v>
       </c>
       <c r="E60" s="3">
-        <v>24612700</v>
+        <v>26345400</v>
       </c>
       <c r="F60" s="3">
-        <v>22742400</v>
+        <v>23802200</v>
       </c>
       <c r="G60" s="3">
-        <v>20871400</v>
+        <v>21993500</v>
       </c>
       <c r="H60" s="3">
-        <v>21340100</v>
+        <v>20184100</v>
       </c>
       <c r="I60" s="3">
-        <v>24607100</v>
+        <v>20637400</v>
       </c>
       <c r="J60" s="3">
+        <v>23796800</v>
+      </c>
+      <c r="K60" s="3">
         <v>24501800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>23684800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>25548000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>26334000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>27675800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>25449500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>24049300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>24396900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>24688500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>22697000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>22902800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>22387600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>23685200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>19998200</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>36363300</v>
+        <v>34149800</v>
       </c>
       <c r="E61" s="3">
-        <v>36397300</v>
+        <v>35165900</v>
       </c>
       <c r="F61" s="3">
-        <v>37350900</v>
+        <v>35198700</v>
       </c>
       <c r="G61" s="3">
-        <v>38391100</v>
+        <v>36120900</v>
       </c>
       <c r="H61" s="3">
-        <v>38276100</v>
+        <v>37126900</v>
       </c>
       <c r="I61" s="3">
-        <v>38528200</v>
+        <v>37015700</v>
       </c>
       <c r="J61" s="3">
+        <v>37259400</v>
+      </c>
+      <c r="K61" s="3">
         <v>38486000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>38586200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>37173100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>36605000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>33965600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>33739000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>32441500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>32027200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>34920400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>35699100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>37405600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>37431100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>38250500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>36521200</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9636200</v>
+        <v>8721000</v>
       </c>
       <c r="E62" s="3">
-        <v>9072900</v>
+        <v>9318900</v>
       </c>
       <c r="F62" s="3">
-        <v>7875200</v>
+        <v>8774100</v>
       </c>
       <c r="G62" s="3">
-        <v>7504100</v>
+        <v>7615800</v>
       </c>
       <c r="H62" s="3">
-        <v>7450300</v>
+        <v>7257000</v>
       </c>
       <c r="I62" s="3">
-        <v>7424900</v>
+        <v>7204900</v>
       </c>
       <c r="J62" s="3">
+        <v>7180400</v>
+      </c>
+      <c r="K62" s="3">
         <v>8188900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7779100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>7906600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>8323600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>8124200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>8671300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>7800000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>7656300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>7269000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>7278500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>7072300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>6802600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>6766700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>5977300</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3976,8 +4124,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4041,8 +4192,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4106,73 +4260,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>75573900</v>
+        <v>72378500</v>
       </c>
       <c r="E66" s="3">
-        <v>72382800</v>
+        <v>73085200</v>
       </c>
       <c r="F66" s="3">
-        <v>70199700</v>
+        <v>69999200</v>
       </c>
       <c r="G66" s="3">
-        <v>69006000</v>
+        <v>67887900</v>
       </c>
       <c r="H66" s="3">
-        <v>69375600</v>
+        <v>66733600</v>
       </c>
       <c r="I66" s="3">
-        <v>72776300</v>
+        <v>67091000</v>
       </c>
       <c r="J66" s="3">
+        <v>70379700</v>
+      </c>
+      <c r="K66" s="3">
         <v>73667400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>72465300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>73055600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>73829900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>72239100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>70300400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>66567400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>66280800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>69332300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>68053100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>69759100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>68909600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>71093200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>64647500</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4196,8 +4356,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4261,8 +4422,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4326,8 +4490,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4391,8 +4558,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4456,73 +4626,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>32896900</v>
+        <v>32778100</v>
       </c>
       <c r="E72" s="3">
-        <v>32320400</v>
+        <v>31813600</v>
       </c>
       <c r="F72" s="3">
-        <v>30752300</v>
+        <v>31256000</v>
       </c>
       <c r="G72" s="3">
-        <v>30597100</v>
+        <v>29739600</v>
       </c>
       <c r="H72" s="3">
-        <v>30158900</v>
+        <v>29589500</v>
       </c>
       <c r="I72" s="3">
-        <v>30630500</v>
+        <v>29165800</v>
       </c>
       <c r="J72" s="3">
+        <v>29621800</v>
+      </c>
+      <c r="K72" s="3">
         <v>30109600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>30037200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>28668100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>29585900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>28566200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>22079200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>25998200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>26247000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>25531600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>24759700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>23601500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>22619600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>21765100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>21151000</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4586,8 +4762,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4651,8 +4830,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4716,73 +4898,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>43817200</v>
+        <v>41746800</v>
       </c>
       <c r="E76" s="3">
-        <v>41636500</v>
+        <v>42374300</v>
       </c>
       <c r="F76" s="3">
-        <v>37678000</v>
+        <v>40265400</v>
       </c>
       <c r="G76" s="3">
-        <v>35840100</v>
+        <v>36437200</v>
       </c>
       <c r="H76" s="3">
-        <v>35262300</v>
+        <v>34659800</v>
       </c>
       <c r="I76" s="3">
-        <v>34779000</v>
+        <v>34101100</v>
       </c>
       <c r="J76" s="3">
+        <v>33633700</v>
+      </c>
+      <c r="K76" s="3">
         <v>39521800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>38703100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>38782900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>40969000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>39407500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>39762100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>36872200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>35931400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>37896800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>35850000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>34316500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>33104400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>32312900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>28320500</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4846,143 +5034,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1742400</v>
+        <v>1879800</v>
       </c>
       <c r="E81" s="3">
-        <v>1243700</v>
+        <v>1685000</v>
       </c>
       <c r="F81" s="3">
-        <v>810000</v>
+        <v>1202800</v>
       </c>
       <c r="G81" s="3">
-        <v>432400</v>
+        <v>783300</v>
       </c>
       <c r="H81" s="3">
-        <v>569900</v>
+        <v>418200</v>
       </c>
       <c r="I81" s="3">
-        <v>514100</v>
+        <v>551100</v>
       </c>
       <c r="J81" s="3">
+        <v>497200</v>
+      </c>
+      <c r="K81" s="3">
         <v>919400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1002800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1145300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>616500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1200700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>970400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1076400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>376500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1252300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1153100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1001200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>672400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>961100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>539600</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5006,73 +5203,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>673100</v>
+        <v>643300</v>
       </c>
       <c r="E83" s="3">
-        <v>668800</v>
+        <v>650900</v>
       </c>
       <c r="F83" s="3">
-        <v>611700</v>
+        <v>646700</v>
       </c>
       <c r="G83" s="3">
-        <v>638300</v>
+        <v>591600</v>
       </c>
       <c r="H83" s="3">
-        <v>574100</v>
+        <v>617300</v>
       </c>
       <c r="I83" s="3">
-        <v>644400</v>
+        <v>555200</v>
       </c>
       <c r="J83" s="3">
+        <v>623100</v>
+      </c>
+      <c r="K83" s="3">
         <v>600400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>541700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>554500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>496000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>442500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>411100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>396100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>413800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>448800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>449300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>429100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>410100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>432800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>438700</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5136,8 +5337,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5201,8 +5405,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5266,8 +5473,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5331,8 +5541,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5396,73 +5609,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1633500</v>
+        <v>1126300</v>
       </c>
       <c r="E89" s="3">
-        <v>2461900</v>
+        <v>1579700</v>
       </c>
       <c r="F89" s="3">
-        <v>1107900</v>
+        <v>2380900</v>
       </c>
       <c r="G89" s="3">
-        <v>1975000</v>
+        <v>1071400</v>
       </c>
       <c r="H89" s="3">
-        <v>1494400</v>
+        <v>1910000</v>
       </c>
       <c r="I89" s="3">
-        <v>1270900</v>
+        <v>1445200</v>
       </c>
       <c r="J89" s="3">
+        <v>1229000</v>
+      </c>
+      <c r="K89" s="3">
         <v>548400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1827000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1171400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>472800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1886300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>251200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1223700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1352500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2182700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-372700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1833000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1624300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1312000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>298600</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5486,73 +5705,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-423300</v>
+        <v>-394400</v>
       </c>
       <c r="E91" s="3">
-        <v>-354000</v>
+        <v>-409400</v>
       </c>
       <c r="F91" s="3">
-        <v>-445400</v>
+        <v>-342300</v>
       </c>
       <c r="G91" s="3">
-        <v>-417900</v>
+        <v>-430700</v>
       </c>
       <c r="H91" s="3">
-        <v>-747700</v>
+        <v>-404100</v>
       </c>
       <c r="I91" s="3">
-        <v>-691900</v>
+        <v>-723100</v>
       </c>
       <c r="J91" s="3">
+        <v>-669200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-792800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-579100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-566500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-717000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-868800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-680800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-616300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>707600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-337700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-384300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-196300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-458100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-338400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-537000</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5616,8 +5839,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5681,73 +5907,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-842900</v>
+        <v>-495500</v>
       </c>
       <c r="E94" s="3">
-        <v>-126900</v>
+        <v>-815100</v>
       </c>
       <c r="F94" s="3">
-        <v>-768200</v>
+        <v>-122700</v>
       </c>
       <c r="G94" s="3">
-        <v>-1053800</v>
+        <v>-742900</v>
       </c>
       <c r="H94" s="3">
-        <v>-988800</v>
+        <v>-1019100</v>
       </c>
       <c r="I94" s="3">
-        <v>192600</v>
+        <v>-956200</v>
       </c>
       <c r="J94" s="3">
+        <v>186300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-718500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-156200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1012200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2595500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1897000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1369400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-914400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-579400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-717100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-761300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-186100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-967700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-474900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-603200</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5771,73 +6003,77 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-684000</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-661500</v>
       </c>
       <c r="F96" s="3">
-        <v>-612000</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-591800</v>
       </c>
       <c r="H96" s="3">
-        <v>-622200</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-601700</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-633600</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-636800</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-656300</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-631900</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-478400</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-478400</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-397500</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5901,8 +6137,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5966,8 +6205,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6031,199 +6273,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1569200</v>
+        <v>-1571600</v>
       </c>
       <c r="E100" s="3">
-        <v>-1864600</v>
+        <v>-1517600</v>
       </c>
       <c r="F100" s="3">
-        <v>-1366300</v>
+        <v>-1803200</v>
       </c>
       <c r="G100" s="3">
-        <v>-401500</v>
+        <v>-1321300</v>
       </c>
       <c r="H100" s="3">
-        <v>-803900</v>
+        <v>-388300</v>
       </c>
       <c r="I100" s="3">
-        <v>-134600</v>
+        <v>-777400</v>
       </c>
       <c r="J100" s="3">
+        <v>-130100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1862200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-68800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>202500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2126800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-385900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>482800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-954700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1145700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1020400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2791000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-939700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1316100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-841900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>217200</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-19700</v>
+        <v>-75000</v>
       </c>
       <c r="E101" s="3">
-        <v>300400</v>
+        <v>-19100</v>
       </c>
       <c r="F101" s="3">
-        <v>-73500</v>
+        <v>290600</v>
       </c>
       <c r="G101" s="3">
-        <v>7700</v>
+        <v>-71000</v>
       </c>
       <c r="H101" s="3">
-        <v>140200</v>
+        <v>7500</v>
       </c>
       <c r="I101" s="3">
-        <v>-303800</v>
+        <v>135600</v>
       </c>
       <c r="J101" s="3">
+        <v>-293800</v>
+      </c>
+      <c r="K101" s="3">
         <v>148200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-82300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-72700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>23700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-142100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>124000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>45000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-335900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>3300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>100100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>10700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-65200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>603600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-59700</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-798300</v>
+        <v>-1015700</v>
       </c>
       <c r="E102" s="3">
-        <v>770900</v>
+        <v>-772000</v>
       </c>
       <c r="F102" s="3">
-        <v>-1100000</v>
+        <v>745500</v>
       </c>
       <c r="G102" s="3">
-        <v>527400</v>
+        <v>-1063800</v>
       </c>
       <c r="H102" s="3">
-        <v>-158000</v>
+        <v>510000</v>
       </c>
       <c r="I102" s="3">
-        <v>1025100</v>
+        <v>-152800</v>
       </c>
       <c r="J102" s="3">
+        <v>991400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1884100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1519700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>289000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>27700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-404700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-643100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-600500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-708500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>448600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-3824900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>717900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-724700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>598900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-147200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MITSY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MITSY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>MITSY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,294 +665,309 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="23" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="24" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>24299400</v>
+        <v>27067700</v>
       </c>
       <c r="E8" s="3">
-        <v>23417300</v>
+        <v>23527100</v>
       </c>
       <c r="F8" s="3">
-        <v>29171300</v>
+        <v>22673000</v>
       </c>
       <c r="G8" s="3">
-        <v>14584700</v>
+        <v>28244200</v>
       </c>
       <c r="H8" s="3">
-        <v>16384000</v>
+        <v>17362800</v>
       </c>
       <c r="I8" s="3">
-        <v>16257700</v>
+        <v>15863200</v>
       </c>
       <c r="J8" s="3">
+        <v>15741000</v>
+      </c>
+      <c r="K8" s="3">
         <v>28986100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>16240900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>16340900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>14959400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>18687200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>16988500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>15394900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>14145800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>11201800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>11381200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>10959900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>10682200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>10539300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>10144100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>8977900</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>22016000</v>
+        <v>24829700</v>
       </c>
       <c r="E9" s="3">
-        <v>21054100</v>
+        <v>21316300</v>
       </c>
       <c r="F9" s="3">
-        <v>27028200</v>
+        <v>20385000</v>
       </c>
       <c r="G9" s="3">
-        <v>12819500</v>
+        <v>26169200</v>
       </c>
       <c r="H9" s="3">
-        <v>14814600</v>
+        <v>15653700</v>
       </c>
       <c r="I9" s="3">
-        <v>14586400</v>
+        <v>14343800</v>
       </c>
       <c r="J9" s="3">
+        <v>14122800</v>
+      </c>
+      <c r="K9" s="3">
         <v>27233000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>14307400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>14328700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>13042800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>16713400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>15012100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>13487900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>12160100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>9567400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>9519200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>9110700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>8879700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>8666700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>8528400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>7541800</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2283400</v>
+        <v>2237900</v>
       </c>
       <c r="E10" s="3">
-        <v>2363200</v>
+        <v>2210900</v>
       </c>
       <c r="F10" s="3">
-        <v>2143200</v>
+        <v>2288100</v>
       </c>
       <c r="G10" s="3">
-        <v>1765200</v>
+        <v>2075100</v>
       </c>
       <c r="H10" s="3">
-        <v>1569300</v>
+        <v>1709100</v>
       </c>
       <c r="I10" s="3">
-        <v>1671300</v>
+        <v>1519400</v>
       </c>
       <c r="J10" s="3">
+        <v>1618200</v>
+      </c>
+      <c r="K10" s="3">
         <v>1753200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1933500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2012200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1916600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1973800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1976400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1906900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1985700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1634400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1861900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1849100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1802500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1872600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1615700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1436100</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +992,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1045,8 +1061,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1113,76 +1132,82 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>113800</v>
+        <v>13400</v>
       </c>
       <c r="E14" s="3">
-        <v>-1900</v>
+        <v>193400</v>
       </c>
       <c r="F14" s="3">
-        <v>112700</v>
+        <v>-1800</v>
       </c>
       <c r="G14" s="3">
-        <v>307100</v>
+        <v>109100</v>
       </c>
       <c r="H14" s="3">
-        <v>43700</v>
+        <v>305000</v>
       </c>
       <c r="I14" s="3">
-        <v>2700</v>
+        <v>42400</v>
       </c>
       <c r="J14" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K14" s="3">
         <v>874000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>82100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>8300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>15500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>225400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>20700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>3800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>8900</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>59600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>91800</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>67000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>11600</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>48200</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
       <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1249,8 +1274,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1272,144 +1300,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>23362900</v>
+        <v>25870200</v>
       </c>
       <c r="E17" s="3">
-        <v>22221000</v>
+        <v>22620400</v>
       </c>
       <c r="F17" s="3">
-        <v>28550100</v>
+        <v>21514800</v>
       </c>
       <c r="G17" s="3">
-        <v>14614900</v>
+        <v>27642700</v>
       </c>
       <c r="H17" s="3">
-        <v>16205000</v>
+        <v>17392100</v>
       </c>
       <c r="I17" s="3">
-        <v>15700000</v>
+        <v>15690000</v>
       </c>
       <c r="J17" s="3">
+        <v>15201000</v>
+      </c>
+      <c r="K17" s="3">
         <v>29074600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>15671900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>15581200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>14210600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>18422900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>16308000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>14800500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>13271100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>11108400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>10721200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>10139700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>9954000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>9794000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>9291500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>8516000</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>936600</v>
+        <v>1197400</v>
       </c>
       <c r="E18" s="3">
-        <v>1196300</v>
+        <v>906800</v>
       </c>
       <c r="F18" s="3">
-        <v>621300</v>
+        <v>1158300</v>
       </c>
       <c r="G18" s="3">
-        <v>-30300</v>
+        <v>601500</v>
       </c>
       <c r="H18" s="3">
-        <v>179000</v>
+        <v>-29300</v>
       </c>
       <c r="I18" s="3">
-        <v>557700</v>
+        <v>173300</v>
       </c>
       <c r="J18" s="3">
+        <v>540000</v>
+      </c>
+      <c r="K18" s="3">
         <v>-88400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>569000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>759700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>748700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>264200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>680500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>594400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>874700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>93400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>660000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>820200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>728200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>745300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>852600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>461900</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1434,348 +1469,364 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1670300</v>
+        <v>1375300</v>
       </c>
       <c r="E20" s="3">
-        <v>1187500</v>
+        <v>1617200</v>
       </c>
       <c r="F20" s="3">
-        <v>1039800</v>
+        <v>1149800</v>
       </c>
       <c r="G20" s="3">
-        <v>916000</v>
+        <v>1006700</v>
       </c>
       <c r="H20" s="3">
-        <v>663700</v>
+        <v>886900</v>
       </c>
       <c r="I20" s="3">
-        <v>476800</v>
+        <v>642600</v>
       </c>
       <c r="J20" s="3">
+        <v>461600</v>
+      </c>
+      <c r="K20" s="3">
         <v>822000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1024200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>799300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1048100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>949200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1042200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>982200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>815900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>682600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>963900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>765600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>808400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>451900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>662000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>545900</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3250200</v>
+        <v>3239200</v>
       </c>
       <c r="E21" s="3">
-        <v>3034700</v>
+        <v>3146900</v>
       </c>
       <c r="F21" s="3">
-        <v>2307800</v>
+        <v>2938300</v>
       </c>
       <c r="G21" s="3">
-        <v>1477300</v>
+        <v>2234400</v>
       </c>
       <c r="H21" s="3">
-        <v>1459900</v>
+        <v>1430400</v>
       </c>
       <c r="I21" s="3">
-        <v>1589700</v>
+        <v>1413500</v>
       </c>
       <c r="J21" s="3">
+        <v>1539200</v>
+      </c>
+      <c r="K21" s="3">
         <v>1356700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2193700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2100800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2351400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1709400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2165200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1987800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2086700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1189800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2072700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>2035100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1965600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1607200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1947400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1446600</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100700</v>
+        <v>85800</v>
       </c>
       <c r="E22" s="3">
-        <v>126800</v>
+        <v>97500</v>
       </c>
       <c r="F22" s="3">
-        <v>96500</v>
+        <v>122700</v>
       </c>
       <c r="G22" s="3">
-        <v>111200</v>
+        <v>93400</v>
       </c>
       <c r="H22" s="3">
-        <v>114000</v>
+        <v>107600</v>
       </c>
       <c r="I22" s="3">
-        <v>136000</v>
+        <v>110400</v>
       </c>
       <c r="J22" s="3">
+        <v>131600</v>
+      </c>
+      <c r="K22" s="3">
         <v>178400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>205000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>212500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>217600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>194400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>191600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>191700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>172300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>149100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>150300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>156500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>145100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>140900</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>133700</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>118100</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2506100</v>
+        <v>2486900</v>
       </c>
       <c r="E23" s="3">
-        <v>2257000</v>
+        <v>2426500</v>
       </c>
       <c r="F23" s="3">
-        <v>1564600</v>
+        <v>2185300</v>
       </c>
       <c r="G23" s="3">
-        <v>774600</v>
+        <v>1514800</v>
       </c>
       <c r="H23" s="3">
-        <v>728600</v>
+        <v>750000</v>
       </c>
       <c r="I23" s="3">
-        <v>898500</v>
+        <v>705500</v>
       </c>
       <c r="J23" s="3">
+        <v>870000</v>
+      </c>
+      <c r="K23" s="3">
         <v>555100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1388200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1346500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1579200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1019000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1531100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1384900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1518300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>626900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1473600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1429300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1391500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1056300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1380900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>889700</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>589900</v>
+        <v>500100</v>
       </c>
       <c r="E24" s="3">
-        <v>495000</v>
+        <v>571200</v>
       </c>
       <c r="F24" s="3">
-        <v>323900</v>
+        <v>479300</v>
       </c>
       <c r="G24" s="3">
-        <v>-38500</v>
+        <v>313600</v>
       </c>
       <c r="H24" s="3">
-        <v>282800</v>
+        <v>-37300</v>
       </c>
       <c r="I24" s="3">
-        <v>311200</v>
+        <v>273800</v>
       </c>
       <c r="J24" s="3">
+        <v>301300</v>
+      </c>
+      <c r="K24" s="3">
         <v>88400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>409100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>280700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>343700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>397900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>289000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>367300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>372800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>201200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>158300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>234300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>338000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>320800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>367600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>316000</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1842,144 +1893,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1916200</v>
+        <v>1986900</v>
       </c>
       <c r="E26" s="3">
-        <v>1762000</v>
+        <v>1855300</v>
       </c>
       <c r="F26" s="3">
-        <v>1240700</v>
+        <v>1706000</v>
       </c>
       <c r="G26" s="3">
-        <v>813100</v>
+        <v>1201200</v>
       </c>
       <c r="H26" s="3">
-        <v>445800</v>
+        <v>787300</v>
       </c>
       <c r="I26" s="3">
-        <v>587300</v>
+        <v>431600</v>
       </c>
       <c r="J26" s="3">
+        <v>568600</v>
+      </c>
+      <c r="K26" s="3">
         <v>466700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>979200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1065800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1235500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>621100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1242100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1017600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1145500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>425700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1315300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1195000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1053500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>735500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1013300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>573700</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1879800</v>
+        <v>1950200</v>
       </c>
       <c r="E27" s="3">
-        <v>1685000</v>
+        <v>1820000</v>
       </c>
       <c r="F27" s="3">
-        <v>1202800</v>
+        <v>1631500</v>
       </c>
       <c r="G27" s="3">
-        <v>783300</v>
+        <v>1164500</v>
       </c>
       <c r="H27" s="3">
-        <v>418200</v>
+        <v>758400</v>
       </c>
       <c r="I27" s="3">
-        <v>551100</v>
+        <v>404900</v>
       </c>
       <c r="J27" s="3">
+        <v>533600</v>
+      </c>
+      <c r="K27" s="3">
         <v>497200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>919400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1002800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1145300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>616500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1200700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>970400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1076400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>376500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1252300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1153100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1001200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>672400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>961100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>539600</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2046,8 +2106,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2114,8 +2177,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2182,8 +2248,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2250,144 +2319,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1670300</v>
+        <v>-1375300</v>
       </c>
       <c r="E32" s="3">
-        <v>-1187500</v>
+        <v>-1617200</v>
       </c>
       <c r="F32" s="3">
-        <v>-1039800</v>
+        <v>-1149800</v>
       </c>
       <c r="G32" s="3">
-        <v>-916000</v>
+        <v>-1006700</v>
       </c>
       <c r="H32" s="3">
-        <v>-663700</v>
+        <v>-886900</v>
       </c>
       <c r="I32" s="3">
-        <v>-476800</v>
+        <v>-642600</v>
       </c>
       <c r="J32" s="3">
+        <v>-461600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-822000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1024200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-799300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1048100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-949200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1042200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-982200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-815900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-682600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-963900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-765600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-808400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-451900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-662000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-545900</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1879800</v>
+        <v>1950200</v>
       </c>
       <c r="E33" s="3">
-        <v>1685000</v>
+        <v>1820000</v>
       </c>
       <c r="F33" s="3">
-        <v>1202800</v>
+        <v>1631500</v>
       </c>
       <c r="G33" s="3">
-        <v>783300</v>
+        <v>1164500</v>
       </c>
       <c r="H33" s="3">
-        <v>418200</v>
+        <v>758400</v>
       </c>
       <c r="I33" s="3">
-        <v>551100</v>
+        <v>404900</v>
       </c>
       <c r="J33" s="3">
+        <v>533600</v>
+      </c>
+      <c r="K33" s="3">
         <v>497200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>919400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1002800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1145300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>616500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1200700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>970400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1076400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>376500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1252300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1153100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1001200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>672400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>961100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>539600</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2454,149 +2532,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1879800</v>
+        <v>1950200</v>
       </c>
       <c r="E35" s="3">
-        <v>1685000</v>
+        <v>1820000</v>
       </c>
       <c r="F35" s="3">
-        <v>1202800</v>
+        <v>1631500</v>
       </c>
       <c r="G35" s="3">
-        <v>783300</v>
+        <v>1164500</v>
       </c>
       <c r="H35" s="3">
-        <v>418200</v>
+        <v>758400</v>
       </c>
       <c r="I35" s="3">
-        <v>551100</v>
+        <v>404900</v>
       </c>
       <c r="J35" s="3">
+        <v>533600</v>
+      </c>
+      <c r="K35" s="3">
         <v>497200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>919400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1002800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1145300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>616500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1200700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>970400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1076400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>376500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1252300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1153100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1001200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>672400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>961100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>539600</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2621,8 +2708,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2647,620 +2735,648 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7578600</v>
+        <v>7174900</v>
       </c>
       <c r="E41" s="3">
-        <v>8594300</v>
+        <v>7337800</v>
       </c>
       <c r="F41" s="3">
-        <v>9366400</v>
+        <v>8321200</v>
       </c>
       <c r="G41" s="3">
-        <v>8620800</v>
+        <v>9068700</v>
       </c>
       <c r="H41" s="3">
-        <v>9684600</v>
+        <v>8346800</v>
       </c>
       <c r="I41" s="3">
-        <v>9174600</v>
+        <v>9376800</v>
       </c>
       <c r="J41" s="3">
+        <v>8883000</v>
+      </c>
+      <c r="K41" s="3">
         <v>9327400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8619900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>10596300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9047000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9188200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>8998400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>9253700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>9683800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>10227700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>10936200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>10487600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>14312400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>13338900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>14063500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>13464600</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>6949100</v>
+        <v>7559700</v>
       </c>
       <c r="E42" s="3">
-        <v>4976000</v>
+        <v>6728200</v>
       </c>
       <c r="F42" s="3">
-        <v>3788200</v>
+        <v>4817900</v>
       </c>
       <c r="G42" s="3">
-        <v>3789200</v>
+        <v>3667800</v>
       </c>
       <c r="H42" s="3">
-        <v>3528100</v>
+        <v>3668800</v>
       </c>
       <c r="I42" s="3">
-        <v>3745800</v>
+        <v>3415900</v>
       </c>
       <c r="J42" s="3">
+        <v>3626700</v>
+      </c>
+      <c r="K42" s="3">
         <v>4959100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>3002000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2707200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2753000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2445800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>3255400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2869100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>2702600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>2205000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>3030500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>2627800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>2445500</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>2374300</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>3915400</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>3786600</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>16582600</v>
+        <v>19683400</v>
       </c>
       <c r="E43" s="3">
-        <v>16517800</v>
+        <v>16055600</v>
       </c>
       <c r="F43" s="3">
-        <v>15963600</v>
+        <v>15992800</v>
       </c>
       <c r="G43" s="3">
-        <v>15182800</v>
+        <v>15456300</v>
       </c>
       <c r="H43" s="3">
-        <v>12671400</v>
+        <v>14700200</v>
       </c>
       <c r="I43" s="3">
-        <v>12863400</v>
+        <v>12268600</v>
       </c>
       <c r="J43" s="3">
+        <v>12454600</v>
+      </c>
+      <c r="K43" s="3">
         <v>14294200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>16566500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>14911000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>15916900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>17338600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>17779600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>16564800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>15649400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>15964800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>17290200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>16461900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>14971500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>15428500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>15480700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>13205700</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>6534900</v>
+        <v>7565000</v>
       </c>
       <c r="E44" s="3">
-        <v>6332300</v>
+        <v>6327300</v>
       </c>
       <c r="F44" s="3">
-        <v>5419500</v>
+        <v>6131000</v>
       </c>
       <c r="G44" s="3">
-        <v>5305000</v>
+        <v>5247300</v>
       </c>
       <c r="H44" s="3">
-        <v>4883900</v>
+        <v>5136300</v>
       </c>
       <c r="I44" s="3">
-        <v>4704200</v>
+        <v>4728700</v>
       </c>
       <c r="J44" s="3">
+        <v>4554700</v>
+      </c>
+      <c r="K44" s="3">
         <v>4879500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>6283100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5890100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>5901000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>5839800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>5950700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>5828600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>5150500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>4978300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>5689100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>5718500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>5394500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>5229200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>5336700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>4779400</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2780500</v>
+        <v>2890000</v>
       </c>
       <c r="E45" s="3">
-        <v>2763600</v>
+        <v>2692100</v>
       </c>
       <c r="F45" s="3">
-        <v>2530200</v>
+        <v>2675700</v>
       </c>
       <c r="G45" s="3">
-        <v>2447700</v>
+        <v>2449700</v>
       </c>
       <c r="H45" s="3">
-        <v>2418300</v>
+        <v>2369900</v>
       </c>
       <c r="I45" s="3">
-        <v>2709200</v>
+        <v>2341400</v>
       </c>
       <c r="J45" s="3">
+        <v>2623100</v>
+      </c>
+      <c r="K45" s="3">
         <v>2875800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2941600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2909800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3240200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3592300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3707100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3593900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3510500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>4828700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>4005100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3659200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3525900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>3320100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>3359700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>2996000</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>40425800</v>
+        <v>44873000</v>
       </c>
       <c r="E46" s="3">
-        <v>39184000</v>
+        <v>39140900</v>
       </c>
       <c r="F46" s="3">
-        <v>37067800</v>
+        <v>37938600</v>
       </c>
       <c r="G46" s="3">
-        <v>35345500</v>
+        <v>35889700</v>
       </c>
       <c r="H46" s="3">
-        <v>33186200</v>
+        <v>34222100</v>
       </c>
       <c r="I46" s="3">
-        <v>33197200</v>
+        <v>32131500</v>
       </c>
       <c r="J46" s="3">
+        <v>32142100</v>
+      </c>
+      <c r="K46" s="3">
         <v>36336100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>37413100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>37014400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>36858100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>38404700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>39691200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>38110200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>36696800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>38204500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>40951100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>38955000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>40649900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>39691000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>42156100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>38232400</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>49011200</v>
+        <v>48304500</v>
       </c>
       <c r="E47" s="3">
-        <v>51011700</v>
+        <v>47453600</v>
       </c>
       <c r="F47" s="3">
-        <v>47991700</v>
+        <v>49390400</v>
       </c>
       <c r="G47" s="3">
-        <v>44752400</v>
+        <v>46466400</v>
       </c>
       <c r="H47" s="3">
-        <v>44106400</v>
+        <v>43330100</v>
       </c>
       <c r="I47" s="3">
-        <v>43904200</v>
+        <v>42704700</v>
       </c>
       <c r="J47" s="3">
+        <v>42508800</v>
+      </c>
+      <c r="K47" s="3">
         <v>43819300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>50414800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>49513500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>50532700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>53209900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>48784500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>49446400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>45792300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>44126500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>45878300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>44160100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>42595400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>41700800</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>39980100</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>35285000</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>21012200</v>
+        <v>20725200</v>
       </c>
       <c r="E48" s="3">
-        <v>21506900</v>
+        <v>20344400</v>
       </c>
       <c r="F48" s="3">
-        <v>21583800</v>
+        <v>20823400</v>
       </c>
       <c r="G48" s="3">
-        <v>21125000</v>
+        <v>20897800</v>
       </c>
       <c r="H48" s="3">
-        <v>21282700</v>
+        <v>20453600</v>
       </c>
       <c r="I48" s="3">
-        <v>21248900</v>
+        <v>20606300</v>
       </c>
       <c r="J48" s="3">
+        <v>20573600</v>
+      </c>
+      <c r="K48" s="3">
         <v>20908000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>22359200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>21602500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>21397900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>20646900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>20363100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>19807500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>18394900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>17346400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>17820100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>18003700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>17903900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>17769100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>18403400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>16888800</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1868900</v>
+        <v>1947000</v>
       </c>
       <c r="E49" s="3">
-        <v>1923700</v>
+        <v>1809500</v>
       </c>
       <c r="F49" s="3">
-        <v>1661200</v>
+        <v>1862600</v>
       </c>
       <c r="G49" s="3">
-        <v>1640900</v>
+        <v>1608400</v>
       </c>
       <c r="H49" s="3">
-        <v>1705100</v>
+        <v>1588700</v>
       </c>
       <c r="I49" s="3">
-        <v>1698000</v>
+        <v>1650900</v>
       </c>
       <c r="J49" s="3">
+        <v>1644000</v>
+      </c>
+      <c r="K49" s="3">
         <v>1720500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2151300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2186600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2230100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1673000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1743600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1607100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1552500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1565800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1572800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1615000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1568500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1496200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1434400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1274500</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3327,8 +3443,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3395,76 +3514,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1807300</v>
+        <v>1758000</v>
       </c>
       <c r="E52" s="3">
-        <v>1833200</v>
+        <v>1749900</v>
       </c>
       <c r="F52" s="3">
-        <v>1960100</v>
+        <v>1775000</v>
       </c>
       <c r="G52" s="3">
-        <v>1461400</v>
+        <v>1897800</v>
       </c>
       <c r="H52" s="3">
-        <v>1112900</v>
+        <v>1414900</v>
       </c>
       <c r="I52" s="3">
-        <v>1143800</v>
+        <v>1077500</v>
       </c>
       <c r="J52" s="3">
+        <v>1107500</v>
+      </c>
+      <c r="K52" s="3">
         <v>1229500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>850800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>851500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>819700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>864500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1064200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1091400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1002900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>969100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1006800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1169300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1357900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1356900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1432200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1287300</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3531,76 +3656,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>114125400</v>
+        <v>117607700</v>
       </c>
       <c r="E54" s="3">
-        <v>115459500</v>
+        <v>110498200</v>
       </c>
       <c r="F54" s="3">
-        <v>110264600</v>
+        <v>111789900</v>
       </c>
       <c r="G54" s="3">
-        <v>104325200</v>
+        <v>106760200</v>
       </c>
       <c r="H54" s="3">
-        <v>101393400</v>
+        <v>101009500</v>
       </c>
       <c r="I54" s="3">
-        <v>101192100</v>
+        <v>98170900</v>
       </c>
       <c r="J54" s="3">
+        <v>97976000</v>
+      </c>
+      <c r="K54" s="3">
         <v>104013400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>113189100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>111168500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>111838500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>114798900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>111646700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>110062600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>103439500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>102212200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>107229100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>103903100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>104075500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>102014000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>103406200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>92968100</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3625,8 +3756,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3651,416 +3783,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>12309900</v>
+        <v>14600200</v>
       </c>
       <c r="E57" s="3">
-        <v>12444500</v>
+        <v>11918700</v>
       </c>
       <c r="F57" s="3">
-        <v>11570500</v>
+        <v>12049000</v>
       </c>
       <c r="G57" s="3">
-        <v>10501800</v>
+        <v>11202800</v>
       </c>
       <c r="H57" s="3">
-        <v>9374100</v>
+        <v>10168000</v>
       </c>
       <c r="I57" s="3">
-        <v>9031100</v>
+        <v>9076200</v>
       </c>
       <c r="J57" s="3">
+        <v>8744100</v>
+      </c>
+      <c r="K57" s="3">
         <v>10012600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>11770300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>10845800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>11551100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>12707100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>13217100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>12028200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>11694800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>11429100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>12147200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>11328200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>10649200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>10676900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>10787700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>8887300</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7044000</v>
+        <v>6245200</v>
       </c>
       <c r="E58" s="3">
-        <v>7147000</v>
+        <v>6820100</v>
       </c>
       <c r="F58" s="3">
-        <v>6620100</v>
+        <v>6919900</v>
       </c>
       <c r="G58" s="3">
-        <v>6066400</v>
+        <v>6409700</v>
       </c>
       <c r="H58" s="3">
-        <v>5912700</v>
+        <v>5873600</v>
       </c>
       <c r="I58" s="3">
-        <v>6513000</v>
+        <v>5724800</v>
       </c>
       <c r="J58" s="3">
+        <v>6306000</v>
+      </c>
+      <c r="K58" s="3">
         <v>6143800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6544700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>7261900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>8192800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>7845800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>7553600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>6959600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>6294800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>6184300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>5829800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>5542100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>6488500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>6146100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>7075800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>6388700</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>7926600</v>
+        <v>8446600</v>
       </c>
       <c r="E59" s="3">
-        <v>6753800</v>
+        <v>7674700</v>
       </c>
       <c r="F59" s="3">
-        <v>5611600</v>
+        <v>6539200</v>
       </c>
       <c r="G59" s="3">
-        <v>5425300</v>
+        <v>5433200</v>
       </c>
       <c r="H59" s="3">
-        <v>4897200</v>
+        <v>5252900</v>
       </c>
       <c r="I59" s="3">
-        <v>5093300</v>
+        <v>4741600</v>
       </c>
       <c r="J59" s="3">
+        <v>4931400</v>
+      </c>
+      <c r="K59" s="3">
         <v>7640400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6186700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5577100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5804100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5781200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6905100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>6461800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>6059700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>6783400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>6711400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>5826600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>5765000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>5564600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>5821700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>4722300</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>27280500</v>
+        <v>29292000</v>
       </c>
       <c r="E60" s="3">
-        <v>26345400</v>
+        <v>26413400</v>
       </c>
       <c r="F60" s="3">
-        <v>23802200</v>
+        <v>25508000</v>
       </c>
       <c r="G60" s="3">
-        <v>21993500</v>
+        <v>23045700</v>
       </c>
       <c r="H60" s="3">
-        <v>20184100</v>
+        <v>21294500</v>
       </c>
       <c r="I60" s="3">
-        <v>20637400</v>
+        <v>19542600</v>
       </c>
       <c r="J60" s="3">
+        <v>19981500</v>
+      </c>
+      <c r="K60" s="3">
         <v>23796800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>24501800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>23684800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>25548000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>26334000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>27675800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>25449500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>24049300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>24396900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>24688500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>22697000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>22902800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>22387600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>23685200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>19998200</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>34149800</v>
+        <v>34909000</v>
       </c>
       <c r="E61" s="3">
-        <v>35165900</v>
+        <v>33064400</v>
       </c>
       <c r="F61" s="3">
-        <v>35198700</v>
+        <v>34048200</v>
       </c>
       <c r="G61" s="3">
-        <v>36120900</v>
+        <v>34080000</v>
       </c>
       <c r="H61" s="3">
-        <v>37126900</v>
+        <v>34972900</v>
       </c>
       <c r="I61" s="3">
-        <v>37015700</v>
+        <v>35946900</v>
       </c>
       <c r="J61" s="3">
+        <v>35839200</v>
+      </c>
+      <c r="K61" s="3">
         <v>37259400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>38486000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>38586200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>37173100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>36605000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>33965600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>33739000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>32441500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>32027200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>34920400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>35699100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>37405600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>37431100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>38250500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>36521200</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8721000</v>
+        <v>8663600</v>
       </c>
       <c r="E62" s="3">
-        <v>9318900</v>
+        <v>8443800</v>
       </c>
       <c r="F62" s="3">
-        <v>8774100</v>
+        <v>9022700</v>
       </c>
       <c r="G62" s="3">
-        <v>7615800</v>
+        <v>8495200</v>
       </c>
       <c r="H62" s="3">
-        <v>7257000</v>
+        <v>7373800</v>
       </c>
       <c r="I62" s="3">
-        <v>7204900</v>
+        <v>7026300</v>
       </c>
       <c r="J62" s="3">
+        <v>6975900</v>
+      </c>
+      <c r="K62" s="3">
         <v>7180400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>8188900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>7779100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>7906600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>8323600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>8124200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>8671300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>7800000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>7656300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>7269000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>7278500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>7072300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>6802600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>6766700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>5977300</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4127,8 +4278,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4195,8 +4349,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4263,76 +4420,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>72378500</v>
+        <v>75083500</v>
       </c>
       <c r="E66" s="3">
-        <v>73085200</v>
+        <v>70078200</v>
       </c>
       <c r="F66" s="3">
-        <v>69999200</v>
+        <v>70762400</v>
       </c>
       <c r="G66" s="3">
-        <v>67887900</v>
+        <v>67774500</v>
       </c>
       <c r="H66" s="3">
-        <v>66733600</v>
+        <v>65730300</v>
       </c>
       <c r="I66" s="3">
-        <v>67091000</v>
+        <v>64612600</v>
       </c>
       <c r="J66" s="3">
+        <v>64958700</v>
+      </c>
+      <c r="K66" s="3">
         <v>70379700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>73667400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>72465300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>73055600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>73829900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>72239100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>70300400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>66567400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>66280800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>69332300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>68053100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>69759100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>68909600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>71093200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>64647500</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4357,8 +4520,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4425,8 +4589,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4493,8 +4660,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4561,8 +4731,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4629,76 +4802,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>32778100</v>
+        <v>32978800</v>
       </c>
       <c r="E72" s="3">
-        <v>31813600</v>
+        <v>31736400</v>
       </c>
       <c r="F72" s="3">
-        <v>31256000</v>
+        <v>30802500</v>
       </c>
       <c r="G72" s="3">
-        <v>29739600</v>
+        <v>30262600</v>
       </c>
       <c r="H72" s="3">
-        <v>29589500</v>
+        <v>28794400</v>
       </c>
       <c r="I72" s="3">
-        <v>29165800</v>
+        <v>28649100</v>
       </c>
       <c r="J72" s="3">
+        <v>28238800</v>
+      </c>
+      <c r="K72" s="3">
         <v>29621800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>30109600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>30037200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>28668100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>29585900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>28566200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>22079200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>25998200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>26247000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>25531600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>24759700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>23601500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>22619600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>21765100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>21151000</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4765,8 +4944,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4833,8 +5015,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4901,76 +5086,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>41746800</v>
+        <v>42524200</v>
       </c>
       <c r="E76" s="3">
-        <v>42374300</v>
+        <v>40420000</v>
       </c>
       <c r="F76" s="3">
-        <v>40265400</v>
+        <v>41027600</v>
       </c>
       <c r="G76" s="3">
-        <v>36437200</v>
+        <v>38985700</v>
       </c>
       <c r="H76" s="3">
-        <v>34659800</v>
+        <v>35279200</v>
       </c>
       <c r="I76" s="3">
-        <v>34101100</v>
+        <v>33558300</v>
       </c>
       <c r="J76" s="3">
+        <v>33017300</v>
+      </c>
+      <c r="K76" s="3">
         <v>33633700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>39521800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>38703100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>38782900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>40969000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>39407500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>39762100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>36872200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>35931400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>37896800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>35850000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>34316500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>33104400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>32312900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>28320500</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5037,149 +5228,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1879800</v>
+        <v>1950200</v>
       </c>
       <c r="E81" s="3">
-        <v>1685000</v>
+        <v>1820000</v>
       </c>
       <c r="F81" s="3">
-        <v>1202800</v>
+        <v>1631500</v>
       </c>
       <c r="G81" s="3">
-        <v>783300</v>
+        <v>1164500</v>
       </c>
       <c r="H81" s="3">
-        <v>418200</v>
+        <v>758400</v>
       </c>
       <c r="I81" s="3">
-        <v>551100</v>
+        <v>404900</v>
       </c>
       <c r="J81" s="3">
+        <v>533600</v>
+      </c>
+      <c r="K81" s="3">
         <v>497200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>919400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1002800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1145300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>616500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1200700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>970400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1076400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>376500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1252300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1153100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1001200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>672400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>961100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>539600</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5204,76 +5404,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>643300</v>
+        <v>666500</v>
       </c>
       <c r="E83" s="3">
-        <v>650900</v>
+        <v>622900</v>
       </c>
       <c r="F83" s="3">
-        <v>646700</v>
+        <v>630200</v>
       </c>
       <c r="G83" s="3">
-        <v>591600</v>
+        <v>626200</v>
       </c>
       <c r="H83" s="3">
-        <v>617300</v>
+        <v>572800</v>
       </c>
       <c r="I83" s="3">
-        <v>555200</v>
+        <v>597600</v>
       </c>
       <c r="J83" s="3">
+        <v>537500</v>
+      </c>
+      <c r="K83" s="3">
         <v>623100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>600400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>541700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>554500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>496000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>442500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>411100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>396100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>413800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>448800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>449300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>429100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>410100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>432800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>438700</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5340,8 +5544,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5408,8 +5615,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5476,8 +5686,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5544,8 +5757,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5612,76 +5828,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1126300</v>
+        <v>442400</v>
       </c>
       <c r="E89" s="3">
-        <v>1579700</v>
+        <v>1090600</v>
       </c>
       <c r="F89" s="3">
-        <v>2380900</v>
+        <v>1529500</v>
       </c>
       <c r="G89" s="3">
-        <v>1071400</v>
+        <v>2305200</v>
       </c>
       <c r="H89" s="3">
-        <v>1910000</v>
+        <v>1037400</v>
       </c>
       <c r="I89" s="3">
-        <v>1445200</v>
+        <v>1849300</v>
       </c>
       <c r="J89" s="3">
+        <v>1399300</v>
+      </c>
+      <c r="K89" s="3">
         <v>1229000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>548400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1827000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1171400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>472800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1886300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>251200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1223700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1352500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2182700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-372700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1833000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1624300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1312000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>298600</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5706,76 +5928,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-394400</v>
+        <v>-428900</v>
       </c>
       <c r="E91" s="3">
-        <v>-409400</v>
+        <v>-381800</v>
       </c>
       <c r="F91" s="3">
-        <v>-342300</v>
+        <v>-396400</v>
       </c>
       <c r="G91" s="3">
-        <v>-430700</v>
+        <v>-331500</v>
       </c>
       <c r="H91" s="3">
-        <v>-404100</v>
+        <v>-417000</v>
       </c>
       <c r="I91" s="3">
-        <v>-723100</v>
+        <v>-391300</v>
       </c>
       <c r="J91" s="3">
+        <v>-700100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-669200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-792800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-579100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-566500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-717000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-868800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-680800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-616300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>707600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-337700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-384300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-196300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-458100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-338400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-537000</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5842,8 +6068,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5910,76 +6139,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-495500</v>
+        <v>-355100</v>
       </c>
       <c r="E94" s="3">
-        <v>-815100</v>
+        <v>-479700</v>
       </c>
       <c r="F94" s="3">
-        <v>-122700</v>
+        <v>-789200</v>
       </c>
       <c r="G94" s="3">
-        <v>-742900</v>
+        <v>-118800</v>
       </c>
       <c r="H94" s="3">
-        <v>-1019100</v>
+        <v>-719300</v>
       </c>
       <c r="I94" s="3">
-        <v>-956200</v>
+        <v>-986700</v>
       </c>
       <c r="J94" s="3">
+        <v>-925800</v>
+      </c>
+      <c r="K94" s="3">
         <v>186300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-718500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-156200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1012200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2595500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1897000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1369400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-914400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-579400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-717100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-761300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-186100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-967700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-474900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-603200</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6004,76 +6239,80 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-623700</v>
       </c>
       <c r="E96" s="3">
-        <v>-661500</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-640500</v>
       </c>
       <c r="G96" s="3">
-        <v>-591800</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-573000</v>
       </c>
       <c r="I96" s="3">
-        <v>-601700</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-582600</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-633600</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-636800</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-656300</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-631900</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-478400</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-478400</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-397500</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6140,8 +6379,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6208,8 +6450,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6276,208 +6521,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1571600</v>
+        <v>-400000</v>
       </c>
       <c r="E100" s="3">
-        <v>-1517600</v>
+        <v>-1521600</v>
       </c>
       <c r="F100" s="3">
-        <v>-1803200</v>
+        <v>-1469300</v>
       </c>
       <c r="G100" s="3">
-        <v>-1321300</v>
+        <v>-1745800</v>
       </c>
       <c r="H100" s="3">
-        <v>-388300</v>
+        <v>-1279300</v>
       </c>
       <c r="I100" s="3">
-        <v>-777400</v>
+        <v>-376000</v>
       </c>
       <c r="J100" s="3">
+        <v>-752700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-130100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1862200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-68800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>202500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2126800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-385900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>482800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-954700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1145700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1020400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-2791000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-939700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1316100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-841900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>217200</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-75000</v>
+        <v>149800</v>
       </c>
       <c r="E101" s="3">
-        <v>-19100</v>
+        <v>-72600</v>
       </c>
       <c r="F101" s="3">
-        <v>290600</v>
+        <v>-18500</v>
       </c>
       <c r="G101" s="3">
-        <v>-71000</v>
+        <v>281300</v>
       </c>
       <c r="H101" s="3">
-        <v>7500</v>
+        <v>-68800</v>
       </c>
       <c r="I101" s="3">
-        <v>135600</v>
+        <v>7200</v>
       </c>
       <c r="J101" s="3">
+        <v>131300</v>
+      </c>
+      <c r="K101" s="3">
         <v>-293800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>148200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-82300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-72700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>23700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-142100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>124000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>45000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-335900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>3300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>100100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>10700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-65200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>603600</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-59700</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1015700</v>
+        <v>-162900</v>
       </c>
       <c r="E102" s="3">
-        <v>-772000</v>
+        <v>-983400</v>
       </c>
       <c r="F102" s="3">
-        <v>745500</v>
+        <v>-747500</v>
       </c>
       <c r="G102" s="3">
-        <v>-1063800</v>
+        <v>721800</v>
       </c>
       <c r="H102" s="3">
-        <v>510000</v>
+        <v>-1030000</v>
       </c>
       <c r="I102" s="3">
-        <v>-152800</v>
+        <v>493800</v>
       </c>
       <c r="J102" s="3">
+        <v>-148000</v>
+      </c>
+      <c r="K102" s="3">
         <v>991400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1884100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1519700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>289000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>27700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-404700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-643100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-600500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-708500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>448600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-3824900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>717900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-724700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>598900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-147200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MITSY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MITSY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>MITSY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,309 +665,322 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="24" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="25" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>27067700</v>
+        <v>24679700</v>
       </c>
       <c r="E8" s="3">
-        <v>23527100</v>
+        <v>24719500</v>
       </c>
       <c r="F8" s="3">
-        <v>22673000</v>
+        <v>21486100</v>
       </c>
       <c r="G8" s="3">
-        <v>28244200</v>
+        <v>20706100</v>
       </c>
       <c r="H8" s="3">
-        <v>17362800</v>
+        <v>25794000</v>
       </c>
       <c r="I8" s="3">
-        <v>15863200</v>
+        <v>15856500</v>
       </c>
       <c r="J8" s="3">
+        <v>14487100</v>
+      </c>
+      <c r="K8" s="3">
         <v>15741000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>28986100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>16240900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>16340900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>14959400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>18687200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>16988500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>15394900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>14145800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>11201800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>11381200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>10959900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>10682200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>10539300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>10144100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>8977900</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>24829700</v>
+        <v>21940900</v>
       </c>
       <c r="E9" s="3">
-        <v>21316300</v>
+        <v>22675700</v>
       </c>
       <c r="F9" s="3">
-        <v>20385000</v>
+        <v>19467000</v>
       </c>
       <c r="G9" s="3">
-        <v>26169200</v>
+        <v>18616500</v>
       </c>
       <c r="H9" s="3">
-        <v>15653700</v>
+        <v>23898900</v>
       </c>
       <c r="I9" s="3">
-        <v>14343800</v>
+        <v>14295700</v>
       </c>
       <c r="J9" s="3">
+        <v>13099400</v>
+      </c>
+      <c r="K9" s="3">
         <v>14122800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>27233000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>14307400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>14328700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>13042800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>16713400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>15012100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>13487900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>12160100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>9567400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>9519200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>9110700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>8879700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>8666700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>8528400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>7541800</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2237900</v>
+        <v>2738900</v>
       </c>
       <c r="E10" s="3">
-        <v>2210900</v>
+        <v>2043800</v>
       </c>
       <c r="F10" s="3">
-        <v>2288100</v>
+        <v>2019100</v>
       </c>
       <c r="G10" s="3">
-        <v>2075100</v>
+        <v>2089600</v>
       </c>
       <c r="H10" s="3">
-        <v>1709100</v>
+        <v>1895000</v>
       </c>
       <c r="I10" s="3">
-        <v>1519400</v>
+        <v>1560800</v>
       </c>
       <c r="J10" s="3">
+        <v>1387600</v>
+      </c>
+      <c r="K10" s="3">
         <v>1618200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1753200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1933500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2012200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1916600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1973800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1976400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1906900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1985700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1634400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1861900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1849100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1802500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1872600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1615700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1436100</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -993,8 +1006,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1064,8 +1078,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1135,79 +1152,85 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>13400</v>
+        <v>37600</v>
       </c>
       <c r="E14" s="3">
-        <v>193400</v>
+        <v>12300</v>
       </c>
       <c r="F14" s="3">
-        <v>-1800</v>
+        <v>176600</v>
       </c>
       <c r="G14" s="3">
-        <v>109100</v>
+        <v>-1700</v>
       </c>
       <c r="H14" s="3">
-        <v>305000</v>
+        <v>99600</v>
       </c>
       <c r="I14" s="3">
-        <v>42400</v>
+        <v>278500</v>
       </c>
       <c r="J14" s="3">
+        <v>38700</v>
+      </c>
+      <c r="K14" s="3">
         <v>2600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>874000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>82100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>8300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>15500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>225400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>20700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>3800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>8900</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>59600</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>91800</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>67000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>11600</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>48200</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
       <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1277,8 +1300,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1301,150 +1327,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>25870200</v>
+        <v>23265300</v>
       </c>
       <c r="E17" s="3">
-        <v>22620400</v>
+        <v>23625900</v>
       </c>
       <c r="F17" s="3">
-        <v>21514800</v>
+        <v>20658000</v>
       </c>
       <c r="G17" s="3">
-        <v>27642700</v>
+        <v>19648300</v>
       </c>
       <c r="H17" s="3">
-        <v>17392100</v>
+        <v>25244600</v>
       </c>
       <c r="I17" s="3">
-        <v>15690000</v>
+        <v>15883200</v>
       </c>
       <c r="J17" s="3">
+        <v>14328800</v>
+      </c>
+      <c r="K17" s="3">
         <v>15201000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>29074600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>15671900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>15581200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>14210600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>18422900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>16308000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>14800500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>13271100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>11108400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>10721200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>10139700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>9954000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>9794000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>9291500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>8516000</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1197400</v>
+        <v>1414400</v>
       </c>
       <c r="E18" s="3">
-        <v>906800</v>
+        <v>1093500</v>
       </c>
       <c r="F18" s="3">
-        <v>1158300</v>
+        <v>828100</v>
       </c>
       <c r="G18" s="3">
-        <v>601500</v>
+        <v>1057800</v>
       </c>
       <c r="H18" s="3">
-        <v>-29300</v>
+        <v>549400</v>
       </c>
       <c r="I18" s="3">
-        <v>173300</v>
+        <v>-26800</v>
       </c>
       <c r="J18" s="3">
+        <v>158300</v>
+      </c>
+      <c r="K18" s="3">
         <v>540000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-88400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>569000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>759700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>748700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>264200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>680500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>594400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>874700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>93400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>660000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>820200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>728200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>745300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>852600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>461900</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1470,363 +1503,379 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1375300</v>
+        <v>1263200</v>
       </c>
       <c r="E20" s="3">
-        <v>1617200</v>
+        <v>1256000</v>
       </c>
       <c r="F20" s="3">
-        <v>1149800</v>
+        <v>1476900</v>
       </c>
       <c r="G20" s="3">
-        <v>1006700</v>
+        <v>1050100</v>
       </c>
       <c r="H20" s="3">
-        <v>886900</v>
+        <v>919400</v>
       </c>
       <c r="I20" s="3">
-        <v>642600</v>
+        <v>809900</v>
       </c>
       <c r="J20" s="3">
+        <v>586800</v>
+      </c>
+      <c r="K20" s="3">
         <v>461600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>822000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1024200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>799300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1048100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>949200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1042200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>982200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>815900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>682600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>963900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>765600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>808400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>451900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>662000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>545900</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3239200</v>
+        <v>3233400</v>
       </c>
       <c r="E21" s="3">
-        <v>3146900</v>
+        <v>2958200</v>
       </c>
       <c r="F21" s="3">
-        <v>2938300</v>
+        <v>2873900</v>
       </c>
       <c r="G21" s="3">
-        <v>2234400</v>
+        <v>2683400</v>
       </c>
       <c r="H21" s="3">
-        <v>1430400</v>
+        <v>2040600</v>
       </c>
       <c r="I21" s="3">
-        <v>1413500</v>
+        <v>1306300</v>
       </c>
       <c r="J21" s="3">
+        <v>1290900</v>
+      </c>
+      <c r="K21" s="3">
         <v>1539200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1356700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2193700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2100800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2351400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1709400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2165200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1987800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2086700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1189800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>2072700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>2035100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1965600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1607200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1947400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1446600</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>85800</v>
+        <v>89200</v>
       </c>
       <c r="E22" s="3">
-        <v>97500</v>
+        <v>78300</v>
       </c>
       <c r="F22" s="3">
-        <v>122700</v>
+        <v>89100</v>
       </c>
       <c r="G22" s="3">
-        <v>93400</v>
+        <v>112100</v>
       </c>
       <c r="H22" s="3">
-        <v>107600</v>
+        <v>85300</v>
       </c>
       <c r="I22" s="3">
-        <v>110400</v>
+        <v>98300</v>
       </c>
       <c r="J22" s="3">
+        <v>100800</v>
+      </c>
+      <c r="K22" s="3">
         <v>131600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>178400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>205000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>212500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>217600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>194400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>191600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>191700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>172300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>149100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>150300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>156500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>145100</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>140900</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>133700</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>118100</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2486900</v>
+        <v>2588400</v>
       </c>
       <c r="E23" s="3">
-        <v>2426500</v>
+        <v>2271200</v>
       </c>
       <c r="F23" s="3">
-        <v>2185300</v>
+        <v>2216000</v>
       </c>
       <c r="G23" s="3">
-        <v>1514800</v>
+        <v>1995700</v>
       </c>
       <c r="H23" s="3">
-        <v>750000</v>
+        <v>1383400</v>
       </c>
       <c r="I23" s="3">
-        <v>705500</v>
+        <v>684900</v>
       </c>
       <c r="J23" s="3">
+        <v>644300</v>
+      </c>
+      <c r="K23" s="3">
         <v>870000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>555100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1388200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1346500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1579200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1019000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1531100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1384900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1518300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>626900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1473600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1429300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1391500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1056300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1380900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>889700</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>500100</v>
+        <v>350900</v>
       </c>
       <c r="E24" s="3">
-        <v>571200</v>
+        <v>456700</v>
       </c>
       <c r="F24" s="3">
-        <v>479300</v>
+        <v>521600</v>
       </c>
       <c r="G24" s="3">
-        <v>313600</v>
+        <v>437700</v>
       </c>
       <c r="H24" s="3">
-        <v>-37300</v>
+        <v>286400</v>
       </c>
       <c r="I24" s="3">
-        <v>273800</v>
+        <v>-34100</v>
       </c>
       <c r="J24" s="3">
+        <v>250100</v>
+      </c>
+      <c r="K24" s="3">
         <v>301300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>88400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>409100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>280700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>343700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>397900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>289000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>367300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>372800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>201200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>158300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>234300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>338000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>320800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>367600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>316000</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1896,150 +1945,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1986900</v>
+        <v>2237600</v>
       </c>
       <c r="E26" s="3">
-        <v>1855300</v>
+        <v>1814500</v>
       </c>
       <c r="F26" s="3">
-        <v>1706000</v>
+        <v>1694400</v>
       </c>
       <c r="G26" s="3">
-        <v>1201200</v>
+        <v>1558000</v>
       </c>
       <c r="H26" s="3">
-        <v>787300</v>
+        <v>1097000</v>
       </c>
       <c r="I26" s="3">
-        <v>431600</v>
+        <v>719000</v>
       </c>
       <c r="J26" s="3">
+        <v>394200</v>
+      </c>
+      <c r="K26" s="3">
         <v>568600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>466700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>979200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1065800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1235500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>621100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1242100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1017600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1145500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>425700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1315300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1195000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1053500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>735500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1013300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>573700</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1950200</v>
+        <v>2192600</v>
       </c>
       <c r="E27" s="3">
-        <v>1820000</v>
+        <v>1781000</v>
       </c>
       <c r="F27" s="3">
-        <v>1631500</v>
+        <v>1662100</v>
       </c>
       <c r="G27" s="3">
-        <v>1164500</v>
+        <v>1489900</v>
       </c>
       <c r="H27" s="3">
-        <v>758400</v>
+        <v>1063500</v>
       </c>
       <c r="I27" s="3">
-        <v>404900</v>
+        <v>692600</v>
       </c>
       <c r="J27" s="3">
+        <v>369800</v>
+      </c>
+      <c r="K27" s="3">
         <v>533600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>497200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>919400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1002800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1145300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>616500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1200700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>970400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1076400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>376500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1252300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1153100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1001200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>672400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>961100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>539600</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2109,8 +2167,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2180,8 +2241,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2251,8 +2315,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2322,150 +2389,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1375300</v>
+        <v>-1263200</v>
       </c>
       <c r="E32" s="3">
-        <v>-1617200</v>
+        <v>-1256000</v>
       </c>
       <c r="F32" s="3">
-        <v>-1149800</v>
+        <v>-1476900</v>
       </c>
       <c r="G32" s="3">
-        <v>-1006700</v>
+        <v>-1050100</v>
       </c>
       <c r="H32" s="3">
-        <v>-886900</v>
+        <v>-919400</v>
       </c>
       <c r="I32" s="3">
-        <v>-642600</v>
+        <v>-809900</v>
       </c>
       <c r="J32" s="3">
+        <v>-586800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-461600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-822000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1024200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-799300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1048100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-949200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1042200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-982200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-815900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-682600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-963900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-765600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-808400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-451900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-662000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-545900</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1950200</v>
+        <v>2192600</v>
       </c>
       <c r="E33" s="3">
-        <v>1820000</v>
+        <v>1781000</v>
       </c>
       <c r="F33" s="3">
-        <v>1631500</v>
+        <v>1662100</v>
       </c>
       <c r="G33" s="3">
-        <v>1164500</v>
+        <v>1489900</v>
       </c>
       <c r="H33" s="3">
-        <v>758400</v>
+        <v>1063500</v>
       </c>
       <c r="I33" s="3">
-        <v>404900</v>
+        <v>692600</v>
       </c>
       <c r="J33" s="3">
+        <v>369800</v>
+      </c>
+      <c r="K33" s="3">
         <v>533600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>497200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>919400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1002800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1145300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>616500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1200700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>970400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1076400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>376500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1252300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1153100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1001200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>672400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>961100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>539600</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2535,155 +2611,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1950200</v>
+        <v>2192600</v>
       </c>
       <c r="E35" s="3">
-        <v>1820000</v>
+        <v>1781000</v>
       </c>
       <c r="F35" s="3">
-        <v>1631500</v>
+        <v>1662100</v>
       </c>
       <c r="G35" s="3">
-        <v>1164500</v>
+        <v>1489900</v>
       </c>
       <c r="H35" s="3">
-        <v>758400</v>
+        <v>1063500</v>
       </c>
       <c r="I35" s="3">
-        <v>404900</v>
+        <v>692600</v>
       </c>
       <c r="J35" s="3">
+        <v>369800</v>
+      </c>
+      <c r="K35" s="3">
         <v>533600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>497200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>919400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1002800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1145300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>616500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1200700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>970400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1076400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>376500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1252300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1153100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1001200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>672400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>961100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>539600</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2709,8 +2794,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2736,647 +2822,675 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7174900</v>
+        <v>8786100</v>
       </c>
       <c r="E41" s="3">
-        <v>7337800</v>
+        <v>6552500</v>
       </c>
       <c r="F41" s="3">
-        <v>8321200</v>
+        <v>6701200</v>
       </c>
       <c r="G41" s="3">
-        <v>9068700</v>
+        <v>7599300</v>
       </c>
       <c r="H41" s="3">
-        <v>8346800</v>
+        <v>8281900</v>
       </c>
       <c r="I41" s="3">
-        <v>9376800</v>
+        <v>7622700</v>
       </c>
       <c r="J41" s="3">
+        <v>8563400</v>
+      </c>
+      <c r="K41" s="3">
         <v>8883000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9327400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8619900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>10596300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9047000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>9188200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>8998400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>9253700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>9683800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>10227700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>10936200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>10487600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>14312400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>13338900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>14063500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>13464600</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>7559700</v>
+        <v>7773300</v>
       </c>
       <c r="E42" s="3">
-        <v>6728200</v>
+        <v>6903900</v>
       </c>
       <c r="F42" s="3">
-        <v>4817900</v>
+        <v>6144500</v>
       </c>
       <c r="G42" s="3">
-        <v>3667800</v>
+        <v>4399900</v>
       </c>
       <c r="H42" s="3">
-        <v>3668800</v>
+        <v>3349600</v>
       </c>
       <c r="I42" s="3">
-        <v>3415900</v>
+        <v>3350500</v>
       </c>
       <c r="J42" s="3">
+        <v>3119600</v>
+      </c>
+      <c r="K42" s="3">
         <v>3626700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>4959100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>3002000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2707200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2753000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2445800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>3255400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>2869100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>2702600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>2205000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>3030500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>2627800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>2445500</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>2374300</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>3915400</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>3786600</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>19683400</v>
+        <v>17941500</v>
       </c>
       <c r="E43" s="3">
-        <v>16055600</v>
+        <v>17975800</v>
       </c>
       <c r="F43" s="3">
-        <v>15992800</v>
+        <v>14662700</v>
       </c>
       <c r="G43" s="3">
-        <v>15456300</v>
+        <v>14605400</v>
       </c>
       <c r="H43" s="3">
-        <v>14700200</v>
+        <v>14115400</v>
       </c>
       <c r="I43" s="3">
-        <v>12268600</v>
+        <v>13424900</v>
       </c>
       <c r="J43" s="3">
+        <v>11204300</v>
+      </c>
+      <c r="K43" s="3">
         <v>12454600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>14294200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>16566500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>14911000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>15916900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>17338600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>17779600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>16564800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>15649400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>15964800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>17290200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>16461900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>14971500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>15428500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>15480700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>13205700</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>7565000</v>
+        <v>7397900</v>
       </c>
       <c r="E44" s="3">
-        <v>6327300</v>
+        <v>6908700</v>
       </c>
       <c r="F44" s="3">
-        <v>6131000</v>
+        <v>5778300</v>
       </c>
       <c r="G44" s="3">
-        <v>5247300</v>
+        <v>5599200</v>
       </c>
       <c r="H44" s="3">
-        <v>5136300</v>
+        <v>4792100</v>
       </c>
       <c r="I44" s="3">
-        <v>4728700</v>
+        <v>4690800</v>
       </c>
       <c r="J44" s="3">
+        <v>4318400</v>
+      </c>
+      <c r="K44" s="3">
         <v>4554700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4879500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>6283100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>5890100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>5901000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>5839800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>5950700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>5828600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>5150500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>4978300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>5689100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>5718500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>5394500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>5229200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>5336700</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>4779400</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2890000</v>
+        <v>2634200</v>
       </c>
       <c r="E45" s="3">
-        <v>2692100</v>
+        <v>2639300</v>
       </c>
       <c r="F45" s="3">
-        <v>2675700</v>
+        <v>2458500</v>
       </c>
       <c r="G45" s="3">
-        <v>2449700</v>
+        <v>2443600</v>
       </c>
       <c r="H45" s="3">
-        <v>2369900</v>
+        <v>2237200</v>
       </c>
       <c r="I45" s="3">
-        <v>2341400</v>
+        <v>2164300</v>
       </c>
       <c r="J45" s="3">
+        <v>2138300</v>
+      </c>
+      <c r="K45" s="3">
         <v>2623100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2875800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2941600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2909800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3240200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3592300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3707100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3593900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3510500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>4828700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>4005100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3659200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>3525900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>3320100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>3359700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>2996000</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>44873000</v>
+        <v>44533000</v>
       </c>
       <c r="E46" s="3">
-        <v>39140900</v>
+        <v>40980100</v>
       </c>
       <c r="F46" s="3">
-        <v>37938600</v>
+        <v>35745400</v>
       </c>
       <c r="G46" s="3">
-        <v>35889700</v>
+        <v>34647300</v>
       </c>
       <c r="H46" s="3">
-        <v>34222100</v>
+        <v>32776200</v>
       </c>
       <c r="I46" s="3">
-        <v>32131500</v>
+        <v>31253300</v>
       </c>
       <c r="J46" s="3">
+        <v>29344000</v>
+      </c>
+      <c r="K46" s="3">
         <v>32142100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>36336100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>37413100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>37014400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>36858100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>38404700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>39691200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>38110200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>36696800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>38204500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>40951100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>38955000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>40649900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>39691000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>42156100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>38232400</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>48304500</v>
+        <v>48474100</v>
       </c>
       <c r="E47" s="3">
-        <v>47453600</v>
+        <v>44113900</v>
       </c>
       <c r="F47" s="3">
-        <v>49390400</v>
+        <v>43336800</v>
       </c>
       <c r="G47" s="3">
-        <v>46466400</v>
+        <v>45105700</v>
       </c>
       <c r="H47" s="3">
-        <v>43330100</v>
+        <v>42435300</v>
       </c>
       <c r="I47" s="3">
-        <v>42704700</v>
+        <v>39571100</v>
       </c>
       <c r="J47" s="3">
+        <v>38999900</v>
+      </c>
+      <c r="K47" s="3">
         <v>42508800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>43819300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>50414800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>49513500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>50532700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>53209900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>48784500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>49446400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>45792300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>44126500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>45878300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>44160100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>42595400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>41700800</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>39980100</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>35285000</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>20725200</v>
+        <v>19548800</v>
       </c>
       <c r="E48" s="3">
-        <v>20344400</v>
+        <v>18927200</v>
       </c>
       <c r="F48" s="3">
-        <v>20823400</v>
+        <v>18579400</v>
       </c>
       <c r="G48" s="3">
-        <v>20897800</v>
+        <v>19016900</v>
       </c>
       <c r="H48" s="3">
-        <v>20453600</v>
+        <v>19084900</v>
       </c>
       <c r="I48" s="3">
-        <v>20606300</v>
+        <v>18679200</v>
       </c>
       <c r="J48" s="3">
+        <v>18818600</v>
+      </c>
+      <c r="K48" s="3">
         <v>20573600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>20908000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>22359200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>21602500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>21397900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>20646900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>20363100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>19807500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>18394900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>17346400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>17820100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>18003700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>17903900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>17769100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>18403400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>16888800</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1947000</v>
+        <v>1971200</v>
       </c>
       <c r="E49" s="3">
-        <v>1809500</v>
+        <v>1778100</v>
       </c>
       <c r="F49" s="3">
-        <v>1862600</v>
+        <v>1652500</v>
       </c>
       <c r="G49" s="3">
-        <v>1608400</v>
+        <v>1701000</v>
       </c>
       <c r="H49" s="3">
-        <v>1588700</v>
+        <v>1468800</v>
       </c>
       <c r="I49" s="3">
-        <v>1650900</v>
+        <v>1450900</v>
       </c>
       <c r="J49" s="3">
+        <v>1507700</v>
+      </c>
+      <c r="K49" s="3">
         <v>1644000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1720500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2151300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2186600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2230100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1673000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1743600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1607100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1552500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1565800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1572800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1615000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1568500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1496200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1434400</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1274500</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3446,8 +3560,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3517,79 +3634,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1758000</v>
+        <v>1725400</v>
       </c>
       <c r="E52" s="3">
-        <v>1749900</v>
+        <v>1605500</v>
       </c>
       <c r="F52" s="3">
-        <v>1775000</v>
+        <v>1598100</v>
       </c>
       <c r="G52" s="3">
-        <v>1897800</v>
+        <v>1621000</v>
       </c>
       <c r="H52" s="3">
-        <v>1414900</v>
+        <v>1733200</v>
       </c>
       <c r="I52" s="3">
-        <v>1077500</v>
+        <v>1292200</v>
       </c>
       <c r="J52" s="3">
+        <v>984000</v>
+      </c>
+      <c r="K52" s="3">
         <v>1107500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1229500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>850800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>851500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>819700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>864500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1064200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1091400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1002900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>969100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1006800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1169300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1357900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1356900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1432200</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1287300</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3659,79 +3782,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>117607700</v>
+        <v>116252400</v>
       </c>
       <c r="E54" s="3">
-        <v>110498200</v>
+        <v>107404900</v>
       </c>
       <c r="F54" s="3">
-        <v>111789900</v>
+        <v>100912200</v>
       </c>
       <c r="G54" s="3">
-        <v>106760200</v>
+        <v>102091900</v>
       </c>
       <c r="H54" s="3">
-        <v>101009500</v>
+        <v>97498400</v>
       </c>
       <c r="I54" s="3">
-        <v>98170900</v>
+        <v>92246700</v>
       </c>
       <c r="J54" s="3">
+        <v>89654300</v>
+      </c>
+      <c r="K54" s="3">
         <v>97976000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>104013400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>113189100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>111168500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>111838500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>114798900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>111646700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>110062600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>103439500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>102212200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>107229100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>103903100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>104075500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>102014000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>103406200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>92968100</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3757,8 +3886,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3784,434 +3914,453 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>14600200</v>
+        <v>13548000</v>
       </c>
       <c r="E57" s="3">
-        <v>11918700</v>
+        <v>13333600</v>
       </c>
       <c r="F57" s="3">
-        <v>12049000</v>
+        <v>10884700</v>
       </c>
       <c r="G57" s="3">
-        <v>11202800</v>
+        <v>11003700</v>
       </c>
       <c r="H57" s="3">
-        <v>10168000</v>
+        <v>10230900</v>
       </c>
       <c r="I57" s="3">
-        <v>9076200</v>
+        <v>9285900</v>
       </c>
       <c r="J57" s="3">
+        <v>8288800</v>
+      </c>
+      <c r="K57" s="3">
         <v>8744100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>10012600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>11770300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>10845800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>11551100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>12707100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>13217100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>12028200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>11694800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>11429100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>12147200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>11328200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>10649200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>10676900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>10787700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>8887300</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6245200</v>
+        <v>5391400</v>
       </c>
       <c r="E58" s="3">
-        <v>6820100</v>
+        <v>5703400</v>
       </c>
       <c r="F58" s="3">
-        <v>6919900</v>
+        <v>6228400</v>
       </c>
       <c r="G58" s="3">
-        <v>6409700</v>
+        <v>6319600</v>
       </c>
       <c r="H58" s="3">
-        <v>5873600</v>
+        <v>5853600</v>
       </c>
       <c r="I58" s="3">
-        <v>5724800</v>
+        <v>5364000</v>
       </c>
       <c r="J58" s="3">
+        <v>5228200</v>
+      </c>
+      <c r="K58" s="3">
         <v>6306000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6143800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>6544700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>7261900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>8192800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>7845800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>7553600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>6959600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>6294800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>6184300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>5829800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>5542100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>6488500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>6146100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>7075800</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>6388700</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>8446600</v>
+        <v>10729900</v>
       </c>
       <c r="E59" s="3">
-        <v>7674700</v>
+        <v>7713800</v>
       </c>
       <c r="F59" s="3">
-        <v>6539200</v>
+        <v>7008900</v>
       </c>
       <c r="G59" s="3">
-        <v>5433200</v>
+        <v>5971900</v>
       </c>
       <c r="H59" s="3">
-        <v>5252900</v>
+        <v>4961900</v>
       </c>
       <c r="I59" s="3">
-        <v>4741600</v>
+        <v>4797200</v>
       </c>
       <c r="J59" s="3">
+        <v>4330200</v>
+      </c>
+      <c r="K59" s="3">
         <v>4931400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7640400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6186700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5577100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5804100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5781200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>6905100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>6461800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>6059700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>6783400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>6711400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>5826600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>5765000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>5564600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>5821700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>4722300</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>29292000</v>
+        <v>29669200</v>
       </c>
       <c r="E60" s="3">
-        <v>26413400</v>
+        <v>26750900</v>
       </c>
       <c r="F60" s="3">
-        <v>25508000</v>
+        <v>24122000</v>
       </c>
       <c r="G60" s="3">
-        <v>23045700</v>
+        <v>23295200</v>
       </c>
       <c r="H60" s="3">
-        <v>21294500</v>
+        <v>21046400</v>
       </c>
       <c r="I60" s="3">
-        <v>19542600</v>
+        <v>19447100</v>
       </c>
       <c r="J60" s="3">
+        <v>17847200</v>
+      </c>
+      <c r="K60" s="3">
         <v>19981500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>23796800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>24501800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>23684800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>25548000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>26334000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>27675800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>25449500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>24049300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>24396900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>24688500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>22697000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>22902800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>22387600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>23685200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>19998200</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>34909000</v>
+        <v>32604100</v>
       </c>
       <c r="E61" s="3">
-        <v>33064400</v>
+        <v>31880500</v>
       </c>
       <c r="F61" s="3">
-        <v>34048200</v>
+        <v>30196000</v>
       </c>
       <c r="G61" s="3">
-        <v>34080000</v>
+        <v>31094500</v>
       </c>
       <c r="H61" s="3">
-        <v>34972900</v>
+        <v>31123500</v>
       </c>
       <c r="I61" s="3">
-        <v>35946900</v>
+        <v>31938900</v>
       </c>
       <c r="J61" s="3">
+        <v>32828400</v>
+      </c>
+      <c r="K61" s="3">
         <v>35839200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>37259400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>38486000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>38586200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>37173100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>36605000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>33965600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>33739000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>32441500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>32027200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>34920400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>35699100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>37405600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>37431100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>38250500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>36521200</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8663600</v>
+        <v>8832900</v>
       </c>
       <c r="E62" s="3">
-        <v>8443800</v>
+        <v>7912000</v>
       </c>
       <c r="F62" s="3">
-        <v>9022700</v>
+        <v>7711300</v>
       </c>
       <c r="G62" s="3">
-        <v>8495200</v>
+        <v>8240000</v>
       </c>
       <c r="H62" s="3">
-        <v>7373800</v>
+        <v>7758300</v>
       </c>
       <c r="I62" s="3">
-        <v>7026300</v>
+        <v>6734100</v>
       </c>
       <c r="J62" s="3">
+        <v>6416800</v>
+      </c>
+      <c r="K62" s="3">
         <v>6975900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7180400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>8188900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>7779100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>7906600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>8323600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>8124200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>8671300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>7800000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>7656300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>7269000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>7278500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>7072300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>6802600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>6766700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>5977300</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4281,8 +4430,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4352,8 +4504,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4423,79 +4578,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>75083500</v>
+        <v>72587900</v>
       </c>
       <c r="E66" s="3">
-        <v>70078200</v>
+        <v>68569800</v>
       </c>
       <c r="F66" s="3">
-        <v>70762400</v>
+        <v>63998700</v>
       </c>
       <c r="G66" s="3">
-        <v>67774500</v>
+        <v>64623600</v>
       </c>
       <c r="H66" s="3">
-        <v>65730300</v>
+        <v>61894900</v>
       </c>
       <c r="I66" s="3">
-        <v>64612600</v>
+        <v>60028000</v>
       </c>
       <c r="J66" s="3">
+        <v>59007300</v>
+      </c>
+      <c r="K66" s="3">
         <v>64958700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>70379700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>73667400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>72465300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>73055600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>73829900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>72239100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>70300400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>66567400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>66280800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>69332300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>68053100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>69759100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>68909600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>71093200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>64647500</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4521,8 +4682,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4592,8 +4754,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4663,8 +4828,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4734,8 +4902,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4805,79 +4976,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>32978800</v>
+        <v>32452800</v>
       </c>
       <c r="E72" s="3">
-        <v>31736400</v>
+        <v>30117800</v>
       </c>
       <c r="F72" s="3">
-        <v>30802500</v>
+        <v>28983200</v>
       </c>
       <c r="G72" s="3">
-        <v>30262600</v>
+        <v>28130300</v>
       </c>
       <c r="H72" s="3">
-        <v>28794400</v>
+        <v>27637300</v>
       </c>
       <c r="I72" s="3">
-        <v>28649100</v>
+        <v>26296500</v>
       </c>
       <c r="J72" s="3">
+        <v>26163700</v>
+      </c>
+      <c r="K72" s="3">
         <v>28238800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>29621800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>30109600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>30037200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>28668100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>29585900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>28566200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>22079200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>25998200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>26247000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>25531600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>24759700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>23601500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>22619600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>21765100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>21151000</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4947,8 +5124,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5018,8 +5198,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5089,79 +5272,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>42524200</v>
+        <v>43664500</v>
       </c>
       <c r="E76" s="3">
-        <v>40420000</v>
+        <v>38835100</v>
       </c>
       <c r="F76" s="3">
-        <v>41027600</v>
+        <v>36913500</v>
       </c>
       <c r="G76" s="3">
-        <v>38985700</v>
+        <v>37468300</v>
       </c>
       <c r="H76" s="3">
-        <v>35279200</v>
+        <v>35603600</v>
       </c>
       <c r="I76" s="3">
-        <v>33558300</v>
+        <v>32218600</v>
       </c>
       <c r="J76" s="3">
+        <v>30647000</v>
+      </c>
+      <c r="K76" s="3">
         <v>33017300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>33633700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>39521800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>38703100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>38782900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>40969000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>39407500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>39762100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>36872200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>35931400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>37896800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>35850000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>34316500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>33104400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>32312900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>28320500</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5231,155 +5420,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1950200</v>
+        <v>2192600</v>
       </c>
       <c r="E81" s="3">
-        <v>1820000</v>
+        <v>1781000</v>
       </c>
       <c r="F81" s="3">
-        <v>1631500</v>
+        <v>1662100</v>
       </c>
       <c r="G81" s="3">
-        <v>1164500</v>
+        <v>1489900</v>
       </c>
       <c r="H81" s="3">
-        <v>758400</v>
+        <v>1063500</v>
       </c>
       <c r="I81" s="3">
-        <v>404900</v>
+        <v>692600</v>
       </c>
       <c r="J81" s="3">
+        <v>369800</v>
+      </c>
+      <c r="K81" s="3">
         <v>533600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>497200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>919400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1002800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1145300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>616500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1200700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>970400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1076400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>376500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1252300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1153100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1001200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>672400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>961100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>539600</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5405,79 +5603,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>666500</v>
+        <v>555800</v>
       </c>
       <c r="E83" s="3">
-        <v>622900</v>
+        <v>608700</v>
       </c>
       <c r="F83" s="3">
-        <v>630200</v>
+        <v>568800</v>
       </c>
       <c r="G83" s="3">
-        <v>626200</v>
+        <v>575600</v>
       </c>
       <c r="H83" s="3">
-        <v>572800</v>
+        <v>571900</v>
       </c>
       <c r="I83" s="3">
-        <v>597600</v>
+        <v>523100</v>
       </c>
       <c r="J83" s="3">
+        <v>545800</v>
+      </c>
+      <c r="K83" s="3">
         <v>537500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>623100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>600400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>541700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>554500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>496000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>442500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>411100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>396100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>413800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>448800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>449300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>429100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>410100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>432800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>438700</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5547,8 +5749,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5618,8 +5823,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5689,8 +5897,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5760,8 +5971,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5831,79 +6045,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>442400</v>
+        <v>3488900</v>
       </c>
       <c r="E89" s="3">
-        <v>1090600</v>
+        <v>404000</v>
       </c>
       <c r="F89" s="3">
-        <v>1529500</v>
+        <v>995900</v>
       </c>
       <c r="G89" s="3">
-        <v>2305200</v>
+        <v>1396800</v>
       </c>
       <c r="H89" s="3">
-        <v>1037400</v>
+        <v>2105200</v>
       </c>
       <c r="I89" s="3">
-        <v>1849300</v>
+        <v>947400</v>
       </c>
       <c r="J89" s="3">
+        <v>1688800</v>
+      </c>
+      <c r="K89" s="3">
         <v>1399300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1229000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>548400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1827000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1171400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>472800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1886300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>251200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1223700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1352500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2182700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-372700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1833000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1624300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1312000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>298600</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5929,79 +6149,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-428900</v>
+        <v>-117900</v>
       </c>
       <c r="E91" s="3">
-        <v>-381800</v>
+        <v>-391700</v>
       </c>
       <c r="F91" s="3">
-        <v>-396400</v>
+        <v>-348700</v>
       </c>
       <c r="G91" s="3">
-        <v>-331500</v>
+        <v>-362000</v>
       </c>
       <c r="H91" s="3">
-        <v>-417000</v>
+        <v>-302700</v>
       </c>
       <c r="I91" s="3">
-        <v>-391300</v>
+        <v>-380800</v>
       </c>
       <c r="J91" s="3">
+        <v>-357300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-700100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-669200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-792800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-579100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-566500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-717000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-868800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-680800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-616300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>707600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-337700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-384300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-196300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-458100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-338400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-537000</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6071,8 +6295,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6142,79 +6369,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-355100</v>
+        <v>71700</v>
       </c>
       <c r="E94" s="3">
-        <v>-479700</v>
+        <v>-324300</v>
       </c>
       <c r="F94" s="3">
-        <v>-789200</v>
+        <v>-438100</v>
       </c>
       <c r="G94" s="3">
-        <v>-118800</v>
+        <v>-720800</v>
       </c>
       <c r="H94" s="3">
-        <v>-719300</v>
+        <v>-108500</v>
       </c>
       <c r="I94" s="3">
-        <v>-986700</v>
+        <v>-656900</v>
       </c>
       <c r="J94" s="3">
+        <v>-901100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-925800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>186300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-718500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-156200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1012200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2595500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1897000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1369400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-914400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-579400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-717100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-761300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-186100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-967700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-474900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-603200</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6240,79 +6473,83 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-623700</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-569600</v>
       </c>
       <c r="F96" s="3">
-        <v>-640500</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-584900</v>
       </c>
       <c r="H96" s="3">
-        <v>-573000</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-523300</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-582600</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-633600</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-636800</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-656300</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-631900</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-478400</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-478400</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-397500</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6382,8 +6619,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6453,8 +6693,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6524,217 +6767,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-400000</v>
+        <v>-1688800</v>
       </c>
       <c r="E100" s="3">
-        <v>-1521600</v>
+        <v>-365300</v>
       </c>
       <c r="F100" s="3">
-        <v>-1469300</v>
+        <v>-1389600</v>
       </c>
       <c r="G100" s="3">
-        <v>-1745800</v>
+        <v>-1341900</v>
       </c>
       <c r="H100" s="3">
-        <v>-1279300</v>
+        <v>-1594400</v>
       </c>
       <c r="I100" s="3">
-        <v>-376000</v>
+        <v>-1168300</v>
       </c>
       <c r="J100" s="3">
+        <v>-343300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-752700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-130100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1862200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-68800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>202500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2126800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-385900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>482800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-954700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1145700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1020400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-2791000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-939700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1316100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-841900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>217200</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>149800</v>
+        <v>361800</v>
       </c>
       <c r="E101" s="3">
-        <v>-72600</v>
+        <v>136800</v>
       </c>
       <c r="F101" s="3">
-        <v>-18500</v>
+        <v>-66300</v>
       </c>
       <c r="G101" s="3">
-        <v>281300</v>
+        <v>-16800</v>
       </c>
       <c r="H101" s="3">
-        <v>-68800</v>
+        <v>256900</v>
       </c>
       <c r="I101" s="3">
-        <v>7200</v>
+        <v>-62800</v>
       </c>
       <c r="J101" s="3">
+        <v>6600</v>
+      </c>
+      <c r="K101" s="3">
         <v>131300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-293800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>148200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-82300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-72700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>23700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-142100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>124000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>45000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-335900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>3300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>100100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>10700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-65200</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>603600</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-59700</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-162900</v>
+        <v>2233600</v>
       </c>
       <c r="E102" s="3">
-        <v>-983400</v>
+        <v>-148700</v>
       </c>
       <c r="F102" s="3">
-        <v>-747500</v>
+        <v>-898100</v>
       </c>
       <c r="G102" s="3">
-        <v>721800</v>
+        <v>-682700</v>
       </c>
       <c r="H102" s="3">
-        <v>-1030000</v>
+        <v>659200</v>
       </c>
       <c r="I102" s="3">
-        <v>493800</v>
+        <v>-940700</v>
       </c>
       <c r="J102" s="3">
+        <v>451000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-148000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>991400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1884100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1519700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>289000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>27700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-404700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-643100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-600500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-708500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>448600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-3824900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>717900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-724700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>598900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-147200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MITSY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MITSY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>MITSY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,322 +665,336 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="25" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="26" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>24679700</v>
+        <v>27271500</v>
       </c>
       <c r="E8" s="3">
-        <v>24719500</v>
+        <v>23222400</v>
       </c>
       <c r="F8" s="3">
-        <v>21486100</v>
+        <v>23259800</v>
       </c>
       <c r="G8" s="3">
-        <v>20706100</v>
+        <v>20217300</v>
       </c>
       <c r="H8" s="3">
-        <v>25794000</v>
+        <v>19483400</v>
       </c>
       <c r="I8" s="3">
-        <v>15856500</v>
+        <v>24270800</v>
       </c>
       <c r="J8" s="3">
+        <v>14920200</v>
+      </c>
+      <c r="K8" s="3">
         <v>14487100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>15741000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>28986100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>16240900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>16340900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>14959400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>18687200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>16988500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>15394900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>14145800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>11201800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>11381200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>10959900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>10682200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>10539300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>10144100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>8977900</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>21940900</v>
+        <v>24974100</v>
       </c>
       <c r="E9" s="3">
-        <v>22675700</v>
+        <v>20645300</v>
       </c>
       <c r="F9" s="3">
-        <v>19467000</v>
+        <v>21336700</v>
       </c>
       <c r="G9" s="3">
-        <v>18616500</v>
+        <v>18317500</v>
       </c>
       <c r="H9" s="3">
-        <v>23898900</v>
+        <v>17517200</v>
       </c>
       <c r="I9" s="3">
-        <v>14295700</v>
+        <v>22487700</v>
       </c>
       <c r="J9" s="3">
+        <v>13451500</v>
+      </c>
+      <c r="K9" s="3">
         <v>13099400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>14122800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>27233000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>14307400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>14328700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>13042800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>16713400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>15012100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>13487900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>12160100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>9567400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>9519200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>9110700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>8879700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>8666700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>8528400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>7541800</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2738900</v>
+        <v>2297400</v>
       </c>
       <c r="E10" s="3">
-        <v>2043800</v>
+        <v>2577100</v>
       </c>
       <c r="F10" s="3">
-        <v>2019100</v>
+        <v>1923100</v>
       </c>
       <c r="G10" s="3">
-        <v>2089600</v>
+        <v>1899800</v>
       </c>
       <c r="H10" s="3">
-        <v>1895000</v>
+        <v>1966200</v>
       </c>
       <c r="I10" s="3">
-        <v>1560800</v>
+        <v>1783100</v>
       </c>
       <c r="J10" s="3">
+        <v>1468700</v>
+      </c>
+      <c r="K10" s="3">
         <v>1387600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1618200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1753200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1933500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2012200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1916600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1973800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1976400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1906900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1985700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1634400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1861900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1849100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1802500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1872600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1615700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1436100</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1007,8 +1021,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1081,8 +1096,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1155,82 +1173,88 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>37600</v>
+        <v>2000</v>
       </c>
       <c r="E14" s="3">
-        <v>12300</v>
+        <v>35400</v>
       </c>
       <c r="F14" s="3">
-        <v>176600</v>
+        <v>11600</v>
       </c>
       <c r="G14" s="3">
-        <v>-1700</v>
+        <v>166200</v>
       </c>
       <c r="H14" s="3">
-        <v>99600</v>
+        <v>-1600</v>
       </c>
       <c r="I14" s="3">
-        <v>278500</v>
+        <v>93800</v>
       </c>
       <c r="J14" s="3">
+        <v>262100</v>
+      </c>
+      <c r="K14" s="3">
         <v>38700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>874000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>82100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>8300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>15500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>225400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>20700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>3800</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>8900</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>59600</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>91800</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>67000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>11600</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>48200</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
       <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1303,8 +1327,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1328,156 +1355,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>23265300</v>
+        <v>25922900</v>
       </c>
       <c r="E17" s="3">
-        <v>23625900</v>
+        <v>21891500</v>
       </c>
       <c r="F17" s="3">
-        <v>20658000</v>
+        <v>22230800</v>
       </c>
       <c r="G17" s="3">
-        <v>19648300</v>
+        <v>19438100</v>
       </c>
       <c r="H17" s="3">
-        <v>25244600</v>
+        <v>18488100</v>
       </c>
       <c r="I17" s="3">
-        <v>15883200</v>
+        <v>23753900</v>
       </c>
       <c r="J17" s="3">
+        <v>14945300</v>
+      </c>
+      <c r="K17" s="3">
         <v>14328800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>15201000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>29074600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>15671900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>15581200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>14210600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>18422900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>16308000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>14800500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>13271100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>11108400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>10721200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>10139700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>9954000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>9794000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>9291500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>8516000</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1414400</v>
+        <v>1348600</v>
       </c>
       <c r="E18" s="3">
-        <v>1093500</v>
+        <v>1330900</v>
       </c>
       <c r="F18" s="3">
-        <v>828100</v>
+        <v>1029000</v>
       </c>
       <c r="G18" s="3">
-        <v>1057800</v>
+        <v>779200</v>
       </c>
       <c r="H18" s="3">
-        <v>549400</v>
+        <v>995300</v>
       </c>
       <c r="I18" s="3">
-        <v>-26800</v>
+        <v>516900</v>
       </c>
       <c r="J18" s="3">
+        <v>-25200</v>
+      </c>
+      <c r="K18" s="3">
         <v>158300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>540000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-88400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>569000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>759700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>748700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>264200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>680500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>594400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>874700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>93400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>660000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>820200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>728200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>745300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>852600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>461900</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1504,378 +1538,394 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1263200</v>
+        <v>1322100</v>
       </c>
       <c r="E20" s="3">
-        <v>1256000</v>
+        <v>1188600</v>
       </c>
       <c r="F20" s="3">
-        <v>1476900</v>
+        <v>1181800</v>
       </c>
       <c r="G20" s="3">
-        <v>1050100</v>
+        <v>1389700</v>
       </c>
       <c r="H20" s="3">
-        <v>919400</v>
+        <v>988000</v>
       </c>
       <c r="I20" s="3">
-        <v>809900</v>
+        <v>865100</v>
       </c>
       <c r="J20" s="3">
+        <v>762100</v>
+      </c>
+      <c r="K20" s="3">
         <v>586800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>461600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>822000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1024200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>799300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1048100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>949200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1042200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>982200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>815900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>682600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>963900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>765600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>808400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>451900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>662000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>545900</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3233400</v>
+        <v>3154500</v>
       </c>
       <c r="E21" s="3">
-        <v>2958200</v>
+        <v>3042500</v>
       </c>
       <c r="F21" s="3">
-        <v>2873900</v>
+        <v>2783500</v>
       </c>
       <c r="G21" s="3">
-        <v>2683400</v>
+        <v>2704200</v>
       </c>
       <c r="H21" s="3">
-        <v>2040600</v>
+        <v>2524900</v>
       </c>
       <c r="I21" s="3">
-        <v>1306300</v>
+        <v>1920100</v>
       </c>
       <c r="J21" s="3">
+        <v>1229100</v>
+      </c>
+      <c r="K21" s="3">
         <v>1290900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1539200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1356700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2193700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2100800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2351400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1709400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2165200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1987800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2086700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1189800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>2072700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>2035100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1965600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1607200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1947400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1446600</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>89200</v>
+        <v>120200</v>
       </c>
       <c r="E22" s="3">
-        <v>78300</v>
+        <v>83900</v>
       </c>
       <c r="F22" s="3">
-        <v>89100</v>
+        <v>73700</v>
       </c>
       <c r="G22" s="3">
-        <v>112100</v>
+        <v>83800</v>
       </c>
       <c r="H22" s="3">
-        <v>85300</v>
+        <v>105500</v>
       </c>
       <c r="I22" s="3">
-        <v>98300</v>
+        <v>80300</v>
       </c>
       <c r="J22" s="3">
+        <v>92500</v>
+      </c>
+      <c r="K22" s="3">
         <v>100800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>131600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>178400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>205000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>212500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>217600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>194400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>191600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>191700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>172300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>149100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>150300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>156500</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>145100</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>140900</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>133700</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>118100</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2588400</v>
+        <v>2550500</v>
       </c>
       <c r="E23" s="3">
-        <v>2271200</v>
+        <v>2435600</v>
       </c>
       <c r="F23" s="3">
-        <v>2216000</v>
+        <v>2137100</v>
       </c>
       <c r="G23" s="3">
-        <v>1995700</v>
+        <v>2085100</v>
       </c>
       <c r="H23" s="3">
-        <v>1383400</v>
+        <v>1877900</v>
       </c>
       <c r="I23" s="3">
-        <v>684900</v>
+        <v>1301700</v>
       </c>
       <c r="J23" s="3">
+        <v>644500</v>
+      </c>
+      <c r="K23" s="3">
         <v>644300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>870000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>555100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1388200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1346500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1579200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1019000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1531100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1384900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1518300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>626900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1473600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1429300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1391500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1056300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1380900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>889700</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>350900</v>
+        <v>436900</v>
       </c>
       <c r="E24" s="3">
-        <v>456700</v>
+        <v>330200</v>
       </c>
       <c r="F24" s="3">
-        <v>521600</v>
+        <v>429700</v>
       </c>
       <c r="G24" s="3">
-        <v>437700</v>
+        <v>490800</v>
       </c>
       <c r="H24" s="3">
-        <v>286400</v>
+        <v>411800</v>
       </c>
       <c r="I24" s="3">
-        <v>-34100</v>
+        <v>269500</v>
       </c>
       <c r="J24" s="3">
+        <v>-32100</v>
+      </c>
+      <c r="K24" s="3">
         <v>250100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>301300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>88400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>409100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>280700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>343700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>397900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>289000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>367300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>372800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>201200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>158300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>234300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>338000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>320800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>367600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>316000</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1948,156 +1998,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2237600</v>
+        <v>2113700</v>
       </c>
       <c r="E26" s="3">
-        <v>1814500</v>
+        <v>2105400</v>
       </c>
       <c r="F26" s="3">
-        <v>1694400</v>
+        <v>1707300</v>
       </c>
       <c r="G26" s="3">
-        <v>1558000</v>
+        <v>1594300</v>
       </c>
       <c r="H26" s="3">
-        <v>1097000</v>
+        <v>1466000</v>
       </c>
       <c r="I26" s="3">
-        <v>719000</v>
+        <v>1032200</v>
       </c>
       <c r="J26" s="3">
+        <v>676500</v>
+      </c>
+      <c r="K26" s="3">
         <v>394200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>568600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>466700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>979200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1065800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1235500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>621100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1242100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1017600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1145500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>425700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1315300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1195000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1053500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>735500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1013300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>573700</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2192600</v>
+        <v>2015800</v>
       </c>
       <c r="E27" s="3">
-        <v>1781000</v>
+        <v>2063100</v>
       </c>
       <c r="F27" s="3">
-        <v>1662100</v>
+        <v>1675800</v>
       </c>
       <c r="G27" s="3">
-        <v>1489900</v>
+        <v>1564000</v>
       </c>
       <c r="H27" s="3">
-        <v>1063500</v>
+        <v>1402000</v>
       </c>
       <c r="I27" s="3">
-        <v>692600</v>
+        <v>1000700</v>
       </c>
       <c r="J27" s="3">
+        <v>651700</v>
+      </c>
+      <c r="K27" s="3">
         <v>369800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>533600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>497200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>919400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1002800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1145300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>616500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1200700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>970400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1076400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>376500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1252300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1153100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1001200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>672400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>961100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>539600</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2170,8 +2229,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2244,8 +2306,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2318,8 +2383,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2392,156 +2460,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1263200</v>
+        <v>-1322100</v>
       </c>
       <c r="E32" s="3">
-        <v>-1256000</v>
+        <v>-1188600</v>
       </c>
       <c r="F32" s="3">
-        <v>-1476900</v>
+        <v>-1181800</v>
       </c>
       <c r="G32" s="3">
-        <v>-1050100</v>
+        <v>-1389700</v>
       </c>
       <c r="H32" s="3">
-        <v>-919400</v>
+        <v>-988000</v>
       </c>
       <c r="I32" s="3">
-        <v>-809900</v>
+        <v>-865100</v>
       </c>
       <c r="J32" s="3">
+        <v>-762100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-586800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-461600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-822000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1024200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-799300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1048100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-949200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1042200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-982200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-815900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-682600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-963900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-765600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-808400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-451900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-662000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-545900</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2192600</v>
+        <v>2015800</v>
       </c>
       <c r="E33" s="3">
-        <v>1781000</v>
+        <v>2063100</v>
       </c>
       <c r="F33" s="3">
-        <v>1662100</v>
+        <v>1675800</v>
       </c>
       <c r="G33" s="3">
-        <v>1489900</v>
+        <v>1564000</v>
       </c>
       <c r="H33" s="3">
-        <v>1063500</v>
+        <v>1402000</v>
       </c>
       <c r="I33" s="3">
-        <v>692600</v>
+        <v>1000700</v>
       </c>
       <c r="J33" s="3">
+        <v>651700</v>
+      </c>
+      <c r="K33" s="3">
         <v>369800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>533600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>497200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>919400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1002800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1145300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>616500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1200700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>970400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1076400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>376500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1252300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1153100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1001200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>672400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>961100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>539600</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2614,161 +2691,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2192600</v>
+        <v>2015800</v>
       </c>
       <c r="E35" s="3">
-        <v>1781000</v>
+        <v>2063100</v>
       </c>
       <c r="F35" s="3">
-        <v>1662100</v>
+        <v>1675800</v>
       </c>
       <c r="G35" s="3">
-        <v>1489900</v>
+        <v>1564000</v>
       </c>
       <c r="H35" s="3">
-        <v>1063500</v>
+        <v>1402000</v>
       </c>
       <c r="I35" s="3">
-        <v>692600</v>
+        <v>1000700</v>
       </c>
       <c r="J35" s="3">
+        <v>651700</v>
+      </c>
+      <c r="K35" s="3">
         <v>369800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>533600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>497200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>919400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1002800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1145300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>616500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1200700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>970400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1076400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>376500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1252300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1153100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1001200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>672400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>961100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>539600</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2795,8 +2881,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2823,674 +2910,702 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8786100</v>
+        <v>8936300</v>
       </c>
       <c r="E41" s="3">
-        <v>6552500</v>
+        <v>8267300</v>
       </c>
       <c r="F41" s="3">
-        <v>6701200</v>
+        <v>6165500</v>
       </c>
       <c r="G41" s="3">
-        <v>7599300</v>
+        <v>6305500</v>
       </c>
       <c r="H41" s="3">
-        <v>8281900</v>
+        <v>7150500</v>
       </c>
       <c r="I41" s="3">
-        <v>7622700</v>
+        <v>7792900</v>
       </c>
       <c r="J41" s="3">
+        <v>7172600</v>
+      </c>
+      <c r="K41" s="3">
         <v>8563400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8883000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9327400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>8619900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>10596300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>9047000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>9188200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>8998400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>9253700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>9683800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>10227700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>10936200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>10487600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>14312400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>13338900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>14063500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>13464600</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>7773300</v>
+        <v>8372500</v>
       </c>
       <c r="E42" s="3">
-        <v>6903900</v>
+        <v>7314300</v>
       </c>
       <c r="F42" s="3">
-        <v>6144500</v>
+        <v>6496200</v>
       </c>
       <c r="G42" s="3">
-        <v>4399900</v>
+        <v>5781700</v>
       </c>
       <c r="H42" s="3">
-        <v>3349600</v>
+        <v>4140100</v>
       </c>
       <c r="I42" s="3">
-        <v>3350500</v>
+        <v>3151800</v>
       </c>
       <c r="J42" s="3">
+        <v>3152600</v>
+      </c>
+      <c r="K42" s="3">
         <v>3119600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>3626700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>4959100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>3002000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2707200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2753000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2445800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>3255400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>2869100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>2702600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>2205000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>3030500</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>2627800</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>2445500</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>2374300</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>3915400</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>3786600</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>17941500</v>
+        <v>18255700</v>
       </c>
       <c r="E43" s="3">
-        <v>17975800</v>
+        <v>16882000</v>
       </c>
       <c r="F43" s="3">
-        <v>14662700</v>
+        <v>16914300</v>
       </c>
       <c r="G43" s="3">
-        <v>14605400</v>
+        <v>13796900</v>
       </c>
       <c r="H43" s="3">
-        <v>14115400</v>
+        <v>13742900</v>
       </c>
       <c r="I43" s="3">
-        <v>13424900</v>
+        <v>13281900</v>
       </c>
       <c r="J43" s="3">
+        <v>12632200</v>
+      </c>
+      <c r="K43" s="3">
         <v>11204300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>12454600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>14294200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>16566500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>14911000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>15916900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>17338600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>17779600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>16564800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>15649400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>15964800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>17290200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>16461900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>14971500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>15428500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>15480700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>13205700</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>7397900</v>
+        <v>7153400</v>
       </c>
       <c r="E44" s="3">
-        <v>6908700</v>
+        <v>6961000</v>
       </c>
       <c r="F44" s="3">
-        <v>5778300</v>
+        <v>6500700</v>
       </c>
       <c r="G44" s="3">
-        <v>5599200</v>
+        <v>5437100</v>
       </c>
       <c r="H44" s="3">
-        <v>4792100</v>
+        <v>5268500</v>
       </c>
       <c r="I44" s="3">
-        <v>4690800</v>
+        <v>4509100</v>
       </c>
       <c r="J44" s="3">
+        <v>4413800</v>
+      </c>
+      <c r="K44" s="3">
         <v>4318400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4554700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4879500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>6283100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>5890100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>5901000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>5839800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>5950700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>5828600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>5150500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>4978300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>5689100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>5718500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>5394500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>5229200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>5336700</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>4779400</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2634200</v>
+        <v>3007500</v>
       </c>
       <c r="E45" s="3">
-        <v>2639300</v>
+        <v>2478600</v>
       </c>
       <c r="F45" s="3">
-        <v>2458500</v>
+        <v>2483400</v>
       </c>
       <c r="G45" s="3">
-        <v>2443600</v>
+        <v>2313400</v>
       </c>
       <c r="H45" s="3">
-        <v>2237200</v>
+        <v>2299300</v>
       </c>
       <c r="I45" s="3">
-        <v>2164300</v>
+        <v>2105100</v>
       </c>
       <c r="J45" s="3">
+        <v>2036500</v>
+      </c>
+      <c r="K45" s="3">
         <v>2138300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2623100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2875800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2941600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2909800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3240200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3592300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3707100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3593900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3510500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>4828700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>4005100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>3659200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>3525900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>3320100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>3359700</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>2996000</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>44533000</v>
+        <v>45725400</v>
       </c>
       <c r="E46" s="3">
-        <v>40980100</v>
+        <v>41903300</v>
       </c>
       <c r="F46" s="3">
-        <v>35745400</v>
+        <v>38560200</v>
       </c>
       <c r="G46" s="3">
-        <v>34647300</v>
+        <v>33634600</v>
       </c>
       <c r="H46" s="3">
-        <v>32776200</v>
+        <v>32601400</v>
       </c>
       <c r="I46" s="3">
-        <v>31253300</v>
+        <v>30840800</v>
       </c>
       <c r="J46" s="3">
+        <v>29407700</v>
+      </c>
+      <c r="K46" s="3">
         <v>29344000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>32142100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>36336100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>37413100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>37014400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>36858100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>38404700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>39691200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>38110200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>36696800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>38204500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>40951100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>38955000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>40649900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>39691000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>42156100</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>38232400</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>48474100</v>
+        <v>46946700</v>
       </c>
       <c r="E47" s="3">
-        <v>44113900</v>
+        <v>45611700</v>
       </c>
       <c r="F47" s="3">
-        <v>43336800</v>
+        <v>41509000</v>
       </c>
       <c r="G47" s="3">
-        <v>45105700</v>
+        <v>40777800</v>
       </c>
       <c r="H47" s="3">
-        <v>42435300</v>
+        <v>42442200</v>
       </c>
       <c r="I47" s="3">
-        <v>39571100</v>
+        <v>39929500</v>
       </c>
       <c r="J47" s="3">
+        <v>37234400</v>
+      </c>
+      <c r="K47" s="3">
         <v>38999900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>42508800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>43819300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>50414800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>49513500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>50532700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>53209900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>48784500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>49446400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>45792300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>44126500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>45878300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>44160100</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>42595400</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>41700800</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>39980100</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>35285000</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>19548800</v>
+        <v>19262600</v>
       </c>
       <c r="E48" s="3">
-        <v>18927200</v>
+        <v>18394400</v>
       </c>
       <c r="F48" s="3">
-        <v>18579400</v>
+        <v>17809500</v>
       </c>
       <c r="G48" s="3">
-        <v>19016900</v>
+        <v>17482300</v>
       </c>
       <c r="H48" s="3">
-        <v>19084900</v>
+        <v>17893900</v>
       </c>
       <c r="I48" s="3">
-        <v>18679200</v>
+        <v>17957900</v>
       </c>
       <c r="J48" s="3">
+        <v>17576200</v>
+      </c>
+      <c r="K48" s="3">
         <v>18818600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>20573600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>20908000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>22359200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>21602500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>21397900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>20646900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>20363100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>19807500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>18394900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>17346400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>17820100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>18003700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>17903900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>17769100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>18403400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>16888800</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1971200</v>
+        <v>2064900</v>
       </c>
       <c r="E49" s="3">
-        <v>1778100</v>
+        <v>1854800</v>
       </c>
       <c r="F49" s="3">
-        <v>1652500</v>
+        <v>1673100</v>
       </c>
       <c r="G49" s="3">
-        <v>1701000</v>
+        <v>1554900</v>
       </c>
       <c r="H49" s="3">
-        <v>1468800</v>
+        <v>1600600</v>
       </c>
       <c r="I49" s="3">
-        <v>1450900</v>
+        <v>1382100</v>
       </c>
       <c r="J49" s="3">
+        <v>1365200</v>
+      </c>
+      <c r="K49" s="3">
         <v>1507700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1644000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1720500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2151300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2186600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2230100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1673000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1743600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1607100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1552500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1565800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1572800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1615000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1568500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1496200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1434400</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1274500</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3563,8 +3678,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3637,82 +3755,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1725400</v>
+        <v>1716400</v>
       </c>
       <c r="E52" s="3">
-        <v>1605500</v>
+        <v>1623500</v>
       </c>
       <c r="F52" s="3">
-        <v>1598100</v>
+        <v>1510700</v>
       </c>
       <c r="G52" s="3">
-        <v>1621000</v>
+        <v>1503700</v>
       </c>
       <c r="H52" s="3">
-        <v>1733200</v>
+        <v>1525300</v>
       </c>
       <c r="I52" s="3">
-        <v>1292200</v>
+        <v>1630900</v>
       </c>
       <c r="J52" s="3">
+        <v>1215900</v>
+      </c>
+      <c r="K52" s="3">
         <v>984000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1107500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1229500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>850800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>851500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>819700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>864500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1064200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1091400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1002900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>969100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1006800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1169300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1357900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1356900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1432200</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1287300</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3785,82 +3909,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>116252400</v>
+        <v>115716100</v>
       </c>
       <c r="E54" s="3">
-        <v>107404900</v>
+        <v>109387700</v>
       </c>
       <c r="F54" s="3">
-        <v>100912200</v>
+        <v>101062600</v>
       </c>
       <c r="G54" s="3">
-        <v>102091900</v>
+        <v>94953300</v>
       </c>
       <c r="H54" s="3">
-        <v>97498400</v>
+        <v>96063300</v>
       </c>
       <c r="I54" s="3">
-        <v>92246700</v>
+        <v>91741100</v>
       </c>
       <c r="J54" s="3">
+        <v>86799500</v>
+      </c>
+      <c r="K54" s="3">
         <v>89654300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>97976000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>104013400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>113189100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>111168500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>111838500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>114798900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>111646700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>110062600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>103439500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>102212200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>107229100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>103903100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>104075500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>102014000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>103406200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>92968100</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3887,8 +4017,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3915,452 +4046,471 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>13548000</v>
+        <v>13642900</v>
       </c>
       <c r="E57" s="3">
-        <v>13333600</v>
+        <v>12748000</v>
       </c>
       <c r="F57" s="3">
-        <v>10884700</v>
+        <v>12546300</v>
       </c>
       <c r="G57" s="3">
-        <v>11003700</v>
+        <v>10241900</v>
       </c>
       <c r="H57" s="3">
-        <v>10230900</v>
+        <v>10353900</v>
       </c>
       <c r="I57" s="3">
-        <v>9285900</v>
+        <v>9626800</v>
       </c>
       <c r="J57" s="3">
+        <v>8737600</v>
+      </c>
+      <c r="K57" s="3">
         <v>8288800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>8744100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>10012600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>11770300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>10845800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>11551100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>12707100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>13217100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>12028200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>11694800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>11429100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>12147200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>11328200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>10649200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>10676900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>10787700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>8887300</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5391400</v>
+        <v>8429600</v>
       </c>
       <c r="E58" s="3">
-        <v>5703400</v>
+        <v>5073000</v>
       </c>
       <c r="F58" s="3">
-        <v>6228400</v>
+        <v>5366600</v>
       </c>
       <c r="G58" s="3">
-        <v>6319600</v>
+        <v>5860700</v>
       </c>
       <c r="H58" s="3">
-        <v>5853600</v>
+        <v>5946400</v>
       </c>
       <c r="I58" s="3">
-        <v>5364000</v>
+        <v>5508000</v>
       </c>
       <c r="J58" s="3">
+        <v>5047300</v>
+      </c>
+      <c r="K58" s="3">
         <v>5228200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6306000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>6143800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>6544700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>7261900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>8192800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>7845800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>7553600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>6959600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>6294800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>6184300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>5829800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>5542100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>6488500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>6146100</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>7075800</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>6388700</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>10729900</v>
+        <v>11757000</v>
       </c>
       <c r="E59" s="3">
-        <v>7713800</v>
+        <v>10096300</v>
       </c>
       <c r="F59" s="3">
-        <v>7008900</v>
+        <v>7258300</v>
       </c>
       <c r="G59" s="3">
-        <v>5971900</v>
+        <v>6595000</v>
       </c>
       <c r="H59" s="3">
-        <v>4961900</v>
+        <v>5619300</v>
       </c>
       <c r="I59" s="3">
-        <v>4797200</v>
+        <v>4668900</v>
       </c>
       <c r="J59" s="3">
+        <v>4513900</v>
+      </c>
+      <c r="K59" s="3">
         <v>4330200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4931400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>7640400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6186700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5577100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5804100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5781200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>6905100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>6461800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>6059700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>6783400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>6711400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>5826600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>5765000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>5564600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>5821700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>4722300</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>29669200</v>
+        <v>33829400</v>
       </c>
       <c r="E60" s="3">
-        <v>26750900</v>
+        <v>27917200</v>
       </c>
       <c r="F60" s="3">
-        <v>24122000</v>
+        <v>25171200</v>
       </c>
       <c r="G60" s="3">
-        <v>23295200</v>
+        <v>22697600</v>
       </c>
       <c r="H60" s="3">
-        <v>21046400</v>
+        <v>21919600</v>
       </c>
       <c r="I60" s="3">
-        <v>19447100</v>
+        <v>19803600</v>
       </c>
       <c r="J60" s="3">
+        <v>18298800</v>
+      </c>
+      <c r="K60" s="3">
         <v>17847200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>19981500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>23796800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>24501800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>23684800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>25548000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>26334000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>27675800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>25449500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>24049300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>24396900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>24688500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>22697000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>22902800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>22387600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>23685200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>19998200</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>32604100</v>
+        <v>29666100</v>
       </c>
       <c r="E61" s="3">
-        <v>31880500</v>
+        <v>30678800</v>
       </c>
       <c r="F61" s="3">
-        <v>30196000</v>
+        <v>29998000</v>
       </c>
       <c r="G61" s="3">
-        <v>31094500</v>
+        <v>28412900</v>
       </c>
       <c r="H61" s="3">
-        <v>31123500</v>
+        <v>29258300</v>
       </c>
       <c r="I61" s="3">
-        <v>31938900</v>
+        <v>29285600</v>
       </c>
       <c r="J61" s="3">
+        <v>30052900</v>
+      </c>
+      <c r="K61" s="3">
         <v>32828400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>35839200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>37259400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>38486000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>38586200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>37173100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>36605000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>33965600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>33739000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>32441500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>32027200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>34920400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>35699100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>37405600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>37431100</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>38250500</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>36521200</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8832900</v>
+        <v>8382300</v>
       </c>
       <c r="E62" s="3">
-        <v>7912000</v>
+        <v>8311300</v>
       </c>
       <c r="F62" s="3">
-        <v>7711300</v>
+        <v>7444800</v>
       </c>
       <c r="G62" s="3">
-        <v>8240000</v>
+        <v>7255900</v>
       </c>
       <c r="H62" s="3">
-        <v>7758300</v>
+        <v>7753400</v>
       </c>
       <c r="I62" s="3">
-        <v>6734100</v>
+        <v>7300100</v>
       </c>
       <c r="J62" s="3">
+        <v>6336400</v>
+      </c>
+      <c r="K62" s="3">
         <v>6416800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>6975900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>7180400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>8188900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>7779100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>7906600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>8323600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>8124200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>8671300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>7800000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>7656300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>7269000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>7278500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>7072300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>6802600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>6766700</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>5977300</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4433,8 +4583,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4507,8 +4660,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4581,82 +4737,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>72587900</v>
+        <v>73415200</v>
       </c>
       <c r="E66" s="3">
-        <v>68569800</v>
+        <v>68301600</v>
       </c>
       <c r="F66" s="3">
-        <v>63998700</v>
+        <v>64520800</v>
       </c>
       <c r="G66" s="3">
-        <v>64623600</v>
+        <v>60219600</v>
       </c>
       <c r="H66" s="3">
-        <v>61894900</v>
+        <v>60807500</v>
       </c>
       <c r="I66" s="3">
-        <v>60028000</v>
+        <v>58240000</v>
       </c>
       <c r="J66" s="3">
+        <v>56483400</v>
+      </c>
+      <c r="K66" s="3">
         <v>59007300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>64958700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>70379700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>73667400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>72465300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>73055600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>73829900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>72239100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>70300400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>66567400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>66280800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>69332300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>68053100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>69759100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>68909600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>71093200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>64647500</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4683,8 +4845,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4757,8 +4920,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4831,8 +4997,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4905,8 +5074,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4979,82 +5151,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>32452800</v>
+        <v>31869800</v>
       </c>
       <c r="E72" s="3">
-        <v>30117800</v>
+        <v>30536500</v>
       </c>
       <c r="F72" s="3">
-        <v>28983200</v>
+        <v>28339400</v>
       </c>
       <c r="G72" s="3">
-        <v>28130300</v>
+        <v>27271700</v>
       </c>
       <c r="H72" s="3">
-        <v>27637300</v>
+        <v>26469200</v>
       </c>
       <c r="I72" s="3">
-        <v>26296500</v>
+        <v>26005300</v>
       </c>
       <c r="J72" s="3">
+        <v>24743600</v>
+      </c>
+      <c r="K72" s="3">
         <v>26163700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>28238800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>29621800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>30109600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>30037200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>28668100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>29585900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>28566200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>22079200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>25998200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>26247000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>25531600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>24759700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>23601500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>22619600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>21765100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>21151000</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5127,8 +5305,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5201,8 +5382,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5275,82 +5459,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>43664500</v>
+        <v>42300900</v>
       </c>
       <c r="E76" s="3">
-        <v>38835100</v>
+        <v>41086200</v>
       </c>
       <c r="F76" s="3">
-        <v>36913500</v>
+        <v>36541900</v>
       </c>
       <c r="G76" s="3">
-        <v>37468300</v>
+        <v>34733700</v>
       </c>
       <c r="H76" s="3">
-        <v>35603600</v>
+        <v>35255800</v>
       </c>
       <c r="I76" s="3">
-        <v>32218600</v>
+        <v>33501200</v>
       </c>
       <c r="J76" s="3">
+        <v>30316100</v>
+      </c>
+      <c r="K76" s="3">
         <v>30647000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>33017300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>33633700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>39521800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>38703100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>38782900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>40969000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>39407500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>39762100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>36872200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>35931400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>37896800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>35850000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>34316500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>33104400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>32312900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>28320500</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5423,161 +5613,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2192600</v>
+        <v>2015800</v>
       </c>
       <c r="E81" s="3">
-        <v>1781000</v>
+        <v>2063100</v>
       </c>
       <c r="F81" s="3">
-        <v>1662100</v>
+        <v>1675800</v>
       </c>
       <c r="G81" s="3">
-        <v>1489900</v>
+        <v>1564000</v>
       </c>
       <c r="H81" s="3">
-        <v>1063500</v>
+        <v>1402000</v>
       </c>
       <c r="I81" s="3">
-        <v>692600</v>
+        <v>1000700</v>
       </c>
       <c r="J81" s="3">
+        <v>651700</v>
+      </c>
+      <c r="K81" s="3">
         <v>369800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>533600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>497200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>919400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1002800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1145300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>616500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1200700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>970400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1076400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>376500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1252300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1153100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1001200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>672400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>961100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>539600</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5604,82 +5803,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>555800</v>
+        <v>483800</v>
       </c>
       <c r="E83" s="3">
-        <v>608700</v>
+        <v>523000</v>
       </c>
       <c r="F83" s="3">
-        <v>568800</v>
+        <v>572700</v>
       </c>
       <c r="G83" s="3">
-        <v>575600</v>
+        <v>535300</v>
       </c>
       <c r="H83" s="3">
-        <v>571900</v>
+        <v>541600</v>
       </c>
       <c r="I83" s="3">
-        <v>523100</v>
+        <v>538100</v>
       </c>
       <c r="J83" s="3">
+        <v>492200</v>
+      </c>
+      <c r="K83" s="3">
         <v>545800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>537500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>623100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>600400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>541700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>554500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>496000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>442500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>411100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>396100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>413800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>448800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>449300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>429100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>410100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>432800</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>438700</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5752,8 +5955,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5826,8 +6032,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5900,8 +6109,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5974,8 +6186,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6048,82 +6263,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3488900</v>
+        <v>2059300</v>
       </c>
       <c r="E89" s="3">
-        <v>404000</v>
+        <v>3282900</v>
       </c>
       <c r="F89" s="3">
-        <v>995900</v>
+        <v>380200</v>
       </c>
       <c r="G89" s="3">
-        <v>1396800</v>
+        <v>937100</v>
       </c>
       <c r="H89" s="3">
-        <v>2105200</v>
+        <v>1314300</v>
       </c>
       <c r="I89" s="3">
-        <v>947400</v>
+        <v>1980900</v>
       </c>
       <c r="J89" s="3">
+        <v>891400</v>
+      </c>
+      <c r="K89" s="3">
         <v>1688800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1399300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1229000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>548400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1827000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1171400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>472800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1886300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>251200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1223700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1352500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2182700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-372700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1833000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1624300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1312000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>298600</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6150,82 +6371,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-117900</v>
+        <v>-397300</v>
       </c>
       <c r="E91" s="3">
-        <v>-391700</v>
+        <v>-322700</v>
       </c>
       <c r="F91" s="3">
-        <v>-348700</v>
+        <v>-368500</v>
       </c>
       <c r="G91" s="3">
-        <v>-362000</v>
+        <v>-328100</v>
       </c>
       <c r="H91" s="3">
-        <v>-302700</v>
+        <v>-340600</v>
       </c>
       <c r="I91" s="3">
-        <v>-380800</v>
+        <v>-284800</v>
       </c>
       <c r="J91" s="3">
+        <v>-358300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-357300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-700100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-669200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-792800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-579100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-566500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-717000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-868800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-680800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-616300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>707600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-337700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-384300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-196300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-458100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-338400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-537000</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6298,8 +6523,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6372,82 +6600,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>71700</v>
+        <v>-818100</v>
       </c>
       <c r="E94" s="3">
-        <v>-324300</v>
+        <v>67400</v>
       </c>
       <c r="F94" s="3">
-        <v>-438100</v>
+        <v>-305100</v>
       </c>
       <c r="G94" s="3">
-        <v>-720800</v>
+        <v>-412200</v>
       </c>
       <c r="H94" s="3">
-        <v>-108500</v>
+        <v>-678200</v>
       </c>
       <c r="I94" s="3">
-        <v>-656900</v>
+        <v>-102100</v>
       </c>
       <c r="J94" s="3">
+        <v>-618100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-901100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-925800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>186300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-718500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-156200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1012200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2595500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1897000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1369400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-914400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-579400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-717100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-761300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-186100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-967700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-474900</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-603200</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6474,82 +6708,86 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-704100</v>
       </c>
       <c r="E96" s="3">
-        <v>-569600</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-536000</v>
       </c>
       <c r="G96" s="3">
-        <v>-584900</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-550400</v>
       </c>
       <c r="I96" s="3">
-        <v>-523300</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-492400</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-582600</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-633600</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-636800</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-656300</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-631900</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-478400</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-478400</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-397500</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6622,8 +6860,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6696,8 +6937,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6770,226 +7014,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1688800</v>
+        <v>-951400</v>
       </c>
       <c r="E100" s="3">
-        <v>-365300</v>
+        <v>-1589100</v>
       </c>
       <c r="F100" s="3">
-        <v>-1389600</v>
+        <v>-343700</v>
       </c>
       <c r="G100" s="3">
-        <v>-1341900</v>
+        <v>-1307600</v>
       </c>
       <c r="H100" s="3">
-        <v>-1594400</v>
+        <v>-1262600</v>
       </c>
       <c r="I100" s="3">
-        <v>-1168300</v>
+        <v>-1500200</v>
       </c>
       <c r="J100" s="3">
+        <v>-1099300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-343300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-752700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-130100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1862200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-68800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>202500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2126800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-385900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>482800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-954700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1145700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1020400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-2791000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-939700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1316100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-841900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>217200</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>361800</v>
+        <v>379200</v>
       </c>
       <c r="E101" s="3">
-        <v>136800</v>
+        <v>340400</v>
       </c>
       <c r="F101" s="3">
-        <v>-66300</v>
+        <v>128800</v>
       </c>
       <c r="G101" s="3">
-        <v>-16800</v>
+        <v>-62400</v>
       </c>
       <c r="H101" s="3">
-        <v>256900</v>
+        <v>-15900</v>
       </c>
       <c r="I101" s="3">
-        <v>-62800</v>
+        <v>241700</v>
       </c>
       <c r="J101" s="3">
+        <v>-59100</v>
+      </c>
+      <c r="K101" s="3">
         <v>6600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>131300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-293800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>148200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-82300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-72700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>23700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-142100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>124000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>45000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-335900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>3300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>100100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>10700</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-65200</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>603600</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-59700</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2233600</v>
+        <v>669000</v>
       </c>
       <c r="E102" s="3">
-        <v>-148700</v>
+        <v>2101700</v>
       </c>
       <c r="F102" s="3">
-        <v>-898100</v>
+        <v>-139900</v>
       </c>
       <c r="G102" s="3">
-        <v>-682700</v>
+        <v>-845000</v>
       </c>
       <c r="H102" s="3">
-        <v>659200</v>
+        <v>-642300</v>
       </c>
       <c r="I102" s="3">
-        <v>-940700</v>
+        <v>620300</v>
       </c>
       <c r="J102" s="3">
+        <v>-885100</v>
+      </c>
+      <c r="K102" s="3">
         <v>451000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-148000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>991400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1884100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1519700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>289000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>27700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-404700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-643100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-600500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-708500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>448600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-3824900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>717900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-724700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>598900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-147200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MITSY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MITSY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>MITSY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -666,335 +666,347 @@
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="26" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="27" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>27271500</v>
+        <v>26256300</v>
       </c>
       <c r="E8" s="3">
-        <v>23222400</v>
+        <v>26378600</v>
       </c>
       <c r="F8" s="3">
-        <v>23259800</v>
+        <v>22462000</v>
       </c>
       <c r="G8" s="3">
-        <v>20217300</v>
+        <v>22498200</v>
       </c>
       <c r="H8" s="3">
-        <v>19483400</v>
+        <v>19555400</v>
       </c>
       <c r="I8" s="3">
-        <v>24270800</v>
+        <v>18845500</v>
       </c>
       <c r="J8" s="3">
+        <v>23476100</v>
+      </c>
+      <c r="K8" s="3">
         <v>14920200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>14487100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>15741000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>28986100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>16240900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>16340900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>14959400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>18687200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>16988500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>15394900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>14145800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>11201800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>11381200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>10959900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>10682200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>10539300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>10144100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>8977900</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>24974100</v>
+        <v>23998200</v>
       </c>
       <c r="E9" s="3">
-        <v>20645300</v>
+        <v>24156300</v>
       </c>
       <c r="F9" s="3">
-        <v>21336700</v>
+        <v>19969300</v>
       </c>
       <c r="G9" s="3">
-        <v>18317500</v>
+        <v>20638100</v>
       </c>
       <c r="H9" s="3">
-        <v>17517200</v>
+        <v>17717800</v>
       </c>
       <c r="I9" s="3">
-        <v>22487700</v>
+        <v>16943700</v>
       </c>
       <c r="J9" s="3">
+        <v>21751400</v>
+      </c>
+      <c r="K9" s="3">
         <v>13451500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>13099400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>14122800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>27233000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>14307400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>14328700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>13042800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>16713400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>15012100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>13487900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>12160100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>9567400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>9519200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>9110700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>8879700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>8666700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>8528400</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>7541800</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2297400</v>
+        <v>2258100</v>
       </c>
       <c r="E10" s="3">
-        <v>2577100</v>
+        <v>2222200</v>
       </c>
       <c r="F10" s="3">
-        <v>1923100</v>
+        <v>2492800</v>
       </c>
       <c r="G10" s="3">
-        <v>1899800</v>
+        <v>1860100</v>
       </c>
       <c r="H10" s="3">
-        <v>1966200</v>
+        <v>1837600</v>
       </c>
       <c r="I10" s="3">
-        <v>1783100</v>
+        <v>1901800</v>
       </c>
       <c r="J10" s="3">
+        <v>1724700</v>
+      </c>
+      <c r="K10" s="3">
         <v>1468700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1387600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1618200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1753200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1933500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2012200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1916600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1973800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1976400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1906900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1985700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1634400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1861900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1849100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1802500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1872600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1615700</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1436100</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1022,8 +1034,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1099,8 +1112,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1176,85 +1192,91 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>134500</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F14" s="3">
+        <v>34300</v>
+      </c>
+      <c r="G14" s="3">
+        <v>11200</v>
+      </c>
+      <c r="H14" s="3">
+        <v>160700</v>
+      </c>
+      <c r="I14" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="J14" s="3">
+        <v>90700</v>
+      </c>
+      <c r="K14" s="3">
+        <v>262100</v>
+      </c>
+      <c r="L14" s="3">
+        <v>38700</v>
+      </c>
+      <c r="M14" s="3">
+        <v>2600</v>
+      </c>
+      <c r="N14" s="3">
+        <v>874000</v>
+      </c>
+      <c r="O14" s="3">
+        <v>82100</v>
+      </c>
+      <c r="P14" s="3">
+        <v>8300</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>15500</v>
+      </c>
+      <c r="R14" s="3">
+        <v>225400</v>
+      </c>
+      <c r="S14" s="3">
+        <v>20700</v>
+      </c>
+      <c r="T14" s="3">
+        <v>3800</v>
+      </c>
+      <c r="U14" s="3">
+        <v>8900</v>
+      </c>
+      <c r="V14" s="3">
+        <v>59600</v>
+      </c>
+      <c r="W14" s="3">
+        <v>91800</v>
+      </c>
+      <c r="X14" s="3">
+        <v>67000</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>11600</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>48200</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
         <v>2000</v>
       </c>
-      <c r="E14" s="3">
-        <v>35400</v>
-      </c>
-      <c r="F14" s="3">
-        <v>11600</v>
-      </c>
-      <c r="G14" s="3">
-        <v>166200</v>
-      </c>
-      <c r="H14" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="I14" s="3">
-        <v>93800</v>
-      </c>
-      <c r="J14" s="3">
-        <v>262100</v>
-      </c>
-      <c r="K14" s="3">
-        <v>38700</v>
-      </c>
-      <c r="L14" s="3">
-        <v>2600</v>
-      </c>
-      <c r="M14" s="3">
-        <v>874000</v>
-      </c>
-      <c r="N14" s="3">
-        <v>82100</v>
-      </c>
-      <c r="O14" s="3">
-        <v>8300</v>
-      </c>
-      <c r="P14" s="3">
-        <v>15500</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>225400</v>
-      </c>
-      <c r="R14" s="3">
-        <v>20700</v>
-      </c>
-      <c r="S14" s="3">
-        <v>3800</v>
-      </c>
-      <c r="T14" s="3">
-        <v>8900</v>
-      </c>
-      <c r="U14" s="3">
-        <v>59600</v>
-      </c>
-      <c r="V14" s="3">
-        <v>91800</v>
-      </c>
-      <c r="W14" s="3">
-        <v>67000</v>
-      </c>
-      <c r="X14" s="3">
-        <v>11600</v>
-      </c>
-      <c r="Y14" s="3">
-        <v>48200</v>
-      </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="3">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1330,8 +1352,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1356,162 +1381,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>25922900</v>
+        <v>25115600</v>
       </c>
       <c r="E17" s="3">
-        <v>21891500</v>
+        <v>25074100</v>
       </c>
       <c r="F17" s="3">
-        <v>22230800</v>
+        <v>21174700</v>
       </c>
       <c r="G17" s="3">
-        <v>19438100</v>
+        <v>21502900</v>
       </c>
       <c r="H17" s="3">
-        <v>18488100</v>
+        <v>18801700</v>
       </c>
       <c r="I17" s="3">
-        <v>23753900</v>
+        <v>17882700</v>
       </c>
       <c r="J17" s="3">
+        <v>22976200</v>
+      </c>
+      <c r="K17" s="3">
         <v>14945300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>14328800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>15201000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>29074600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>15671900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>15581200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>14210600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>18422900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>16308000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>14800500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>13271100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>11108400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>10721200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>10139700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>9954000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>9794000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>9291500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>8516000</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1348600</v>
+        <v>1140600</v>
       </c>
       <c r="E18" s="3">
-        <v>1330900</v>
+        <v>1304400</v>
       </c>
       <c r="F18" s="3">
-        <v>1029000</v>
+        <v>1287300</v>
       </c>
       <c r="G18" s="3">
-        <v>779200</v>
+        <v>995300</v>
       </c>
       <c r="H18" s="3">
-        <v>995300</v>
+        <v>753700</v>
       </c>
       <c r="I18" s="3">
-        <v>516900</v>
+        <v>962700</v>
       </c>
       <c r="J18" s="3">
+        <v>500000</v>
+      </c>
+      <c r="K18" s="3">
         <v>-25200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>158300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>540000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-88400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>569000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>759700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>748700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>264200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>680500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>594400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>874700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>93400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>660000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>820200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>728200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>745300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>852600</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>461900</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1539,393 +1571,409 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1322100</v>
+        <v>1433800</v>
       </c>
       <c r="E20" s="3">
-        <v>1188600</v>
+        <v>1278900</v>
       </c>
       <c r="F20" s="3">
-        <v>1181800</v>
+        <v>1149700</v>
       </c>
       <c r="G20" s="3">
-        <v>1389700</v>
+        <v>1143100</v>
       </c>
       <c r="H20" s="3">
-        <v>988000</v>
+        <v>1344200</v>
       </c>
       <c r="I20" s="3">
-        <v>865100</v>
+        <v>955700</v>
       </c>
       <c r="J20" s="3">
+        <v>836800</v>
+      </c>
+      <c r="K20" s="3">
         <v>762100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>586800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>461600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>822000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1024200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>799300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1048100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>949200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1042200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>982200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>815900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>682600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>963900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>765600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>808400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>451900</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>662000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>545900</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3154500</v>
+        <v>3078100</v>
       </c>
       <c r="E21" s="3">
-        <v>3042500</v>
+        <v>3051300</v>
       </c>
       <c r="F21" s="3">
-        <v>2783500</v>
+        <v>2942900</v>
       </c>
       <c r="G21" s="3">
-        <v>2704200</v>
+        <v>2692300</v>
       </c>
       <c r="H21" s="3">
-        <v>2524900</v>
+        <v>2615600</v>
       </c>
       <c r="I21" s="3">
-        <v>1920100</v>
+        <v>2442300</v>
       </c>
       <c r="J21" s="3">
+        <v>1857200</v>
+      </c>
+      <c r="K21" s="3">
         <v>1229100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1290900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1539200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1356700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2193700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2100800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2351400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1709400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2165200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1987800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>2086700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1189800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>2072700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>2035100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1965600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1607200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1947400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1446600</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>120200</v>
+        <v>164900</v>
       </c>
       <c r="E22" s="3">
-        <v>83900</v>
+        <v>116300</v>
       </c>
       <c r="F22" s="3">
-        <v>73700</v>
+        <v>81200</v>
       </c>
       <c r="G22" s="3">
-        <v>83800</v>
+        <v>71300</v>
       </c>
       <c r="H22" s="3">
-        <v>105500</v>
+        <v>81100</v>
       </c>
       <c r="I22" s="3">
-        <v>80300</v>
+        <v>102000</v>
       </c>
       <c r="J22" s="3">
+        <v>77600</v>
+      </c>
+      <c r="K22" s="3">
         <v>92500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>100800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>131600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>178400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>205000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>212500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>217600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>194400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>191600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>191700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>172300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>149100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>150300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>156500</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>145100</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>140900</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>133700</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>118100</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2550500</v>
+        <v>2409500</v>
       </c>
       <c r="E23" s="3">
-        <v>2435600</v>
+        <v>2467000</v>
       </c>
       <c r="F23" s="3">
-        <v>2137100</v>
+        <v>2355800</v>
       </c>
       <c r="G23" s="3">
-        <v>2085100</v>
+        <v>2067100</v>
       </c>
       <c r="H23" s="3">
-        <v>1877900</v>
+        <v>2016800</v>
       </c>
       <c r="I23" s="3">
-        <v>1301700</v>
+        <v>1816400</v>
       </c>
       <c r="J23" s="3">
+        <v>1259100</v>
+      </c>
+      <c r="K23" s="3">
         <v>644500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>644300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>870000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>555100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1388200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1346500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1579200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1019000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1531100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1384900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1518300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>626900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1473600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1429300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1391500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1056300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1380900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>889700</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>436900</v>
+        <v>511700</v>
       </c>
       <c r="E24" s="3">
-        <v>330200</v>
+        <v>422500</v>
       </c>
       <c r="F24" s="3">
-        <v>429700</v>
+        <v>319300</v>
       </c>
       <c r="G24" s="3">
-        <v>490800</v>
+        <v>415600</v>
       </c>
       <c r="H24" s="3">
-        <v>411800</v>
+        <v>474700</v>
       </c>
       <c r="I24" s="3">
-        <v>269500</v>
+        <v>398400</v>
       </c>
       <c r="J24" s="3">
+        <v>260700</v>
+      </c>
+      <c r="K24" s="3">
         <v>-32100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>250100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>301300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>88400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>409100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>280700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>343700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>397900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>289000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>367300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>372800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>201200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>158300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>234300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>338000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>320800</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>367600</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>316000</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2001,162 +2049,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2113700</v>
+        <v>1897800</v>
       </c>
       <c r="E26" s="3">
-        <v>2105400</v>
+        <v>2044500</v>
       </c>
       <c r="F26" s="3">
-        <v>1707300</v>
+        <v>2036500</v>
       </c>
       <c r="G26" s="3">
-        <v>1594300</v>
+        <v>1651400</v>
       </c>
       <c r="H26" s="3">
-        <v>1466000</v>
+        <v>1542100</v>
       </c>
       <c r="I26" s="3">
-        <v>1032200</v>
+        <v>1418000</v>
       </c>
       <c r="J26" s="3">
+        <v>998400</v>
+      </c>
+      <c r="K26" s="3">
         <v>676500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>394200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>568600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>466700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>979200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1065800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1235500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>621100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1242100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1017600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1145500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>425700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1315300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1195000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1053500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>735500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>1013300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>573700</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2015800</v>
+        <v>1872500</v>
       </c>
       <c r="E27" s="3">
-        <v>2063100</v>
+        <v>1949800</v>
       </c>
       <c r="F27" s="3">
-        <v>1675800</v>
+        <v>1995600</v>
       </c>
       <c r="G27" s="3">
-        <v>1564000</v>
+        <v>1621000</v>
       </c>
       <c r="H27" s="3">
-        <v>1402000</v>
+        <v>1512800</v>
       </c>
       <c r="I27" s="3">
-        <v>1000700</v>
+        <v>1356100</v>
       </c>
       <c r="J27" s="3">
+        <v>967900</v>
+      </c>
+      <c r="K27" s="3">
         <v>651700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>369800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>533600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>497200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>919400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1002800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1145300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>616500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1200700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>970400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1076400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>376500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1252300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1153100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1001200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>672400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>961100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>539600</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2232,8 +2289,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2309,8 +2369,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2386,8 +2449,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2463,162 +2529,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1322100</v>
+        <v>-1433800</v>
       </c>
       <c r="E32" s="3">
-        <v>-1188600</v>
+        <v>-1278900</v>
       </c>
       <c r="F32" s="3">
-        <v>-1181800</v>
+        <v>-1149700</v>
       </c>
       <c r="G32" s="3">
-        <v>-1389700</v>
+        <v>-1143100</v>
       </c>
       <c r="H32" s="3">
-        <v>-988000</v>
+        <v>-1344200</v>
       </c>
       <c r="I32" s="3">
-        <v>-865100</v>
+        <v>-955700</v>
       </c>
       <c r="J32" s="3">
+        <v>-836800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-762100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-586800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-461600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-822000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1024200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-799300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1048100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-949200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1042200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-982200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-815900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-682600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-963900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-765600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-808400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-451900</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-662000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-545900</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2015800</v>
+        <v>1872500</v>
       </c>
       <c r="E33" s="3">
-        <v>2063100</v>
+        <v>1949800</v>
       </c>
       <c r="F33" s="3">
-        <v>1675800</v>
+        <v>1995600</v>
       </c>
       <c r="G33" s="3">
-        <v>1564000</v>
+        <v>1621000</v>
       </c>
       <c r="H33" s="3">
-        <v>1402000</v>
+        <v>1512800</v>
       </c>
       <c r="I33" s="3">
-        <v>1000700</v>
+        <v>1356100</v>
       </c>
       <c r="J33" s="3">
+        <v>967900</v>
+      </c>
+      <c r="K33" s="3">
         <v>651700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>369800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>533600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>497200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>919400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1002800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1145300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>616500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1200700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>970400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1076400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>376500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1252300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1153100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1001200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>672400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>961100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>539600</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2694,167 +2769,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2015800</v>
+        <v>1872500</v>
       </c>
       <c r="E35" s="3">
-        <v>2063100</v>
+        <v>1949800</v>
       </c>
       <c r="F35" s="3">
-        <v>1675800</v>
+        <v>1995600</v>
       </c>
       <c r="G35" s="3">
-        <v>1564000</v>
+        <v>1621000</v>
       </c>
       <c r="H35" s="3">
-        <v>1402000</v>
+        <v>1512800</v>
       </c>
       <c r="I35" s="3">
-        <v>1000700</v>
+        <v>1356100</v>
       </c>
       <c r="J35" s="3">
+        <v>967900</v>
+      </c>
+      <c r="K35" s="3">
         <v>651700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>369800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>533600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>497200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>919400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1002800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1145300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>616500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1200700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>970400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1076400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>376500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1252300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1153100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1001200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>672400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>961100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>539600</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2882,8 +2966,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2911,701 +2996,729 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8936300</v>
+        <v>7562300</v>
       </c>
       <c r="E41" s="3">
-        <v>8267300</v>
+        <v>8643700</v>
       </c>
       <c r="F41" s="3">
-        <v>6165500</v>
+        <v>7996600</v>
       </c>
       <c r="G41" s="3">
-        <v>6305500</v>
+        <v>5963700</v>
       </c>
       <c r="H41" s="3">
-        <v>7150500</v>
+        <v>6099000</v>
       </c>
       <c r="I41" s="3">
-        <v>7792900</v>
+        <v>6916400</v>
       </c>
       <c r="J41" s="3">
+        <v>7537700</v>
+      </c>
+      <c r="K41" s="3">
         <v>7172600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8563400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8883000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9327400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>8619900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>10596300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>9047000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>9188200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>8998400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>9253700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>9683800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>10227700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>10936200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>10487600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>14312400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>13338900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>14063500</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>13464600</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>8372500</v>
+        <v>9027200</v>
       </c>
       <c r="E42" s="3">
-        <v>7314300</v>
+        <v>8098400</v>
       </c>
       <c r="F42" s="3">
-        <v>6496200</v>
+        <v>7074800</v>
       </c>
       <c r="G42" s="3">
-        <v>5781700</v>
+        <v>6283500</v>
       </c>
       <c r="H42" s="3">
-        <v>4140100</v>
+        <v>5592400</v>
       </c>
       <c r="I42" s="3">
-        <v>3151800</v>
+        <v>4004600</v>
       </c>
       <c r="J42" s="3">
+        <v>3048600</v>
+      </c>
+      <c r="K42" s="3">
         <v>3152600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>3119600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>3626700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>4959100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>3002000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2707200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2753000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>2445800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>3255400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>2869100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>2702600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>2205000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>3030500</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>2627800</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>2445500</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>2374300</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>3915400</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>3786600</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>18255700</v>
+        <v>17163100</v>
       </c>
       <c r="E43" s="3">
-        <v>16882000</v>
+        <v>17658000</v>
       </c>
       <c r="F43" s="3">
-        <v>16914300</v>
+        <v>16329300</v>
       </c>
       <c r="G43" s="3">
-        <v>13796900</v>
+        <v>16360500</v>
       </c>
       <c r="H43" s="3">
-        <v>13742900</v>
+        <v>13345100</v>
       </c>
       <c r="I43" s="3">
-        <v>13281900</v>
+        <v>13292900</v>
       </c>
       <c r="J43" s="3">
+        <v>12847000</v>
+      </c>
+      <c r="K43" s="3">
         <v>12632200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>11204300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>12454600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>14294200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>16566500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>14911000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>15916900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>17338600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>17779600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>16564800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>15649400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>15964800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>17290200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>16461900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>14971500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>15428500</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>15480700</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>13205700</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>7153400</v>
+        <v>7244800</v>
       </c>
       <c r="E44" s="3">
-        <v>6961000</v>
+        <v>6919100</v>
       </c>
       <c r="F44" s="3">
-        <v>6500700</v>
+        <v>6733100</v>
       </c>
       <c r="G44" s="3">
-        <v>5437100</v>
+        <v>6287900</v>
       </c>
       <c r="H44" s="3">
-        <v>5268500</v>
+        <v>5259100</v>
       </c>
       <c r="I44" s="3">
-        <v>4509100</v>
+        <v>5096000</v>
       </c>
       <c r="J44" s="3">
+        <v>4361400</v>
+      </c>
+      <c r="K44" s="3">
         <v>4413800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4318400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4554700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4879500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>6283100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>5890100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>5901000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>5839800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>5950700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>5828600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>5150500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>4978300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>5689100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>5718500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>5394500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>5229200</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>5336700</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>4779400</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3007500</v>
+        <v>2660700</v>
       </c>
       <c r="E45" s="3">
-        <v>2478600</v>
+        <v>2909000</v>
       </c>
       <c r="F45" s="3">
-        <v>2483400</v>
+        <v>2397500</v>
       </c>
       <c r="G45" s="3">
-        <v>2313400</v>
+        <v>2402100</v>
       </c>
       <c r="H45" s="3">
-        <v>2299300</v>
+        <v>2237600</v>
       </c>
       <c r="I45" s="3">
-        <v>2105100</v>
+        <v>2224000</v>
       </c>
       <c r="J45" s="3">
+        <v>2036200</v>
+      </c>
+      <c r="K45" s="3">
         <v>2036500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2138300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2623100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2875800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2941600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2909800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3240200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3592300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3707100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3593900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3510500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>4828700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>4005100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>3659200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>3525900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>3320100</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>3359700</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>2996000</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>45725400</v>
+        <v>43658000</v>
       </c>
       <c r="E46" s="3">
-        <v>41903300</v>
+        <v>44228200</v>
       </c>
       <c r="F46" s="3">
-        <v>38560200</v>
+        <v>40531300</v>
       </c>
       <c r="G46" s="3">
-        <v>33634600</v>
+        <v>37297700</v>
       </c>
       <c r="H46" s="3">
-        <v>32601400</v>
+        <v>32533300</v>
       </c>
       <c r="I46" s="3">
-        <v>30840800</v>
+        <v>31534000</v>
       </c>
       <c r="J46" s="3">
+        <v>29831000</v>
+      </c>
+      <c r="K46" s="3">
         <v>29407700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>29344000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>32142100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>36336100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>37413100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>37014400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>36858100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>38404700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>39691200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>38110200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>36696800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>38204500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>40951100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>38955000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>40649900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>39691000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>42156100</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>38232400</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>46946700</v>
+        <v>47296000</v>
       </c>
       <c r="E47" s="3">
-        <v>45611700</v>
+        <v>45409600</v>
       </c>
       <c r="F47" s="3">
-        <v>41509000</v>
+        <v>44118300</v>
       </c>
       <c r="G47" s="3">
-        <v>40777800</v>
+        <v>40149900</v>
       </c>
       <c r="H47" s="3">
-        <v>42442200</v>
+        <v>39442600</v>
       </c>
       <c r="I47" s="3">
-        <v>39929500</v>
+        <v>41052500</v>
       </c>
       <c r="J47" s="3">
+        <v>38622100</v>
+      </c>
+      <c r="K47" s="3">
         <v>37234400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>38999900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>42508800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>43819300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>50414800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>49513500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>50532700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>53209900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>48784500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>49446400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>45792300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>44126500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>45878300</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>44160100</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>42595400</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>41700800</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>39980100</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>35285000</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>19262600</v>
+        <v>18901600</v>
       </c>
       <c r="E48" s="3">
-        <v>18394400</v>
+        <v>18631900</v>
       </c>
       <c r="F48" s="3">
-        <v>17809500</v>
+        <v>17792200</v>
       </c>
       <c r="G48" s="3">
-        <v>17482300</v>
+        <v>17226400</v>
       </c>
       <c r="H48" s="3">
-        <v>17893900</v>
+        <v>16909900</v>
       </c>
       <c r="I48" s="3">
-        <v>17957900</v>
+        <v>17308100</v>
       </c>
       <c r="J48" s="3">
+        <v>17369900</v>
+      </c>
+      <c r="K48" s="3">
         <v>17576200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>18818600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>20573600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>20908000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>22359200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>21602500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>21397900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>20646900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>20363100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>19807500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>18394900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>17346400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>17820100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>18003700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>17903900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>17769100</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>18403400</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>16888800</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2064900</v>
+        <v>2098300</v>
       </c>
       <c r="E49" s="3">
-        <v>1854800</v>
+        <v>1997300</v>
       </c>
       <c r="F49" s="3">
-        <v>1673100</v>
+        <v>1794000</v>
       </c>
       <c r="G49" s="3">
-        <v>1554900</v>
+        <v>1618300</v>
       </c>
       <c r="H49" s="3">
-        <v>1600600</v>
+        <v>1504000</v>
       </c>
       <c r="I49" s="3">
-        <v>1382100</v>
+        <v>1548200</v>
       </c>
       <c r="J49" s="3">
+        <v>1336900</v>
+      </c>
+      <c r="K49" s="3">
         <v>1365200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1507700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1644000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1720500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2151300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2186600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2230100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1673000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1743600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1607100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1552500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1565800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1572800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1615000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1568500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1496200</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1434400</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>1274500</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3681,8 +3794,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3758,85 +3874,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1716400</v>
+        <v>1753700</v>
       </c>
       <c r="E52" s="3">
-        <v>1623500</v>
+        <v>1660200</v>
       </c>
       <c r="F52" s="3">
-        <v>1510700</v>
+        <v>1570400</v>
       </c>
       <c r="G52" s="3">
-        <v>1503700</v>
+        <v>1461200</v>
       </c>
       <c r="H52" s="3">
-        <v>1525300</v>
+        <v>1454500</v>
       </c>
       <c r="I52" s="3">
-        <v>1630900</v>
+        <v>1475300</v>
       </c>
       <c r="J52" s="3">
+        <v>1577500</v>
+      </c>
+      <c r="K52" s="3">
         <v>1215900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>984000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1107500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1229500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>850800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>851500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>819700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>864500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1064200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1091400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1002900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>969100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1006800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1169300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1357900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1356900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1432200</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>1287300</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3912,85 +4034,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>115716100</v>
+        <v>113707700</v>
       </c>
       <c r="E54" s="3">
-        <v>109387700</v>
+        <v>111927300</v>
       </c>
       <c r="F54" s="3">
-        <v>101062600</v>
+        <v>105806100</v>
       </c>
       <c r="G54" s="3">
-        <v>94953300</v>
+        <v>97753600</v>
       </c>
       <c r="H54" s="3">
-        <v>96063300</v>
+        <v>91844400</v>
       </c>
       <c r="I54" s="3">
-        <v>91741100</v>
+        <v>92918000</v>
       </c>
       <c r="J54" s="3">
+        <v>88737300</v>
+      </c>
+      <c r="K54" s="3">
         <v>86799500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>89654300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>97976000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>104013400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>113189100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>111168500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>111838500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>114798900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>111646700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>110062600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>103439500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>102212200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>107229100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>103903100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>104075500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>102014000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>103406200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>92968100</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4018,8 +4146,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4047,470 +4176,489 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>13642900</v>
+        <v>12186200</v>
       </c>
       <c r="E57" s="3">
-        <v>12748000</v>
+        <v>13196200</v>
       </c>
       <c r="F57" s="3">
-        <v>12546300</v>
+        <v>12330600</v>
       </c>
       <c r="G57" s="3">
-        <v>10241900</v>
+        <v>12135500</v>
       </c>
       <c r="H57" s="3">
-        <v>10353900</v>
+        <v>9906600</v>
       </c>
       <c r="I57" s="3">
-        <v>9626800</v>
+        <v>10014900</v>
       </c>
       <c r="J57" s="3">
+        <v>9311600</v>
+      </c>
+      <c r="K57" s="3">
         <v>8737600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>8288800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>8744100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>10012600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>11770300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>10845800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>11551100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>12707100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>13217100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>12028200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>11694800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>11429100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>12147200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>11328200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>10649200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>10676900</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>10787700</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>8887300</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>8429600</v>
+        <v>9198000</v>
       </c>
       <c r="E58" s="3">
-        <v>5073000</v>
+        <v>8153500</v>
       </c>
       <c r="F58" s="3">
-        <v>5366600</v>
+        <v>4906900</v>
       </c>
       <c r="G58" s="3">
-        <v>5860700</v>
+        <v>5190900</v>
       </c>
       <c r="H58" s="3">
-        <v>5946400</v>
+        <v>5668800</v>
       </c>
       <c r="I58" s="3">
-        <v>5508000</v>
+        <v>5751700</v>
       </c>
       <c r="J58" s="3">
+        <v>5327600</v>
+      </c>
+      <c r="K58" s="3">
         <v>5047300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5228200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>6306000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>6143800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>6544700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>7261900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>8192800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>7845800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>7553600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>6959600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>6294800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>6184300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>5829800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>5542100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>6488500</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>6146100</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>7075800</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>6388700</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>11757000</v>
+        <v>11459900</v>
       </c>
       <c r="E59" s="3">
-        <v>10096300</v>
+        <v>11372100</v>
       </c>
       <c r="F59" s="3">
-        <v>7258300</v>
+        <v>9765700</v>
       </c>
       <c r="G59" s="3">
-        <v>6595000</v>
+        <v>7020600</v>
       </c>
       <c r="H59" s="3">
-        <v>5619300</v>
+        <v>6379100</v>
       </c>
       <c r="I59" s="3">
-        <v>4668900</v>
+        <v>5435300</v>
       </c>
       <c r="J59" s="3">
+        <v>4516000</v>
+      </c>
+      <c r="K59" s="3">
         <v>4513900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4330200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4931400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>7640400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>6186700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5577100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5804100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5781200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>6905100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>6461800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>6059700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>6783400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>6711400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>5826600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>5765000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>5564600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>5821700</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>4722300</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>33829400</v>
+        <v>32844100</v>
       </c>
       <c r="E60" s="3">
-        <v>27917200</v>
+        <v>32721800</v>
       </c>
       <c r="F60" s="3">
-        <v>25171200</v>
+        <v>27003200</v>
       </c>
       <c r="G60" s="3">
-        <v>22697600</v>
+        <v>24347100</v>
       </c>
       <c r="H60" s="3">
-        <v>21919600</v>
+        <v>21954400</v>
       </c>
       <c r="I60" s="3">
-        <v>19803600</v>
+        <v>21201900</v>
       </c>
       <c r="J60" s="3">
+        <v>19155200</v>
+      </c>
+      <c r="K60" s="3">
         <v>18298800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>17847200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>19981500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>23796800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>24501800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>23684800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>25548000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>26334000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>27675800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>25449500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>24049300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>24396900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>24688500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>22697000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>22902800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>22387600</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>23685200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>19998200</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>29666100</v>
+        <v>27847900</v>
       </c>
       <c r="E61" s="3">
-        <v>30678800</v>
+        <v>28694700</v>
       </c>
       <c r="F61" s="3">
-        <v>29998000</v>
+        <v>29674300</v>
       </c>
       <c r="G61" s="3">
-        <v>28412900</v>
+        <v>29015800</v>
       </c>
       <c r="H61" s="3">
-        <v>29258300</v>
+        <v>27482600</v>
       </c>
       <c r="I61" s="3">
-        <v>29285600</v>
+        <v>28300300</v>
       </c>
       <c r="J61" s="3">
+        <v>28326800</v>
+      </c>
+      <c r="K61" s="3">
         <v>30052900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>32828400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>35839200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>37259400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>38486000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>38586200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>37173100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>36605000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>33965600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>33739000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>32441500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>32027200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>34920400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>35699100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>37405600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>37431100</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>38250500</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>36521200</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8382300</v>
+        <v>8617500</v>
       </c>
       <c r="E62" s="3">
-        <v>8311300</v>
+        <v>8107800</v>
       </c>
       <c r="F62" s="3">
-        <v>7444800</v>
+        <v>8039200</v>
       </c>
       <c r="G62" s="3">
-        <v>7255900</v>
+        <v>7201100</v>
       </c>
       <c r="H62" s="3">
-        <v>7753400</v>
+        <v>7018400</v>
       </c>
       <c r="I62" s="3">
-        <v>7300100</v>
+        <v>7499600</v>
       </c>
       <c r="J62" s="3">
+        <v>7061100</v>
+      </c>
+      <c r="K62" s="3">
         <v>6336400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>6416800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>6975900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>7180400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>8188900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>7779100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>7906600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>8323600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>8124200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>8671300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>7800000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>7656300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>7269000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>7278500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>7072300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>6802600</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>6766700</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>5977300</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4586,8 +4734,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4663,8 +4814,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4740,85 +4894,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>73415200</v>
+        <v>70846600</v>
       </c>
       <c r="E66" s="3">
-        <v>68301600</v>
+        <v>71011500</v>
       </c>
       <c r="F66" s="3">
-        <v>64520800</v>
+        <v>66065200</v>
       </c>
       <c r="G66" s="3">
-        <v>60219600</v>
+        <v>62408200</v>
       </c>
       <c r="H66" s="3">
-        <v>60807500</v>
+        <v>58247900</v>
       </c>
       <c r="I66" s="3">
-        <v>58240000</v>
+        <v>58816600</v>
       </c>
       <c r="J66" s="3">
+        <v>56333100</v>
+      </c>
+      <c r="K66" s="3">
         <v>56483400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>59007300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>64958700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>70379700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>73667400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>72465300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>73055600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>73829900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>72239100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>70300400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>66567400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>66280800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>69332300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>68053100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>69759100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>68909600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>71093200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>64647500</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4846,8 +5006,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4923,8 +5084,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5000,8 +5164,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5077,8 +5244,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5154,85 +5324,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>31869800</v>
+        <v>31745600</v>
       </c>
       <c r="E72" s="3">
-        <v>30536500</v>
+        <v>30826300</v>
       </c>
       <c r="F72" s="3">
-        <v>28339400</v>
+        <v>29536700</v>
       </c>
       <c r="G72" s="3">
-        <v>27271700</v>
+        <v>27411500</v>
       </c>
       <c r="H72" s="3">
-        <v>26469200</v>
+        <v>26378800</v>
       </c>
       <c r="I72" s="3">
-        <v>26005300</v>
+        <v>25602500</v>
       </c>
       <c r="J72" s="3">
+        <v>25153800</v>
+      </c>
+      <c r="K72" s="3">
         <v>24743600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>26163700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>28238800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>29621800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>30109600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>30037200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>28668100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>29585900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>28566200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>22079200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>25998200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>26247000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>25531600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>24759700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>23601500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>22619600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>21765100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>21151000</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5308,8 +5484,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5385,8 +5564,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5462,85 +5644,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>42300900</v>
+        <v>42861000</v>
       </c>
       <c r="E76" s="3">
-        <v>41086200</v>
+        <v>40915900</v>
       </c>
       <c r="F76" s="3">
-        <v>36541900</v>
+        <v>39740900</v>
       </c>
       <c r="G76" s="3">
-        <v>34733700</v>
+        <v>35345400</v>
       </c>
       <c r="H76" s="3">
-        <v>35255800</v>
+        <v>33596500</v>
       </c>
       <c r="I76" s="3">
-        <v>33501200</v>
+        <v>34101500</v>
       </c>
       <c r="J76" s="3">
+        <v>32404300</v>
+      </c>
+      <c r="K76" s="3">
         <v>30316100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>30647000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>33017300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>33633700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>39521800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>38703100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>38782900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>40969000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>39407500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>39762100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>36872200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>35931400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>37896800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>35850000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>34316500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>33104400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>32312900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>28320500</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5616,167 +5804,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2015800</v>
+        <v>1872500</v>
       </c>
       <c r="E81" s="3">
-        <v>2063100</v>
+        <v>1949800</v>
       </c>
       <c r="F81" s="3">
-        <v>1675800</v>
+        <v>1995600</v>
       </c>
       <c r="G81" s="3">
-        <v>1564000</v>
+        <v>1621000</v>
       </c>
       <c r="H81" s="3">
-        <v>1402000</v>
+        <v>1512800</v>
       </c>
       <c r="I81" s="3">
-        <v>1000700</v>
+        <v>1356100</v>
       </c>
       <c r="J81" s="3">
+        <v>967900</v>
+      </c>
+      <c r="K81" s="3">
         <v>651700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>369800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>533600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>497200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>919400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1002800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1145300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>616500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1200700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>970400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1076400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>376500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1252300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1153100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1001200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>672400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>961100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>539600</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5804,85 +6001,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>483800</v>
+        <v>503600</v>
       </c>
       <c r="E83" s="3">
-        <v>523000</v>
+        <v>468000</v>
       </c>
       <c r="F83" s="3">
-        <v>572700</v>
+        <v>505900</v>
       </c>
       <c r="G83" s="3">
-        <v>535300</v>
+        <v>554000</v>
       </c>
       <c r="H83" s="3">
-        <v>541600</v>
+        <v>517700</v>
       </c>
       <c r="I83" s="3">
-        <v>538100</v>
+        <v>523800</v>
       </c>
       <c r="J83" s="3">
+        <v>520500</v>
+      </c>
+      <c r="K83" s="3">
         <v>492200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>545800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>537500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>623100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>600400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>541700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>554500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>496000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>442500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>411100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>396100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>413800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>448800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>449300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>429100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>410100</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>432800</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>438700</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5958,8 +6159,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6035,8 +6239,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6112,8 +6319,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6189,8 +6399,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6266,85 +6479,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2059300</v>
+        <v>208700</v>
       </c>
       <c r="E89" s="3">
-        <v>3282900</v>
+        <v>1991800</v>
       </c>
       <c r="F89" s="3">
-        <v>380200</v>
+        <v>3175400</v>
       </c>
       <c r="G89" s="3">
-        <v>937100</v>
+        <v>367700</v>
       </c>
       <c r="H89" s="3">
-        <v>1314300</v>
+        <v>906400</v>
       </c>
       <c r="I89" s="3">
-        <v>1980900</v>
+        <v>1271300</v>
       </c>
       <c r="J89" s="3">
+        <v>1916000</v>
+      </c>
+      <c r="K89" s="3">
         <v>891400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1688800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1399300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1229000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>548400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1827000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1171400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>472800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1886300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>251200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1223700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1352500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2182700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-372700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1833000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1624300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1312000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>298600</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6372,85 +6591,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-397300</v>
+        <v>-388200</v>
       </c>
       <c r="E91" s="3">
-        <v>-322700</v>
+        <v>-384300</v>
       </c>
       <c r="F91" s="3">
-        <v>-368500</v>
+        <v>-312100</v>
       </c>
       <c r="G91" s="3">
-        <v>-328100</v>
+        <v>-356500</v>
       </c>
       <c r="H91" s="3">
-        <v>-340600</v>
+        <v>-317400</v>
       </c>
       <c r="I91" s="3">
-        <v>-284800</v>
+        <v>-329400</v>
       </c>
       <c r="J91" s="3">
+        <v>-275500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-358300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-357300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-700100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-669200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-792800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-579100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-566500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-717000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-868800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-680800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-616300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>707600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-337700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-384300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-196300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-458100</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-338400</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-537000</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6526,8 +6749,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6603,85 +6829,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-818100</v>
+        <v>-144600</v>
       </c>
       <c r="E94" s="3">
-        <v>67400</v>
+        <v>-791300</v>
       </c>
       <c r="F94" s="3">
-        <v>-305100</v>
+        <v>65200</v>
       </c>
       <c r="G94" s="3">
-        <v>-412200</v>
+        <v>-295100</v>
       </c>
       <c r="H94" s="3">
-        <v>-678200</v>
+        <v>-398700</v>
       </c>
       <c r="I94" s="3">
-        <v>-102100</v>
+        <v>-656000</v>
       </c>
       <c r="J94" s="3">
+        <v>-98800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-618100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-901100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-925800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>186300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-718500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-156200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1012200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2595500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1897000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1369400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-914400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-579400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-717100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-761300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-186100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-967700</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-474900</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-603200</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6709,85 +6941,89 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-704100</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-681100</v>
       </c>
       <c r="F96" s="3">
-        <v>-536000</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-518400</v>
       </c>
       <c r="H96" s="3">
-        <v>-550400</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-532300</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-492400</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-582600</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-633600</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-636800</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-656300</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-631900</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-478400</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-478400</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-397500</v>
       </c>
-      <c r="AA96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6863,8 +7099,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6940,8 +7179,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7017,235 +7259,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-951400</v>
+        <v>-1263200</v>
       </c>
       <c r="E100" s="3">
-        <v>-1589100</v>
+        <v>-920200</v>
       </c>
       <c r="F100" s="3">
-        <v>-343700</v>
+        <v>-1537000</v>
       </c>
       <c r="G100" s="3">
-        <v>-1307600</v>
+        <v>-332500</v>
       </c>
       <c r="H100" s="3">
-        <v>-1262600</v>
+        <v>-1264800</v>
       </c>
       <c r="I100" s="3">
-        <v>-1500200</v>
+        <v>-1221300</v>
       </c>
       <c r="J100" s="3">
+        <v>-1451100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1099300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-343300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-752700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-130100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1862200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-68800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>202500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2126800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-385900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>482800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-954700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1145700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1020400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-2791000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-939700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-1316100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-841900</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>217200</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>379200</v>
+        <v>117700</v>
       </c>
       <c r="E101" s="3">
-        <v>340400</v>
+        <v>366800</v>
       </c>
       <c r="F101" s="3">
-        <v>128800</v>
+        <v>329300</v>
       </c>
       <c r="G101" s="3">
-        <v>-62400</v>
+        <v>124500</v>
       </c>
       <c r="H101" s="3">
-        <v>-15900</v>
+        <v>-60300</v>
       </c>
       <c r="I101" s="3">
-        <v>241700</v>
+        <v>-15300</v>
       </c>
       <c r="J101" s="3">
+        <v>233800</v>
+      </c>
+      <c r="K101" s="3">
         <v>-59100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>6600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>131300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-293800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>148200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-82300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-72700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>23700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-142100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>124000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>45000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-335900</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>3300</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>100100</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>10700</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-65200</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>603600</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-59700</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>669000</v>
+        <v>-1081400</v>
       </c>
       <c r="E102" s="3">
-        <v>2101700</v>
+        <v>647100</v>
       </c>
       <c r="F102" s="3">
-        <v>-139900</v>
+        <v>2032900</v>
       </c>
       <c r="G102" s="3">
-        <v>-845000</v>
+        <v>-135400</v>
       </c>
       <c r="H102" s="3">
-        <v>-642300</v>
+        <v>-817400</v>
       </c>
       <c r="I102" s="3">
-        <v>620300</v>
+        <v>-621300</v>
       </c>
       <c r="J102" s="3">
+        <v>600000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-885100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>451000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-148000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>991400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1884100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1519700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>289000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>27700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-404700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-643100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-600500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-708500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>448600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-3824900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>717900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-724700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>598900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-147200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MITSY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MITSY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>MITSY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,348 +665,360 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="27" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="28" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>26256300</v>
+        <v>26553300</v>
       </c>
       <c r="E8" s="3">
-        <v>26378600</v>
+        <v>27219100</v>
       </c>
       <c r="F8" s="3">
-        <v>22462000</v>
+        <v>27345900</v>
       </c>
       <c r="G8" s="3">
-        <v>22498200</v>
+        <v>23285800</v>
       </c>
       <c r="H8" s="3">
-        <v>19555400</v>
+        <v>23323200</v>
       </c>
       <c r="I8" s="3">
-        <v>18845500</v>
+        <v>20272500</v>
       </c>
       <c r="J8" s="3">
+        <v>19536500</v>
+      </c>
+      <c r="K8" s="3">
         <v>23476100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>14920200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>14487100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>15741000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>28986100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>16240900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>16340900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>14959400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>18687200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>16988500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>15394900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>14145800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>11201800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>11381200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>10959900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>10682200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>10539300</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>10144100</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>8977900</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>23998200</v>
+        <v>23713800</v>
       </c>
       <c r="E9" s="3">
-        <v>24156300</v>
+        <v>24878300</v>
       </c>
       <c r="F9" s="3">
-        <v>19969300</v>
+        <v>25042200</v>
       </c>
       <c r="G9" s="3">
-        <v>20638100</v>
+        <v>20701600</v>
       </c>
       <c r="H9" s="3">
-        <v>17717800</v>
+        <v>21394900</v>
       </c>
       <c r="I9" s="3">
-        <v>16943700</v>
+        <v>18367500</v>
       </c>
       <c r="J9" s="3">
+        <v>17565000</v>
+      </c>
+      <c r="K9" s="3">
         <v>21751400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>13451500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>13099400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>14122800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>27233000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>14307400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>14328700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>13042800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>16713400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>15012100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>13487900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>12160100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>9567400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>9519200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>9110700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>8879700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>8666700</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>8528400</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>7541800</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2258100</v>
+        <v>2839600</v>
       </c>
       <c r="E10" s="3">
-        <v>2222200</v>
+        <v>2340900</v>
       </c>
       <c r="F10" s="3">
-        <v>2492800</v>
+        <v>2303700</v>
       </c>
       <c r="G10" s="3">
-        <v>1860100</v>
+        <v>2584200</v>
       </c>
       <c r="H10" s="3">
-        <v>1837600</v>
+        <v>1928300</v>
       </c>
       <c r="I10" s="3">
-        <v>1901800</v>
+        <v>1905000</v>
       </c>
       <c r="J10" s="3">
+        <v>1971500</v>
+      </c>
+      <c r="K10" s="3">
         <v>1724700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1468700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1387600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1618200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1753200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1933500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2012200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1916600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1973800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1976400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1906900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1985700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1634400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1861900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1849100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1802500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1872600</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1615700</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>1436100</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1035,8 +1047,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1115,8 +1128,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1195,88 +1211,94 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>134500</v>
+        <v>38700</v>
       </c>
       <c r="E14" s="3">
-        <v>1900</v>
+        <v>77600</v>
       </c>
       <c r="F14" s="3">
-        <v>34300</v>
+        <v>2000</v>
       </c>
       <c r="G14" s="3">
-        <v>11200</v>
+        <v>35500</v>
       </c>
       <c r="H14" s="3">
-        <v>160700</v>
+        <v>11600</v>
       </c>
       <c r="I14" s="3">
-        <v>-1500</v>
+        <v>166600</v>
       </c>
       <c r="J14" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="K14" s="3">
         <v>90700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>262100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>38700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>874000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>82100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>8300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>15500</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>225400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>20700</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>3800</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>8900</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>59600</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>91800</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>67000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>11600</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>48200</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
       <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1355,8 +1377,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1382,168 +1407,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>25115600</v>
+        <v>24791500</v>
       </c>
       <c r="E17" s="3">
-        <v>25074100</v>
+        <v>26036700</v>
       </c>
       <c r="F17" s="3">
-        <v>21174700</v>
+        <v>25993600</v>
       </c>
       <c r="G17" s="3">
-        <v>21502900</v>
+        <v>21951200</v>
       </c>
       <c r="H17" s="3">
-        <v>18801700</v>
+        <v>22291500</v>
       </c>
       <c r="I17" s="3">
-        <v>17882700</v>
+        <v>19491200</v>
       </c>
       <c r="J17" s="3">
+        <v>18538500</v>
+      </c>
+      <c r="K17" s="3">
         <v>22976200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>14945300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>14328800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>15201000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>29074600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>15671900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>15581200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>14210600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>18422900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>16308000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>14800500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>13271100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>11108400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>10721200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>10139700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>9954000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>9794000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>9291500</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>8516000</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1140600</v>
+        <v>1761900</v>
       </c>
       <c r="E18" s="3">
-        <v>1304400</v>
+        <v>1182500</v>
       </c>
       <c r="F18" s="3">
-        <v>1287300</v>
+        <v>1352300</v>
       </c>
       <c r="G18" s="3">
-        <v>995300</v>
+        <v>1334500</v>
       </c>
       <c r="H18" s="3">
-        <v>753700</v>
+        <v>1031800</v>
       </c>
       <c r="I18" s="3">
-        <v>962700</v>
+        <v>781300</v>
       </c>
       <c r="J18" s="3">
+        <v>998000</v>
+      </c>
+      <c r="K18" s="3">
         <v>500000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-25200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>158300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>540000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-88400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>569000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>759700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>748700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>264200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>680500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>594400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>874700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>93400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>660000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>820200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>728200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>745300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>852600</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>461900</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1572,408 +1604,424 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1433800</v>
+        <v>1253700</v>
       </c>
       <c r="E20" s="3">
-        <v>1278900</v>
+        <v>1486300</v>
       </c>
       <c r="F20" s="3">
-        <v>1149700</v>
+        <v>1325800</v>
       </c>
       <c r="G20" s="3">
-        <v>1143100</v>
+        <v>1191800</v>
       </c>
       <c r="H20" s="3">
-        <v>1344200</v>
+        <v>1185000</v>
       </c>
       <c r="I20" s="3">
-        <v>955700</v>
+        <v>1393500</v>
       </c>
       <c r="J20" s="3">
+        <v>990700</v>
+      </c>
+      <c r="K20" s="3">
         <v>836800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>762100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>586800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>461600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>822000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1024200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>799300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1048100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>949200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1042200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>982200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>815900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>682600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>963900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>765600</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>808400</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>451900</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>662000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>545900</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3078100</v>
+        <v>3524900</v>
       </c>
       <c r="E21" s="3">
-        <v>3051300</v>
+        <v>3190900</v>
       </c>
       <c r="F21" s="3">
-        <v>2942900</v>
+        <v>3163100</v>
       </c>
       <c r="G21" s="3">
-        <v>2692300</v>
+        <v>3050800</v>
       </c>
       <c r="H21" s="3">
-        <v>2615600</v>
+        <v>2791100</v>
       </c>
       <c r="I21" s="3">
-        <v>2442300</v>
+        <v>2711600</v>
       </c>
       <c r="J21" s="3">
+        <v>2531800</v>
+      </c>
+      <c r="K21" s="3">
         <v>1857200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1229100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1290900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1539200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1356700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2193700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2100800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2351400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1709400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2165200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1987800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>2086700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1189800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>2072700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>2035100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1965600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1607200</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1947400</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1446600</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>164900</v>
+        <v>244600</v>
       </c>
       <c r="E22" s="3">
-        <v>116300</v>
+        <v>170900</v>
       </c>
       <c r="F22" s="3">
-        <v>81200</v>
+        <v>120500</v>
       </c>
       <c r="G22" s="3">
-        <v>71300</v>
+        <v>84100</v>
       </c>
       <c r="H22" s="3">
-        <v>81100</v>
+        <v>73900</v>
       </c>
       <c r="I22" s="3">
-        <v>102000</v>
+        <v>84000</v>
       </c>
       <c r="J22" s="3">
+        <v>105800</v>
+      </c>
+      <c r="K22" s="3">
         <v>77600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>92500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>100800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>131600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>178400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>205000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>212500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>217600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>194400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>191600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>191700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>172300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>149100</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>150300</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>156500</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>145100</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>140900</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>133700</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>118100</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2409500</v>
+        <v>2771000</v>
       </c>
       <c r="E23" s="3">
-        <v>2467000</v>
+        <v>2497900</v>
       </c>
       <c r="F23" s="3">
-        <v>2355800</v>
+        <v>2557500</v>
       </c>
       <c r="G23" s="3">
-        <v>2067100</v>
+        <v>2442200</v>
       </c>
       <c r="H23" s="3">
-        <v>2016800</v>
+        <v>2142900</v>
       </c>
       <c r="I23" s="3">
-        <v>1816400</v>
+        <v>2090800</v>
       </c>
       <c r="J23" s="3">
+        <v>1883000</v>
+      </c>
+      <c r="K23" s="3">
         <v>1259100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>644500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>644300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>870000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>555100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1388200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1346500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1579200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1019000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1531100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1384900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1518300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>626900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1473600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1429300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1391500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1056300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>1380900</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>889700</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>511700</v>
+        <v>519600</v>
       </c>
       <c r="E24" s="3">
-        <v>422500</v>
+        <v>530500</v>
       </c>
       <c r="F24" s="3">
-        <v>319300</v>
+        <v>438000</v>
       </c>
       <c r="G24" s="3">
-        <v>415600</v>
+        <v>331100</v>
       </c>
       <c r="H24" s="3">
-        <v>474700</v>
+        <v>430900</v>
       </c>
       <c r="I24" s="3">
-        <v>398400</v>
+        <v>492100</v>
       </c>
       <c r="J24" s="3">
+        <v>413000</v>
+      </c>
+      <c r="K24" s="3">
         <v>260700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-32100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>250100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>301300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>88400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>409100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>280700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>343700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>397900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>289000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>367300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>372800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>201200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>158300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>234300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>338000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>320800</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>367600</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>316000</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2052,168 +2100,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1897800</v>
+        <v>2251400</v>
       </c>
       <c r="E26" s="3">
-        <v>2044500</v>
+        <v>1967400</v>
       </c>
       <c r="F26" s="3">
-        <v>2036500</v>
+        <v>2119400</v>
       </c>
       <c r="G26" s="3">
-        <v>1651400</v>
+        <v>2111200</v>
       </c>
       <c r="H26" s="3">
-        <v>1542100</v>
+        <v>1712000</v>
       </c>
       <c r="I26" s="3">
-        <v>1418000</v>
+        <v>1598700</v>
       </c>
       <c r="J26" s="3">
+        <v>1470000</v>
+      </c>
+      <c r="K26" s="3">
         <v>998400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>676500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>394200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>568600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>466700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>979200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1065800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1235500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>621100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1242100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1017600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1145500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>425700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1315300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1195000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1053500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>735500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>1013300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>573700</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1872500</v>
+        <v>2217400</v>
       </c>
       <c r="E27" s="3">
-        <v>1949800</v>
+        <v>1941200</v>
       </c>
       <c r="F27" s="3">
-        <v>1995600</v>
+        <v>2021300</v>
       </c>
       <c r="G27" s="3">
-        <v>1621000</v>
+        <v>2068800</v>
       </c>
       <c r="H27" s="3">
-        <v>1512800</v>
+        <v>1680400</v>
       </c>
       <c r="I27" s="3">
-        <v>1356100</v>
+        <v>1568200</v>
       </c>
       <c r="J27" s="3">
+        <v>1405800</v>
+      </c>
+      <c r="K27" s="3">
         <v>967900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>651700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>369800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>533600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>497200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>919400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1002800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1145300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>616500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1200700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>970400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1076400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>376500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1252300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1153100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1001200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>672400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>961100</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>539600</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2292,8 +2349,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2372,8 +2432,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2452,8 +2515,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2532,168 +2598,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1433800</v>
+        <v>-1253700</v>
       </c>
       <c r="E32" s="3">
-        <v>-1278900</v>
+        <v>-1486300</v>
       </c>
       <c r="F32" s="3">
-        <v>-1149700</v>
+        <v>-1325800</v>
       </c>
       <c r="G32" s="3">
-        <v>-1143100</v>
+        <v>-1191800</v>
       </c>
       <c r="H32" s="3">
-        <v>-1344200</v>
+        <v>-1185000</v>
       </c>
       <c r="I32" s="3">
-        <v>-955700</v>
+        <v>-1393500</v>
       </c>
       <c r="J32" s="3">
+        <v>-990700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-836800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-762100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-586800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-461600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-822000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1024200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-799300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1048100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-949200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1042200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-982200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-815900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-682600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-963900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-765600</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-808400</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-451900</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-662000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-545900</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1872500</v>
+        <v>2217400</v>
       </c>
       <c r="E33" s="3">
-        <v>1949800</v>
+        <v>1941200</v>
       </c>
       <c r="F33" s="3">
-        <v>1995600</v>
+        <v>2021300</v>
       </c>
       <c r="G33" s="3">
-        <v>1621000</v>
+        <v>2068800</v>
       </c>
       <c r="H33" s="3">
-        <v>1512800</v>
+        <v>1680400</v>
       </c>
       <c r="I33" s="3">
-        <v>1356100</v>
+        <v>1568200</v>
       </c>
       <c r="J33" s="3">
+        <v>1405800</v>
+      </c>
+      <c r="K33" s="3">
         <v>967900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>651700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>369800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>533600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>497200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>919400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1002800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1145300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>616500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1200700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>970400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1076400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>376500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1252300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1153100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>1001200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>672400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>961100</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>539600</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2772,173 +2847,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1872500</v>
+        <v>2217400</v>
       </c>
       <c r="E35" s="3">
-        <v>1949800</v>
+        <v>1941200</v>
       </c>
       <c r="F35" s="3">
-        <v>1995600</v>
+        <v>2021300</v>
       </c>
       <c r="G35" s="3">
-        <v>1621000</v>
+        <v>2068800</v>
       </c>
       <c r="H35" s="3">
-        <v>1512800</v>
+        <v>1680400</v>
       </c>
       <c r="I35" s="3">
-        <v>1356100</v>
+        <v>1568200</v>
       </c>
       <c r="J35" s="3">
+        <v>1405800</v>
+      </c>
+      <c r="K35" s="3">
         <v>967900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>651700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>369800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>533600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>497200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>919400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1002800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1145300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>616500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1200700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>970400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1076400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>376500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1252300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1153100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>1001200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>672400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>961100</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>539600</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2967,8 +3051,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2997,728 +3082,756 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7562300</v>
+        <v>9156800</v>
       </c>
       <c r="E41" s="3">
-        <v>8643700</v>
+        <v>7839600</v>
       </c>
       <c r="F41" s="3">
-        <v>7996600</v>
+        <v>8960600</v>
       </c>
       <c r="G41" s="3">
-        <v>5963700</v>
+        <v>8289800</v>
       </c>
       <c r="H41" s="3">
-        <v>6099000</v>
+        <v>6182400</v>
       </c>
       <c r="I41" s="3">
-        <v>6916400</v>
+        <v>6322700</v>
       </c>
       <c r="J41" s="3">
+        <v>7170000</v>
+      </c>
+      <c r="K41" s="3">
         <v>7537700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7172600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8563400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>8883000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9327400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>8619900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>10596300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>9047000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>9188200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>8998400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>9253700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>9683800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>10227700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>10936200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>10487600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>14312400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>13338900</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>14063500</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>13464600</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>9027200</v>
+        <v>7442100</v>
       </c>
       <c r="E42" s="3">
-        <v>8098400</v>
+        <v>9358200</v>
       </c>
       <c r="F42" s="3">
-        <v>7074800</v>
+        <v>8395400</v>
       </c>
       <c r="G42" s="3">
-        <v>6283500</v>
+        <v>7334300</v>
       </c>
       <c r="H42" s="3">
-        <v>5592400</v>
+        <v>6514000</v>
       </c>
       <c r="I42" s="3">
-        <v>4004600</v>
+        <v>5797500</v>
       </c>
       <c r="J42" s="3">
+        <v>4151400</v>
+      </c>
+      <c r="K42" s="3">
         <v>3048600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>3152600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>3119600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>3626700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>4959100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>3002000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2707200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>2753000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>2445800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>3255400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>2869100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>2702600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>2205000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>3030500</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>2627800</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>2445500</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>2374300</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>3915400</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>3786600</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>17163100</v>
+        <v>17526100</v>
       </c>
       <c r="E43" s="3">
-        <v>17658000</v>
+        <v>17792500</v>
       </c>
       <c r="F43" s="3">
-        <v>16329300</v>
+        <v>18305500</v>
       </c>
       <c r="G43" s="3">
-        <v>16360500</v>
+        <v>16928100</v>
       </c>
       <c r="H43" s="3">
-        <v>13345100</v>
+        <v>16960500</v>
       </c>
       <c r="I43" s="3">
-        <v>13292900</v>
+        <v>13834500</v>
       </c>
       <c r="J43" s="3">
+        <v>13780400</v>
+      </c>
+      <c r="K43" s="3">
         <v>12847000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>12632200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>11204300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>12454600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>14294200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>16566500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>14911000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>15916900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>17338600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>17779600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>16564800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>15649400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>15964800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>17290200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>16461900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>14971500</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>15428500</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>15480700</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>13205700</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>7244800</v>
+        <v>7513100</v>
       </c>
       <c r="E44" s="3">
-        <v>6919100</v>
+        <v>7510500</v>
       </c>
       <c r="F44" s="3">
-        <v>6733100</v>
+        <v>7172900</v>
       </c>
       <c r="G44" s="3">
-        <v>6287900</v>
+        <v>6980000</v>
       </c>
       <c r="H44" s="3">
-        <v>5259100</v>
+        <v>6518500</v>
       </c>
       <c r="I44" s="3">
-        <v>5096000</v>
+        <v>5452000</v>
       </c>
       <c r="J44" s="3">
+        <v>5282900</v>
+      </c>
+      <c r="K44" s="3">
         <v>4361400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4413800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4318400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4554700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4879500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>6283100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>5890100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>5901000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>5839800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>5950700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>5828600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>5150500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>4978300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>5689100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>5718500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>5394500</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>5229200</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>5336700</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>4779400</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2660700</v>
+        <v>3171700</v>
       </c>
       <c r="E45" s="3">
-        <v>2909000</v>
+        <v>2758200</v>
       </c>
       <c r="F45" s="3">
-        <v>2397500</v>
+        <v>3015700</v>
       </c>
       <c r="G45" s="3">
-        <v>2402100</v>
+        <v>2485400</v>
       </c>
       <c r="H45" s="3">
-        <v>2237600</v>
+        <v>2490200</v>
       </c>
       <c r="I45" s="3">
-        <v>2224000</v>
+        <v>2319700</v>
       </c>
       <c r="J45" s="3">
+        <v>2305600</v>
+      </c>
+      <c r="K45" s="3">
         <v>2036200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2036500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2138300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2623100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2875800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2941600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2909800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3240200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3592300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3707100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3593900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3510500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>4828700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>4005100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>3659200</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>3525900</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>3320100</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>3359700</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>2996000</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>43658000</v>
+        <v>44809700</v>
       </c>
       <c r="E46" s="3">
-        <v>44228200</v>
+        <v>45259000</v>
       </c>
       <c r="F46" s="3">
-        <v>40531300</v>
+        <v>45850200</v>
       </c>
       <c r="G46" s="3">
-        <v>37297700</v>
+        <v>42017600</v>
       </c>
       <c r="H46" s="3">
-        <v>32533300</v>
+        <v>38665500</v>
       </c>
       <c r="I46" s="3">
-        <v>31534000</v>
+        <v>33726400</v>
       </c>
       <c r="J46" s="3">
+        <v>32690400</v>
+      </c>
+      <c r="K46" s="3">
         <v>29831000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>29407700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>29344000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>32142100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>36336100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>37413100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>37014400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>36858100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>38404700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>39691200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>38110200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>36696800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>38204500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>40951100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>38955000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>40649900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>39691000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>42156100</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>38232400</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>47296000</v>
+        <v>47181300</v>
       </c>
       <c r="E47" s="3">
-        <v>45409600</v>
+        <v>49030400</v>
       </c>
       <c r="F47" s="3">
-        <v>44118300</v>
+        <v>47074800</v>
       </c>
       <c r="G47" s="3">
-        <v>40149900</v>
+        <v>45736200</v>
       </c>
       <c r="H47" s="3">
-        <v>39442600</v>
+        <v>41622300</v>
       </c>
       <c r="I47" s="3">
-        <v>41052500</v>
+        <v>40889100</v>
       </c>
       <c r="J47" s="3">
+        <v>42558000</v>
+      </c>
+      <c r="K47" s="3">
         <v>38622100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>37234400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>38999900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>42508800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>43819300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>50414800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>49513500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>50532700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>53209900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>48784500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>49446400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>45792300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>44126500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>45878300</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>44160100</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>42595400</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>41700800</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>39980100</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>35285000</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>18901600</v>
+        <v>18733400</v>
       </c>
       <c r="E48" s="3">
-        <v>18631900</v>
+        <v>19594700</v>
       </c>
       <c r="F48" s="3">
-        <v>17792200</v>
+        <v>19315200</v>
       </c>
       <c r="G48" s="3">
-        <v>17226400</v>
+        <v>18444600</v>
       </c>
       <c r="H48" s="3">
-        <v>16909900</v>
+        <v>17858100</v>
       </c>
       <c r="I48" s="3">
-        <v>17308100</v>
+        <v>17530000</v>
       </c>
       <c r="J48" s="3">
+        <v>17942800</v>
+      </c>
+      <c r="K48" s="3">
         <v>17369900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>17576200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>18818600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>20573600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>20908000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>22359200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>21602500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>21397900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>20646900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>20363100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>19807500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>18394900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>17346400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>17820100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>18003700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>17903900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>17769100</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>18403400</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>16888800</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2098300</v>
+        <v>2075600</v>
       </c>
       <c r="E49" s="3">
-        <v>1997300</v>
+        <v>2175300</v>
       </c>
       <c r="F49" s="3">
-        <v>1794000</v>
+        <v>2070600</v>
       </c>
       <c r="G49" s="3">
-        <v>1618300</v>
+        <v>1859800</v>
       </c>
       <c r="H49" s="3">
-        <v>1504000</v>
+        <v>1677700</v>
       </c>
       <c r="I49" s="3">
-        <v>1548200</v>
+        <v>1559200</v>
       </c>
       <c r="J49" s="3">
+        <v>1604900</v>
+      </c>
+      <c r="K49" s="3">
         <v>1336900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1365200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1507700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1644000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1720500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2151300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2186600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2230100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1673000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1743600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1607100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1552500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1565800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1572800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1615000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1568500</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1496200</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>1434400</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>1274500</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3797,8 +3910,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3877,88 +3993,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1753700</v>
+        <v>1632100</v>
       </c>
       <c r="E52" s="3">
-        <v>1660200</v>
+        <v>1818000</v>
       </c>
       <c r="F52" s="3">
-        <v>1570400</v>
+        <v>1721100</v>
       </c>
       <c r="G52" s="3">
-        <v>1461200</v>
+        <v>1627900</v>
       </c>
       <c r="H52" s="3">
-        <v>1454500</v>
+        <v>1514800</v>
       </c>
       <c r="I52" s="3">
-        <v>1475300</v>
+        <v>1507800</v>
       </c>
       <c r="J52" s="3">
+        <v>1529400</v>
+      </c>
+      <c r="K52" s="3">
         <v>1577500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1215900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>984000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1107500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1229500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>850800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>851500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>819700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>864500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1064200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1091400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1002900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>969100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1006800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1169300</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1357900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1356900</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>1432200</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>1287300</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4037,88 +4159,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>113707700</v>
+        <v>114432000</v>
       </c>
       <c r="E54" s="3">
-        <v>111927300</v>
+        <v>117877500</v>
       </c>
       <c r="F54" s="3">
-        <v>105806100</v>
+        <v>116031900</v>
       </c>
       <c r="G54" s="3">
-        <v>97753600</v>
+        <v>109686200</v>
       </c>
       <c r="H54" s="3">
-        <v>91844400</v>
+        <v>101338400</v>
       </c>
       <c r="I54" s="3">
-        <v>92918000</v>
+        <v>95212400</v>
       </c>
       <c r="J54" s="3">
+        <v>96325500</v>
+      </c>
+      <c r="K54" s="3">
         <v>88737300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>86799500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>89654300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>97976000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>104013400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>113189100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>111168500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>111838500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>114798900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>111646700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>110062600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>103439500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>102212200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>107229100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>103903100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>104075500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>102014000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>103406200</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>92968100</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4147,8 +4275,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4177,488 +4306,507 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>12186200</v>
+        <v>12972500</v>
       </c>
       <c r="E57" s="3">
-        <v>13196200</v>
+        <v>12633100</v>
       </c>
       <c r="F57" s="3">
-        <v>12330600</v>
+        <v>13680100</v>
       </c>
       <c r="G57" s="3">
-        <v>12135500</v>
+        <v>12782700</v>
       </c>
       <c r="H57" s="3">
-        <v>9906600</v>
+        <v>12580500</v>
       </c>
       <c r="I57" s="3">
-        <v>10014900</v>
+        <v>10269900</v>
       </c>
       <c r="J57" s="3">
+        <v>10382200</v>
+      </c>
+      <c r="K57" s="3">
         <v>9311600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>8737600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>8288800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>8744100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>10012600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>11770300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>10845800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>11551100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>12707100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>13217100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>12028200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>11694800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>11429100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>12147200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>11328200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>10649200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>10676900</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>10787700</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>8887300</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>9198000</v>
+        <v>9171800</v>
       </c>
       <c r="E58" s="3">
-        <v>8153500</v>
+        <v>9535300</v>
       </c>
       <c r="F58" s="3">
-        <v>4906900</v>
+        <v>8452600</v>
       </c>
       <c r="G58" s="3">
-        <v>5190900</v>
+        <v>5086800</v>
       </c>
       <c r="H58" s="3">
-        <v>5668800</v>
+        <v>5381300</v>
       </c>
       <c r="I58" s="3">
-        <v>5751700</v>
+        <v>5876600</v>
       </c>
       <c r="J58" s="3">
+        <v>5962600</v>
+      </c>
+      <c r="K58" s="3">
         <v>5327600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5047300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5228200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>6306000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>6143800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>6544700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>7261900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>8192800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>7845800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>7553600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>6959600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>6294800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>6184300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>5829800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>5542100</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>6488500</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>6146100</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>7075800</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>6388700</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>11459900</v>
+        <v>8447200</v>
       </c>
       <c r="E59" s="3">
-        <v>11372100</v>
+        <v>11880200</v>
       </c>
       <c r="F59" s="3">
-        <v>9765700</v>
+        <v>11789100</v>
       </c>
       <c r="G59" s="3">
-        <v>7020600</v>
+        <v>10123800</v>
       </c>
       <c r="H59" s="3">
-        <v>6379100</v>
+        <v>7278100</v>
       </c>
       <c r="I59" s="3">
-        <v>5435300</v>
+        <v>6613000</v>
       </c>
       <c r="J59" s="3">
+        <v>5634600</v>
+      </c>
+      <c r="K59" s="3">
         <v>4516000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4513900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4330200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4931400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>7640400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6186700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5577100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5804100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>5781200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>6905100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>6461800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>6059700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>6783400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>6711400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>5826600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>5765000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>5564600</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>5821700</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>4722300</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>32844100</v>
+        <v>30591400</v>
       </c>
       <c r="E60" s="3">
-        <v>32721800</v>
+        <v>34048500</v>
       </c>
       <c r="F60" s="3">
-        <v>27003200</v>
+        <v>33921700</v>
       </c>
       <c r="G60" s="3">
-        <v>24347100</v>
+        <v>27993400</v>
       </c>
       <c r="H60" s="3">
-        <v>21954400</v>
+        <v>25239900</v>
       </c>
       <c r="I60" s="3">
-        <v>21201900</v>
+        <v>22759500</v>
       </c>
       <c r="J60" s="3">
+        <v>21979400</v>
+      </c>
+      <c r="K60" s="3">
         <v>19155200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>18298800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>17847200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>19981500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>23796800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>24501800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>23684800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>25548000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>26334000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>27675800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>25449500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>24049300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>24396900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>24688500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>22697000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>22902800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>22387600</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>23685200</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>19998200</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>27847900</v>
+        <v>28456900</v>
       </c>
       <c r="E61" s="3">
-        <v>28694700</v>
+        <v>28869100</v>
       </c>
       <c r="F61" s="3">
-        <v>29674300</v>
+        <v>29747000</v>
       </c>
       <c r="G61" s="3">
-        <v>29015800</v>
+        <v>30762500</v>
       </c>
       <c r="H61" s="3">
-        <v>27482600</v>
+        <v>30079800</v>
       </c>
       <c r="I61" s="3">
-        <v>28300300</v>
+        <v>28490400</v>
       </c>
       <c r="J61" s="3">
+        <v>29338200</v>
+      </c>
+      <c r="K61" s="3">
         <v>28326800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>30052900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>32828400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>35839200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>37259400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>38486000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>38586200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>37173100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>36605000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>33965600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>33739000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>32441500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>32027200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>34920400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>35699100</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>37405600</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>37431100</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>38250500</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>36521200</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8617500</v>
+        <v>8880500</v>
       </c>
       <c r="E62" s="3">
-        <v>8107800</v>
+        <v>8933500</v>
       </c>
       <c r="F62" s="3">
-        <v>8039200</v>
+        <v>8405100</v>
       </c>
       <c r="G62" s="3">
-        <v>7201100</v>
+        <v>8334000</v>
       </c>
       <c r="H62" s="3">
-        <v>7018400</v>
+        <v>7465100</v>
       </c>
       <c r="I62" s="3">
-        <v>7499600</v>
+        <v>7275700</v>
       </c>
       <c r="J62" s="3">
+        <v>7774600</v>
+      </c>
+      <c r="K62" s="3">
         <v>7061100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>6336400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>6416800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>6975900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>7180400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>8188900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>7779100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>7906600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>8323600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>8124200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>8671300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>7800000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>7656300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>7269000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>7278500</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>7072300</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>6802600</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>6766700</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>5977300</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4737,8 +4885,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4817,8 +4968,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4897,88 +5051,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>70846600</v>
+        <v>69446900</v>
       </c>
       <c r="E66" s="3">
-        <v>71011500</v>
+        <v>73444600</v>
       </c>
       <c r="F66" s="3">
-        <v>66065200</v>
+        <v>73615500</v>
       </c>
       <c r="G66" s="3">
-        <v>62408200</v>
+        <v>68487900</v>
       </c>
       <c r="H66" s="3">
-        <v>58247900</v>
+        <v>64696800</v>
       </c>
       <c r="I66" s="3">
-        <v>58816600</v>
+        <v>60383900</v>
       </c>
       <c r="J66" s="3">
+        <v>60973500</v>
+      </c>
+      <c r="K66" s="3">
         <v>56333100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>56483400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>59007300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>64958700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>70379700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>73667400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>72465300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>73055600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>73829900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>72239100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>70300400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>66567400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>66280800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>69332300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>68053100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>69759100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>68909600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>71093200</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>64647500</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5007,8 +5167,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5087,8 +5248,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5167,8 +5331,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5247,8 +5414,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5327,88 +5497,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>31745600</v>
+        <v>34579100</v>
       </c>
       <c r="E72" s="3">
-        <v>30826300</v>
+        <v>32909800</v>
       </c>
       <c r="F72" s="3">
-        <v>29536700</v>
+        <v>31956800</v>
       </c>
       <c r="G72" s="3">
-        <v>27411500</v>
+        <v>30619800</v>
       </c>
       <c r="H72" s="3">
-        <v>26378800</v>
+        <v>28416700</v>
       </c>
       <c r="I72" s="3">
-        <v>25602500</v>
+        <v>27346100</v>
       </c>
       <c r="J72" s="3">
+        <v>26541400</v>
+      </c>
+      <c r="K72" s="3">
         <v>25153800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>24743600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>26163700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>28238800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>29621800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>30109600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>30037200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>28668100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>29585900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>28566200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>22079200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>25998200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>26247000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>25531600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>24759700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>23601500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>22619600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>21765100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>21151000</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5487,8 +5663,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5567,8 +5746,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5647,88 +5829,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>42861000</v>
+        <v>44985100</v>
       </c>
       <c r="E76" s="3">
-        <v>40915900</v>
+        <v>44432800</v>
       </c>
       <c r="F76" s="3">
-        <v>39740900</v>
+        <v>42416300</v>
       </c>
       <c r="G76" s="3">
-        <v>35345400</v>
+        <v>41198300</v>
       </c>
       <c r="H76" s="3">
-        <v>33596500</v>
+        <v>36641600</v>
       </c>
       <c r="I76" s="3">
-        <v>34101500</v>
+        <v>34828500</v>
       </c>
       <c r="J76" s="3">
+        <v>35352000</v>
+      </c>
+      <c r="K76" s="3">
         <v>32404300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>30316100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>30647000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>33017300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>33633700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>39521800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>38703100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>38782900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>40969000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>39407500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>39762100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>36872200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>35931400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>37896800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>35850000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>34316500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>33104400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>32312900</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>28320500</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5807,173 +5995,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1872500</v>
+        <v>2217400</v>
       </c>
       <c r="E81" s="3">
-        <v>1949800</v>
+        <v>1941200</v>
       </c>
       <c r="F81" s="3">
-        <v>1995600</v>
+        <v>2021300</v>
       </c>
       <c r="G81" s="3">
-        <v>1621000</v>
+        <v>2068800</v>
       </c>
       <c r="H81" s="3">
-        <v>1512800</v>
+        <v>1680400</v>
       </c>
       <c r="I81" s="3">
-        <v>1356100</v>
+        <v>1568200</v>
       </c>
       <c r="J81" s="3">
+        <v>1405800</v>
+      </c>
+      <c r="K81" s="3">
         <v>967900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>651700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>369800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>533600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>497200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>919400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1002800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1145300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>616500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1200700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>970400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1076400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>376500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1252300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1153100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>1001200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>672400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>961100</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>539600</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6002,88 +6199,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>503600</v>
+        <v>509300</v>
       </c>
       <c r="E83" s="3">
-        <v>468000</v>
+        <v>522100</v>
       </c>
       <c r="F83" s="3">
-        <v>505900</v>
+        <v>485100</v>
       </c>
       <c r="G83" s="3">
-        <v>554000</v>
+        <v>524400</v>
       </c>
       <c r="H83" s="3">
-        <v>517700</v>
+        <v>574300</v>
       </c>
       <c r="I83" s="3">
-        <v>523800</v>
+        <v>536700</v>
       </c>
       <c r="J83" s="3">
+        <v>543100</v>
+      </c>
+      <c r="K83" s="3">
         <v>520500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>492200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>545800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>537500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>623100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>600400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>541700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>554500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>496000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>442500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>411100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>396100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>413800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>448800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>449300</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>429100</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>410100</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>432800</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>438700</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6162,8 +6363,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6242,8 +6446,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6322,8 +6529,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6402,8 +6612,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6482,88 +6695,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>208700</v>
+        <v>2128000</v>
       </c>
       <c r="E89" s="3">
-        <v>1991800</v>
+        <v>216300</v>
       </c>
       <c r="F89" s="3">
-        <v>3175400</v>
+        <v>2064900</v>
       </c>
       <c r="G89" s="3">
-        <v>367700</v>
+        <v>3291900</v>
       </c>
       <c r="H89" s="3">
-        <v>906400</v>
+        <v>381200</v>
       </c>
       <c r="I89" s="3">
-        <v>1271300</v>
+        <v>939700</v>
       </c>
       <c r="J89" s="3">
+        <v>1317900</v>
+      </c>
+      <c r="K89" s="3">
         <v>1916000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>891400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1688800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1399300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1229000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>548400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1827000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1171400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>472800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1886300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>251200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1223700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1352500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>2182700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-372700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1833000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1624300</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1312000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>298600</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6592,88 +6811,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-388200</v>
+        <v>-489300</v>
       </c>
       <c r="E91" s="3">
+        <v>-402500</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-398400</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-323500</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-369500</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-329000</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-341500</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-275500</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-358300</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-357300</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-700100</v>
+      </c>
+      <c r="O91" s="3">
+        <v>-669200</v>
+      </c>
+      <c r="P91" s="3">
+        <v>-792800</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>-579100</v>
+      </c>
+      <c r="R91" s="3">
+        <v>-566500</v>
+      </c>
+      <c r="S91" s="3">
+        <v>-717000</v>
+      </c>
+      <c r="T91" s="3">
+        <v>-868800</v>
+      </c>
+      <c r="U91" s="3">
+        <v>-680800</v>
+      </c>
+      <c r="V91" s="3">
+        <v>-616300</v>
+      </c>
+      <c r="W91" s="3">
+        <v>707600</v>
+      </c>
+      <c r="X91" s="3">
+        <v>-337700</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-384300</v>
       </c>
-      <c r="F91" s="3">
-        <v>-312100</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-356500</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-317400</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-329400</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-275500</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-358300</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-357300</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-700100</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-669200</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-792800</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-579100</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-566500</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-717000</v>
-      </c>
-      <c r="S91" s="3">
-        <v>-868800</v>
-      </c>
-      <c r="T91" s="3">
-        <v>-680800</v>
-      </c>
-      <c r="U91" s="3">
-        <v>-616300</v>
-      </c>
-      <c r="V91" s="3">
-        <v>707600</v>
-      </c>
-      <c r="W91" s="3">
-        <v>-337700</v>
-      </c>
-      <c r="X91" s="3">
-        <v>-384300</v>
-      </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-196300</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-458100</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-338400</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-537000</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6752,8 +6975,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6832,88 +7058,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-144600</v>
+        <v>41200</v>
       </c>
       <c r="E94" s="3">
-        <v>-791300</v>
+        <v>-149900</v>
       </c>
       <c r="F94" s="3">
-        <v>65200</v>
+        <v>-820300</v>
       </c>
       <c r="G94" s="3">
-        <v>-295100</v>
+        <v>67600</v>
       </c>
       <c r="H94" s="3">
-        <v>-398700</v>
+        <v>-306000</v>
       </c>
       <c r="I94" s="3">
-        <v>-656000</v>
+        <v>-413300</v>
       </c>
       <c r="J94" s="3">
+        <v>-680000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-98800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-618100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-901100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-925800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>186300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-718500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-156200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1012200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2595500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1897000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1369400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-914400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-579400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-717100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-761300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-186100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-967700</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-474900</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-603200</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6942,88 +7174,92 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-749900</v>
       </c>
       <c r="E96" s="3">
-        <v>-681100</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-706000</v>
       </c>
       <c r="G96" s="3">
-        <v>-518400</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-537500</v>
       </c>
       <c r="I96" s="3">
-        <v>-532300</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-551900</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-492400</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-582600</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-633600</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-636800</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-656300</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-631900</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-478400</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-478400</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
       <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-397500</v>
       </c>
-      <c r="AB96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7102,8 +7338,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7182,8 +7421,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7262,244 +7504,256 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1263200</v>
+        <v>-512300</v>
       </c>
       <c r="E100" s="3">
-        <v>-920200</v>
+        <v>-1309500</v>
       </c>
       <c r="F100" s="3">
-        <v>-1537000</v>
+        <v>-954000</v>
       </c>
       <c r="G100" s="3">
-        <v>-332500</v>
+        <v>-1593400</v>
       </c>
       <c r="H100" s="3">
-        <v>-1264800</v>
+        <v>-344700</v>
       </c>
       <c r="I100" s="3">
-        <v>-1221300</v>
+        <v>-1311100</v>
       </c>
       <c r="J100" s="3">
+        <v>-1266100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1451100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1099300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-343300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-752700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-130100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1862200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-68800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>202500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>2126800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-385900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>482800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-954700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1145700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1020400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-2791000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-939700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-1316100</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-841900</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>217200</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>117700</v>
+        <v>-339700</v>
       </c>
       <c r="E101" s="3">
-        <v>366800</v>
+        <v>122000</v>
       </c>
       <c r="F101" s="3">
-        <v>329300</v>
+        <v>380200</v>
       </c>
       <c r="G101" s="3">
-        <v>124500</v>
+        <v>341400</v>
       </c>
       <c r="H101" s="3">
-        <v>-60300</v>
+        <v>129100</v>
       </c>
       <c r="I101" s="3">
-        <v>-15300</v>
+        <v>-62500</v>
       </c>
       <c r="J101" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="K101" s="3">
         <v>233800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-59100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>6600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>131300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-293800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>148200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-82300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-72700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>23700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-142100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>124000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>45000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-335900</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>3300</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>100100</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>10700</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-65200</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>603600</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-59700</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1081400</v>
+        <v>1317200</v>
       </c>
       <c r="E102" s="3">
-        <v>647100</v>
+        <v>-1121100</v>
       </c>
       <c r="F102" s="3">
-        <v>2032900</v>
+        <v>670800</v>
       </c>
       <c r="G102" s="3">
-        <v>-135400</v>
+        <v>2107500</v>
       </c>
       <c r="H102" s="3">
-        <v>-817400</v>
+        <v>-140300</v>
       </c>
       <c r="I102" s="3">
-        <v>-621300</v>
+        <v>-847400</v>
       </c>
       <c r="J102" s="3">
+        <v>-644100</v>
+      </c>
+      <c r="K102" s="3">
         <v>600000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-885100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>451000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-148000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>991400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1884100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1519700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>289000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>27700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-404700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-643100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-600500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-708500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>448600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-3824900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>717900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-724700</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>598900</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-147200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MITSY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MITSY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>MITSY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -666,359 +666,371 @@
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="28" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="29" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>26553300</v>
+        <v>23575900</v>
       </c>
       <c r="E8" s="3">
-        <v>27219100</v>
+        <v>26047600</v>
       </c>
       <c r="F8" s="3">
-        <v>27345900</v>
+        <v>26700700</v>
       </c>
       <c r="G8" s="3">
-        <v>23285800</v>
+        <v>26825000</v>
       </c>
       <c r="H8" s="3">
-        <v>23323200</v>
+        <v>22842200</v>
       </c>
       <c r="I8" s="3">
-        <v>20272500</v>
+        <v>22879000</v>
       </c>
       <c r="J8" s="3">
+        <v>19886400</v>
+      </c>
+      <c r="K8" s="3">
         <v>19536500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>23476100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>14920200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>14487100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>15741000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>28986100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>16240900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>16340900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>14959400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>18687200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>16988500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>15394900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>14145800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>11201800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>11381200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>10959900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>10682200</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>10539300</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>10144100</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>8977900</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>23713800</v>
+        <v>20850700</v>
       </c>
       <c r="E9" s="3">
-        <v>24878300</v>
+        <v>23262100</v>
       </c>
       <c r="F9" s="3">
-        <v>25042200</v>
+        <v>24404400</v>
       </c>
       <c r="G9" s="3">
-        <v>20701600</v>
+        <v>24565200</v>
       </c>
       <c r="H9" s="3">
-        <v>21394900</v>
+        <v>20307300</v>
       </c>
       <c r="I9" s="3">
-        <v>18367500</v>
+        <v>20987400</v>
       </c>
       <c r="J9" s="3">
+        <v>18017600</v>
+      </c>
+      <c r="K9" s="3">
         <v>17565000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>21751400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>13451500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>13099400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>14122800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>27233000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>14307400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>14328700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>13042800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>16713400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>15012100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>13487900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>12160100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>9567400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>9519200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>9110700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>8879700</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>8666700</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>8528400</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>7541800</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2839600</v>
+        <v>2725200</v>
       </c>
       <c r="E10" s="3">
-        <v>2340900</v>
+        <v>2785500</v>
       </c>
       <c r="F10" s="3">
-        <v>2303700</v>
+        <v>2296300</v>
       </c>
       <c r="G10" s="3">
-        <v>2584200</v>
+        <v>2259800</v>
       </c>
       <c r="H10" s="3">
-        <v>1928300</v>
+        <v>2534900</v>
       </c>
       <c r="I10" s="3">
-        <v>1905000</v>
+        <v>1891600</v>
       </c>
       <c r="J10" s="3">
+        <v>1868700</v>
+      </c>
+      <c r="K10" s="3">
         <v>1971500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1724700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1468700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1387600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1618200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1753200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1933500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2012200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1916600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1973800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1976400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1906900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1985700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1634400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1861900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1849100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1802500</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1872600</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>1615700</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>1436100</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1048,8 +1060,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1131,8 +1144,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1214,91 +1230,97 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>100100</v>
+      </c>
+      <c r="E14" s="3">
+        <v>38000</v>
+      </c>
+      <c r="F14" s="3">
+        <v>76100</v>
+      </c>
+      <c r="G14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H14" s="3">
+        <v>34800</v>
+      </c>
+      <c r="I14" s="3">
+        <v>11400</v>
+      </c>
+      <c r="J14" s="3">
+        <v>163500</v>
+      </c>
+      <c r="K14" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="L14" s="3">
+        <v>90700</v>
+      </c>
+      <c r="M14" s="3">
+        <v>262100</v>
+      </c>
+      <c r="N14" s="3">
         <v>38700</v>
       </c>
-      <c r="E14" s="3">
-        <v>77600</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="O14" s="3">
+        <v>2600</v>
+      </c>
+      <c r="P14" s="3">
+        <v>874000</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>82100</v>
+      </c>
+      <c r="R14" s="3">
+        <v>8300</v>
+      </c>
+      <c r="S14" s="3">
+        <v>15500</v>
+      </c>
+      <c r="T14" s="3">
+        <v>225400</v>
+      </c>
+      <c r="U14" s="3">
+        <v>20700</v>
+      </c>
+      <c r="V14" s="3">
+        <v>3800</v>
+      </c>
+      <c r="W14" s="3">
+        <v>8900</v>
+      </c>
+      <c r="X14" s="3">
+        <v>59600</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>91800</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>67000</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>11600</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>48200</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
         <v>2000</v>
       </c>
-      <c r="G14" s="3">
-        <v>35500</v>
-      </c>
-      <c r="H14" s="3">
-        <v>11600</v>
-      </c>
-      <c r="I14" s="3">
-        <v>166600</v>
-      </c>
-      <c r="J14" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="K14" s="3">
-        <v>90700</v>
-      </c>
-      <c r="L14" s="3">
-        <v>262100</v>
-      </c>
-      <c r="M14" s="3">
-        <v>38700</v>
-      </c>
-      <c r="N14" s="3">
-        <v>2600</v>
-      </c>
-      <c r="O14" s="3">
-        <v>874000</v>
-      </c>
-      <c r="P14" s="3">
-        <v>82100</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>8300</v>
-      </c>
-      <c r="R14" s="3">
-        <v>15500</v>
-      </c>
-      <c r="S14" s="3">
-        <v>225400</v>
-      </c>
-      <c r="T14" s="3">
-        <v>20700</v>
-      </c>
-      <c r="U14" s="3">
-        <v>3800</v>
-      </c>
-      <c r="V14" s="3">
-        <v>8900</v>
-      </c>
-      <c r="W14" s="3">
-        <v>59600</v>
-      </c>
-      <c r="X14" s="3">
-        <v>91800</v>
-      </c>
-      <c r="Y14" s="3">
-        <v>67000</v>
-      </c>
-      <c r="Z14" s="3">
-        <v>11600</v>
-      </c>
-      <c r="AA14" s="3">
-        <v>48200</v>
-      </c>
-      <c r="AB14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="3">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1380,8 +1402,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1408,174 +1433,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>24791500</v>
+        <v>22371300</v>
       </c>
       <c r="E17" s="3">
-        <v>26036700</v>
+        <v>24319300</v>
       </c>
       <c r="F17" s="3">
-        <v>25993600</v>
+        <v>25540700</v>
       </c>
       <c r="G17" s="3">
-        <v>21951200</v>
+        <v>25498500</v>
       </c>
       <c r="H17" s="3">
-        <v>22291500</v>
+        <v>21533100</v>
       </c>
       <c r="I17" s="3">
-        <v>19491200</v>
+        <v>21866900</v>
       </c>
       <c r="J17" s="3">
+        <v>19119900</v>
+      </c>
+      <c r="K17" s="3">
         <v>18538500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>22976200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>14945300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>14328800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>15201000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>29074600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>15671900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>15581200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>14210600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>18422900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>16308000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>14800500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>13271100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>11108400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>10721200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>10139700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>9954000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>9794000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>9291500</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>8516000</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1761900</v>
+        <v>1204600</v>
       </c>
       <c r="E18" s="3">
-        <v>1182500</v>
+        <v>1728300</v>
       </c>
       <c r="F18" s="3">
-        <v>1352300</v>
+        <v>1160000</v>
       </c>
       <c r="G18" s="3">
-        <v>1334500</v>
+        <v>1326500</v>
       </c>
       <c r="H18" s="3">
-        <v>1031800</v>
+        <v>1309100</v>
       </c>
       <c r="I18" s="3">
-        <v>781300</v>
+        <v>1012100</v>
       </c>
       <c r="J18" s="3">
+        <v>766500</v>
+      </c>
+      <c r="K18" s="3">
         <v>998000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>500000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-25200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>158300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>540000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-88400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>569000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>759700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>748700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>264200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>680500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>594400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>874700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>93400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>660000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>820200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>728200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>745300</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>852600</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>461900</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1605,423 +1637,439 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1253700</v>
+        <v>1478400</v>
       </c>
       <c r="E20" s="3">
-        <v>1486300</v>
+        <v>1229800</v>
       </c>
       <c r="F20" s="3">
-        <v>1325800</v>
+        <v>1458000</v>
       </c>
       <c r="G20" s="3">
-        <v>1191800</v>
+        <v>1300500</v>
       </c>
       <c r="H20" s="3">
-        <v>1185000</v>
+        <v>1169100</v>
       </c>
       <c r="I20" s="3">
-        <v>1393500</v>
+        <v>1162400</v>
       </c>
       <c r="J20" s="3">
+        <v>1367000</v>
+      </c>
+      <c r="K20" s="3">
         <v>990700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>836800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>762100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>586800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>461600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>822000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1024200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>799300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1048100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>949200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1042200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>982200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>815900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>682600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>963900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>765600</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>808400</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>451900</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>662000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>545900</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3524900</v>
+        <v>3161500</v>
       </c>
       <c r="E21" s="3">
-        <v>3190900</v>
+        <v>3457800</v>
       </c>
       <c r="F21" s="3">
-        <v>3163100</v>
+        <v>3130100</v>
       </c>
       <c r="G21" s="3">
-        <v>3050800</v>
+        <v>3102900</v>
       </c>
       <c r="H21" s="3">
-        <v>2791100</v>
+        <v>2992700</v>
       </c>
       <c r="I21" s="3">
-        <v>2711600</v>
+        <v>2737900</v>
       </c>
       <c r="J21" s="3">
+        <v>2659900</v>
+      </c>
+      <c r="K21" s="3">
         <v>2531800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1857200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1229100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1290900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1539200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1356700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2193700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2100800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2351400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1709400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>2165200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1987800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>2086700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1189800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>2072700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>2035100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1965600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1607200</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1947400</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>1446600</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>244600</v>
+        <v>300300</v>
       </c>
       <c r="E22" s="3">
-        <v>170900</v>
+        <v>239900</v>
       </c>
       <c r="F22" s="3">
-        <v>120500</v>
+        <v>167700</v>
       </c>
       <c r="G22" s="3">
-        <v>84100</v>
+        <v>118300</v>
       </c>
       <c r="H22" s="3">
-        <v>73900</v>
+        <v>82500</v>
       </c>
       <c r="I22" s="3">
-        <v>84000</v>
+        <v>72500</v>
       </c>
       <c r="J22" s="3">
+        <v>82400</v>
+      </c>
+      <c r="K22" s="3">
         <v>105800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>77600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>92500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>100800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>131600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>178400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>205000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>212500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>217600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>194400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>191600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>191700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>172300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>149100</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>150300</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>156500</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>145100</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>140900</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>133700</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>118100</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2771000</v>
+        <v>2382700</v>
       </c>
       <c r="E23" s="3">
-        <v>2497900</v>
+        <v>2718300</v>
       </c>
       <c r="F23" s="3">
-        <v>2557500</v>
+        <v>2450300</v>
       </c>
       <c r="G23" s="3">
-        <v>2442200</v>
+        <v>2508800</v>
       </c>
       <c r="H23" s="3">
-        <v>2142900</v>
+        <v>2395700</v>
       </c>
       <c r="I23" s="3">
-        <v>2090800</v>
+        <v>2102100</v>
       </c>
       <c r="J23" s="3">
+        <v>2051000</v>
+      </c>
+      <c r="K23" s="3">
         <v>1883000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1259100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>644500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>644300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>870000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>555100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1388200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1346500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1579200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1019000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1531100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1384900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1518300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>626900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1473600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1429300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1391500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>1056300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>1380900</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>889700</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>519600</v>
+        <v>275400</v>
       </c>
       <c r="E24" s="3">
-        <v>530500</v>
+        <v>509700</v>
       </c>
       <c r="F24" s="3">
-        <v>438000</v>
+        <v>520400</v>
       </c>
       <c r="G24" s="3">
-        <v>331100</v>
+        <v>429700</v>
       </c>
       <c r="H24" s="3">
-        <v>430900</v>
+        <v>324800</v>
       </c>
       <c r="I24" s="3">
-        <v>492100</v>
+        <v>422700</v>
       </c>
       <c r="J24" s="3">
+        <v>482800</v>
+      </c>
+      <c r="K24" s="3">
         <v>413000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>260700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-32100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>250100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>301300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>88400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>409100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>280700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>343700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>397900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>289000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>367300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>372800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>201200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>158300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>234300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>338000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>320800</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>367600</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>316000</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2103,174 +2151,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2251400</v>
+        <v>2107300</v>
       </c>
       <c r="E26" s="3">
-        <v>1967400</v>
+        <v>2208500</v>
       </c>
       <c r="F26" s="3">
-        <v>2119400</v>
+        <v>1929900</v>
       </c>
       <c r="G26" s="3">
-        <v>2111200</v>
+        <v>2079100</v>
       </c>
       <c r="H26" s="3">
-        <v>1712000</v>
+        <v>2071000</v>
       </c>
       <c r="I26" s="3">
-        <v>1598700</v>
+        <v>1679400</v>
       </c>
       <c r="J26" s="3">
+        <v>1568200</v>
+      </c>
+      <c r="K26" s="3">
         <v>1470000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>998400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>676500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>394200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>568600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>466700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>979200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1065800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1235500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>621100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1242100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1017600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1145500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>425700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1315300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1195000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>1053500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>735500</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>1013300</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>573700</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2217400</v>
+        <v>2089800</v>
       </c>
       <c r="E27" s="3">
-        <v>1941200</v>
+        <v>2175100</v>
       </c>
       <c r="F27" s="3">
-        <v>2021300</v>
+        <v>1904200</v>
       </c>
       <c r="G27" s="3">
-        <v>2068800</v>
+        <v>1982800</v>
       </c>
       <c r="H27" s="3">
-        <v>1680400</v>
+        <v>2029400</v>
       </c>
       <c r="I27" s="3">
-        <v>1568200</v>
+        <v>1648400</v>
       </c>
       <c r="J27" s="3">
+        <v>1538400</v>
+      </c>
+      <c r="K27" s="3">
         <v>1405800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>967900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>651700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>369800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>533600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>497200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>919400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1002800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1145300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>616500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1200700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>970400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1076400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>376500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1252300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1153100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>1001200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>672400</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>961100</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>539600</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2352,8 +2409,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2435,8 +2495,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2518,8 +2581,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2601,174 +2667,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1253700</v>
+        <v>-1478400</v>
       </c>
       <c r="E32" s="3">
-        <v>-1486300</v>
+        <v>-1229800</v>
       </c>
       <c r="F32" s="3">
-        <v>-1325800</v>
+        <v>-1458000</v>
       </c>
       <c r="G32" s="3">
-        <v>-1191800</v>
+        <v>-1300500</v>
       </c>
       <c r="H32" s="3">
-        <v>-1185000</v>
+        <v>-1169100</v>
       </c>
       <c r="I32" s="3">
-        <v>-1393500</v>
+        <v>-1162400</v>
       </c>
       <c r="J32" s="3">
+        <v>-1367000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-990700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-836800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-762100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-586800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-461600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-822000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1024200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-799300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1048100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-949200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1042200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-982200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-815900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-682600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-963900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-765600</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-808400</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-451900</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-662000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-545900</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2217400</v>
+        <v>2089800</v>
       </c>
       <c r="E33" s="3">
-        <v>1941200</v>
+        <v>2175100</v>
       </c>
       <c r="F33" s="3">
-        <v>2021300</v>
+        <v>1904200</v>
       </c>
       <c r="G33" s="3">
-        <v>2068800</v>
+        <v>1982800</v>
       </c>
       <c r="H33" s="3">
-        <v>1680400</v>
+        <v>2029400</v>
       </c>
       <c r="I33" s="3">
-        <v>1568200</v>
+        <v>1648400</v>
       </c>
       <c r="J33" s="3">
+        <v>1538400</v>
+      </c>
+      <c r="K33" s="3">
         <v>1405800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>967900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>651700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>369800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>533600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>497200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>919400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1002800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1145300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>616500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1200700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>970400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1076400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>376500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1252300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>1153100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>1001200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>672400</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>961100</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>539600</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2850,179 +2925,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2217400</v>
+        <v>2089800</v>
       </c>
       <c r="E35" s="3">
-        <v>1941200</v>
+        <v>2175100</v>
       </c>
       <c r="F35" s="3">
-        <v>2021300</v>
+        <v>1904200</v>
       </c>
       <c r="G35" s="3">
-        <v>2068800</v>
+        <v>1982800</v>
       </c>
       <c r="H35" s="3">
-        <v>1680400</v>
+        <v>2029400</v>
       </c>
       <c r="I35" s="3">
-        <v>1568200</v>
+        <v>1648400</v>
       </c>
       <c r="J35" s="3">
+        <v>1538400</v>
+      </c>
+      <c r="K35" s="3">
         <v>1405800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>967900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>651700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>369800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>533600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>497200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>919400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1002800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1145300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>616500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1200700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>970400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1076400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>376500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1252300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>1153100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>1001200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>672400</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>961100</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>539600</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3052,8 +3136,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3083,755 +3168,783 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>9156800</v>
+        <v>10022800</v>
       </c>
       <c r="E41" s="3">
-        <v>7839600</v>
+        <v>8982300</v>
       </c>
       <c r="F41" s="3">
-        <v>8960600</v>
+        <v>7690300</v>
       </c>
       <c r="G41" s="3">
-        <v>8289800</v>
+        <v>8790000</v>
       </c>
       <c r="H41" s="3">
-        <v>6182400</v>
+        <v>8131900</v>
       </c>
       <c r="I41" s="3">
-        <v>6322700</v>
+        <v>6064600</v>
       </c>
       <c r="J41" s="3">
+        <v>6202300</v>
+      </c>
+      <c r="K41" s="3">
         <v>7170000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7537700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7172600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>8563400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>8883000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>9327400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>8619900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>10596300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>9047000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>9188200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>8998400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>9253700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>9683800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>10227700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>10936200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>10487600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>14312400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>13338900</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>14063500</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>13464600</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>7442100</v>
+        <v>5573200</v>
       </c>
       <c r="E42" s="3">
-        <v>9358200</v>
+        <v>7300300</v>
       </c>
       <c r="F42" s="3">
-        <v>8395400</v>
+        <v>9180000</v>
       </c>
       <c r="G42" s="3">
-        <v>7334300</v>
+        <v>8235500</v>
       </c>
       <c r="H42" s="3">
-        <v>6514000</v>
+        <v>7194600</v>
       </c>
       <c r="I42" s="3">
-        <v>5797500</v>
+        <v>6389900</v>
       </c>
       <c r="J42" s="3">
+        <v>5687100</v>
+      </c>
+      <c r="K42" s="3">
         <v>4151400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>3048600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>3152600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>3119600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>3626700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>4959100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>3002000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>2707200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>2753000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>2445800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>3255400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>2869100</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>2702600</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>2205000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>3030500</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>2627800</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>2445500</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>2374300</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>3915400</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>3786600</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>17526100</v>
+        <v>15798400</v>
       </c>
       <c r="E43" s="3">
-        <v>17792500</v>
+        <v>17192200</v>
       </c>
       <c r="F43" s="3">
-        <v>18305500</v>
+        <v>17453600</v>
       </c>
       <c r="G43" s="3">
-        <v>16928100</v>
+        <v>17956900</v>
       </c>
       <c r="H43" s="3">
-        <v>16960500</v>
+        <v>16605600</v>
       </c>
       <c r="I43" s="3">
-        <v>13834500</v>
+        <v>16637400</v>
       </c>
       <c r="J43" s="3">
+        <v>13571000</v>
+      </c>
+      <c r="K43" s="3">
         <v>13780400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>12847000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>12632200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>11204300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>12454600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>14294200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>16566500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>14911000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>15916900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>17338600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>17779600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>16564800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>15649400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>15964800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>17290200</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>16461900</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>14971500</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>15428500</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>15480700</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>13205700</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>7513100</v>
+        <v>6781300</v>
       </c>
       <c r="E44" s="3">
-        <v>7510500</v>
+        <v>7370000</v>
       </c>
       <c r="F44" s="3">
-        <v>7172900</v>
+        <v>7367500</v>
       </c>
       <c r="G44" s="3">
-        <v>6980000</v>
+        <v>7036300</v>
       </c>
       <c r="H44" s="3">
-        <v>6518500</v>
+        <v>6847100</v>
       </c>
       <c r="I44" s="3">
-        <v>5452000</v>
+        <v>6394300</v>
       </c>
       <c r="J44" s="3">
+        <v>5348100</v>
+      </c>
+      <c r="K44" s="3">
         <v>5282900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4361400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4413800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4318400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4554700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4879500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>6283100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>5890100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>5901000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>5839800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>5950700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>5828600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>5150500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>4978300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>5689100</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>5718500</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>5394500</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>5229200</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>5336700</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>4779400</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3171700</v>
+        <v>2739800</v>
       </c>
       <c r="E45" s="3">
-        <v>2758200</v>
+        <v>3111300</v>
       </c>
       <c r="F45" s="3">
-        <v>3015700</v>
+        <v>2705700</v>
       </c>
       <c r="G45" s="3">
-        <v>2485400</v>
+        <v>2958300</v>
       </c>
       <c r="H45" s="3">
-        <v>2490200</v>
+        <v>2438100</v>
       </c>
       <c r="I45" s="3">
-        <v>2319700</v>
+        <v>2442700</v>
       </c>
       <c r="J45" s="3">
+        <v>2275500</v>
+      </c>
+      <c r="K45" s="3">
         <v>2305600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2036200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2036500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2138300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2623100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2875800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2941600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2909800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3240200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3592300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3707100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3593900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>3510500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>4828700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>4005100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>3659200</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>3525900</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>3320100</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>3359700</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>2996000</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>44809700</v>
+        <v>40915500</v>
       </c>
       <c r="E46" s="3">
-        <v>45259000</v>
+        <v>43956200</v>
       </c>
       <c r="F46" s="3">
-        <v>45850200</v>
+        <v>44397000</v>
       </c>
       <c r="G46" s="3">
-        <v>42017600</v>
+        <v>44976800</v>
       </c>
       <c r="H46" s="3">
-        <v>38665500</v>
+        <v>41217300</v>
       </c>
       <c r="I46" s="3">
-        <v>33726400</v>
+        <v>37929000</v>
       </c>
       <c r="J46" s="3">
+        <v>33084000</v>
+      </c>
+      <c r="K46" s="3">
         <v>32690400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>29831000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>29407700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>29344000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>32142100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>36336100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>37413100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>37014400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>36858100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>38404700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>39691200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>38110200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>36696800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>38204500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>40951100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>38955000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>40649900</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>39691000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>42156100</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>38232400</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>47181300</v>
+        <v>47526900</v>
       </c>
       <c r="E47" s="3">
-        <v>49030400</v>
+        <v>46282600</v>
       </c>
       <c r="F47" s="3">
-        <v>47074800</v>
+        <v>48096500</v>
       </c>
       <c r="G47" s="3">
-        <v>45736200</v>
+        <v>46178200</v>
       </c>
       <c r="H47" s="3">
-        <v>41622300</v>
+        <v>44865000</v>
       </c>
       <c r="I47" s="3">
-        <v>40889100</v>
+        <v>40829500</v>
       </c>
       <c r="J47" s="3">
+        <v>40110200</v>
+      </c>
+      <c r="K47" s="3">
         <v>42558000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>38622100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>37234400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>38999900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>42508800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>43819300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>50414800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>49513500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>50532700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>53209900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>48784500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>49446400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>45792300</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>44126500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>45878300</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>44160100</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>42595400</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>41700800</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>39980100</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>35285000</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>18733400</v>
+        <v>18624200</v>
       </c>
       <c r="E48" s="3">
-        <v>19594700</v>
+        <v>18376600</v>
       </c>
       <c r="F48" s="3">
-        <v>19315200</v>
+        <v>19221500</v>
       </c>
       <c r="G48" s="3">
-        <v>18444600</v>
+        <v>18947300</v>
       </c>
       <c r="H48" s="3">
-        <v>17858100</v>
+        <v>18093300</v>
       </c>
       <c r="I48" s="3">
-        <v>17530000</v>
+        <v>17518000</v>
       </c>
       <c r="J48" s="3">
+        <v>17196100</v>
+      </c>
+      <c r="K48" s="3">
         <v>17942800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>17369900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>17576200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>18818600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>20573600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>20908000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>22359200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>21602500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>21397900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>20646900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>20363100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>19807500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>18394900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>17346400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>17820100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>18003700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>17903900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>17769100</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>18403400</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>16888800</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2075600</v>
+        <v>1999400</v>
       </c>
       <c r="E49" s="3">
-        <v>2175300</v>
+        <v>2036000</v>
       </c>
       <c r="F49" s="3">
-        <v>2070600</v>
+        <v>2133800</v>
       </c>
       <c r="G49" s="3">
-        <v>1859800</v>
+        <v>2031100</v>
       </c>
       <c r="H49" s="3">
-        <v>1677700</v>
+        <v>1824400</v>
       </c>
       <c r="I49" s="3">
-        <v>1559200</v>
+        <v>1645700</v>
       </c>
       <c r="J49" s="3">
+        <v>1529500</v>
+      </c>
+      <c r="K49" s="3">
         <v>1604900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1336900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1365200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1507700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1644000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1720500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2151300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2186600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2230100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1673000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1743600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1607100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1552500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1565800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1572800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1615000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1568500</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>1496200</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>1434400</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>1274500</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3913,8 +4026,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3996,91 +4112,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1632100</v>
+        <v>1830400</v>
       </c>
       <c r="E52" s="3">
-        <v>1818000</v>
+        <v>1601000</v>
       </c>
       <c r="F52" s="3">
-        <v>1721100</v>
+        <v>1783400</v>
       </c>
       <c r="G52" s="3">
-        <v>1627900</v>
+        <v>1688300</v>
       </c>
       <c r="H52" s="3">
-        <v>1514800</v>
+        <v>1596900</v>
       </c>
       <c r="I52" s="3">
-        <v>1507800</v>
+        <v>1486000</v>
       </c>
       <c r="J52" s="3">
+        <v>1479100</v>
+      </c>
+      <c r="K52" s="3">
         <v>1529400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1577500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1215900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>984000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1107500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1229500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>850800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>851500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>819700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>864500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1064200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1091400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1002900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>969100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1006800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1169300</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1357900</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>1356900</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>1432200</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>1287300</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4162,91 +4284,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>114432000</v>
+        <v>110896400</v>
       </c>
       <c r="E54" s="3">
-        <v>117877500</v>
+        <v>112252400</v>
       </c>
       <c r="F54" s="3">
-        <v>116031900</v>
+        <v>115632200</v>
       </c>
       <c r="G54" s="3">
-        <v>109686200</v>
+        <v>113821700</v>
       </c>
       <c r="H54" s="3">
-        <v>101338400</v>
+        <v>107596900</v>
       </c>
       <c r="I54" s="3">
-        <v>95212400</v>
+        <v>99408100</v>
       </c>
       <c r="J54" s="3">
+        <v>93398900</v>
+      </c>
+      <c r="K54" s="3">
         <v>96325500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>88737300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>86799500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>89654300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>97976000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>104013400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>113189100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>111168500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>111838500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>114798900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>111646700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>110062600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>103439500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>102212200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>107229100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>103903100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>104075500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>102014000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>103406200</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>92968100</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4276,8 +4404,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4307,506 +4436,525 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>12972500</v>
+        <v>10889900</v>
       </c>
       <c r="E57" s="3">
-        <v>12633100</v>
+        <v>12725400</v>
       </c>
       <c r="F57" s="3">
-        <v>13680100</v>
+        <v>12392400</v>
       </c>
       <c r="G57" s="3">
-        <v>12782700</v>
+        <v>13419500</v>
       </c>
       <c r="H57" s="3">
-        <v>12580500</v>
+        <v>12539300</v>
       </c>
       <c r="I57" s="3">
-        <v>10269900</v>
+        <v>12340900</v>
       </c>
       <c r="J57" s="3">
+        <v>10074300</v>
+      </c>
+      <c r="K57" s="3">
         <v>10382200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>9311600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>8737600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>8288800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>8744100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>10012600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>11770300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>10845800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>11551100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>12707100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>13217100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>12028200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>11694800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>11429100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>12147200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>11328200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>10649200</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>10676900</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>10787700</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>8887300</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>9171800</v>
+        <v>8963700</v>
       </c>
       <c r="E58" s="3">
-        <v>9535300</v>
+        <v>8997100</v>
       </c>
       <c r="F58" s="3">
-        <v>8452600</v>
+        <v>9353600</v>
       </c>
       <c r="G58" s="3">
-        <v>5086800</v>
+        <v>8291600</v>
       </c>
       <c r="H58" s="3">
-        <v>5381300</v>
+        <v>4990000</v>
       </c>
       <c r="I58" s="3">
-        <v>5876600</v>
+        <v>5278800</v>
       </c>
       <c r="J58" s="3">
+        <v>5764700</v>
+      </c>
+      <c r="K58" s="3">
         <v>5962600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5327600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5047300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5228200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>6306000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>6143800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>6544700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>7261900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>8192800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>7845800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>7553600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>6959600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>6294800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>6184300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>5829800</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>5542100</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>6488500</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>6146100</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>7075800</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>6388700</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>8447200</v>
+        <v>7303800</v>
       </c>
       <c r="E59" s="3">
-        <v>11880200</v>
+        <v>8286300</v>
       </c>
       <c r="F59" s="3">
-        <v>11789100</v>
+        <v>11653900</v>
       </c>
       <c r="G59" s="3">
-        <v>10123800</v>
+        <v>11564600</v>
       </c>
       <c r="H59" s="3">
-        <v>7278100</v>
+        <v>9931000</v>
       </c>
       <c r="I59" s="3">
-        <v>6613000</v>
+        <v>7139500</v>
       </c>
       <c r="J59" s="3">
+        <v>6487000</v>
+      </c>
+      <c r="K59" s="3">
         <v>5634600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4516000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4513900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4330200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4931400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>7640400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>6186700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5577100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>5804100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>5781200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>6905100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>6461800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>6059700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>6783400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>6711400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>5826600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>5765000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>5564600</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>5821700</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>4722300</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>30591400</v>
+        <v>27157500</v>
       </c>
       <c r="E60" s="3">
-        <v>34048500</v>
+        <v>30008800</v>
       </c>
       <c r="F60" s="3">
-        <v>33921700</v>
+        <v>33400000</v>
       </c>
       <c r="G60" s="3">
-        <v>27993400</v>
+        <v>33275600</v>
       </c>
       <c r="H60" s="3">
-        <v>25239900</v>
+        <v>27460200</v>
       </c>
       <c r="I60" s="3">
-        <v>22759500</v>
+        <v>24759100</v>
       </c>
       <c r="J60" s="3">
+        <v>22326000</v>
+      </c>
+      <c r="K60" s="3">
         <v>21979400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>19155200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>18298800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>17847200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>19981500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>23796800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>24501800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>23684800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>25548000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>26334000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>27675800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>25449500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>24049300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>24396900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>24688500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>22697000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>22902800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>22387600</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>23685200</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>19998200</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>28456900</v>
+        <v>27378700</v>
       </c>
       <c r="E61" s="3">
-        <v>28869100</v>
+        <v>27914900</v>
       </c>
       <c r="F61" s="3">
-        <v>29747000</v>
+        <v>28319200</v>
       </c>
       <c r="G61" s="3">
-        <v>30762500</v>
+        <v>29180400</v>
       </c>
       <c r="H61" s="3">
-        <v>30079800</v>
+        <v>30176600</v>
       </c>
       <c r="I61" s="3">
-        <v>28490400</v>
+        <v>29506900</v>
       </c>
       <c r="J61" s="3">
+        <v>27947800</v>
+      </c>
+      <c r="K61" s="3">
         <v>29338200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>28326800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>30052900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>32828400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>35839200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>37259400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>38486000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>38586200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>37173100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>36605000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>33965600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>33739000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>32441500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>32027200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>34920400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>35699100</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>37405600</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>37431100</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>38250500</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>36521200</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8880500</v>
+        <v>9025500</v>
       </c>
       <c r="E62" s="3">
-        <v>8933500</v>
+        <v>8711400</v>
       </c>
       <c r="F62" s="3">
-        <v>8405100</v>
+        <v>8763400</v>
       </c>
       <c r="G62" s="3">
-        <v>8334000</v>
+        <v>8245000</v>
       </c>
       <c r="H62" s="3">
-        <v>7465100</v>
+        <v>8175200</v>
       </c>
       <c r="I62" s="3">
-        <v>7275700</v>
+        <v>7322900</v>
       </c>
       <c r="J62" s="3">
+        <v>7137200</v>
+      </c>
+      <c r="K62" s="3">
         <v>7774600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7061100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>6336400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>6416800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>6975900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>7180400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>8188900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>7779100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>7906600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>8323600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>8124200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>8671300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>7800000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>7656300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>7269000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>7278500</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>7072300</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>6802600</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>6766700</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>5977300</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4888,8 +5036,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4971,8 +5122,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5054,91 +5208,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>69446900</v>
+        <v>64984900</v>
       </c>
       <c r="E66" s="3">
-        <v>73444600</v>
+        <v>68124100</v>
       </c>
       <c r="F66" s="3">
-        <v>73615500</v>
+        <v>72045700</v>
       </c>
       <c r="G66" s="3">
-        <v>68487900</v>
+        <v>72213300</v>
       </c>
       <c r="H66" s="3">
-        <v>64696800</v>
+        <v>67183400</v>
       </c>
       <c r="I66" s="3">
-        <v>60383900</v>
+        <v>63464500</v>
       </c>
       <c r="J66" s="3">
+        <v>59233700</v>
+      </c>
+      <c r="K66" s="3">
         <v>60973500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>56333100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>56483400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>59007300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>64958700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>70379700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>73667400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>72465300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>73055600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>73829900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>72239100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>70300400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>66567400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>66280800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>69332300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>68053100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>69759100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>68909600</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>71093200</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>64647500</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5168,8 +5328,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5251,8 +5412,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5334,8 +5498,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5417,8 +5584,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5500,91 +5670,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>34579100</v>
+        <v>34900100</v>
       </c>
       <c r="E72" s="3">
-        <v>32909800</v>
+        <v>33920500</v>
       </c>
       <c r="F72" s="3">
-        <v>31956800</v>
+        <v>32282900</v>
       </c>
       <c r="G72" s="3">
-        <v>30619800</v>
+        <v>31348100</v>
       </c>
       <c r="H72" s="3">
-        <v>28416700</v>
+        <v>30036600</v>
       </c>
       <c r="I72" s="3">
-        <v>27346100</v>
+        <v>27875400</v>
       </c>
       <c r="J72" s="3">
+        <v>26825200</v>
+      </c>
+      <c r="K72" s="3">
         <v>26541400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>25153800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>24743600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>26163700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>28238800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>29621800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>30109600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>30037200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>28668100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>29585900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>28566200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>22079200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>25998200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>26247000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>25531600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>24759700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>23601500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>22619600</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>21765100</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>21151000</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5666,8 +5842,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5749,8 +5928,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5832,91 +6014,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>44985100</v>
+        <v>45911500</v>
       </c>
       <c r="E76" s="3">
-        <v>44432800</v>
+        <v>44128300</v>
       </c>
       <c r="F76" s="3">
-        <v>42416300</v>
+        <v>43586500</v>
       </c>
       <c r="G76" s="3">
-        <v>41198300</v>
+        <v>41608400</v>
       </c>
       <c r="H76" s="3">
-        <v>36641600</v>
+        <v>40413500</v>
       </c>
       <c r="I76" s="3">
-        <v>34828500</v>
+        <v>35943600</v>
       </c>
       <c r="J76" s="3">
+        <v>34165100</v>
+      </c>
+      <c r="K76" s="3">
         <v>35352000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>32404300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>30316100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>30647000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>33017300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>33633700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>39521800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>38703100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>38782900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>40969000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>39407500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>39762100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>36872200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>35931400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>37896800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>35850000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>34316500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>33104400</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>32312900</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>28320500</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5998,179 +6186,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2217400</v>
+        <v>2089800</v>
       </c>
       <c r="E81" s="3">
-        <v>1941200</v>
+        <v>2175100</v>
       </c>
       <c r="F81" s="3">
-        <v>2021300</v>
+        <v>1904200</v>
       </c>
       <c r="G81" s="3">
-        <v>2068800</v>
+        <v>1982800</v>
       </c>
       <c r="H81" s="3">
-        <v>1680400</v>
+        <v>2029400</v>
       </c>
       <c r="I81" s="3">
-        <v>1568200</v>
+        <v>1648400</v>
       </c>
       <c r="J81" s="3">
+        <v>1538400</v>
+      </c>
+      <c r="K81" s="3">
         <v>1405800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>967900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>651700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>369800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>533600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>497200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>919400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1002800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1145300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>616500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1200700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>970400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1076400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>376500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1252300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>1153100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>1001200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>672400</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>961100</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>539600</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6200,91 +6397,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>509300</v>
+        <v>478500</v>
       </c>
       <c r="E83" s="3">
-        <v>522100</v>
+        <v>499600</v>
       </c>
       <c r="F83" s="3">
-        <v>485100</v>
+        <v>512200</v>
       </c>
       <c r="G83" s="3">
-        <v>524400</v>
+        <v>475900</v>
       </c>
       <c r="H83" s="3">
-        <v>574300</v>
+        <v>514500</v>
       </c>
       <c r="I83" s="3">
-        <v>536700</v>
+        <v>563400</v>
       </c>
       <c r="J83" s="3">
+        <v>526500</v>
+      </c>
+      <c r="K83" s="3">
         <v>543100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>520500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>492200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>545800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>537500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>623100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>600400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>541700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>554500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>496000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>442500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>411100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>396100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>413800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>448800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>449300</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>429100</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>410100</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>432800</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>438700</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6366,8 +6567,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6449,8 +6653,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6532,8 +6739,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6615,8 +6825,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6698,91 +6911,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2128000</v>
+        <v>3227500</v>
       </c>
       <c r="E89" s="3">
-        <v>216300</v>
+        <v>2087500</v>
       </c>
       <c r="F89" s="3">
-        <v>2064900</v>
+        <v>212200</v>
       </c>
       <c r="G89" s="3">
-        <v>3291900</v>
+        <v>2025600</v>
       </c>
       <c r="H89" s="3">
-        <v>381200</v>
+        <v>3229200</v>
       </c>
       <c r="I89" s="3">
-        <v>939700</v>
+        <v>374000</v>
       </c>
       <c r="J89" s="3">
+        <v>921800</v>
+      </c>
+      <c r="K89" s="3">
         <v>1317900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1916000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>891400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1688800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1399300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1229000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>548400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1827000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1171400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>472800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1886300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>251200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1223700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1352500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>2182700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-372700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1833000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1624300</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>1312000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>298600</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6812,91 +7031,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-489300</v>
+        <v>-14514000</v>
       </c>
       <c r="E91" s="3">
-        <v>-402500</v>
+        <v>-66573000</v>
       </c>
       <c r="F91" s="3">
-        <v>-398400</v>
+        <v>-54756000</v>
       </c>
       <c r="G91" s="3">
-        <v>-323500</v>
+        <v>-54200000</v>
       </c>
       <c r="H91" s="3">
-        <v>-369500</v>
+        <v>-44019000</v>
       </c>
       <c r="I91" s="3">
-        <v>-329000</v>
+        <v>-50278000</v>
       </c>
       <c r="J91" s="3">
+        <v>-44762000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-341500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-275500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-358300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-357300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-700100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-669200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-792800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-579100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-566500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-717000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-868800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-680800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-616300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>707600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-337700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-384300</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-196300</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-458100</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-338400</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-537000</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6978,8 +7201,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7061,91 +7287,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>41200</v>
+        <v>-374500</v>
       </c>
       <c r="E94" s="3">
-        <v>-149900</v>
+        <v>40400</v>
       </c>
       <c r="F94" s="3">
-        <v>-820300</v>
+        <v>-147000</v>
       </c>
       <c r="G94" s="3">
-        <v>67600</v>
+        <v>-804700</v>
       </c>
       <c r="H94" s="3">
-        <v>-306000</v>
+        <v>66300</v>
       </c>
       <c r="I94" s="3">
-        <v>-413300</v>
+        <v>-300100</v>
       </c>
       <c r="J94" s="3">
+        <v>-405500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-680000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-98800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-618100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-901100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-925800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>186300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-718500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-156200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1012200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2595500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1897000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1369400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-914400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-579400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-717100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-761300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-186100</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-967700</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-474900</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-603200</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7175,91 +7407,95 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-749900</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-735600</v>
       </c>
       <c r="F96" s="3">
-        <v>-706000</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-692600</v>
       </c>
       <c r="H96" s="3">
-        <v>-537500</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-527200</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-551900</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-492400</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-582600</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-633600</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-636800</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-656300</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-631900</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-478400</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-478400</v>
       </c>
-      <c r="AA96" s="3">
-        <v>0</v>
-      </c>
       <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-397500</v>
       </c>
-      <c r="AC96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7341,8 +7577,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7424,8 +7663,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7507,253 +7749,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-512300</v>
+        <v>-1853200</v>
       </c>
       <c r="E100" s="3">
-        <v>-1309500</v>
+        <v>-502500</v>
       </c>
       <c r="F100" s="3">
-        <v>-954000</v>
+        <v>-1284600</v>
       </c>
       <c r="G100" s="3">
-        <v>-1593400</v>
+        <v>-935800</v>
       </c>
       <c r="H100" s="3">
-        <v>-344700</v>
+        <v>-1563000</v>
       </c>
       <c r="I100" s="3">
-        <v>-1311100</v>
+        <v>-338100</v>
       </c>
       <c r="J100" s="3">
+        <v>-1286200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1266100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1451100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1099300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-343300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-752700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-130100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1862200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-68800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>202500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>2126800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-385900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>482800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-954700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1145700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1020400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-2791000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-939700</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-1316100</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-841900</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>217200</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-339700</v>
+        <v>40700</v>
       </c>
       <c r="E101" s="3">
-        <v>122000</v>
+        <v>-333200</v>
       </c>
       <c r="F101" s="3">
-        <v>380200</v>
+        <v>119700</v>
       </c>
       <c r="G101" s="3">
-        <v>341400</v>
+        <v>373000</v>
       </c>
       <c r="H101" s="3">
-        <v>129100</v>
+        <v>334900</v>
       </c>
       <c r="I101" s="3">
-        <v>-62500</v>
+        <v>126600</v>
       </c>
       <c r="J101" s="3">
+        <v>-61400</v>
+      </c>
+      <c r="K101" s="3">
         <v>-15900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>233800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-59100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>6600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>131300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-293800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>148200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-82300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-72700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>23700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-142100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>124000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>45000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-335900</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>3300</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>100100</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>10700</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-65200</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>603600</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-59700</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1317200</v>
+        <v>1040500</v>
       </c>
       <c r="E102" s="3">
-        <v>-1121100</v>
+        <v>1292100</v>
       </c>
       <c r="F102" s="3">
-        <v>670800</v>
+        <v>-1099700</v>
       </c>
       <c r="G102" s="3">
-        <v>2107500</v>
+        <v>658000</v>
       </c>
       <c r="H102" s="3">
-        <v>-140300</v>
+        <v>2067300</v>
       </c>
       <c r="I102" s="3">
-        <v>-847400</v>
+        <v>-137700</v>
       </c>
       <c r="J102" s="3">
+        <v>-831200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-644100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>600000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-885100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>451000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-148000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>991400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1884100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1519700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>289000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>27700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-404700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-643100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-600500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-708500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>448600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-3824900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>717900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-724700</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>598900</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-147200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MITSY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MITSY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>MITSY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,372 +665,384 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="29" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="30" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>23575900</v>
+        <v>21634500</v>
       </c>
       <c r="E8" s="3">
-        <v>26047600</v>
+        <v>22464100</v>
       </c>
       <c r="F8" s="3">
-        <v>26700700</v>
+        <v>24819200</v>
       </c>
       <c r="G8" s="3">
-        <v>26825000</v>
+        <v>25441600</v>
       </c>
       <c r="H8" s="3">
-        <v>22842200</v>
+        <v>25560000</v>
       </c>
       <c r="I8" s="3">
-        <v>22879000</v>
+        <v>21765100</v>
       </c>
       <c r="J8" s="3">
+        <v>21800100</v>
+      </c>
+      <c r="K8" s="3">
         <v>19886400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>19536500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>23476100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>14920200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>14487100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>15741000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>28986100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>16240900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>16340900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>14959400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>18687200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>16988500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>15394900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>14145800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>11201800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>11381200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>10959900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>10682200</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>10539300</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>10144100</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>8977900</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>20850700</v>
+        <v>19568500</v>
       </c>
       <c r="E9" s="3">
-        <v>23262100</v>
+        <v>19867400</v>
       </c>
       <c r="F9" s="3">
-        <v>24404400</v>
+        <v>22165100</v>
       </c>
       <c r="G9" s="3">
-        <v>24565200</v>
+        <v>23253600</v>
       </c>
       <c r="H9" s="3">
-        <v>20307300</v>
+        <v>23406800</v>
       </c>
       <c r="I9" s="3">
-        <v>20987400</v>
+        <v>19349600</v>
       </c>
       <c r="J9" s="3">
+        <v>19997700</v>
+      </c>
+      <c r="K9" s="3">
         <v>18017600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>17565000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>21751400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>13451500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>13099400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>14122800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>27233000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>14307400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>14328700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>13042800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>16713400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>15012100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>13487900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>12160100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>9567400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>9519200</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>9110700</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>8879700</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>8666700</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>8528400</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>7541800</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2725200</v>
+        <v>2066000</v>
       </c>
       <c r="E10" s="3">
-        <v>2785500</v>
+        <v>2596700</v>
       </c>
       <c r="F10" s="3">
-        <v>2296300</v>
+        <v>2654100</v>
       </c>
       <c r="G10" s="3">
-        <v>2259800</v>
+        <v>2188000</v>
       </c>
       <c r="H10" s="3">
-        <v>2534900</v>
+        <v>2153300</v>
       </c>
       <c r="I10" s="3">
-        <v>1891600</v>
+        <v>2415400</v>
       </c>
       <c r="J10" s="3">
+        <v>1802400</v>
+      </c>
+      <c r="K10" s="3">
         <v>1868700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1971500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1724700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1468700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1387600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1618200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1753200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1933500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2012200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1916600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1973800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1976400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1906900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1985700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1634400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1861900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1849100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1802500</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>1872600</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>1615700</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>1436100</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1061,8 +1073,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1147,8 +1160,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1233,94 +1249,100 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>100100</v>
+        <v>17300</v>
       </c>
       <c r="E14" s="3">
-        <v>38000</v>
+        <v>95400</v>
       </c>
       <c r="F14" s="3">
-        <v>76100</v>
+        <v>36200</v>
       </c>
       <c r="G14" s="3">
+        <v>72500</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I14" s="3">
+        <v>33200</v>
+      </c>
+      <c r="J14" s="3">
+        <v>10800</v>
+      </c>
+      <c r="K14" s="3">
+        <v>163500</v>
+      </c>
+      <c r="L14" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="M14" s="3">
+        <v>90700</v>
+      </c>
+      <c r="N14" s="3">
+        <v>262100</v>
+      </c>
+      <c r="O14" s="3">
+        <v>38700</v>
+      </c>
+      <c r="P14" s="3">
+        <v>2600</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>874000</v>
+      </c>
+      <c r="R14" s="3">
+        <v>82100</v>
+      </c>
+      <c r="S14" s="3">
+        <v>8300</v>
+      </c>
+      <c r="T14" s="3">
+        <v>15500</v>
+      </c>
+      <c r="U14" s="3">
+        <v>225400</v>
+      </c>
+      <c r="V14" s="3">
+        <v>20700</v>
+      </c>
+      <c r="W14" s="3">
+        <v>3800</v>
+      </c>
+      <c r="X14" s="3">
+        <v>8900</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>59600</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>91800</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>67000</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>11600</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>48200</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="3">
         <v>2000</v>
       </c>
-      <c r="H14" s="3">
-        <v>34800</v>
-      </c>
-      <c r="I14" s="3">
-        <v>11400</v>
-      </c>
-      <c r="J14" s="3">
-        <v>163500</v>
-      </c>
-      <c r="K14" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="L14" s="3">
-        <v>90700</v>
-      </c>
-      <c r="M14" s="3">
-        <v>262100</v>
-      </c>
-      <c r="N14" s="3">
-        <v>38700</v>
-      </c>
-      <c r="O14" s="3">
-        <v>2600</v>
-      </c>
-      <c r="P14" s="3">
-        <v>874000</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>82100</v>
-      </c>
-      <c r="R14" s="3">
-        <v>8300</v>
-      </c>
-      <c r="S14" s="3">
-        <v>15500</v>
-      </c>
-      <c r="T14" s="3">
-        <v>225400</v>
-      </c>
-      <c r="U14" s="3">
-        <v>20700</v>
-      </c>
-      <c r="V14" s="3">
-        <v>3800</v>
-      </c>
-      <c r="W14" s="3">
-        <v>8900</v>
-      </c>
-      <c r="X14" s="3">
-        <v>59600</v>
-      </c>
-      <c r="Y14" s="3">
-        <v>91800</v>
-      </c>
-      <c r="Z14" s="3">
-        <v>67000</v>
-      </c>
-      <c r="AA14" s="3">
-        <v>11600</v>
-      </c>
-      <c r="AB14" s="3">
-        <v>48200</v>
-      </c>
-      <c r="AC14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="3">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1405,8 +1427,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1434,180 +1459,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>22371300</v>
+        <v>20508500</v>
       </c>
       <c r="E17" s="3">
-        <v>24319300</v>
+        <v>21316300</v>
       </c>
       <c r="F17" s="3">
-        <v>25540700</v>
+        <v>23172400</v>
       </c>
       <c r="G17" s="3">
-        <v>25498500</v>
+        <v>24336300</v>
       </c>
       <c r="H17" s="3">
-        <v>21533100</v>
+        <v>24296100</v>
       </c>
       <c r="I17" s="3">
-        <v>21866900</v>
+        <v>20517700</v>
       </c>
       <c r="J17" s="3">
+        <v>20835700</v>
+      </c>
+      <c r="K17" s="3">
         <v>19119900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>18538500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>22976200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>14945300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>14328800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>15201000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>29074600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>15671900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>15581200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>14210600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>18422900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>16308000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>14800500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>13271100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>11108400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>10721200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>10139700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>9954000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>9794000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>9291500</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>8516000</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1204600</v>
+        <v>1126100</v>
       </c>
       <c r="E18" s="3">
-        <v>1728300</v>
+        <v>1147800</v>
       </c>
       <c r="F18" s="3">
-        <v>1160000</v>
+        <v>1646800</v>
       </c>
       <c r="G18" s="3">
-        <v>1326500</v>
+        <v>1105300</v>
       </c>
       <c r="H18" s="3">
-        <v>1309100</v>
+        <v>1264000</v>
       </c>
       <c r="I18" s="3">
-        <v>1012100</v>
+        <v>1247400</v>
       </c>
       <c r="J18" s="3">
+        <v>964400</v>
+      </c>
+      <c r="K18" s="3">
         <v>766500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>998000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>500000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-25200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>158300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>540000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-88400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>569000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>759700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>748700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>264200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>680500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>594400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>874700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>93400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>660000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>820200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>728200</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>745300</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>852600</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>461900</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1638,438 +1670,454 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1478400</v>
+        <v>1281200</v>
       </c>
       <c r="E20" s="3">
-        <v>1229800</v>
+        <v>1408700</v>
       </c>
       <c r="F20" s="3">
-        <v>1458000</v>
+        <v>1171900</v>
       </c>
       <c r="G20" s="3">
-        <v>1300500</v>
+        <v>1389300</v>
       </c>
       <c r="H20" s="3">
-        <v>1169100</v>
+        <v>1239200</v>
       </c>
       <c r="I20" s="3">
-        <v>1162400</v>
+        <v>1114000</v>
       </c>
       <c r="J20" s="3">
+        <v>1107600</v>
+      </c>
+      <c r="K20" s="3">
         <v>1367000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>990700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>836800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>762100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>586800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>461600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>822000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1024200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>799300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1048100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>949200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1042200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>982200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>815900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>682600</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>963900</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>765600</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>808400</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>451900</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>662000</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>545900</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3161500</v>
+        <v>2883400</v>
       </c>
       <c r="E21" s="3">
-        <v>3457800</v>
+        <v>3012400</v>
       </c>
       <c r="F21" s="3">
-        <v>3130100</v>
+        <v>3294700</v>
       </c>
       <c r="G21" s="3">
-        <v>3102900</v>
+        <v>2982500</v>
       </c>
       <c r="H21" s="3">
-        <v>2992700</v>
+        <v>2956600</v>
       </c>
       <c r="I21" s="3">
-        <v>2737900</v>
+        <v>2851600</v>
       </c>
       <c r="J21" s="3">
+        <v>2608800</v>
+      </c>
+      <c r="K21" s="3">
         <v>2659900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2531800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1857200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1229100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1290900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1539200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1356700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2193700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2100800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2351400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1709400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>2165200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1987800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>2086700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1189800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>2072700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>2035100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1965600</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1607200</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>1947400</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>1446600</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>300300</v>
+        <v>265100</v>
       </c>
       <c r="E22" s="3">
-        <v>239900</v>
+        <v>286100</v>
       </c>
       <c r="F22" s="3">
-        <v>167700</v>
+        <v>228600</v>
       </c>
       <c r="G22" s="3">
-        <v>118300</v>
+        <v>159800</v>
       </c>
       <c r="H22" s="3">
-        <v>82500</v>
+        <v>112700</v>
       </c>
       <c r="I22" s="3">
-        <v>72500</v>
+        <v>78600</v>
       </c>
       <c r="J22" s="3">
+        <v>69100</v>
+      </c>
+      <c r="K22" s="3">
         <v>82400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>105800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>77600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>92500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>100800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>131600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>178400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>205000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>212500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>217600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>194400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>191600</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>191700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>172300</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>149100</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>150300</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>156500</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>145100</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>140900</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>133700</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>118100</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2382700</v>
+        <v>2142200</v>
       </c>
       <c r="E23" s="3">
-        <v>2718300</v>
+        <v>2270400</v>
       </c>
       <c r="F23" s="3">
-        <v>2450300</v>
+        <v>2590100</v>
       </c>
       <c r="G23" s="3">
-        <v>2508800</v>
+        <v>2334800</v>
       </c>
       <c r="H23" s="3">
-        <v>2395700</v>
+        <v>2390500</v>
       </c>
       <c r="I23" s="3">
-        <v>2102100</v>
+        <v>2282700</v>
       </c>
       <c r="J23" s="3">
+        <v>2002900</v>
+      </c>
+      <c r="K23" s="3">
         <v>2051000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1883000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1259100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>644500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>644300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>870000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>555100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1388200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1346500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1579200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1019000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1531100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1384900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1518300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>626900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1473600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1429300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>1391500</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>1056300</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>1380900</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>889700</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>275400</v>
+        <v>365200</v>
       </c>
       <c r="E24" s="3">
-        <v>509700</v>
+        <v>262400</v>
       </c>
       <c r="F24" s="3">
-        <v>520400</v>
+        <v>485700</v>
       </c>
       <c r="G24" s="3">
-        <v>429700</v>
+        <v>495800</v>
       </c>
       <c r="H24" s="3">
-        <v>324800</v>
+        <v>409400</v>
       </c>
       <c r="I24" s="3">
-        <v>422700</v>
+        <v>309400</v>
       </c>
       <c r="J24" s="3">
+        <v>402700</v>
+      </c>
+      <c r="K24" s="3">
         <v>482800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>413000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>260700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-32100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>250100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>301300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>88400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>409100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>280700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>343700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>397900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>289000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>367300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>372800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>201200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>158300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>234300</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>338000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>320800</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>367600</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>316000</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2154,180 +2202,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2107300</v>
+        <v>1777000</v>
       </c>
       <c r="E26" s="3">
-        <v>2208500</v>
+        <v>2008000</v>
       </c>
       <c r="F26" s="3">
-        <v>1929900</v>
+        <v>2104400</v>
       </c>
       <c r="G26" s="3">
-        <v>2079100</v>
+        <v>1838900</v>
       </c>
       <c r="H26" s="3">
-        <v>2071000</v>
+        <v>1981000</v>
       </c>
       <c r="I26" s="3">
-        <v>1679400</v>
+        <v>1973300</v>
       </c>
       <c r="J26" s="3">
+        <v>1600200</v>
+      </c>
+      <c r="K26" s="3">
         <v>1568200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1470000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>998400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>676500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>394200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>568600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>466700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>979200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1065800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1235500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>621100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1242100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1017600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1145500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>425700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1315300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>1195000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>1053500</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>735500</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>1013300</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>573700</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2089800</v>
+        <v>1737100</v>
       </c>
       <c r="E27" s="3">
-        <v>2175100</v>
+        <v>1991200</v>
       </c>
       <c r="F27" s="3">
-        <v>1904200</v>
+        <v>2072600</v>
       </c>
       <c r="G27" s="3">
-        <v>1982800</v>
+        <v>1814400</v>
       </c>
       <c r="H27" s="3">
-        <v>2029400</v>
+        <v>1889300</v>
       </c>
       <c r="I27" s="3">
-        <v>1648400</v>
+        <v>1933700</v>
       </c>
       <c r="J27" s="3">
+        <v>1570700</v>
+      </c>
+      <c r="K27" s="3">
         <v>1538400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1405800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>967900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>651700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>369800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>533600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>497200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>919400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1002800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1145300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>616500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1200700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>970400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1076400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>376500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1252300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>1153100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>1001200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>672400</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>961100</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>539600</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2412,8 +2469,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2498,8 +2558,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2584,8 +2647,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2670,180 +2736,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1478400</v>
+        <v>-1281200</v>
       </c>
       <c r="E32" s="3">
-        <v>-1229800</v>
+        <v>-1408700</v>
       </c>
       <c r="F32" s="3">
-        <v>-1458000</v>
+        <v>-1171900</v>
       </c>
       <c r="G32" s="3">
-        <v>-1300500</v>
+        <v>-1389300</v>
       </c>
       <c r="H32" s="3">
-        <v>-1169100</v>
+        <v>-1239200</v>
       </c>
       <c r="I32" s="3">
-        <v>-1162400</v>
+        <v>-1114000</v>
       </c>
       <c r="J32" s="3">
+        <v>-1107600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1367000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-990700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-836800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-762100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-586800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-461600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-822000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1024200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-799300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1048100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-949200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1042200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-982200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-815900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-682600</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-963900</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-765600</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-808400</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-451900</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-662000</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-545900</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2089800</v>
+        <v>1737100</v>
       </c>
       <c r="E33" s="3">
-        <v>2175100</v>
+        <v>1991200</v>
       </c>
       <c r="F33" s="3">
-        <v>1904200</v>
+        <v>2072600</v>
       </c>
       <c r="G33" s="3">
-        <v>1982800</v>
+        <v>1814400</v>
       </c>
       <c r="H33" s="3">
-        <v>2029400</v>
+        <v>1889300</v>
       </c>
       <c r="I33" s="3">
-        <v>1648400</v>
+        <v>1933700</v>
       </c>
       <c r="J33" s="3">
+        <v>1570700</v>
+      </c>
+      <c r="K33" s="3">
         <v>1538400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1405800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>967900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>651700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>369800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>533600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>497200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>919400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1002800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1145300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>616500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1200700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>970400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1076400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>376500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>1252300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>1153100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>1001200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>672400</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>961100</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>539600</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2928,185 +3003,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2089800</v>
+        <v>1737100</v>
       </c>
       <c r="E35" s="3">
-        <v>2175100</v>
+        <v>1991200</v>
       </c>
       <c r="F35" s="3">
-        <v>1904200</v>
+        <v>2072600</v>
       </c>
       <c r="G35" s="3">
-        <v>1982800</v>
+        <v>1814400</v>
       </c>
       <c r="H35" s="3">
-        <v>2029400</v>
+        <v>1889300</v>
       </c>
       <c r="I35" s="3">
-        <v>1648400</v>
+        <v>1933700</v>
       </c>
       <c r="J35" s="3">
+        <v>1570700</v>
+      </c>
+      <c r="K35" s="3">
         <v>1538400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1405800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>967900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>651700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>369800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>533600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>497200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>919400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1002800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1145300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>616500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1200700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>970400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1076400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>376500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>1252300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>1153100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>1001200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>672400</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>961100</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>539600</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3137,8 +3221,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3169,782 +3254,810 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>10022800</v>
+        <v>8802600</v>
       </c>
       <c r="E41" s="3">
-        <v>8982300</v>
+        <v>9550200</v>
       </c>
       <c r="F41" s="3">
-        <v>7690300</v>
+        <v>8558800</v>
       </c>
       <c r="G41" s="3">
-        <v>8790000</v>
+        <v>7327600</v>
       </c>
       <c r="H41" s="3">
-        <v>8131900</v>
+        <v>8375500</v>
       </c>
       <c r="I41" s="3">
-        <v>6064600</v>
+        <v>7748500</v>
       </c>
       <c r="J41" s="3">
+        <v>5778600</v>
+      </c>
+      <c r="K41" s="3">
         <v>6202300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7170000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7537700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>7172600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>8563400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>8883000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>9327400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>8619900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>10596300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>9047000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>9188200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>8998400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>9253700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>9683800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>10227700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>10936200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>10487600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>14312400</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>13338900</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>14063500</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>13464600</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>5573200</v>
+        <v>6279500</v>
       </c>
       <c r="E42" s="3">
-        <v>7300300</v>
+        <v>5310400</v>
       </c>
       <c r="F42" s="3">
-        <v>9180000</v>
+        <v>6956000</v>
       </c>
       <c r="G42" s="3">
-        <v>8235500</v>
+        <v>8747100</v>
       </c>
       <c r="H42" s="3">
-        <v>7194600</v>
+        <v>7847100</v>
       </c>
       <c r="I42" s="3">
-        <v>6389900</v>
+        <v>6855300</v>
       </c>
       <c r="J42" s="3">
+        <v>6088600</v>
+      </c>
+      <c r="K42" s="3">
         <v>5687100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>4151400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>3048600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>3152600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>3119600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>3626700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>4959100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>3002000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>2707200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>2753000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>2445800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>3255400</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>2869100</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>2702600</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>2205000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>3030500</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>2627800</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>2445500</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>2374300</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>3915400</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>3786600</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>15798400</v>
+        <v>14515900</v>
       </c>
       <c r="E43" s="3">
-        <v>17192200</v>
+        <v>15053400</v>
       </c>
       <c r="F43" s="3">
-        <v>17453600</v>
+        <v>16381500</v>
       </c>
       <c r="G43" s="3">
-        <v>17956900</v>
+        <v>16630500</v>
       </c>
       <c r="H43" s="3">
-        <v>16605600</v>
+        <v>17110100</v>
       </c>
       <c r="I43" s="3">
-        <v>16637400</v>
+        <v>15822600</v>
       </c>
       <c r="J43" s="3">
+        <v>15852800</v>
+      </c>
+      <c r="K43" s="3">
         <v>13571000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>13780400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>12847000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>12632200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>11204300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>12454600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>14294200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>16566500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>14911000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>15916900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>17338600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>17779600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>16564800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>15649400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>15964800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>17290200</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>16461900</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>14971500</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>15428500</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>15480700</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>13205700</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>6781300</v>
+        <v>6603300</v>
       </c>
       <c r="E44" s="3">
-        <v>7370000</v>
+        <v>6461500</v>
       </c>
       <c r="F44" s="3">
-        <v>7367500</v>
+        <v>7022500</v>
       </c>
       <c r="G44" s="3">
-        <v>7036300</v>
+        <v>7020000</v>
       </c>
       <c r="H44" s="3">
-        <v>6847100</v>
+        <v>6704400</v>
       </c>
       <c r="I44" s="3">
-        <v>6394300</v>
+        <v>6524200</v>
       </c>
       <c r="J44" s="3">
+        <v>6092800</v>
+      </c>
+      <c r="K44" s="3">
         <v>5348100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5282900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4361400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4413800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4318400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4554700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4879500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>6283100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>5890100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>5901000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>5839800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>5950700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>5828600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>5150500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>4978300</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>5689100</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>5718500</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>5394500</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>5229200</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>5336700</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>4779400</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2739800</v>
+        <v>4136900</v>
       </c>
       <c r="E45" s="3">
-        <v>3111300</v>
+        <v>2610600</v>
       </c>
       <c r="F45" s="3">
-        <v>2705700</v>
+        <v>2964500</v>
       </c>
       <c r="G45" s="3">
-        <v>2958300</v>
+        <v>2578100</v>
       </c>
       <c r="H45" s="3">
-        <v>2438100</v>
+        <v>2818800</v>
       </c>
       <c r="I45" s="3">
-        <v>2442700</v>
+        <v>2323100</v>
       </c>
       <c r="J45" s="3">
+        <v>2327600</v>
+      </c>
+      <c r="K45" s="3">
         <v>2275500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2305600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2036200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2036500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2138300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2623100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2875800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2941600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2909800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3240200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3592300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3707100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>3593900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>3510500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>4828700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>4005100</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>3659200</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>3525900</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>3320100</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>3359700</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>2996000</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>40915500</v>
+        <v>40338300</v>
       </c>
       <c r="E46" s="3">
-        <v>43956200</v>
+        <v>38986100</v>
       </c>
       <c r="F46" s="3">
-        <v>44397000</v>
+        <v>41883300</v>
       </c>
       <c r="G46" s="3">
-        <v>44976800</v>
+        <v>42303300</v>
       </c>
       <c r="H46" s="3">
-        <v>41217300</v>
+        <v>42855900</v>
       </c>
       <c r="I46" s="3">
-        <v>37929000</v>
+        <v>39273600</v>
       </c>
       <c r="J46" s="3">
+        <v>36140400</v>
+      </c>
+      <c r="K46" s="3">
         <v>33084000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>32690400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>29831000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>29407700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>29344000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>32142100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>36336100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>37413100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>37014400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>36858100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>38404700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>39691200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>38110200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>36696800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>38204500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>40951100</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>38955000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>40649900</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>39691000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>42156100</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>38232400</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>47526900</v>
+        <v>47995200</v>
       </c>
       <c r="E47" s="3">
-        <v>46282600</v>
+        <v>45285700</v>
       </c>
       <c r="F47" s="3">
-        <v>48096500</v>
+        <v>44100100</v>
       </c>
       <c r="G47" s="3">
-        <v>46178200</v>
+        <v>45828400</v>
       </c>
       <c r="H47" s="3">
-        <v>44865000</v>
+        <v>44000600</v>
       </c>
       <c r="I47" s="3">
-        <v>40829500</v>
+        <v>42749300</v>
       </c>
       <c r="J47" s="3">
+        <v>38904100</v>
+      </c>
+      <c r="K47" s="3">
         <v>40110200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>42558000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>38622100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>37234400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>38999900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>42508800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>43819300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>50414800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>49513500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>50532700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>53209900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>48784500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>49446400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>45792300</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>44126500</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>45878300</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>44160100</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>42595400</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>41700800</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>39980100</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>35285000</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>18624200</v>
+        <v>18972000</v>
       </c>
       <c r="E48" s="3">
-        <v>18376600</v>
+        <v>17745900</v>
       </c>
       <c r="F48" s="3">
-        <v>19221500</v>
+        <v>17510000</v>
       </c>
       <c r="G48" s="3">
-        <v>18947300</v>
+        <v>18315000</v>
       </c>
       <c r="H48" s="3">
-        <v>18093300</v>
+        <v>18053800</v>
       </c>
       <c r="I48" s="3">
-        <v>17518000</v>
+        <v>17240100</v>
       </c>
       <c r="J48" s="3">
+        <v>16691900</v>
+      </c>
+      <c r="K48" s="3">
         <v>17196100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>17942800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>17369900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>17576200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>18818600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>20573600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>20908000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>22359200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>21602500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>21397900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>20646900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>20363100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>19807500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>18394900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>17346400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>17820100</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>18003700</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>17903900</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>17769100</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>18403400</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>16888800</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1999400</v>
+        <v>2975300</v>
       </c>
       <c r="E49" s="3">
-        <v>2036000</v>
+        <v>1905200</v>
       </c>
       <c r="F49" s="3">
-        <v>2133800</v>
+        <v>1940000</v>
       </c>
       <c r="G49" s="3">
-        <v>2031100</v>
+        <v>2033200</v>
       </c>
       <c r="H49" s="3">
-        <v>1824400</v>
+        <v>1935300</v>
       </c>
       <c r="I49" s="3">
-        <v>1645700</v>
+        <v>1738400</v>
       </c>
       <c r="J49" s="3">
+        <v>1568100</v>
+      </c>
+      <c r="K49" s="3">
         <v>1529500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1604900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1336900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1365200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1507700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1644000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1720500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2151300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2186600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2230100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1673000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1743600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1607100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1552500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1565800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1572800</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1615000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>1568500</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>1496200</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>1434400</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>1274500</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4029,8 +4142,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4115,94 +4231,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1830400</v>
+        <v>1778400</v>
       </c>
       <c r="E52" s="3">
-        <v>1601000</v>
+        <v>1744000</v>
       </c>
       <c r="F52" s="3">
-        <v>1783400</v>
+        <v>1525500</v>
       </c>
       <c r="G52" s="3">
-        <v>1688300</v>
+        <v>1699300</v>
       </c>
       <c r="H52" s="3">
-        <v>1596900</v>
+        <v>1608700</v>
       </c>
       <c r="I52" s="3">
-        <v>1486000</v>
+        <v>1521600</v>
       </c>
       <c r="J52" s="3">
+        <v>1415900</v>
+      </c>
+      <c r="K52" s="3">
         <v>1479100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1529400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1577500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1215900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>984000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1107500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1229500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>850800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>851500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>819700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>864500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1064200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1091400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1002900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>969100</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1006800</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1169300</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>1357900</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>1356900</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>1432200</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>1287300</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4287,94 +4409,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>110896400</v>
+        <v>112059200</v>
       </c>
       <c r="E54" s="3">
-        <v>112252400</v>
+        <v>105666900</v>
       </c>
       <c r="F54" s="3">
-        <v>115632200</v>
+        <v>106958900</v>
       </c>
       <c r="G54" s="3">
-        <v>113821700</v>
+        <v>110179300</v>
       </c>
       <c r="H54" s="3">
-        <v>107596900</v>
+        <v>108454300</v>
       </c>
       <c r="I54" s="3">
-        <v>99408100</v>
+        <v>102523000</v>
       </c>
       <c r="J54" s="3">
+        <v>94720400</v>
+      </c>
+      <c r="K54" s="3">
         <v>93398900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>96325500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>88737300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>86799500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>89654300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>97976000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>104013400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>113189100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>111168500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>111838500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>114798900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>111646700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>110062600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>103439500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>102212200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>107229100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>103903100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>104075500</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>102014000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>103406200</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>92968100</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4405,8 +4533,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4437,524 +4566,543 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>10889900</v>
+        <v>11006500</v>
       </c>
       <c r="E57" s="3">
-        <v>12725400</v>
+        <v>10376400</v>
       </c>
       <c r="F57" s="3">
-        <v>12392400</v>
+        <v>12125300</v>
       </c>
       <c r="G57" s="3">
-        <v>13419500</v>
+        <v>11808100</v>
       </c>
       <c r="H57" s="3">
-        <v>12539300</v>
+        <v>12786700</v>
       </c>
       <c r="I57" s="3">
-        <v>12340900</v>
+        <v>11948000</v>
       </c>
       <c r="J57" s="3">
+        <v>11758900</v>
+      </c>
+      <c r="K57" s="3">
         <v>10074300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>10382200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>9311600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>8737600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>8288800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>8744100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>10012600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>11770300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>10845800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>11551100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>12707100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>13217100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>12028200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>11694800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>11429100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>12147200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>11328200</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>10649200</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>10676900</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>10787700</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>8887300</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>8963700</v>
+        <v>6437500</v>
       </c>
       <c r="E58" s="3">
-        <v>8997100</v>
+        <v>8541000</v>
       </c>
       <c r="F58" s="3">
-        <v>9353600</v>
+        <v>8572900</v>
       </c>
       <c r="G58" s="3">
-        <v>8291600</v>
+        <v>8912600</v>
       </c>
       <c r="H58" s="3">
-        <v>4990000</v>
+        <v>7900500</v>
       </c>
       <c r="I58" s="3">
-        <v>5278800</v>
+        <v>4754600</v>
       </c>
       <c r="J58" s="3">
+        <v>5029900</v>
+      </c>
+      <c r="K58" s="3">
         <v>5764700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5962600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5327600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5047300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5228200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>6306000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>6143800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>6544700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>7261900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>8192800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>7845800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>7553600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>6959600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>6294800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>6184300</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>5829800</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>5542100</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>6488500</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>6146100</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>7075800</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>6388700</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>7303800</v>
+        <v>8662300</v>
       </c>
       <c r="E59" s="3">
-        <v>8286300</v>
+        <v>6959400</v>
       </c>
       <c r="F59" s="3">
-        <v>11653900</v>
+        <v>7895500</v>
       </c>
       <c r="G59" s="3">
-        <v>11564600</v>
+        <v>11104300</v>
       </c>
       <c r="H59" s="3">
-        <v>9931000</v>
+        <v>11019200</v>
       </c>
       <c r="I59" s="3">
-        <v>7139500</v>
+        <v>9462700</v>
       </c>
       <c r="J59" s="3">
+        <v>6802800</v>
+      </c>
+      <c r="K59" s="3">
         <v>6487000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5634600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4516000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4513900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4330200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4931400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>7640400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>6186700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>5577100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>5804100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>5781200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>6905100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>6461800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>6059700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>6783400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>6711400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>5826600</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>5765000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>5564600</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>5821700</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>4722300</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>27157500</v>
+        <v>26106400</v>
       </c>
       <c r="E60" s="3">
-        <v>30008800</v>
+        <v>25876800</v>
       </c>
       <c r="F60" s="3">
-        <v>33400000</v>
+        <v>28593600</v>
       </c>
       <c r="G60" s="3">
-        <v>33275600</v>
+        <v>31824900</v>
       </c>
       <c r="H60" s="3">
-        <v>27460200</v>
+        <v>31706400</v>
       </c>
       <c r="I60" s="3">
-        <v>24759100</v>
+        <v>26165300</v>
       </c>
       <c r="J60" s="3">
+        <v>23591600</v>
+      </c>
+      <c r="K60" s="3">
         <v>22326000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>21979400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>19155200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>18298800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>17847200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>19981500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>23796800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>24501800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>23684800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>25548000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>26334000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>27675800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>25449500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>24049300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>24396900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>24688500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>22697000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>22902800</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>22387600</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>23685200</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>19998200</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>27378700</v>
+        <v>28543000</v>
       </c>
       <c r="E61" s="3">
-        <v>27914900</v>
+        <v>26087600</v>
       </c>
       <c r="F61" s="3">
-        <v>28319200</v>
+        <v>26598500</v>
       </c>
       <c r="G61" s="3">
-        <v>29180400</v>
+        <v>26983800</v>
       </c>
       <c r="H61" s="3">
-        <v>30176600</v>
+        <v>27804300</v>
       </c>
       <c r="I61" s="3">
-        <v>29506900</v>
+        <v>28753500</v>
       </c>
       <c r="J61" s="3">
+        <v>28115400</v>
+      </c>
+      <c r="K61" s="3">
         <v>27947800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>29338200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>28326800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>30052900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>32828400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>35839200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>37259400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>38486000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>38586200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>37173100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>36605000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>33965600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>33739000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>32441500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>32027200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>34920400</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>35699100</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>37405600</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>37431100</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>38250500</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>36521200</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9025500</v>
+        <v>9324200</v>
       </c>
       <c r="E62" s="3">
-        <v>8711400</v>
+        <v>8599900</v>
       </c>
       <c r="F62" s="3">
-        <v>8763400</v>
+        <v>8300600</v>
       </c>
       <c r="G62" s="3">
-        <v>8245000</v>
+        <v>8350100</v>
       </c>
       <c r="H62" s="3">
-        <v>8175200</v>
+        <v>7856200</v>
       </c>
       <c r="I62" s="3">
-        <v>7322900</v>
+        <v>7789700</v>
       </c>
       <c r="J62" s="3">
+        <v>6977600</v>
+      </c>
+      <c r="K62" s="3">
         <v>7137200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7774600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>7061100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>6336400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>6416800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>6975900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>7180400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>8188900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>7779100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>7906600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>8323600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>8124200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>8671300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>7800000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>7656300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>7269000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>7278500</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>7072300</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>6802600</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>6766700</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>5977300</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5039,8 +5187,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5125,8 +5276,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5211,94 +5365,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>64984900</v>
+        <v>65452000</v>
       </c>
       <c r="E66" s="3">
-        <v>68124100</v>
+        <v>61920500</v>
       </c>
       <c r="F66" s="3">
-        <v>72045700</v>
+        <v>64911600</v>
       </c>
       <c r="G66" s="3">
-        <v>72213300</v>
+        <v>68648300</v>
       </c>
       <c r="H66" s="3">
-        <v>67183400</v>
+        <v>68808000</v>
       </c>
       <c r="I66" s="3">
-        <v>63464500</v>
+        <v>64015200</v>
       </c>
       <c r="J66" s="3">
+        <v>60471700</v>
+      </c>
+      <c r="K66" s="3">
         <v>59233700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>60973500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>56333100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>56483400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>59007300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>64958700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>70379700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>73667400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>72465300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>73055600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>73829900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>72239100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>70300400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>66567400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>66280800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>69332300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>68053100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>69759100</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>68909600</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>71093200</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>64647500</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5329,8 +5489,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5415,8 +5576,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5501,8 +5665,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5587,8 +5754,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5673,94 +5843,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>34900100</v>
+        <v>34204300</v>
       </c>
       <c r="E72" s="3">
-        <v>33920500</v>
+        <v>33254300</v>
       </c>
       <c r="F72" s="3">
-        <v>32282900</v>
+        <v>32320900</v>
       </c>
       <c r="G72" s="3">
-        <v>31348100</v>
+        <v>30760600</v>
       </c>
       <c r="H72" s="3">
-        <v>30036600</v>
+        <v>29869800</v>
       </c>
       <c r="I72" s="3">
-        <v>27875400</v>
+        <v>28620200</v>
       </c>
       <c r="J72" s="3">
+        <v>26560900</v>
+      </c>
+      <c r="K72" s="3">
         <v>26825200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>26541400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>25153800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>24743600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>26163700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>28238800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>29621800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>30109600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>30037200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>28668100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>29585900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>28566200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>22079200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>25998200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>26247000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>25531600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>24759700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>23601500</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>22619600</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>21765100</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>21151000</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5845,8 +6021,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5931,8 +6110,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6017,94 +6199,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>45911500</v>
+        <v>46607200</v>
       </c>
       <c r="E76" s="3">
-        <v>44128300</v>
+        <v>43746400</v>
       </c>
       <c r="F76" s="3">
-        <v>43586500</v>
+        <v>42047300</v>
       </c>
       <c r="G76" s="3">
-        <v>41608400</v>
+        <v>41531100</v>
       </c>
       <c r="H76" s="3">
-        <v>40413500</v>
+        <v>39646300</v>
       </c>
       <c r="I76" s="3">
-        <v>35943600</v>
+        <v>38507800</v>
       </c>
       <c r="J76" s="3">
+        <v>34248700</v>
+      </c>
+      <c r="K76" s="3">
         <v>34165100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>35352000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>32404300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>30316100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>30647000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>33017300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>33633700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>39521800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>38703100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>38782900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>40969000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>39407500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>39762100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>36872200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>35931400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>37896800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>35850000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>34316500</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>33104400</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>32312900</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>28320500</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6189,185 +6377,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2089800</v>
+        <v>1737100</v>
       </c>
       <c r="E81" s="3">
-        <v>2175100</v>
+        <v>1991200</v>
       </c>
       <c r="F81" s="3">
-        <v>1904200</v>
+        <v>2072600</v>
       </c>
       <c r="G81" s="3">
-        <v>1982800</v>
+        <v>1814400</v>
       </c>
       <c r="H81" s="3">
-        <v>2029400</v>
+        <v>1889300</v>
       </c>
       <c r="I81" s="3">
-        <v>1648400</v>
+        <v>1933700</v>
       </c>
       <c r="J81" s="3">
+        <v>1570700</v>
+      </c>
+      <c r="K81" s="3">
         <v>1538400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1405800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>967900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>651700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>369800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>533600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>497200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>919400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1002800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1145300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>616500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1200700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>970400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1076400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>376500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>1252300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>1153100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>1001200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>672400</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>961100</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>539600</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6398,94 +6595,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>478500</v>
+        <v>476200</v>
       </c>
       <c r="E83" s="3">
-        <v>499600</v>
+        <v>455900</v>
       </c>
       <c r="F83" s="3">
-        <v>512200</v>
+        <v>476000</v>
       </c>
       <c r="G83" s="3">
-        <v>475900</v>
+        <v>488000</v>
       </c>
       <c r="H83" s="3">
-        <v>514500</v>
+        <v>453400</v>
       </c>
       <c r="I83" s="3">
-        <v>563400</v>
+        <v>490200</v>
       </c>
       <c r="J83" s="3">
+        <v>536800</v>
+      </c>
+      <c r="K83" s="3">
         <v>526500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>543100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>520500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>492200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>545800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>537500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>623100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>600400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>541700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>554500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>496000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>442500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>411100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>396100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>413800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>448800</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>449300</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>429100</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>410100</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>432800</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>438700</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6570,8 +6771,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6656,8 +6860,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6742,8 +6949,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6828,8 +7038,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6914,94 +7127,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3227500</v>
+        <v>2506300</v>
       </c>
       <c r="E89" s="3">
-        <v>2087500</v>
+        <v>3075300</v>
       </c>
       <c r="F89" s="3">
-        <v>212200</v>
+        <v>1989000</v>
       </c>
       <c r="G89" s="3">
-        <v>2025600</v>
+        <v>202200</v>
       </c>
       <c r="H89" s="3">
-        <v>3229200</v>
+        <v>1930000</v>
       </c>
       <c r="I89" s="3">
-        <v>374000</v>
+        <v>3076900</v>
       </c>
       <c r="J89" s="3">
+        <v>356300</v>
+      </c>
+      <c r="K89" s="3">
         <v>921800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1317900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1916000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>891400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1688800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1399300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1229000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>548400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1827000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1171400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>472800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1886300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>251200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1223700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1352500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>2182700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-372700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1833000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>1624300</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>1312000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>298600</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7032,94 +7251,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-14514000</v>
+        <v>-63111000</v>
       </c>
       <c r="E91" s="3">
+        <v>-52536000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-66573000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-54756000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-54200000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-44019000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-50278000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-44762000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-341500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-275500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-358300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-357300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-700100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-669200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-792800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-579100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-566500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-717000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-868800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-680800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-616300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>707600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-337700</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-384300</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-196300</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-458100</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-338400</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-537000</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7204,8 +7427,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7290,94 +7516,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-374500</v>
+        <v>-1334500</v>
       </c>
       <c r="E94" s="3">
-        <v>40400</v>
+        <v>-356800</v>
       </c>
       <c r="F94" s="3">
-        <v>-147000</v>
+        <v>38500</v>
       </c>
       <c r="G94" s="3">
-        <v>-804700</v>
+        <v>-140100</v>
       </c>
       <c r="H94" s="3">
-        <v>66300</v>
+        <v>-766700</v>
       </c>
       <c r="I94" s="3">
-        <v>-300100</v>
+        <v>63200</v>
       </c>
       <c r="J94" s="3">
+        <v>-286000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-405500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-680000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-98800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-618100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-901100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-925800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>186300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-718500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-156200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1012200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2595500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1897000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1369400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-914400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-579400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-717100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-761300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-186100</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-967700</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-474900</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-603200</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7408,94 +7640,98 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-785400</v>
       </c>
       <c r="E96" s="3">
-        <v>-735600</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-700900</v>
       </c>
       <c r="G96" s="3">
-        <v>-692600</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-659900</v>
       </c>
       <c r="I96" s="3">
-        <v>-527200</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-502400</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-551900</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-492400</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-582600</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-633600</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-636800</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-656300</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-631900</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-478400</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
       <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-478400</v>
       </c>
-      <c r="AB96" s="3">
-        <v>0</v>
-      </c>
       <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
         <v>-397500</v>
       </c>
-      <c r="AD96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7580,8 +7816,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7666,8 +7905,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7752,262 +7994,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1853200</v>
+        <v>-2329600</v>
       </c>
       <c r="E100" s="3">
-        <v>-502500</v>
+        <v>-1765800</v>
       </c>
       <c r="F100" s="3">
-        <v>-1284600</v>
+        <v>-478800</v>
       </c>
       <c r="G100" s="3">
-        <v>-935800</v>
+        <v>-1224000</v>
       </c>
       <c r="H100" s="3">
-        <v>-1563000</v>
+        <v>-891700</v>
       </c>
       <c r="I100" s="3">
-        <v>-338100</v>
+        <v>-1489300</v>
       </c>
       <c r="J100" s="3">
+        <v>-322200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1286200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1266100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1451100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1099300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-343300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-752700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-130100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1862200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-68800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>202500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>2126800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-385900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>482800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-954700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1145700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-1020400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-2791000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-939700</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-1316100</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-841900</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>217200</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>40700</v>
+        <v>410300</v>
       </c>
       <c r="E101" s="3">
-        <v>-333200</v>
+        <v>38700</v>
       </c>
       <c r="F101" s="3">
-        <v>119700</v>
+        <v>-317500</v>
       </c>
       <c r="G101" s="3">
-        <v>373000</v>
+        <v>114000</v>
       </c>
       <c r="H101" s="3">
-        <v>334900</v>
+        <v>355400</v>
       </c>
       <c r="I101" s="3">
-        <v>126600</v>
+        <v>319100</v>
       </c>
       <c r="J101" s="3">
+        <v>120700</v>
+      </c>
+      <c r="K101" s="3">
         <v>-61400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-15900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>233800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-59100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>6600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>131300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-293800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>148200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-82300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-72700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>23700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-142100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>124000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>45000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-335900</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>3300</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>100100</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>10700</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-65200</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>603600</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-59700</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1040500</v>
+        <v>-747600</v>
       </c>
       <c r="E102" s="3">
-        <v>1292100</v>
+        <v>991400</v>
       </c>
       <c r="F102" s="3">
-        <v>-1099700</v>
+        <v>1231200</v>
       </c>
       <c r="G102" s="3">
-        <v>658000</v>
+        <v>-1047800</v>
       </c>
       <c r="H102" s="3">
-        <v>2067300</v>
+        <v>627000</v>
       </c>
       <c r="I102" s="3">
-        <v>-137700</v>
+        <v>1969800</v>
       </c>
       <c r="J102" s="3">
+        <v>-131200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-831200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-644100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>600000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-885100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>451000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-148000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>991400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1884100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1519700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>289000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>27700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-404700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-643100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-600500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-708500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>448600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-3824900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>717900</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-724700</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>598900</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-147200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MITSY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MITSY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>MITSY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -666,383 +666,395 @@
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="30" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="12" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="31" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>21634500</v>
+        <v>21436000</v>
       </c>
       <c r="E8" s="3">
-        <v>22464100</v>
+        <v>20910200</v>
       </c>
       <c r="F8" s="3">
-        <v>24819200</v>
+        <v>21712000</v>
       </c>
       <c r="G8" s="3">
-        <v>25441600</v>
+        <v>23988300</v>
       </c>
       <c r="H8" s="3">
-        <v>25560000</v>
+        <v>24589800</v>
       </c>
       <c r="I8" s="3">
-        <v>21765100</v>
+        <v>24704300</v>
       </c>
       <c r="J8" s="3">
+        <v>21036400</v>
+      </c>
+      <c r="K8" s="3">
         <v>21800100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>19886400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>19536500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>23476100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>14920200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>14487100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>15741000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>28986100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>16240900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>16340900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>14959400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>18687200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>16988500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>15394900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>14145800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>11201800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>11381200</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>10959900</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>10682200</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>10539300</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>10144100</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>8977900</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>19568500</v>
+        <v>19393100</v>
       </c>
       <c r="E9" s="3">
-        <v>19867400</v>
+        <v>18913400</v>
       </c>
       <c r="F9" s="3">
-        <v>22165100</v>
+        <v>19202300</v>
       </c>
       <c r="G9" s="3">
-        <v>23253600</v>
+        <v>21423100</v>
       </c>
       <c r="H9" s="3">
-        <v>23406800</v>
+        <v>22475100</v>
       </c>
       <c r="I9" s="3">
-        <v>19349600</v>
+        <v>22623200</v>
       </c>
       <c r="J9" s="3">
+        <v>18701800</v>
+      </c>
+      <c r="K9" s="3">
         <v>19997700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>18017600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>17565000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>21751400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>13451500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>13099400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>14122800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>27233000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>14307400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>14328700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>13042800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>16713400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>15012100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>13487900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>12160100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>9567400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>9519200</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>9110700</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>8879700</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>8666700</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>8528400</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>7541800</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2066000</v>
+        <v>2042900</v>
       </c>
       <c r="E10" s="3">
-        <v>2596700</v>
+        <v>1996800</v>
       </c>
       <c r="F10" s="3">
-        <v>2654100</v>
+        <v>2509800</v>
       </c>
       <c r="G10" s="3">
-        <v>2188000</v>
+        <v>2565300</v>
       </c>
       <c r="H10" s="3">
-        <v>2153300</v>
+        <v>2114700</v>
       </c>
       <c r="I10" s="3">
-        <v>2415400</v>
+        <v>2081200</v>
       </c>
       <c r="J10" s="3">
+        <v>2334500</v>
+      </c>
+      <c r="K10" s="3">
         <v>1802400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1868700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1971500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1724700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1468700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1387600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1618200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1753200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1933500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2012200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1916600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1973800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1976400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1906900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1985700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1634400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1861900</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1849100</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>1802500</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>1872600</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>1615700</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>1436100</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1074,8 +1086,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1163,8 +1176,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1252,97 +1268,103 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>17300</v>
+        <v>9800</v>
       </c>
       <c r="E14" s="3">
-        <v>95400</v>
+        <v>16700</v>
       </c>
       <c r="F14" s="3">
-        <v>36200</v>
+        <v>92200</v>
       </c>
       <c r="G14" s="3">
-        <v>72500</v>
+        <v>35000</v>
       </c>
       <c r="H14" s="3">
-        <v>1900</v>
+        <v>70100</v>
       </c>
       <c r="I14" s="3">
-        <v>33200</v>
+        <v>1800</v>
       </c>
       <c r="J14" s="3">
+        <v>32100</v>
+      </c>
+      <c r="K14" s="3">
         <v>10800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>163500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-1600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>90700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>262100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>38700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>874000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>82100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>8300</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>15500</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>225400</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>20700</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>3800</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>8900</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>59600</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>91800</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>67000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>11600</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>48200</v>
       </c>
-      <c r="AD14" s="3">
-        <v>0</v>
-      </c>
       <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1430,8 +1452,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1460,186 +1485,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>20508500</v>
+        <v>20258200</v>
       </c>
       <c r="E17" s="3">
-        <v>21316300</v>
+        <v>19821900</v>
       </c>
       <c r="F17" s="3">
-        <v>23172400</v>
+        <v>20602700</v>
       </c>
       <c r="G17" s="3">
-        <v>24336300</v>
+        <v>22396600</v>
       </c>
       <c r="H17" s="3">
-        <v>24296100</v>
+        <v>23521600</v>
       </c>
       <c r="I17" s="3">
-        <v>20517700</v>
+        <v>23482700</v>
       </c>
       <c r="J17" s="3">
+        <v>19830800</v>
+      </c>
+      <c r="K17" s="3">
         <v>20835700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>19119900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>18538500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>22976200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>14945300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>14328800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>15201000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>29074600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>15671900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>15581200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>14210600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>18422900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>16308000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>14800500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>13271100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>11108400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>10721200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>10139700</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>9954000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>9794000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>9291500</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>8516000</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1126100</v>
+        <v>1177700</v>
       </c>
       <c r="E18" s="3">
-        <v>1147800</v>
+        <v>1088400</v>
       </c>
       <c r="F18" s="3">
-        <v>1646800</v>
+        <v>1109400</v>
       </c>
       <c r="G18" s="3">
-        <v>1105300</v>
+        <v>1591700</v>
       </c>
       <c r="H18" s="3">
-        <v>1264000</v>
+        <v>1068200</v>
       </c>
       <c r="I18" s="3">
-        <v>1247400</v>
+        <v>1221600</v>
       </c>
       <c r="J18" s="3">
+        <v>1205600</v>
+      </c>
+      <c r="K18" s="3">
         <v>964400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>766500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>998000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>500000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-25200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>158300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>540000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-88400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>569000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>759700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>748700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>264200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>680500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>594400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>874700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>93400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>660000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>820200</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>728200</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>745300</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>852600</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>461900</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1671,453 +1703,469 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1281200</v>
+        <v>973600</v>
       </c>
       <c r="E20" s="3">
-        <v>1408700</v>
+        <v>1238300</v>
       </c>
       <c r="F20" s="3">
-        <v>1171900</v>
+        <v>1361500</v>
       </c>
       <c r="G20" s="3">
-        <v>1389300</v>
+        <v>1132600</v>
       </c>
       <c r="H20" s="3">
-        <v>1239200</v>
+        <v>1342800</v>
       </c>
       <c r="I20" s="3">
-        <v>1114000</v>
+        <v>1197700</v>
       </c>
       <c r="J20" s="3">
+        <v>1076700</v>
+      </c>
+      <c r="K20" s="3">
         <v>1107600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1367000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>990700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>836800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>762100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>586800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>461600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>822000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1024200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>799300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1048100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>949200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>1042200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>982200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>815900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>682600</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>963900</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>765600</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>808400</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>451900</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>662000</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>545900</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2883400</v>
+        <v>2603200</v>
       </c>
       <c r="E21" s="3">
-        <v>3012400</v>
+        <v>2786900</v>
       </c>
       <c r="F21" s="3">
-        <v>3294700</v>
+        <v>2911600</v>
       </c>
       <c r="G21" s="3">
-        <v>2982500</v>
+        <v>3184400</v>
       </c>
       <c r="H21" s="3">
-        <v>2956600</v>
+        <v>2882700</v>
       </c>
       <c r="I21" s="3">
-        <v>2851600</v>
+        <v>2857600</v>
       </c>
       <c r="J21" s="3">
+        <v>2756100</v>
+      </c>
+      <c r="K21" s="3">
         <v>2608800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2659900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2531800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1857200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1229100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1290900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1539200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1356700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2193700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2100800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>2351400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1709400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>2165200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1987800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>2086700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1189800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>2072700</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>2035100</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1965600</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>1607200</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>1947400</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>1446600</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>265100</v>
+        <v>278400</v>
       </c>
       <c r="E22" s="3">
-        <v>286100</v>
+        <v>256200</v>
       </c>
       <c r="F22" s="3">
-        <v>228600</v>
+        <v>276600</v>
       </c>
       <c r="G22" s="3">
-        <v>159800</v>
+        <v>220900</v>
       </c>
       <c r="H22" s="3">
-        <v>112700</v>
+        <v>154400</v>
       </c>
       <c r="I22" s="3">
-        <v>78600</v>
+        <v>108900</v>
       </c>
       <c r="J22" s="3">
+        <v>76000</v>
+      </c>
+      <c r="K22" s="3">
         <v>69100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>82400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>105800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>77600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>92500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>100800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>131600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>178400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>205000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>212500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>217600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>194400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>191600</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>191700</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>172300</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>149100</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>150300</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>156500</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>145100</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>140900</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>133700</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>118100</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2142200</v>
+        <v>1872900</v>
       </c>
       <c r="E23" s="3">
-        <v>2270400</v>
+        <v>2070400</v>
       </c>
       <c r="F23" s="3">
-        <v>2590100</v>
+        <v>2194400</v>
       </c>
       <c r="G23" s="3">
-        <v>2334800</v>
+        <v>2503400</v>
       </c>
       <c r="H23" s="3">
-        <v>2390500</v>
+        <v>2256600</v>
       </c>
       <c r="I23" s="3">
-        <v>2282700</v>
+        <v>2310400</v>
       </c>
       <c r="J23" s="3">
+        <v>2206300</v>
+      </c>
+      <c r="K23" s="3">
         <v>2002900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2051000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1883000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1259100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>644500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>644300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>870000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>555100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1388200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1346500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1579200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1019000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1531100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1384900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1518300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>626900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1473600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>1429300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>1391500</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>1056300</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>1380900</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>889700</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>365200</v>
+        <v>474400</v>
       </c>
       <c r="E24" s="3">
-        <v>262400</v>
+        <v>352900</v>
       </c>
       <c r="F24" s="3">
-        <v>485700</v>
+        <v>253600</v>
       </c>
       <c r="G24" s="3">
-        <v>495800</v>
+        <v>469400</v>
       </c>
       <c r="H24" s="3">
-        <v>409400</v>
+        <v>479200</v>
       </c>
       <c r="I24" s="3">
-        <v>309400</v>
+        <v>395700</v>
       </c>
       <c r="J24" s="3">
+        <v>299100</v>
+      </c>
+      <c r="K24" s="3">
         <v>402700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>482800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>413000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>260700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-32100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>250100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>301300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>88400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>409100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>280700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>343700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>397900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>289000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>367300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>372800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>201200</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>158300</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>234300</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>338000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>320800</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>367600</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>316000</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2205,186 +2253,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1777000</v>
+        <v>1398500</v>
       </c>
       <c r="E26" s="3">
-        <v>2008000</v>
+        <v>1717500</v>
       </c>
       <c r="F26" s="3">
-        <v>2104400</v>
+        <v>1940700</v>
       </c>
       <c r="G26" s="3">
-        <v>1838900</v>
+        <v>2033900</v>
       </c>
       <c r="H26" s="3">
-        <v>1981000</v>
+        <v>1777400</v>
       </c>
       <c r="I26" s="3">
-        <v>1973300</v>
+        <v>1914700</v>
       </c>
       <c r="J26" s="3">
+        <v>1907200</v>
+      </c>
+      <c r="K26" s="3">
         <v>1600200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1568200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1470000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>998400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>676500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>394200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>568600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>466700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>979200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1065800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1235500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>621100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1242100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1017600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1145500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>425700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>1315300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>1195000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>1053500</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>735500</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>1013300</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>573700</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1737100</v>
+        <v>1350600</v>
       </c>
       <c r="E27" s="3">
-        <v>1991200</v>
+        <v>1678900</v>
       </c>
       <c r="F27" s="3">
-        <v>2072600</v>
+        <v>1924600</v>
       </c>
       <c r="G27" s="3">
-        <v>1814400</v>
+        <v>2003200</v>
       </c>
       <c r="H27" s="3">
-        <v>1889300</v>
+        <v>1753700</v>
       </c>
       <c r="I27" s="3">
-        <v>1933700</v>
+        <v>1826000</v>
       </c>
       <c r="J27" s="3">
+        <v>1868900</v>
+      </c>
+      <c r="K27" s="3">
         <v>1570700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1538400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1405800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>967900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>651700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>369800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>533600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>497200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>919400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1002800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1145300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>616500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1200700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>970400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1076400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>376500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>1252300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>1153100</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>1001200</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>672400</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>961100</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>539600</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2472,8 +2529,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2561,8 +2621,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2650,8 +2713,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2739,186 +2805,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1281200</v>
+        <v>-973600</v>
       </c>
       <c r="E32" s="3">
-        <v>-1408700</v>
+        <v>-1238300</v>
       </c>
       <c r="F32" s="3">
-        <v>-1171900</v>
+        <v>-1361500</v>
       </c>
       <c r="G32" s="3">
-        <v>-1389300</v>
+        <v>-1132600</v>
       </c>
       <c r="H32" s="3">
-        <v>-1239200</v>
+        <v>-1342800</v>
       </c>
       <c r="I32" s="3">
-        <v>-1114000</v>
+        <v>-1197700</v>
       </c>
       <c r="J32" s="3">
+        <v>-1076700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1107600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1367000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-990700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-836800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-762100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-586800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-461600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-822000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1024200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-799300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1048100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-949200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-1042200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-982200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-815900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-682600</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-963900</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-765600</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-808400</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-451900</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-662000</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>-545900</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1737100</v>
+        <v>1350600</v>
       </c>
       <c r="E33" s="3">
-        <v>1991200</v>
+        <v>1678900</v>
       </c>
       <c r="F33" s="3">
-        <v>2072600</v>
+        <v>1924600</v>
       </c>
       <c r="G33" s="3">
-        <v>1814400</v>
+        <v>2003200</v>
       </c>
       <c r="H33" s="3">
-        <v>1889300</v>
+        <v>1753700</v>
       </c>
       <c r="I33" s="3">
-        <v>1933700</v>
+        <v>1826000</v>
       </c>
       <c r="J33" s="3">
+        <v>1868900</v>
+      </c>
+      <c r="K33" s="3">
         <v>1570700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1538400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1405800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>967900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>651700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>369800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>533600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>497200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>919400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1002800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1145300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>616500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1200700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>970400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1076400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>376500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>1252300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>1153100</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>1001200</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>672400</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>961100</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>539600</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3006,191 +3081,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1737100</v>
+        <v>1350600</v>
       </c>
       <c r="E35" s="3">
-        <v>1991200</v>
+        <v>1678900</v>
       </c>
       <c r="F35" s="3">
-        <v>2072600</v>
+        <v>1924600</v>
       </c>
       <c r="G35" s="3">
-        <v>1814400</v>
+        <v>2003200</v>
       </c>
       <c r="H35" s="3">
-        <v>1889300</v>
+        <v>1753700</v>
       </c>
       <c r="I35" s="3">
-        <v>1933700</v>
+        <v>1826000</v>
       </c>
       <c r="J35" s="3">
+        <v>1868900</v>
+      </c>
+      <c r="K35" s="3">
         <v>1570700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1538400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1405800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>967900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>651700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>369800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>533600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>497200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>919400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1002800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1145300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>616500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1200700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>970400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1076400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>376500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>1252300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>1153100</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>1001200</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>672400</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>961100</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>539600</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3222,8 +3306,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3255,809 +3340,837 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8802600</v>
+        <v>7950100</v>
       </c>
       <c r="E41" s="3">
-        <v>9550200</v>
+        <v>8507900</v>
       </c>
       <c r="F41" s="3">
-        <v>8558800</v>
+        <v>9230500</v>
       </c>
       <c r="G41" s="3">
-        <v>7327600</v>
+        <v>8272200</v>
       </c>
       <c r="H41" s="3">
-        <v>8375500</v>
+        <v>7082300</v>
       </c>
       <c r="I41" s="3">
-        <v>7748500</v>
+        <v>8095100</v>
       </c>
       <c r="J41" s="3">
+        <v>7489000</v>
+      </c>
+      <c r="K41" s="3">
         <v>5778600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6202300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7170000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>7537700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>7172600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>8563400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>8883000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>9327400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>8619900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>10596300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>9047000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>9188200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>8998400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>9253700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>9683800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>10227700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>10936200</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>10487600</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>14312400</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>13338900</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>14063500</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>13464600</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>6279500</v>
+        <v>6303300</v>
       </c>
       <c r="E42" s="3">
-        <v>5310400</v>
+        <v>6069300</v>
       </c>
       <c r="F42" s="3">
-        <v>6956000</v>
+        <v>5132600</v>
       </c>
       <c r="G42" s="3">
-        <v>8747100</v>
+        <v>6723200</v>
       </c>
       <c r="H42" s="3">
-        <v>7847100</v>
+        <v>8454200</v>
       </c>
       <c r="I42" s="3">
-        <v>6855300</v>
+        <v>7584400</v>
       </c>
       <c r="J42" s="3">
+        <v>6625800</v>
+      </c>
+      <c r="K42" s="3">
         <v>6088600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>5687100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>4151400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>3048600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>3152600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>3119600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>3626700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>4959100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>3002000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>2707200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>2753000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>2445800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>3255400</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>2869100</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>2702600</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>2205000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>3030500</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>2627800</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>2445500</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>2374300</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>3915400</v>
       </c>
-      <c r="AE42" s="3">
+      <c r="AF42" s="3">
         <v>3786600</v>
       </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>14515900</v>
+        <v>14733900</v>
       </c>
       <c r="E43" s="3">
-        <v>15053400</v>
+        <v>14030000</v>
       </c>
       <c r="F43" s="3">
-        <v>16381500</v>
+        <v>14549400</v>
       </c>
       <c r="G43" s="3">
-        <v>16630500</v>
+        <v>15833100</v>
       </c>
       <c r="H43" s="3">
-        <v>17110100</v>
+        <v>16073800</v>
       </c>
       <c r="I43" s="3">
-        <v>15822600</v>
+        <v>16537300</v>
       </c>
       <c r="J43" s="3">
+        <v>15292800</v>
+      </c>
+      <c r="K43" s="3">
         <v>15852800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>13571000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>13780400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>12847000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>12632200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>11204300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>12454600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>14294200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>16566500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>14911000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>15916900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>17338600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>17779600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>16564800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>15649400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>15964800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>17290200</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>16461900</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>14971500</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>15428500</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>15480700</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>13205700</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>6603300</v>
+        <v>6080300</v>
       </c>
       <c r="E44" s="3">
-        <v>6461500</v>
+        <v>6382200</v>
       </c>
       <c r="F44" s="3">
-        <v>7022500</v>
+        <v>6245200</v>
       </c>
       <c r="G44" s="3">
-        <v>7020000</v>
+        <v>6787400</v>
       </c>
       <c r="H44" s="3">
-        <v>6704400</v>
+        <v>6785000</v>
       </c>
       <c r="I44" s="3">
-        <v>6524200</v>
+        <v>6480000</v>
       </c>
       <c r="J44" s="3">
+        <v>6305800</v>
+      </c>
+      <c r="K44" s="3">
         <v>6092800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5348100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5282900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4361400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4413800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4318400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4554700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4879500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>6283100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>5890100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>5901000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>5839800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>5950700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>5828600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>5150500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>4978300</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>5689100</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>5718500</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>5394500</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>5229200</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>5336700</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>4779400</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>4136900</v>
+        <v>3354400</v>
       </c>
       <c r="E45" s="3">
-        <v>2610600</v>
+        <v>3998400</v>
       </c>
       <c r="F45" s="3">
-        <v>2964500</v>
+        <v>2523200</v>
       </c>
       <c r="G45" s="3">
-        <v>2578100</v>
+        <v>2865300</v>
       </c>
       <c r="H45" s="3">
-        <v>2818800</v>
+        <v>2491800</v>
       </c>
       <c r="I45" s="3">
-        <v>2323100</v>
+        <v>2724400</v>
       </c>
       <c r="J45" s="3">
+        <v>2245300</v>
+      </c>
+      <c r="K45" s="3">
         <v>2327600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2275500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2305600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2036200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2036500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2138300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2623100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2875800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2941600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2909800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3240200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3592300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>3707100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>3593900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>3510500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>4828700</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>4005100</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>3659200</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>3525900</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>3320100</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>3359700</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>2996000</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>40338300</v>
+        <v>38422000</v>
       </c>
       <c r="E46" s="3">
-        <v>38986100</v>
+        <v>38987800</v>
       </c>
       <c r="F46" s="3">
-        <v>41883300</v>
+        <v>37680900</v>
       </c>
       <c r="G46" s="3">
-        <v>42303300</v>
+        <v>40481100</v>
       </c>
       <c r="H46" s="3">
-        <v>42855900</v>
+        <v>40887100</v>
       </c>
       <c r="I46" s="3">
-        <v>39273600</v>
+        <v>41421100</v>
       </c>
       <c r="J46" s="3">
+        <v>37958800</v>
+      </c>
+      <c r="K46" s="3">
         <v>36140400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>33084000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>32690400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>29831000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>29407700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>29344000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>32142100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>36336100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>37413100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>37014400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>36858100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>38404700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>39691200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>38110200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>36696800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>38204500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>40951100</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>38955000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>40649900</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>39691000</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>42156100</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>38232400</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>47995200</v>
+        <v>49322000</v>
       </c>
       <c r="E47" s="3">
-        <v>45285700</v>
+        <v>46388400</v>
       </c>
       <c r="F47" s="3">
-        <v>44100100</v>
+        <v>43769600</v>
       </c>
       <c r="G47" s="3">
-        <v>45828400</v>
+        <v>42623600</v>
       </c>
       <c r="H47" s="3">
-        <v>44000600</v>
+        <v>44294100</v>
       </c>
       <c r="I47" s="3">
-        <v>42749300</v>
+        <v>42527500</v>
       </c>
       <c r="J47" s="3">
+        <v>41318100</v>
+      </c>
+      <c r="K47" s="3">
         <v>38904100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>40110200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>42558000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>38622100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>37234400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>38999900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>42508800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>43819300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>50414800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>49513500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>50532700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>53209900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>48784500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>49446400</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>45792300</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>44126500</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>45878300</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>44160100</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>42595400</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>41700800</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>39980100</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>35285000</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>18972000</v>
+        <v>18028200</v>
       </c>
       <c r="E48" s="3">
-        <v>17745900</v>
+        <v>18336800</v>
       </c>
       <c r="F48" s="3">
-        <v>17510000</v>
+        <v>17151800</v>
       </c>
       <c r="G48" s="3">
-        <v>18315000</v>
+        <v>16923800</v>
       </c>
       <c r="H48" s="3">
-        <v>18053800</v>
+        <v>17701900</v>
       </c>
       <c r="I48" s="3">
-        <v>17240100</v>
+        <v>17449400</v>
       </c>
       <c r="J48" s="3">
+        <v>16662900</v>
+      </c>
+      <c r="K48" s="3">
         <v>16691900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>17196100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>17942800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>17369900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>17576200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>18818600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>20573600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>20908000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>22359200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>21602500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>21397900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>20646900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>20363100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>19807500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>18394900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>17346400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>17820100</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>18003700</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>17903900</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>17769100</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>18403400</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>16888800</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2975300</v>
+        <v>2951400</v>
       </c>
       <c r="E49" s="3">
-        <v>1905200</v>
+        <v>2875700</v>
       </c>
       <c r="F49" s="3">
-        <v>1940000</v>
+        <v>1841400</v>
       </c>
       <c r="G49" s="3">
-        <v>2033200</v>
+        <v>1875100</v>
       </c>
       <c r="H49" s="3">
-        <v>1935300</v>
+        <v>1965200</v>
       </c>
       <c r="I49" s="3">
-        <v>1738400</v>
+        <v>1870500</v>
       </c>
       <c r="J49" s="3">
+        <v>1680200</v>
+      </c>
+      <c r="K49" s="3">
         <v>1568100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1529500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1604900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1336900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1365200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1507700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1644000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1720500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2151300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2186600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2230100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1673000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1743600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1607100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1552500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1565800</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1572800</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>1615000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>1568500</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>1496200</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>1434400</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>1274500</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4145,8 +4258,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4234,97 +4350,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1778400</v>
+        <v>1796600</v>
       </c>
       <c r="E52" s="3">
-        <v>1744000</v>
+        <v>1718900</v>
       </c>
       <c r="F52" s="3">
-        <v>1525500</v>
+        <v>1685700</v>
       </c>
       <c r="G52" s="3">
-        <v>1699300</v>
+        <v>1474400</v>
       </c>
       <c r="H52" s="3">
-        <v>1608700</v>
+        <v>1642400</v>
       </c>
       <c r="I52" s="3">
-        <v>1521600</v>
+        <v>1554900</v>
       </c>
       <c r="J52" s="3">
+        <v>1470700</v>
+      </c>
+      <c r="K52" s="3">
         <v>1415900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1479100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1529400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1577500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1215900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>984000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1107500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1229500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>850800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>851500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>819700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>864500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1064200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1091400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1002900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>969100</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1006800</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>1169300</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>1357900</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>1356900</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>1432200</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>1287300</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4412,97 +4534,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>112059200</v>
+        <v>110520000</v>
       </c>
       <c r="E54" s="3">
-        <v>105666900</v>
+        <v>108307500</v>
       </c>
       <c r="F54" s="3">
-        <v>106958900</v>
+        <v>102129300</v>
       </c>
       <c r="G54" s="3">
-        <v>110179300</v>
+        <v>103378100</v>
       </c>
       <c r="H54" s="3">
-        <v>108454300</v>
+        <v>106490700</v>
       </c>
       <c r="I54" s="3">
-        <v>102523000</v>
+        <v>104823300</v>
       </c>
       <c r="J54" s="3">
+        <v>99090600</v>
+      </c>
+      <c r="K54" s="3">
         <v>94720400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>93398900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>96325500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>88737300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>86799500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>89654300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>97976000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>104013400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>113189100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>111168500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>111838500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>114798900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>111646700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>110062600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>103439500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>102212200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>107229100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>103903100</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>104075500</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>102014000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>103406200</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>92968100</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4534,8 +4662,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4567,542 +4696,561 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>11006500</v>
+        <v>10729400</v>
       </c>
       <c r="E57" s="3">
-        <v>10376400</v>
+        <v>10638000</v>
       </c>
       <c r="F57" s="3">
-        <v>12125300</v>
+        <v>10029000</v>
       </c>
       <c r="G57" s="3">
-        <v>11808100</v>
+        <v>11719300</v>
       </c>
       <c r="H57" s="3">
-        <v>12786700</v>
+        <v>11412700</v>
       </c>
       <c r="I57" s="3">
-        <v>11948000</v>
+        <v>12358600</v>
       </c>
       <c r="J57" s="3">
+        <v>11547900</v>
+      </c>
+      <c r="K57" s="3">
         <v>11758900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>10074300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>10382200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>9311600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>8737600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>8288800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>8744100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>10012600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>11770300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>10845800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>11551100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>12707100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>13217100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>12028200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>11694800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>11429100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>12147200</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>11328200</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>10649200</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>10676900</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>10787700</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>8887300</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6437500</v>
+        <v>7131500</v>
       </c>
       <c r="E58" s="3">
-        <v>8541000</v>
+        <v>6222000</v>
       </c>
       <c r="F58" s="3">
-        <v>8572900</v>
+        <v>8255100</v>
       </c>
       <c r="G58" s="3">
-        <v>8912600</v>
+        <v>8285800</v>
       </c>
       <c r="H58" s="3">
-        <v>7900500</v>
+        <v>8614200</v>
       </c>
       <c r="I58" s="3">
-        <v>4754600</v>
+        <v>7636000</v>
       </c>
       <c r="J58" s="3">
+        <v>4595500</v>
+      </c>
+      <c r="K58" s="3">
         <v>5029900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5764700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5962600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5327600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5047300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>5228200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>6306000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>6143800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>6544700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>7261900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>8192800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>7845800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>7553600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>6959600</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>6294800</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>6184300</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>5829800</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>5542100</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>6488500</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>6146100</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>7075800</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>6388700</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>8662300</v>
+        <v>8108300</v>
       </c>
       <c r="E59" s="3">
-        <v>6959400</v>
+        <v>8372300</v>
       </c>
       <c r="F59" s="3">
-        <v>7895500</v>
+        <v>6726400</v>
       </c>
       <c r="G59" s="3">
-        <v>11104300</v>
+        <v>7631200</v>
       </c>
       <c r="H59" s="3">
-        <v>11019200</v>
+        <v>10732500</v>
       </c>
       <c r="I59" s="3">
-        <v>9462700</v>
+        <v>10650300</v>
       </c>
       <c r="J59" s="3">
+        <v>9145900</v>
+      </c>
+      <c r="K59" s="3">
         <v>6802800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6487000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5634600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4516000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4513900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4330200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4931400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>7640400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>6186700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>5577100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>5804100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>5781200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>6905100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>6461800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>6059700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>6783400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>6711400</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>5826600</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>5765000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>5564600</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>5821700</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>4722300</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>26106400</v>
+        <v>25969200</v>
       </c>
       <c r="E60" s="3">
-        <v>25876800</v>
+        <v>25232400</v>
       </c>
       <c r="F60" s="3">
-        <v>28593600</v>
+        <v>25010500</v>
       </c>
       <c r="G60" s="3">
-        <v>31824900</v>
+        <v>27636400</v>
       </c>
       <c r="H60" s="3">
-        <v>31706400</v>
+        <v>30759500</v>
       </c>
       <c r="I60" s="3">
-        <v>26165300</v>
+        <v>30644900</v>
       </c>
       <c r="J60" s="3">
+        <v>25289300</v>
+      </c>
+      <c r="K60" s="3">
         <v>23591600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>22326000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>21979400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>19155200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>18298800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>17847200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>19981500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>23796800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>24501800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>23684800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>25548000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>26334000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>27675800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>25449500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>24049300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>24396900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>24688500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>22697000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>22902800</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>22387600</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>23685200</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>19998200</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>28543000</v>
+        <v>26599800</v>
       </c>
       <c r="E61" s="3">
-        <v>26087600</v>
+        <v>27587400</v>
       </c>
       <c r="F61" s="3">
-        <v>26598500</v>
+        <v>25214300</v>
       </c>
       <c r="G61" s="3">
-        <v>26983800</v>
+        <v>25708000</v>
       </c>
       <c r="H61" s="3">
-        <v>27804300</v>
+        <v>26080400</v>
       </c>
       <c r="I61" s="3">
-        <v>28753500</v>
+        <v>26873500</v>
       </c>
       <c r="J61" s="3">
+        <v>27790900</v>
+      </c>
+      <c r="K61" s="3">
         <v>28115400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>27947800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>29338200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>28326800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>30052900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>32828400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>35839200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>37259400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>38486000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>38586200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>37173100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>36605000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>33965600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>33739000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>32441500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>32027200</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>34920400</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>35699100</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>37405600</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>37431100</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>38250500</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>36521200</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9324200</v>
+        <v>9602800</v>
       </c>
       <c r="E62" s="3">
-        <v>8599900</v>
+        <v>9012000</v>
       </c>
       <c r="F62" s="3">
-        <v>8300600</v>
+        <v>8312000</v>
       </c>
       <c r="G62" s="3">
-        <v>8350100</v>
+        <v>8022700</v>
       </c>
       <c r="H62" s="3">
-        <v>7856200</v>
+        <v>8070600</v>
       </c>
       <c r="I62" s="3">
-        <v>7789700</v>
+        <v>7593200</v>
       </c>
       <c r="J62" s="3">
+        <v>7528900</v>
+      </c>
+      <c r="K62" s="3">
         <v>6977600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7137200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>7774600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>7061100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>6336400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>6416800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>6975900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>7180400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>8188900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>7779100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>7906600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>8323600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>8124200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>8671300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>7800000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>7656300</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>7269000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>7278500</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>7072300</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>6802600</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>6766700</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>5977300</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5190,8 +5338,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5279,8 +5430,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5368,97 +5522,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>65452000</v>
+        <v>63631400</v>
       </c>
       <c r="E66" s="3">
-        <v>61920500</v>
+        <v>63260700</v>
       </c>
       <c r="F66" s="3">
-        <v>64911600</v>
+        <v>59847400</v>
       </c>
       <c r="G66" s="3">
-        <v>68648300</v>
+        <v>62738400</v>
       </c>
       <c r="H66" s="3">
-        <v>68808000</v>
+        <v>66350000</v>
       </c>
       <c r="I66" s="3">
-        <v>64015200</v>
+        <v>66504400</v>
       </c>
       <c r="J66" s="3">
+        <v>61872100</v>
+      </c>
+      <c r="K66" s="3">
         <v>60471700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>59233700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>60973500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>56333100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>56483400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>59007300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>64958700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>70379700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>73667400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>72465300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>73055600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>73829900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>72239100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>70300400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>66567400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>66280800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>69332300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>68053100</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>69759100</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>68909600</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>71093200</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>64647500</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5490,8 +5650,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5579,8 +5740,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5668,8 +5832,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5757,8 +5924,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5846,97 +6016,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>34204300</v>
+        <v>33804400</v>
       </c>
       <c r="E72" s="3">
-        <v>33254300</v>
+        <v>33059200</v>
       </c>
       <c r="F72" s="3">
-        <v>32320900</v>
+        <v>32141000</v>
       </c>
       <c r="G72" s="3">
-        <v>30760600</v>
+        <v>31238800</v>
       </c>
       <c r="H72" s="3">
-        <v>29869800</v>
+        <v>29730700</v>
       </c>
       <c r="I72" s="3">
-        <v>28620200</v>
+        <v>28869800</v>
       </c>
       <c r="J72" s="3">
+        <v>27662000</v>
+      </c>
+      <c r="K72" s="3">
         <v>26560900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>26825200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>26541400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>25153800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>24743600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>26163700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>28238800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>29621800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>30109600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>30037200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>28668100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>29585900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>28566200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>22079200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>25998200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>26247000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>25531600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>24759700</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>23601500</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>22619600</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>21765100</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>21151000</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6024,8 +6200,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6113,8 +6292,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6202,97 +6384,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>46607200</v>
+        <v>46888600</v>
       </c>
       <c r="E76" s="3">
-        <v>43746400</v>
+        <v>45046800</v>
       </c>
       <c r="F76" s="3">
-        <v>42047300</v>
+        <v>42281900</v>
       </c>
       <c r="G76" s="3">
-        <v>41531100</v>
+        <v>40639600</v>
       </c>
       <c r="H76" s="3">
-        <v>39646300</v>
+        <v>40140700</v>
       </c>
       <c r="I76" s="3">
-        <v>38507800</v>
+        <v>38319000</v>
       </c>
       <c r="J76" s="3">
+        <v>37218600</v>
+      </c>
+      <c r="K76" s="3">
         <v>34248700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>34165100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>35352000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>32404300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>30316100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>30647000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>33017300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>33633700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>39521800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>38703100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>38782900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>40969000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>39407500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>39762100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>36872200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>35931400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>37896800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>35850000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>34316500</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>33104400</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>32312900</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>28320500</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6380,191 +6568,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1737100</v>
+        <v>1350600</v>
       </c>
       <c r="E81" s="3">
-        <v>1991200</v>
+        <v>1678900</v>
       </c>
       <c r="F81" s="3">
-        <v>2072600</v>
+        <v>1924600</v>
       </c>
       <c r="G81" s="3">
-        <v>1814400</v>
+        <v>2003200</v>
       </c>
       <c r="H81" s="3">
-        <v>1889300</v>
+        <v>1753700</v>
       </c>
       <c r="I81" s="3">
-        <v>1933700</v>
+        <v>1826000</v>
       </c>
       <c r="J81" s="3">
+        <v>1868900</v>
+      </c>
+      <c r="K81" s="3">
         <v>1570700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1538400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1405800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>967900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>651700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>369800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>533600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>497200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>919400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1002800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1145300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>616500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1200700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>970400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1076400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>376500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>1252300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>1153100</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>1001200</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>672400</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>961100</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>539600</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6596,97 +6793,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>476200</v>
+        <v>451900</v>
       </c>
       <c r="E83" s="3">
-        <v>455900</v>
+        <v>460200</v>
       </c>
       <c r="F83" s="3">
-        <v>476000</v>
+        <v>440600</v>
       </c>
       <c r="G83" s="3">
-        <v>488000</v>
+        <v>460100</v>
       </c>
       <c r="H83" s="3">
-        <v>453400</v>
+        <v>471700</v>
       </c>
       <c r="I83" s="3">
-        <v>490200</v>
+        <v>438300</v>
       </c>
       <c r="J83" s="3">
+        <v>473800</v>
+      </c>
+      <c r="K83" s="3">
         <v>536800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>526500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>543100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>520500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>492200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>545800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>537500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>623100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>600400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>541700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>554500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>496000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>442500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>411100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>396100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>413800</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>448800</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>449300</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>429100</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>410100</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>432800</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>438700</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6774,8 +6975,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6863,8 +7067,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6952,8 +7159,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7041,8 +7251,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7130,97 +7343,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2506300</v>
+        <v>675200</v>
       </c>
       <c r="E89" s="3">
-        <v>3075300</v>
+        <v>2422400</v>
       </c>
       <c r="F89" s="3">
-        <v>1989000</v>
+        <v>2972300</v>
       </c>
       <c r="G89" s="3">
-        <v>202200</v>
+        <v>1922500</v>
       </c>
       <c r="H89" s="3">
-        <v>1930000</v>
+        <v>195400</v>
       </c>
       <c r="I89" s="3">
-        <v>3076900</v>
+        <v>1865400</v>
       </c>
       <c r="J89" s="3">
+        <v>2973900</v>
+      </c>
+      <c r="K89" s="3">
         <v>356300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>921800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1317900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1916000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>891400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1688800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1399300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1229000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>548400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1827000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1171400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>472800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1886300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>251200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1223700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1352500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>2182700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-372700</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>1833000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>1624300</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>1312000</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>298600</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7252,97 +7471,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-78404000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-63111000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-52536000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-66573000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-54756000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-54200000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-44019000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-50278000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-44762000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-341500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-275500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-358300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-357300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-700100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-669200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-792800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-579100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-566500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-717000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-868800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-680800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-616300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>707600</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-337700</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-384300</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-196300</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-458100</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-338400</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-537000</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7430,8 +7653,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7519,97 +7745,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1334500</v>
+        <v>-679000</v>
       </c>
       <c r="E94" s="3">
-        <v>-356800</v>
+        <v>-1289900</v>
       </c>
       <c r="F94" s="3">
-        <v>38500</v>
+        <v>-344900</v>
       </c>
       <c r="G94" s="3">
-        <v>-140100</v>
+        <v>37200</v>
       </c>
       <c r="H94" s="3">
-        <v>-766700</v>
+        <v>-135400</v>
       </c>
       <c r="I94" s="3">
-        <v>63200</v>
+        <v>-741100</v>
       </c>
       <c r="J94" s="3">
+        <v>61100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-286000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-405500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-680000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-98800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-618100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-901100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-925800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>186300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-718500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-156200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1012200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2595500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1897000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1369400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-914400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-579400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-717100</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-761300</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-186100</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-967700</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-474900</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-603200</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7641,97 +7873,101 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-785400</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-759100</v>
       </c>
       <c r="F96" s="3">
-        <v>-700900</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-677400</v>
       </c>
       <c r="H96" s="3">
-        <v>-659900</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-637800</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-502400</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-551900</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-492400</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-582600</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-633600</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-636800</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-656300</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-631900</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-478400</v>
       </c>
-      <c r="AA96" s="3">
-        <v>0</v>
-      </c>
       <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-478400</v>
       </c>
-      <c r="AC96" s="3">
-        <v>0</v>
-      </c>
       <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
         <v>-397500</v>
       </c>
-      <c r="AE96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7819,8 +8055,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7908,8 +8147,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7997,271 +8239,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2329600</v>
+        <v>-608600</v>
       </c>
       <c r="E100" s="3">
-        <v>-1765800</v>
+        <v>-2251600</v>
       </c>
       <c r="F100" s="3">
-        <v>-478800</v>
+        <v>-1706700</v>
       </c>
       <c r="G100" s="3">
-        <v>-1224000</v>
+        <v>-462800</v>
       </c>
       <c r="H100" s="3">
-        <v>-891700</v>
+        <v>-1183000</v>
       </c>
       <c r="I100" s="3">
-        <v>-1489300</v>
+        <v>-861800</v>
       </c>
       <c r="J100" s="3">
+        <v>-1439500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-322200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1286200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1266100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1451100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1099300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-343300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-752700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-130100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1862200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-68800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>202500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>2126800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-385900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>482800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-954700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-1145700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-1020400</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-2791000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-939700</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-1316100</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-841900</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>217200</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>410300</v>
+        <v>54700</v>
       </c>
       <c r="E101" s="3">
-        <v>38700</v>
+        <v>396500</v>
       </c>
       <c r="F101" s="3">
-        <v>-317500</v>
+        <v>37400</v>
       </c>
       <c r="G101" s="3">
-        <v>114000</v>
+        <v>-306900</v>
       </c>
       <c r="H101" s="3">
-        <v>355400</v>
+        <v>110200</v>
       </c>
       <c r="I101" s="3">
-        <v>319100</v>
+        <v>343500</v>
       </c>
       <c r="J101" s="3">
+        <v>308400</v>
+      </c>
+      <c r="K101" s="3">
         <v>120700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-61400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-15900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>233800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-59100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>6600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>131300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-293800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>148200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-82300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-72700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>23700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-142100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>124000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>45000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-335900</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>3300</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>100100</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>10700</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-65200</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>603600</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>-59700</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-747600</v>
+        <v>-557900</v>
       </c>
       <c r="E102" s="3">
+        <v>-722600</v>
+      </c>
+      <c r="F102" s="3">
+        <v>958200</v>
+      </c>
+      <c r="G102" s="3">
+        <v>1189900</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-1012800</v>
+      </c>
+      <c r="I102" s="3">
+        <v>606000</v>
+      </c>
+      <c r="J102" s="3">
+        <v>1903900</v>
+      </c>
+      <c r="K102" s="3">
+        <v>-131200</v>
+      </c>
+      <c r="L102" s="3">
+        <v>-831200</v>
+      </c>
+      <c r="M102" s="3">
+        <v>-644100</v>
+      </c>
+      <c r="N102" s="3">
+        <v>600000</v>
+      </c>
+      <c r="O102" s="3">
+        <v>-885100</v>
+      </c>
+      <c r="P102" s="3">
+        <v>451000</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>-148000</v>
+      </c>
+      <c r="R102" s="3">
         <v>991400</v>
       </c>
-      <c r="F102" s="3">
-        <v>1231200</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-1047800</v>
-      </c>
-      <c r="H102" s="3">
-        <v>627000</v>
-      </c>
-      <c r="I102" s="3">
-        <v>1969800</v>
-      </c>
-      <c r="J102" s="3">
-        <v>-131200</v>
-      </c>
-      <c r="K102" s="3">
-        <v>-831200</v>
-      </c>
-      <c r="L102" s="3">
-        <v>-644100</v>
-      </c>
-      <c r="M102" s="3">
-        <v>600000</v>
-      </c>
-      <c r="N102" s="3">
-        <v>-885100</v>
-      </c>
-      <c r="O102" s="3">
-        <v>451000</v>
-      </c>
-      <c r="P102" s="3">
-        <v>-148000</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>991400</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1884100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1519700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>289000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>27700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-404700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-643100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-600500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-708500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>448600</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-3824900</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>717900</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-724700</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>598900</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>-147200</v>
       </c>
     </row>
